--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$81:$C$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$92:$C$96</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B73" authorId="2">
+    <comment ref="B84" authorId="2">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B74" authorId="1">
+    <comment ref="B85" authorId="1">
       <text>
         <r>
           <rPr>
@@ -283,10 +283,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -314,8 +314,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,22 +330,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,6 +338,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,6 +366,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -383,7 +399,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,62 +457,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,13 +503,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,169 +701,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,11 +721,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,8 +739,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,21 +756,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,17 +784,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -794,6 +798,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -802,10 +826,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -814,137 +838,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -976,6 +1000,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1329,10 +1365,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:H78"/>
+  <dimension ref="A3:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2444,139 +2480,340 @@
       </c>
     </row>
     <row r="69" spans="2:8">
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="7"/>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="7"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="6" t="s">
+      <c r="B69" s="12">
+        <v>100701</v>
+      </c>
+      <c r="C69" s="12">
+        <v>2001</v>
+      </c>
+      <c r="D69" s="12">
+        <v>1</v>
+      </c>
+      <c r="E69" s="12">
+        <v>3</v>
+      </c>
+      <c r="F69" s="12">
+        <v>3</v>
+      </c>
+      <c r="G69" s="12">
+        <v>1</v>
+      </c>
+      <c r="H69" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="12">
+        <v>100702</v>
+      </c>
+      <c r="C70" s="12">
+        <v>2002</v>
+      </c>
+      <c r="D70" s="12">
+        <v>1</v>
+      </c>
+      <c r="E70" s="12">
+        <v>3</v>
+      </c>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="12">
+        <v>100703</v>
+      </c>
+      <c r="C71" s="12">
+        <v>2003</v>
+      </c>
+      <c r="D71" s="12">
+        <v>1</v>
+      </c>
+      <c r="E71" s="12">
+        <v>3</v>
+      </c>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="13">
+        <v>100801</v>
+      </c>
+      <c r="C72" s="13">
+        <v>2001</v>
+      </c>
+      <c r="D72" s="13">
+        <v>5</v>
+      </c>
+      <c r="E72" s="13">
+        <v>15</v>
+      </c>
+      <c r="F72" s="13">
+        <v>3</v>
+      </c>
+      <c r="G72" s="13">
+        <v>1</v>
+      </c>
+      <c r="H72" s="13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="13">
+        <v>100802</v>
+      </c>
+      <c r="C73" s="13">
+        <v>2002</v>
+      </c>
+      <c r="D73" s="13">
+        <v>5</v>
+      </c>
+      <c r="E73" s="13">
+        <v>15</v>
+      </c>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="13">
+        <v>100803</v>
+      </c>
+      <c r="C74" s="13">
+        <v>2003</v>
+      </c>
+      <c r="D74" s="13">
+        <v>5</v>
+      </c>
+      <c r="E74" s="13">
+        <v>15</v>
+      </c>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="14">
+        <v>100901</v>
+      </c>
+      <c r="C75" s="14">
+        <v>2001</v>
+      </c>
+      <c r="D75" s="14">
+        <v>10</v>
+      </c>
+      <c r="E75" s="14">
+        <v>30</v>
+      </c>
+      <c r="F75" s="14">
+        <v>3</v>
+      </c>
+      <c r="G75" s="14">
+        <v>1</v>
+      </c>
+      <c r="H75" s="14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="14">
+        <v>100902</v>
+      </c>
+      <c r="C76" s="14">
+        <v>2002</v>
+      </c>
+      <c r="D76" s="14">
+        <v>10</v>
+      </c>
+      <c r="E76" s="14">
+        <v>30</v>
+      </c>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="14">
+        <v>100903</v>
+      </c>
+      <c r="C77" s="14">
+        <v>2003</v>
+      </c>
+      <c r="D77" s="14">
+        <v>10</v>
+      </c>
+      <c r="E77" s="14">
+        <v>30</v>
+      </c>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="7"/>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="7"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B84" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C84" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D84" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E84" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="F84" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G73" s="6" t="s">
+      <c r="G84" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="6" t="s">
+    <row r="85" spans="1:7">
+      <c r="A85" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B85" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C85" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D85" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E85" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="F85" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="G85" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="2:7">
-      <c r="B75" s="6" t="s">
+    <row r="86" spans="2:7">
+      <c r="B86" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C86" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D86" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E86" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F75" s="6" t="s">
+      <c r="F86" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G75" s="6" t="s">
+      <c r="G86" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="2:7">
-      <c r="B76" s="7">
+    <row r="87" spans="2:7">
+      <c r="B87" s="7">
         <v>401101</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C87" s="5">
         <v>322000001</v>
       </c>
-      <c r="D76" s="7">
-        <v>1</v>
-      </c>
-      <c r="E76" s="7">
-        <v>1</v>
-      </c>
-      <c r="F76" s="7">
+      <c r="D87" s="7">
+        <v>1</v>
+      </c>
+      <c r="E87" s="7">
+        <v>1</v>
+      </c>
+      <c r="F87" s="7">
         <v>5</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G87" s="7">
         <v>1250</v>
       </c>
     </row>
-    <row r="77" spans="2:7">
-      <c r="B77" s="7">
+    <row r="88" spans="2:7">
+      <c r="B88" s="7">
         <v>401102</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C88" s="7">
         <v>410101</v>
       </c>
-      <c r="D77" s="7">
-        <v>1</v>
-      </c>
-      <c r="E77" s="7">
-        <v>1</v>
-      </c>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7">
+      <c r="D88" s="7">
+        <v>1</v>
+      </c>
+      <c r="E88" s="7">
+        <v>1</v>
+      </c>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7">
         <v>3000</v>
       </c>
     </row>
-    <row r="78" spans="2:7">
-      <c r="B78" s="7">
+    <row r="89" spans="2:7">
+      <c r="B89" s="7">
         <v>401103</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C89" s="7">
         <v>310101</v>
       </c>
-      <c r="D78" s="7">
-        <v>1</v>
-      </c>
-      <c r="E78" s="7">
-        <v>1</v>
-      </c>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7">
+      <c r="D89" s="7">
+        <v>1</v>
+      </c>
+      <c r="E89" s="7">
+        <v>1</v>
+      </c>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7">
         <v>1250</v>
       </c>
     </row>

--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$92:$C$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$99:$C$103</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B84" authorId="2">
+    <comment ref="B91" authorId="2">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B85" authorId="1">
+    <comment ref="B92" authorId="1">
       <text>
         <r>
           <rPr>
@@ -283,10 +283,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -314,14 +314,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -329,22 +321,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,15 +346,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,17 +367,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,7 +398,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,29 +457,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="43">
     <fill>
@@ -527,25 +527,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,25 +683,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,127 +707,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,69 +718,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -803,7 +740,61 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,6 +809,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -826,10 +826,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -838,137 +838,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1012,9 +1012,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1365,10 +1362,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:H89"/>
+  <dimension ref="A3:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84:B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2663,157 +2660,322 @@
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
+      <c r="B78" s="12">
+        <v>101001</v>
+      </c>
+      <c r="C78" s="12">
+        <v>2001</v>
+      </c>
+      <c r="D78" s="12">
+        <v>1</v>
+      </c>
+      <c r="E78" s="12">
+        <v>3</v>
+      </c>
+      <c r="F78" s="12">
+        <v>3</v>
+      </c>
+      <c r="G78" s="12">
+        <v>1</v>
+      </c>
+      <c r="H78" s="12">
+        <v>70</v>
+      </c>
     </row>
     <row r="79" spans="2:8">
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
+      <c r="B79" s="12">
+        <v>101002</v>
+      </c>
+      <c r="C79" s="12">
+        <v>2002</v>
+      </c>
+      <c r="D79" s="12">
+        <v>1</v>
+      </c>
+      <c r="E79" s="12">
+        <v>3</v>
+      </c>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12">
+        <v>20</v>
+      </c>
     </row>
     <row r="80" spans="2:8">
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="7"/>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="7"/>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="6" t="s">
+      <c r="B80" s="12">
+        <v>101003</v>
+      </c>
+      <c r="C80" s="12">
+        <v>2003</v>
+      </c>
+      <c r="D80" s="12">
+        <v>1</v>
+      </c>
+      <c r="E80" s="12">
+        <v>3</v>
+      </c>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="13">
+        <v>101101</v>
+      </c>
+      <c r="C81" s="13">
+        <v>2001</v>
+      </c>
+      <c r="D81" s="13">
+        <v>5</v>
+      </c>
+      <c r="E81" s="13">
+        <v>15</v>
+      </c>
+      <c r="F81" s="13">
+        <v>3</v>
+      </c>
+      <c r="G81" s="13">
+        <v>1</v>
+      </c>
+      <c r="H81" s="13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="13">
+        <v>101102</v>
+      </c>
+      <c r="C82" s="13">
+        <v>2002</v>
+      </c>
+      <c r="D82" s="13">
+        <v>5</v>
+      </c>
+      <c r="E82" s="13">
+        <v>15</v>
+      </c>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="13">
+        <v>101103</v>
+      </c>
+      <c r="C83" s="13">
+        <v>2003</v>
+      </c>
+      <c r="D83" s="13">
+        <v>5</v>
+      </c>
+      <c r="E83" s="13">
+        <v>15</v>
+      </c>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="14">
+        <v>101201</v>
+      </c>
+      <c r="C84" s="14">
+        <v>2001</v>
+      </c>
+      <c r="D84" s="14">
+        <v>10</v>
+      </c>
+      <c r="E84" s="14">
+        <v>30</v>
+      </c>
+      <c r="F84" s="14">
+        <v>3</v>
+      </c>
+      <c r="G84" s="14">
+        <v>1</v>
+      </c>
+      <c r="H84" s="14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" s="14">
+        <v>101202</v>
+      </c>
+      <c r="C85" s="14">
+        <v>2002</v>
+      </c>
+      <c r="D85" s="14">
+        <v>10</v>
+      </c>
+      <c r="E85" s="14">
+        <v>30</v>
+      </c>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="14">
+        <v>101203</v>
+      </c>
+      <c r="C86" s="14">
+        <v>2003</v>
+      </c>
+      <c r="D86" s="14">
+        <v>10</v>
+      </c>
+      <c r="E86" s="14">
+        <v>30</v>
+      </c>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="7"/>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="7"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B91" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C91" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D91" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E91" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F84" s="6" t="s">
+      <c r="F91" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G84" s="6" t="s">
+      <c r="G91" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="6" t="s">
+    <row r="92" spans="1:7">
+      <c r="A92" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B92" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C92" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D92" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="E92" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F85" s="6" t="s">
+      <c r="F92" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G85" s="6" t="s">
+      <c r="G92" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="2:7">
-      <c r="B86" s="6" t="s">
+    <row r="93" spans="2:7">
+      <c r="B93" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C93" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D93" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="E93" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F86" s="6" t="s">
+      <c r="F93" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G86" s="6" t="s">
+      <c r="G93" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="2:7">
-      <c r="B87" s="7">
+    <row r="94" spans="2:7">
+      <c r="B94" s="7">
         <v>401101</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C94" s="5">
         <v>322000001</v>
       </c>
-      <c r="D87" s="7">
-        <v>1</v>
-      </c>
-      <c r="E87" s="7">
-        <v>1</v>
-      </c>
-      <c r="F87" s="7">
+      <c r="D94" s="7">
+        <v>1</v>
+      </c>
+      <c r="E94" s="7">
+        <v>1</v>
+      </c>
+      <c r="F94" s="7">
         <v>5</v>
       </c>
-      <c r="G87" s="7">
+      <c r="G94" s="7">
         <v>1250</v>
       </c>
     </row>
-    <row r="88" spans="2:7">
-      <c r="B88" s="7">
+    <row r="95" spans="2:7">
+      <c r="B95" s="7">
         <v>401102</v>
       </c>
-      <c r="C88" s="7">
+      <c r="C95" s="7">
         <v>410101</v>
       </c>
-      <c r="D88" s="7">
-        <v>1</v>
-      </c>
-      <c r="E88" s="7">
-        <v>1</v>
-      </c>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7">
+      <c r="D95" s="7">
+        <v>1</v>
+      </c>
+      <c r="E95" s="7">
+        <v>1</v>
+      </c>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7">
         <v>3000</v>
       </c>
     </row>
-    <row r="89" spans="2:7">
-      <c r="B89" s="7">
+    <row r="96" spans="2:7">
+      <c r="B96" s="7">
         <v>401103</v>
       </c>
-      <c r="C89" s="7">
+      <c r="C96" s="7">
         <v>310101</v>
       </c>
-      <c r="D89" s="7">
-        <v>1</v>
-      </c>
-      <c r="E89" s="7">
-        <v>1</v>
-      </c>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7">
+      <c r="D96" s="7">
+        <v>1</v>
+      </c>
+      <c r="E96" s="7">
+        <v>1</v>
+      </c>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7">
         <v>1250</v>
       </c>
     </row>

--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -283,10 +283,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -314,8 +314,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,46 +345,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,23 +368,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,6 +384,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,17 +404,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,7 +421,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,25 +527,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,151 +707,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,6 +718,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -740,7 +764,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,7 +772,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -769,21 +804,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -798,26 +818,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -826,10 +826,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -838,133 +838,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1364,8 +1364,8 @@
   <sheetPr/>
   <dimension ref="A3:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84:B86"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,12 +94,35 @@
         </r>
       </text>
     </comment>
+    <comment ref="B101" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yineng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+#[primary=true]
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
   <si>
     <t>挖矿暴击权重配置表</t>
   </si>
@@ -276,6 +299,45 @@
   </si>
   <si>
     <t>rate</t>
+  </si>
+  <si>
+    <t>奖券兑换配置表(虚拟物品)</t>
+  </si>
+  <si>
+    <t>奖励id5xxxxx</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>所需奖券数量(银券，金券，彩券)</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>$TicketConvertCfg</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>[u32</t>
+  </si>
+  <si>
+    <t>u32]</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>测试物品</t>
+  </si>
+  <si>
+    <t>测试物品2</t>
   </si>
 </sst>
 </file>
@@ -283,8 +345,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -315,15 +377,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,88 +427,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -438,6 +438,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,6 +472,53 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="43">
     <fill>
@@ -527,79 +589,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,103 +763,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,6 +780,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -740,7 +817,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,38 +825,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,6 +848,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -810,11 +866,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,10 +888,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -838,133 +900,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1362,10 +1424,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:H96"/>
+  <dimension ref="A3:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84:B86"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1373,10 +1435,12 @@
     <col min="1" max="1" width="29.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="16383" width="9" style="1"/>
+    <col min="4" max="4" width="38.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.75" style="1" customWidth="1"/>
+    <col min="9" max="16383" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6">
@@ -2979,6 +3043,104 @@
         <v>1250</v>
       </c>
     </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="B103" s="1">
+        <v>500001</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0</v>
+      </c>
+      <c r="E103" s="1">
+        <v>3</v>
+      </c>
+      <c r="F103" s="1">
+        <v>3</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="B104" s="1">
+        <v>500002</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1</v>
+      </c>
+      <c r="D104" s="1">
+        <v>3</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0</v>
+      </c>
+      <c r="F104" s="1">
+        <v>1</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -117,12 +117,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="B108" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yineng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+#[primary=true]</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
   <si>
     <t>挖矿暴击权重配置表</t>
   </si>
@@ -338,6 +360,51 @@
   </si>
   <si>
     <t>测试物品2</t>
+  </si>
+  <si>
+    <t>固定奖励配置表</t>
+  </si>
+  <si>
+    <t>奖励id6xxxxx</t>
+  </si>
+  <si>
+    <t>$RegularAwardCfg</t>
+  </si>
+  <si>
+    <t>新人奖励</t>
+  </si>
+  <si>
+    <t>连续登陆1/3/4/6/8/即获得铜锄头一把</t>
+  </si>
+  <si>
+    <t>连续登陆2/5/9/11/13天获得银锄头一把</t>
+  </si>
+  <si>
+    <t>连续登陆7/10/12/14/15天获得金锄头一把</t>
+  </si>
+  <si>
+    <t>邀请成功第1,2,4,5,7,8,10,11位好友获得铜锄头一把</t>
+  </si>
+  <si>
+    <t>邀请成功第3位好友获得银锄头一把</t>
+  </si>
+  <si>
+    <t>邀请成功第6位好友获得金锄头一把</t>
+  </si>
+  <si>
+    <t>邀请成功第9位好友获得两把铜锄头</t>
+  </si>
+  <si>
+    <t>邀请成功第12位好友获得两把银锄头</t>
+  </si>
+  <si>
+    <t>邀请成功第15位好友获得两把金锄头</t>
+  </si>
+  <si>
+    <t>超过15位的部分依次给铜、银、金，循环</t>
+  </si>
+  <si>
+    <t>首次挖开矿山奖励</t>
   </si>
 </sst>
 </file>
@@ -345,12 +412,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,10 +444,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FF24292E"/>
+      <name val="黑体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -397,10 +463,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -411,48 +478,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,7 +495,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,18 +516,18 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -513,12 +548,50 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="43">
     <fill>
@@ -589,187 +662,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,6 +853,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -794,21 +876,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,20 +915,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,10 +961,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -900,137 +973,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1074,6 +1147,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1424,20 +1500,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:H104"/>
+  <dimension ref="A3:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="29.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.75" style="1" customWidth="1"/>
     <col min="9" max="16383" width="9" style="1"/>
@@ -3141,6 +3217,316 @@
         <v>71</v>
       </c>
     </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="B109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="B110" s="1">
+        <v>600101</v>
+      </c>
+      <c r="C110" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D110" s="1">
+        <v>2</v>
+      </c>
+      <c r="E110" s="1">
+        <v>2</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6">
+      <c r="B111" s="1">
+        <v>600102</v>
+      </c>
+      <c r="C111" s="1">
+        <v>7002</v>
+      </c>
+      <c r="D111" s="1">
+        <v>2</v>
+      </c>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6">
+      <c r="B112" s="1">
+        <v>600201</v>
+      </c>
+      <c r="C112" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D112" s="1">
+        <v>1</v>
+      </c>
+      <c r="E112" s="15">
+        <v>1</v>
+      </c>
+      <c r="F112" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6">
+      <c r="B113" s="1">
+        <v>600202</v>
+      </c>
+      <c r="C113" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D113" s="1">
+        <v>1</v>
+      </c>
+      <c r="E113" s="1">
+        <v>1</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6">
+      <c r="B114" s="1">
+        <v>600203</v>
+      </c>
+      <c r="C114" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D114" s="1">
+        <v>1</v>
+      </c>
+      <c r="E114" s="1">
+        <v>1</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6">
+      <c r="B115" s="1">
+        <v>600301</v>
+      </c>
+      <c r="C115" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D115" s="1">
+        <v>1</v>
+      </c>
+      <c r="E115" s="15">
+        <v>1</v>
+      </c>
+      <c r="F115" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6">
+      <c r="B116" s="1">
+        <v>600302</v>
+      </c>
+      <c r="C116" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D116" s="1">
+        <v>1</v>
+      </c>
+      <c r="E116" s="15">
+        <v>1</v>
+      </c>
+      <c r="F116" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6">
+      <c r="B117" s="1">
+        <v>600303</v>
+      </c>
+      <c r="C117" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D117" s="1">
+        <v>1</v>
+      </c>
+      <c r="E117" s="15">
+        <v>1</v>
+      </c>
+      <c r="F117" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6">
+      <c r="B118" s="1">
+        <v>600304</v>
+      </c>
+      <c r="C118" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D118" s="1">
+        <v>2</v>
+      </c>
+      <c r="E118" s="15">
+        <v>1</v>
+      </c>
+      <c r="F118" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6">
+      <c r="B119" s="1">
+        <v>600305</v>
+      </c>
+      <c r="C119" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D119" s="1">
+        <v>2</v>
+      </c>
+      <c r="E119" s="15">
+        <v>1</v>
+      </c>
+      <c r="F119" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6">
+      <c r="B120" s="1">
+        <v>600306</v>
+      </c>
+      <c r="C120" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D120" s="1">
+        <v>2</v>
+      </c>
+      <c r="E120" s="15">
+        <v>1</v>
+      </c>
+      <c r="F120" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6">
+      <c r="B121" s="1">
+        <v>600307</v>
+      </c>
+      <c r="C121" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D121" s="1">
+        <v>1</v>
+      </c>
+      <c r="E121" s="15">
+        <v>1</v>
+      </c>
+      <c r="F121" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6">
+      <c r="B122" s="1">
+        <v>600308</v>
+      </c>
+      <c r="C122" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D122" s="1">
+        <v>1</v>
+      </c>
+      <c r="E122" s="15">
+        <v>1</v>
+      </c>
+      <c r="F122" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6">
+      <c r="B123" s="1">
+        <v>600309</v>
+      </c>
+      <c r="C123" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D123" s="1">
+        <v>1</v>
+      </c>
+      <c r="E123" s="15">
+        <v>1</v>
+      </c>
+      <c r="F123" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="124" s="1" customFormat="1" spans="2:6">
+      <c r="B124" s="1">
+        <v>600401</v>
+      </c>
+      <c r="C124" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D124" s="1">
+        <v>1</v>
+      </c>
+      <c r="E124" s="1">
+        <v>1</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -412,10 +412,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -450,12 +450,96 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -472,14 +556,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -495,45 +571,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,37 +579,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,14 +592,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="43">
     <fill>
@@ -662,187 +662,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,74 +853,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -953,6 +885,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -961,10 +961,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -973,133 +973,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1502,7 +1502,7 @@
   <sheetPr/>
   <dimension ref="A3:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
       <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
@@ -3301,7 +3301,6 @@
       <c r="D111" s="1">
         <v>2</v>
       </c>
-      <c r="E111" s="1"/>
       <c r="F111" s="1" t="s">
         <v>75</v>
       </c>

--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -139,12 +139,56 @@
         </r>
       </text>
     </comment>
+    <comment ref="B118" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yineng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+#[primary=true]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B138" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yineng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+#[primary=true]</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
   <si>
     <t>挖矿暴击权重配置表</t>
   </si>
@@ -374,6 +418,21 @@
     <t>新人奖励</t>
   </si>
   <si>
+    <t>首次挖开矿山奖励</t>
+  </si>
+  <si>
+    <t>连续登陆奖励配置表</t>
+  </si>
+  <si>
+    <t>连续登陆天数</t>
+  </si>
+  <si>
+    <t>$SeriesLoginAwardCfg</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
     <t>连续登陆1/3/4/6/8/即获得铜锄头一把</t>
   </si>
   <si>
@@ -383,6 +442,15 @@
     <t>连续登陆7/10/12/14/15天获得金锄头一把</t>
   </si>
   <si>
+    <t>邀请好友奖励配置表</t>
+  </si>
+  <si>
+    <t>邀请人数</t>
+  </si>
+  <si>
+    <t>$InviteAwardCfg</t>
+  </si>
+  <si>
     <t>邀请成功第1,2,4,5,7,8,10,11位好友获得铜锄头一把</t>
   </si>
   <si>
@@ -402,9 +470,6 @@
   </si>
   <si>
     <t>超过15位的部分依次给铜、银、金，循环</t>
-  </si>
-  <si>
-    <t>首次挖开矿山奖励</t>
   </si>
 </sst>
 </file>
@@ -412,10 +477,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -450,29 +515,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,6 +552,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -495,7 +568,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,8 +595,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,6 +613,29 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -531,52 +650,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -584,14 +657,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="43">
     <fill>
@@ -662,19 +727,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,163 +907,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,8 +924,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,6 +945,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -891,9 +971,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,41 +1012,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,10 +1026,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -973,133 +1038,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1500,10 +1565,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:H124"/>
+  <dimension ref="A3:H157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3301,218 +3366,155 @@
       <c r="D111" s="1">
         <v>2</v>
       </c>
-      <c r="E111" s="1"/>
       <c r="F111" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="112" spans="2:6">
       <c r="B112" s="1">
-        <v>600201</v>
+        <v>600401</v>
       </c>
       <c r="C112" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D112" s="1">
         <v>1</v>
       </c>
-      <c r="E112" s="15">
-        <v>1</v>
-      </c>
-      <c r="F112" s="15" t="s">
+      <c r="E112" s="1">
+        <v>1</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="113" spans="2:6">
-      <c r="B113" s="1">
-        <v>600202</v>
-      </c>
-      <c r="C113" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D113" s="1">
-        <v>1</v>
-      </c>
-      <c r="E113" s="1">
-        <v>1</v>
-      </c>
-      <c r="F113" s="1" t="s">
+    <row r="117" spans="1:6">
+      <c r="A117" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="114" spans="2:6">
-      <c r="B114" s="1">
-        <v>600203</v>
-      </c>
-      <c r="C114" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D114" s="1">
-        <v>1</v>
-      </c>
-      <c r="E114" s="1">
-        <v>1</v>
-      </c>
-      <c r="F114" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="115" spans="2:6">
-      <c r="B115" s="1">
-        <v>600301</v>
-      </c>
-      <c r="C115" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D115" s="1">
-        <v>1</v>
-      </c>
-      <c r="E115" s="15">
-        <v>1</v>
-      </c>
-      <c r="F115" s="15" t="s">
+      <c r="C117" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="116" spans="2:6">
-      <c r="B116" s="1">
-        <v>600302</v>
-      </c>
-      <c r="C116" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D116" s="1">
-        <v>1</v>
-      </c>
-      <c r="E116" s="15">
-        <v>1</v>
-      </c>
-      <c r="F116" s="15" t="s">
+      <c r="B118" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="117" spans="2:6">
-      <c r="B117" s="1">
-        <v>600303</v>
-      </c>
-      <c r="C117" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D117" s="1">
-        <v>1</v>
-      </c>
-      <c r="E117" s="15">
-        <v>1</v>
-      </c>
-      <c r="F117" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="118" spans="2:6">
-      <c r="B118" s="1">
-        <v>600304</v>
-      </c>
-      <c r="C118" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D118" s="1">
-        <v>2</v>
-      </c>
-      <c r="E118" s="15">
-        <v>1</v>
-      </c>
-      <c r="F118" s="15" t="s">
-        <v>82</v>
+      <c r="C118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="119" spans="2:6">
-      <c r="B119" s="1">
-        <v>600305</v>
-      </c>
-      <c r="C119" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D119" s="1">
-        <v>2</v>
-      </c>
-      <c r="E119" s="15">
-        <v>1</v>
-      </c>
-      <c r="F119" s="15" t="s">
-        <v>83</v>
+      <c r="B119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="120" spans="2:6">
       <c r="B120" s="1">
-        <v>600306</v>
+        <v>1</v>
       </c>
       <c r="C120" s="1">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D120" s="1">
-        <v>2</v>
-      </c>
-      <c r="E120" s="15">
+        <v>1</v>
+      </c>
+      <c r="E120" s="1">
         <v>1</v>
       </c>
       <c r="F120" s="15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="121" spans="2:6">
       <c r="B121" s="1">
-        <v>600307</v>
+        <v>2</v>
       </c>
       <c r="C121" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D121" s="1">
         <v>1</v>
       </c>
-      <c r="E121" s="15">
-        <v>1</v>
-      </c>
-      <c r="F121" s="15" t="s">
-        <v>85</v>
+      <c r="E121" s="1">
+        <v>1</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="122" spans="2:6">
       <c r="B122" s="1">
-        <v>600308</v>
+        <v>3</v>
       </c>
       <c r="C122" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D122" s="1">
         <v>1</v>
       </c>
-      <c r="E122" s="15">
+      <c r="E122" s="1">
         <v>1</v>
       </c>
       <c r="F122" s="15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="123" spans="2:6">
       <c r="B123" s="1">
-        <v>600309</v>
+        <v>4</v>
       </c>
       <c r="C123" s="1">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D123" s="1">
         <v>1</v>
       </c>
-      <c r="E123" s="15">
+      <c r="E123" s="1">
         <v>1</v>
       </c>
       <c r="F123" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="124" s="1" customFormat="1" spans="2:6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6">
       <c r="B124" s="1">
-        <v>600401</v>
+        <v>5</v>
       </c>
       <c r="C124" s="1">
         <v>2002</v>
@@ -3524,7 +3526,540 @@
         <v>1</v>
       </c>
       <c r="F124" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6">
+      <c r="B125" s="1">
+        <v>6</v>
+      </c>
+      <c r="C125" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D125" s="1">
+        <v>1</v>
+      </c>
+      <c r="E125" s="1">
+        <v>1</v>
+      </c>
+      <c r="F125" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6">
+      <c r="B126" s="1">
+        <v>7</v>
+      </c>
+      <c r="C126" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D126" s="1">
+        <v>1</v>
+      </c>
+      <c r="E126" s="1">
+        <v>1</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6">
+      <c r="B127" s="1">
+        <v>8</v>
+      </c>
+      <c r="C127" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D127" s="1">
+        <v>1</v>
+      </c>
+      <c r="E127" s="1">
+        <v>1</v>
+      </c>
+      <c r="F127" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6">
+      <c r="B128" s="1">
+        <v>9</v>
+      </c>
+      <c r="C128" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D128" s="1">
+        <v>1</v>
+      </c>
+      <c r="E128" s="1">
+        <v>1</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6">
+      <c r="B129" s="1">
+        <v>10</v>
+      </c>
+      <c r="C129" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D129" s="1">
+        <v>1</v>
+      </c>
+      <c r="E129" s="1">
+        <v>1</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6">
+      <c r="B130" s="1">
+        <v>11</v>
+      </c>
+      <c r="C130" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D130" s="1">
+        <v>1</v>
+      </c>
+      <c r="E130" s="1">
+        <v>1</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6">
+      <c r="B131" s="1">
+        <v>12</v>
+      </c>
+      <c r="C131" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D131" s="1">
+        <v>1</v>
+      </c>
+      <c r="E131" s="1">
+        <v>1</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6">
+      <c r="B132" s="1">
+        <v>13</v>
+      </c>
+      <c r="C132" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D132" s="1">
+        <v>1</v>
+      </c>
+      <c r="E132" s="1">
+        <v>1</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6">
+      <c r="B133" s="1">
+        <v>14</v>
+      </c>
+      <c r="C133" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D133" s="1">
+        <v>1</v>
+      </c>
+      <c r="E133" s="1">
+        <v>1</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6">
+      <c r="B134" s="1">
+        <v>15</v>
+      </c>
+      <c r="C134" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D134" s="1">
+        <v>1</v>
+      </c>
+      <c r="E134" s="1">
+        <v>1</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1" t="s">
         <v>86</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6">
+      <c r="B139" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6">
+      <c r="B140" s="1">
+        <v>1</v>
+      </c>
+      <c r="C140" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D140" s="1">
+        <v>1</v>
+      </c>
+      <c r="E140" s="1">
+        <v>1</v>
+      </c>
+      <c r="F140" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6">
+      <c r="B141" s="1">
+        <v>2</v>
+      </c>
+      <c r="C141" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D141" s="1">
+        <v>1</v>
+      </c>
+      <c r="E141" s="1">
+        <v>1</v>
+      </c>
+      <c r="F141" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6">
+      <c r="B142" s="1">
+        <v>3</v>
+      </c>
+      <c r="C142" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D142" s="1">
+        <v>1</v>
+      </c>
+      <c r="E142" s="1">
+        <v>1</v>
+      </c>
+      <c r="F142" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6">
+      <c r="B143" s="1">
+        <v>4</v>
+      </c>
+      <c r="C143" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D143" s="1">
+        <v>1</v>
+      </c>
+      <c r="E143" s="1">
+        <v>1</v>
+      </c>
+      <c r="F143" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6">
+      <c r="B144" s="1">
+        <v>5</v>
+      </c>
+      <c r="C144" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D144" s="1">
+        <v>1</v>
+      </c>
+      <c r="E144" s="1">
+        <v>1</v>
+      </c>
+      <c r="F144" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6">
+      <c r="B145" s="1">
+        <v>6</v>
+      </c>
+      <c r="C145" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D145" s="1">
+        <v>1</v>
+      </c>
+      <c r="E145" s="1">
+        <v>1</v>
+      </c>
+      <c r="F145" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6">
+      <c r="B146" s="1">
+        <v>7</v>
+      </c>
+      <c r="C146" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D146" s="1">
+        <v>1</v>
+      </c>
+      <c r="E146" s="1">
+        <v>1</v>
+      </c>
+      <c r="F146" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6">
+      <c r="B147" s="1">
+        <v>8</v>
+      </c>
+      <c r="C147" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D147" s="1">
+        <v>1</v>
+      </c>
+      <c r="E147" s="1">
+        <v>1</v>
+      </c>
+      <c r="F147" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6">
+      <c r="B148" s="1">
+        <v>9</v>
+      </c>
+      <c r="C148" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D148" s="1">
+        <v>2</v>
+      </c>
+      <c r="E148" s="1">
+        <v>1</v>
+      </c>
+      <c r="F148" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6">
+      <c r="B149" s="1">
+        <v>10</v>
+      </c>
+      <c r="C149" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D149" s="1">
+        <v>1</v>
+      </c>
+      <c r="E149" s="1">
+        <v>1</v>
+      </c>
+      <c r="F149" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6">
+      <c r="B150" s="1">
+        <v>11</v>
+      </c>
+      <c r="C150" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D150" s="1">
+        <v>1</v>
+      </c>
+      <c r="E150" s="1">
+        <v>1</v>
+      </c>
+      <c r="F150" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6">
+      <c r="B151" s="1">
+        <v>12</v>
+      </c>
+      <c r="C151" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D151" s="1">
+        <v>2</v>
+      </c>
+      <c r="E151" s="1">
+        <v>1</v>
+      </c>
+      <c r="F151" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6">
+      <c r="B152" s="1">
+        <v>13</v>
+      </c>
+      <c r="C152" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D152" s="1">
+        <v>1</v>
+      </c>
+      <c r="E152" s="1">
+        <v>1</v>
+      </c>
+      <c r="F152" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6">
+      <c r="B153" s="1">
+        <v>14</v>
+      </c>
+      <c r="C153" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D153" s="1">
+        <v>1</v>
+      </c>
+      <c r="E153" s="1">
+        <v>1</v>
+      </c>
+      <c r="F153" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6">
+      <c r="B154" s="1">
+        <v>15</v>
+      </c>
+      <c r="C154" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D154" s="1">
+        <v>2</v>
+      </c>
+      <c r="E154" s="1">
+        <v>1</v>
+      </c>
+      <c r="F154" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6">
+      <c r="B155" s="1">
+        <v>16</v>
+      </c>
+      <c r="C155" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D155" s="1">
+        <v>1</v>
+      </c>
+      <c r="E155" s="1">
+        <v>1</v>
+      </c>
+      <c r="F155" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6">
+      <c r="B156" s="1">
+        <v>17</v>
+      </c>
+      <c r="C156" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D156" s="1">
+        <v>1</v>
+      </c>
+      <c r="E156" s="1">
+        <v>1</v>
+      </c>
+      <c r="F156" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6">
+      <c r="B157" s="1">
+        <v>18</v>
+      </c>
+      <c r="C157" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D157" s="1">
+        <v>1</v>
+      </c>
+      <c r="E157" s="1">
+        <v>1</v>
+      </c>
+      <c r="F157" s="15" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -67,6 +67,208 @@
             <charset val="134"/>
           </rPr>
           <t>#[primary=true]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yineng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+ST(单位:10^4) 精度为小数点后2位</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D43" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yineng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+KT(单位:10^8) 即KT为整数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yineng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+ETH 单位:10^15 精度为小数点后3位</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yineng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+ST(单位:10^4) 精度为小数点后2位</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D50" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yineng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+KT(单位:10^8) 即KT为整数
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D53" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yineng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+BTC (单位 10^4) 精度为小数点后4位</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D58" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yineng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+ETH 单位:10^15 精度为小数点后3位
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D59" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yineng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+ST(单位:10^4) 精度为小数点后2位
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D60" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yineng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+KT(单位:10^8) 即KT为整数
+</t>
         </r>
       </text>
     </comment>
@@ -188,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
   <si>
     <t>挖矿暴击权重配置表</t>
   </si>
@@ -302,54 +504,6 @@
   </si>
   <si>
     <t>$WeightAwardCfg</t>
-  </si>
-  <si>
-    <t>10^18</t>
-  </si>
-  <si>
-    <t>10^17</t>
-  </si>
-  <si>
-    <t>10^16</t>
-  </si>
-  <si>
-    <t>2*10^15</t>
-  </si>
-  <si>
-    <t>6*10^15</t>
-  </si>
-  <si>
-    <t>10^15</t>
-  </si>
-  <si>
-    <t>10*10^8</t>
-  </si>
-  <si>
-    <t>50*10^8</t>
-  </si>
-  <si>
-    <t>10^7</t>
-  </si>
-  <si>
-    <t>10^6</t>
-  </si>
-  <si>
-    <t>10^5</t>
-  </si>
-  <si>
-    <t>2*10^4</t>
-  </si>
-  <si>
-    <t>1*10^4</t>
-  </si>
-  <si>
-    <t>5*10^5</t>
-  </si>
-  <si>
-    <t>10*10^5</t>
-  </si>
-  <si>
-    <t>100*10^8</t>
   </si>
   <si>
     <t>几率奖励配置表</t>
@@ -477,10 +631,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -515,22 +669,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,9 +682,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,6 +715,45 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,76 +775,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,6 +793,22 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -727,85 +881,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,7 +911,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,25 +1043,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,49 +1061,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,23 +1078,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -960,37 +1125,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1013,6 +1158,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1026,10 +1180,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1038,19 +1192,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1059,112 +1213,112 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1567,7 +1721,7 @@
   <sheetPr/>
   <dimension ref="A3:H157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
@@ -2114,10 +2268,10 @@
         <v>5001</v>
       </c>
       <c r="D40" s="8">
-        <v>10000000</v>
+        <v>1000</v>
       </c>
       <c r="E40" s="8">
-        <v>10000000</v>
+        <v>1000</v>
       </c>
       <c r="F40" s="8">
         <v>4</v>
@@ -2137,10 +2291,10 @@
         <v>5001</v>
       </c>
       <c r="D41" s="8">
-        <v>1000000</v>
+        <v>100</v>
       </c>
       <c r="E41" s="8">
-        <v>1000000</v>
+        <v>100</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -2156,10 +2310,10 @@
         <v>5001</v>
       </c>
       <c r="D42" s="8">
-        <v>100000</v>
+        <v>10</v>
       </c>
       <c r="E42" s="8">
-        <v>100000</v>
+        <v>20</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -2175,10 +2329,10 @@
         <v>6001</v>
       </c>
       <c r="D43" s="8">
-        <v>500000000</v>
+        <v>5</v>
       </c>
       <c r="E43" s="8">
-        <v>1000000000</v>
+        <v>10</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -2193,11 +2347,11 @@
       <c r="C44" s="9">
         <v>4001</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>38</v>
+      <c r="D44" s="9">
+        <v>1000</v>
+      </c>
+      <c r="E44" s="9">
+        <v>1000</v>
       </c>
       <c r="F44" s="9">
         <v>9</v>
@@ -2216,11 +2370,11 @@
       <c r="C45" s="9">
         <v>4001</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>39</v>
+      <c r="D45" s="9">
+        <v>100</v>
+      </c>
+      <c r="E45" s="9">
+        <v>100</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
@@ -2235,11 +2389,11 @@
       <c r="C46" s="9">
         <v>4001</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>40</v>
+      <c r="D46" s="9">
+        <v>10</v>
+      </c>
+      <c r="E46" s="9">
+        <v>10</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
@@ -2254,11 +2408,11 @@
       <c r="C47" s="9">
         <v>4001</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>42</v>
+      <c r="D47" s="9">
+        <v>2</v>
+      </c>
+      <c r="E47" s="9">
+        <v>6</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
@@ -2273,11 +2427,11 @@
       <c r="C48" s="9">
         <v>4001</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>41</v>
+      <c r="D48" s="9">
+        <v>1</v>
+      </c>
+      <c r="E48" s="9">
+        <v>2</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
@@ -2293,10 +2447,10 @@
         <v>5001</v>
       </c>
       <c r="D49" s="9">
-        <v>200000</v>
+        <v>20</v>
       </c>
       <c r="E49" s="9">
-        <v>400000</v>
+        <v>40</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
@@ -2311,11 +2465,11 @@
       <c r="C50" s="9">
         <v>6001</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>45</v>
+      <c r="D50" s="9">
+        <v>10</v>
+      </c>
+      <c r="E50" s="9">
+        <v>50</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
@@ -2368,11 +2522,11 @@
       <c r="C53" s="4">
         <v>3001</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>46</v>
+      <c r="D53" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1000</v>
       </c>
       <c r="F53" s="4">
         <v>9</v>
@@ -2391,11 +2545,11 @@
       <c r="C54" s="4">
         <v>3001</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>47</v>
+      <c r="D54" s="4">
+        <v>100</v>
+      </c>
+      <c r="E54" s="4">
+        <v>100</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -2410,11 +2564,11 @@
       <c r="C55" s="4">
         <v>3001</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>48</v>
+      <c r="D55" s="4">
+        <v>10</v>
+      </c>
+      <c r="E55" s="4">
+        <v>10</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -2429,11 +2583,11 @@
       <c r="C56" s="4">
         <v>3001</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>49</v>
+      <c r="D56" s="4">
+        <v>2</v>
+      </c>
+      <c r="E56" s="4">
+        <v>2</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -2448,11 +2602,11 @@
       <c r="C57" s="4">
         <v>3001</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>50</v>
+      <c r="D57" s="4">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -2467,11 +2621,11 @@
       <c r="C58" s="4">
         <v>4001</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>42</v>
+      <c r="D58" s="4">
+        <v>2</v>
+      </c>
+      <c r="E58" s="4">
+        <v>6</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -2486,11 +2640,11 @@
       <c r="C59" s="4">
         <v>5001</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>52</v>
+      <c r="D59" s="4">
+        <v>50</v>
+      </c>
+      <c r="E59" s="4">
+        <v>100</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -2505,11 +2659,11 @@
       <c r="C60" s="4">
         <v>6001</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>53</v>
+      <c r="D60" s="4">
+        <v>50</v>
+      </c>
+      <c r="E60" s="4">
+        <v>100</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -3064,10 +3218,10 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="6" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>26</v>
@@ -3082,12 +3236,12 @@
         <v>4</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="6" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>8</v>
@@ -3105,7 +3259,7 @@
         <v>10</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" spans="2:7">
@@ -3186,32 +3340,32 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E100"/>
       <c r="F100"/>
       <c r="G100" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>10</v>
@@ -3219,7 +3373,7 @@
       <c r="E101"/>
       <c r="F101"/>
       <c r="G101" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="2:7">
@@ -3230,16 +3384,16 @@
         <v>12</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="2:7">
@@ -3259,7 +3413,7 @@
         <v>3</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="104" spans="2:7">
@@ -3279,32 +3433,32 @@
         <v>1</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>8</v>
@@ -3313,13 +3467,13 @@
         <v>31</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109" spans="2:6">
@@ -3336,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="110" spans="2:6">
@@ -3353,7 +3507,7 @@
         <v>2</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="111" spans="2:6">
@@ -3367,7 +3521,7 @@
         <v>2</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="112" spans="2:6">
@@ -3384,47 +3538,47 @@
         <v>1</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="119" spans="2:6">
@@ -3441,7 +3595,7 @@
         <v>12</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="120" spans="2:6">
@@ -3458,7 +3612,7 @@
         <v>1</v>
       </c>
       <c r="F120" s="15" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="121" spans="2:6">
@@ -3475,7 +3629,7 @@
         <v>1</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="122" spans="2:6">
@@ -3492,7 +3646,7 @@
         <v>1</v>
       </c>
       <c r="F122" s="15" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="123" spans="2:6">
@@ -3509,7 +3663,7 @@
         <v>1</v>
       </c>
       <c r="F123" s="15" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="124" spans="2:6">
@@ -3526,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="125" spans="2:6">
@@ -3543,7 +3697,7 @@
         <v>1</v>
       </c>
       <c r="F125" s="15" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="126" spans="2:6">
@@ -3560,7 +3714,7 @@
         <v>1</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="127" spans="2:6">
@@ -3577,7 +3731,7 @@
         <v>1</v>
       </c>
       <c r="F127" s="15" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="128" spans="2:6">
@@ -3594,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="129" spans="2:6">
@@ -3611,7 +3765,7 @@
         <v>1</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="130" spans="2:6">
@@ -3628,7 +3782,7 @@
         <v>1</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="131" spans="2:6">
@@ -3645,7 +3799,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="132" spans="2:6">
@@ -3662,7 +3816,7 @@
         <v>1</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="133" spans="2:6">
@@ -3679,7 +3833,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="134" spans="2:6">
@@ -3696,32 +3850,32 @@
         <v>1</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>8</v>
@@ -3730,13 +3884,13 @@
         <v>31</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="139" spans="2:6">
@@ -3753,7 +3907,7 @@
         <v>12</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="140" spans="2:6">
@@ -3770,7 +3924,7 @@
         <v>1</v>
       </c>
       <c r="F140" s="15" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="141" spans="2:6">
@@ -3787,7 +3941,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="15" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="142" spans="2:6">
@@ -3804,7 +3958,7 @@
         <v>1</v>
       </c>
       <c r="F142" s="15" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="143" spans="2:6">
@@ -3821,7 +3975,7 @@
         <v>1</v>
       </c>
       <c r="F143" s="15" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="144" spans="2:6">
@@ -3838,7 +3992,7 @@
         <v>1</v>
       </c>
       <c r="F144" s="15" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="145" spans="2:6">
@@ -3855,7 +4009,7 @@
         <v>1</v>
       </c>
       <c r="F145" s="15" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="146" spans="2:6">
@@ -3872,7 +4026,7 @@
         <v>1</v>
       </c>
       <c r="F146" s="15" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="147" spans="2:6">
@@ -3889,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="F147" s="15" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="148" spans="2:6">
@@ -3906,7 +4060,7 @@
         <v>1</v>
       </c>
       <c r="F148" s="15" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="149" spans="2:6">
@@ -3923,7 +4077,7 @@
         <v>1</v>
       </c>
       <c r="F149" s="15" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="150" spans="2:6">
@@ -3940,7 +4094,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="15" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="151" spans="2:6">
@@ -3957,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="F151" s="15" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="152" spans="2:6">
@@ -3974,7 +4128,7 @@
         <v>1</v>
       </c>
       <c r="F152" s="15" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="153" spans="2:6">
@@ -3991,7 +4145,7 @@
         <v>1</v>
       </c>
       <c r="F153" s="15" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="154" spans="2:6">
@@ -4008,7 +4162,7 @@
         <v>1</v>
       </c>
       <c r="F154" s="15" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="155" spans="2:6">
@@ -4025,7 +4179,7 @@
         <v>1</v>
       </c>
       <c r="F155" s="15" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="156" spans="2:6">
@@ -4042,7 +4196,7 @@
         <v>1</v>
       </c>
       <c r="F156" s="15" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="157" spans="2:6">
@@ -4059,7 +4213,7 @@
         <v>1</v>
       </c>
       <c r="F157" s="15" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -631,10 +631,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -669,13 +669,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -683,14 +676,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -698,15 +699,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,16 +720,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -759,30 +752,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -804,11 +790,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -881,37 +881,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,13 +947,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,13 +1001,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,55 +1043,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,43 +1055,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,36 +1075,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1125,17 +1114,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1158,8 +1143,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1167,8 +1152,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1180,10 +1180,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1192,133 +1192,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1721,8 +1721,8 @@
   <sheetPr/>
   <dimension ref="A3:H157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -341,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B118" authorId="0">
+    <comment ref="B117" authorId="0">
       <text>
         <r>
           <rPr>
@@ -363,7 +363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B138" authorId="0">
+    <comment ref="B137" authorId="0">
       <text>
         <r>
           <rPr>
@@ -631,10 +631,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -668,25 +668,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -698,15 +684,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,17 +700,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,7 +724,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -767,26 +752,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -797,18 +766,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -881,19 +881,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,19 +959,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,7 +1001,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,19 +1013,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,19 +1043,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,73 +1061,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,21 +1072,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1110,6 +1095,54 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1139,39 +1172,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1180,10 +1180,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1192,133 +1192,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1719,10 +1719,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:H157"/>
+  <dimension ref="A3:H156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3512,98 +3512,101 @@
     </row>
     <row r="111" spans="2:6">
       <c r="B111" s="1">
-        <v>600102</v>
+        <v>600401</v>
       </c>
       <c r="C111" s="1">
-        <v>7002</v>
+        <v>2002</v>
       </c>
       <c r="D111" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E111" s="1">
+        <v>1</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6">
-      <c r="B112" s="1">
-        <v>600401</v>
-      </c>
-      <c r="C112" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D112" s="1">
-        <v>1</v>
-      </c>
-      <c r="E112" s="1">
-        <v>1</v>
-      </c>
-      <c r="F112" s="1" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6">
       <c r="B118" s="1" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="119" spans="2:6">
-      <c r="B119" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>53</v>
+      <c r="B119" s="1">
+        <v>1</v>
+      </c>
+      <c r="C119" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D119" s="1">
+        <v>1</v>
+      </c>
+      <c r="E119" s="1">
+        <v>1</v>
+      </c>
+      <c r="F119" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="120" spans="2:6">
       <c r="B120" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C120" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D120" s="1">
         <v>1</v>
@@ -3611,16 +3614,16 @@
       <c r="E120" s="1">
         <v>1</v>
       </c>
-      <c r="F120" s="15" t="s">
-        <v>65</v>
+      <c r="F120" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="121" spans="2:6">
       <c r="B121" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C121" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D121" s="1">
         <v>1</v>
@@ -3628,13 +3631,13 @@
       <c r="E121" s="1">
         <v>1</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>66</v>
+      <c r="F121" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="122" spans="2:6">
       <c r="B122" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C122" s="1">
         <v>2001</v>
@@ -3651,10 +3654,10 @@
     </row>
     <row r="123" spans="2:6">
       <c r="B123" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C123" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D123" s="1">
         <v>1</v>
@@ -3662,16 +3665,16 @@
       <c r="E123" s="1">
         <v>1</v>
       </c>
-      <c r="F123" s="15" t="s">
-        <v>65</v>
+      <c r="F123" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="124" spans="2:6">
       <c r="B124" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C124" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D124" s="1">
         <v>1</v>
@@ -3679,16 +3682,16 @@
       <c r="E124" s="1">
         <v>1</v>
       </c>
-      <c r="F124" s="1" t="s">
-        <v>66</v>
+      <c r="F124" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="125" spans="2:6">
       <c r="B125" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C125" s="1">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D125" s="1">
         <v>1</v>
@@ -3696,16 +3699,16 @@
       <c r="E125" s="1">
         <v>1</v>
       </c>
-      <c r="F125" s="15" t="s">
-        <v>65</v>
+      <c r="F125" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="126" spans="2:6">
       <c r="B126" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" s="1">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D126" s="1">
         <v>1</v>
@@ -3713,16 +3716,16 @@
       <c r="E126" s="1">
         <v>1</v>
       </c>
-      <c r="F126" s="1" t="s">
-        <v>67</v>
+      <c r="F126" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="127" spans="2:6">
       <c r="B127" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D127" s="1">
         <v>1</v>
@@ -3730,16 +3733,16 @@
       <c r="E127" s="1">
         <v>1</v>
       </c>
-      <c r="F127" s="15" t="s">
-        <v>65</v>
+      <c r="F127" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="128" spans="2:6">
       <c r="B128" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C128" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D128" s="1">
         <v>1</v>
@@ -3748,15 +3751,15 @@
         <v>1</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="129" spans="2:6">
       <c r="B129" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C129" s="1">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D129" s="1">
         <v>1</v>
@@ -3765,15 +3768,15 @@
         <v>1</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="130" spans="2:6">
       <c r="B130" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C130" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D130" s="1">
         <v>1</v>
@@ -3782,15 +3785,15 @@
         <v>1</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="131" spans="2:6">
       <c r="B131" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C131" s="1">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D131" s="1">
         <v>1</v>
@@ -3799,15 +3802,15 @@
         <v>1</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="132" spans="2:6">
       <c r="B132" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C132" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D132" s="1">
         <v>1</v>
@@ -3816,12 +3819,12 @@
         <v>1</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="133" spans="2:6">
       <c r="B133" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C133" s="1">
         <v>2003</v>
@@ -3836,83 +3839,83 @@
         <v>67</v>
       </c>
     </row>
-    <row r="134" spans="2:6">
-      <c r="B134" s="1">
-        <v>15</v>
-      </c>
-      <c r="C134" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D134" s="1">
-        <v>1</v>
-      </c>
-      <c r="E134" s="1">
-        <v>1</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>67</v>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6">
       <c r="B138" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="139" spans="2:6">
-      <c r="B139" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>53</v>
+      <c r="B139" s="1">
+        <v>1</v>
+      </c>
+      <c r="C139" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D139" s="1">
+        <v>1</v>
+      </c>
+      <c r="E139" s="1">
+        <v>1</v>
+      </c>
+      <c r="F139" s="15" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="140" spans="2:6">
       <c r="B140" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C140" s="1">
         <v>2001</v>
@@ -3929,10 +3932,10 @@
     </row>
     <row r="141" spans="2:6">
       <c r="B141" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C141" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D141" s="1">
         <v>1</v>
@@ -3941,15 +3944,15 @@
         <v>1</v>
       </c>
       <c r="F141" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="142" spans="2:6">
       <c r="B142" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C142" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D142" s="1">
         <v>1</v>
@@ -3958,12 +3961,12 @@
         <v>1</v>
       </c>
       <c r="F142" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="143" spans="2:6">
       <c r="B143" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C143" s="1">
         <v>2001</v>
@@ -3980,10 +3983,10 @@
     </row>
     <row r="144" spans="2:6">
       <c r="B144" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C144" s="1">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D144" s="1">
         <v>1</v>
@@ -3992,15 +3995,15 @@
         <v>1</v>
       </c>
       <c r="F144" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="145" spans="2:6">
       <c r="B145" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C145" s="1">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D145" s="1">
         <v>1</v>
@@ -4009,12 +4012,12 @@
         <v>1</v>
       </c>
       <c r="F145" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="146" spans="2:6">
       <c r="B146" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" s="1">
         <v>2001</v>
@@ -4031,41 +4034,41 @@
     </row>
     <row r="147" spans="2:6">
       <c r="B147" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" s="1">
         <v>2001</v>
       </c>
       <c r="D147" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E147" s="1">
         <v>1</v>
       </c>
       <c r="F147" s="15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="148" spans="2:6">
       <c r="B148" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C148" s="1">
         <v>2001</v>
       </c>
       <c r="D148" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E148" s="1">
         <v>1</v>
       </c>
       <c r="F148" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="149" spans="2:6">
       <c r="B149" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C149" s="1">
         <v>2001</v>
@@ -4082,41 +4085,41 @@
     </row>
     <row r="150" spans="2:6">
       <c r="B150" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C150" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D150" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E150" s="1">
         <v>1</v>
       </c>
       <c r="F150" s="15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="151" spans="2:6">
       <c r="B151" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C151" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D151" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E151" s="1">
         <v>1</v>
       </c>
       <c r="F151" s="15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="152" spans="2:6">
       <c r="B152" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C152" s="1">
         <v>2001</v>
@@ -4133,44 +4136,44 @@
     </row>
     <row r="153" spans="2:6">
       <c r="B153" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C153" s="1">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D153" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E153" s="1">
         <v>1</v>
       </c>
       <c r="F153" s="15" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="154" spans="2:6">
       <c r="B154" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C154" s="1">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D154" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E154" s="1">
         <v>1</v>
       </c>
       <c r="F154" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="155" spans="2:6">
       <c r="B155" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C155" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D155" s="1">
         <v>1</v>
@@ -4184,10 +4187,10 @@
     </row>
     <row r="156" spans="2:6">
       <c r="B156" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C156" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D156" s="1">
         <v>1</v>
@@ -4196,23 +4199,6 @@
         <v>1</v>
       </c>
       <c r="F156" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="157" spans="2:6">
-      <c r="B157" s="1">
-        <v>18</v>
-      </c>
-      <c r="C157" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D157" s="1">
-        <v>1</v>
-      </c>
-      <c r="E157" s="1">
-        <v>1</v>
-      </c>
-      <c r="F157" s="15" t="s">
         <v>77</v>
       </c>
     </row>

--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -70,6 +70,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="B40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">yineng:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>初级矿山</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D40" authorId="0">
       <text>
         <r>
@@ -114,6 +136,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="B44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yineng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+中级矿山</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D44" authorId="0">
       <text>
         <r>
@@ -181,6 +225,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="B53" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yineng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+高级矿山</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D53" authorId="0">
       <text>
         <r>
@@ -269,6 +335,204 @@
           <t xml:space="preserve">
 KT(单位:10^8) 即KT为整数
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B62" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yineng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+随机获得矿山</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B65" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yineng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+合成中级奖券</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B67" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yineng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+合成高级奖券</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B69" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yineng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+初级转盘</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B72" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yineng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+中级转盘</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B75" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yineng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+高级转盘</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B78" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yineng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+初级宝箱</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B81" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yineng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+中级宝箱</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B84" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yineng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+高级宝箱</t>
         </r>
       </text>
     </comment>
@@ -390,7 +654,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>挖矿暴击权重配置表</t>
   </si>
@@ -530,25 +794,19 @@
     <t>数量</t>
   </si>
   <si>
-    <t>所需奖券数量(银券，金券，彩券)</t>
+    <t>所需ST</t>
   </si>
   <si>
     <t>描述</t>
   </si>
   <si>
-    <t>$TicketConvertCfg</t>
+    <t>$STConvertCfg</t>
   </si>
   <si>
     <t>num</t>
   </si>
   <si>
     <t>desc</t>
-  </si>
-  <si>
-    <t>[u32</t>
-  </si>
-  <si>
-    <t>u32]</t>
   </si>
   <si>
     <t>str</t>
@@ -631,10 +889,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -668,11 +926,109 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -694,68 +1050,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -766,47 +1063,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -881,13 +1139,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,31 +1163,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,7 +1187,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,7 +1211,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,79 +1265,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,13 +1283,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,32 +1342,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1129,11 +1372,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1141,8 +1390,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1158,17 +1407,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1180,10 +1438,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1192,133 +1450,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1721,8 +1979,8 @@
   <sheetPr/>
   <dimension ref="A3:H156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3338,7 +3596,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
         <v>43</v>
       </c>
@@ -3351,13 +3609,12 @@
       <c r="D100" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E100"/>
+      <c r="E100" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="F100"/>
-      <c r="G100" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
         <v>48</v>
       </c>
@@ -3370,13 +3627,12 @@
       <c r="D101" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E101"/>
+      <c r="E101" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F101"/>
-      <c r="G101" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7">
+    </row>
+    <row r="102" spans="2:5">
       <c r="B102" s="1" t="s">
         <v>12</v>
       </c>
@@ -3384,19 +3640,13 @@
         <v>12</v>
       </c>
       <c r="D102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7">
+    </row>
+    <row r="103" spans="2:5">
       <c r="B103" s="1">
         <v>500001</v>
       </c>
@@ -3404,19 +3654,13 @@
         <v>1</v>
       </c>
       <c r="D103" s="1">
-        <v>0</v>
-      </c>
-      <c r="E103" s="1">
-        <v>3</v>
-      </c>
-      <c r="F103" s="1">
-        <v>3</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7">
+        <v>1</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5">
       <c r="B104" s="1">
         <v>500002</v>
       </c>
@@ -3424,24 +3668,18 @@
         <v>1</v>
       </c>
       <c r="D104" s="1">
-        <v>3</v>
-      </c>
-      <c r="E104" s="1">
-        <v>0</v>
-      </c>
-      <c r="F104" s="1">
-        <v>1</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>55</v>
+        <v>1</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>26</v>
@@ -3458,7 +3696,7 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>8</v>
@@ -3490,7 +3728,7 @@
         <v>12</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="110" spans="2:6">
@@ -3507,7 +3745,7 @@
         <v>2</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="111" spans="2:6">
@@ -3524,15 +3762,15 @@
         <v>1</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>26</v>
@@ -3549,10 +3787,10 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>31</v>
@@ -3581,7 +3819,7 @@
         <v>12</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="119" spans="2:6">
@@ -3598,7 +3836,7 @@
         <v>1</v>
       </c>
       <c r="F119" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="120" spans="2:6">
@@ -3615,7 +3853,7 @@
         <v>1</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="121" spans="2:6">
@@ -3632,7 +3870,7 @@
         <v>1</v>
       </c>
       <c r="F121" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="122" spans="2:6">
@@ -3649,7 +3887,7 @@
         <v>1</v>
       </c>
       <c r="F122" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="123" spans="2:6">
@@ -3666,7 +3904,7 @@
         <v>1</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="124" spans="2:6">
@@ -3683,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="125" spans="2:6">
@@ -3700,7 +3938,7 @@
         <v>1</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="126" spans="2:6">
@@ -3717,7 +3955,7 @@
         <v>1</v>
       </c>
       <c r="F126" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="127" spans="2:6">
@@ -3734,7 +3972,7 @@
         <v>1</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="128" spans="2:6">
@@ -3751,7 +3989,7 @@
         <v>1</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="129" spans="2:6">
@@ -3768,7 +4006,7 @@
         <v>1</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="130" spans="2:6">
@@ -3785,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="131" spans="2:6">
@@ -3802,7 +4040,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="132" spans="2:6">
@@ -3819,7 +4057,7 @@
         <v>1</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="133" spans="2:6">
@@ -3836,15 +4074,15 @@
         <v>1</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>26</v>
@@ -3861,7 +4099,7 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>8</v>
@@ -3893,7 +4131,7 @@
         <v>12</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="139" spans="2:6">
@@ -3910,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="F139" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="140" spans="2:6">
@@ -3927,7 +4165,7 @@
         <v>1</v>
       </c>
       <c r="F140" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="141" spans="2:6">
@@ -3944,7 +4182,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="142" spans="2:6">
@@ -3961,7 +4199,7 @@
         <v>1</v>
       </c>
       <c r="F142" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="143" spans="2:6">
@@ -3978,7 +4216,7 @@
         <v>1</v>
       </c>
       <c r="F143" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="144" spans="2:6">
@@ -3995,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="F144" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="145" spans="2:6">
@@ -4012,7 +4250,7 @@
         <v>1</v>
       </c>
       <c r="F145" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="146" spans="2:6">
@@ -4029,7 +4267,7 @@
         <v>1</v>
       </c>
       <c r="F146" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="147" spans="2:6">
@@ -4046,7 +4284,7 @@
         <v>1</v>
       </c>
       <c r="F147" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="148" spans="2:6">
@@ -4063,7 +4301,7 @@
         <v>1</v>
       </c>
       <c r="F148" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="149" spans="2:6">
@@ -4080,7 +4318,7 @@
         <v>1</v>
       </c>
       <c r="F149" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="150" spans="2:6">
@@ -4097,7 +4335,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="151" spans="2:6">
@@ -4114,7 +4352,7 @@
         <v>1</v>
       </c>
       <c r="F151" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="152" spans="2:6">
@@ -4131,7 +4369,7 @@
         <v>1</v>
       </c>
       <c r="F152" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="153" spans="2:6">
@@ -4148,7 +4386,7 @@
         <v>1</v>
       </c>
       <c r="F153" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="154" spans="2:6">
@@ -4165,7 +4403,7 @@
         <v>1</v>
       </c>
       <c r="F154" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="155" spans="2:6">
@@ -4182,7 +4420,7 @@
         <v>1</v>
       </c>
       <c r="F155" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="156" spans="2:6">
@@ -4199,7 +4437,7 @@
         <v>1</v>
       </c>
       <c r="F156" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -889,10 +889,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -926,9 +926,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -942,49 +956,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -997,8 +972,16 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1011,8 +994,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1033,10 +1017,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1049,15 +1041,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1139,7 +1139,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,49 +1211,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1205,13 +1223,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1223,19 +1235,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1247,13 +1247,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,6 +1265,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1283,43 +1313,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1336,23 +1336,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1368,6 +1353,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1407,26 +1416,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1438,10 +1438,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1450,133 +1450,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1979,8 +1979,8 @@
   <sheetPr/>
   <dimension ref="A3:H156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="D103" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>52</v>
@@ -3668,7 +3668,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>53</v>

--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -889,10 +889,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -926,9 +926,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -936,6 +942,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -943,7 +957,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -958,7 +972,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -966,31 +980,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -999,6 +989,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1018,15 +1022,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1040,11 +1046,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1056,15 +1062,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1139,7 +1139,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,7 +1157,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1163,43 +1265,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1211,7 +1289,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1229,97 +1307,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1330,15 +1330,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1357,17 +1348,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1390,8 +1390,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1410,23 +1425,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1438,10 +1438,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1450,133 +1450,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1698,7 +1698,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1979,8 +1979,8 @@
   <sheetPr/>
   <dimension ref="A3:H156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$99:$C$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$100:$C$104</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -426,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B72" authorId="0">
+    <comment ref="B73" authorId="0">
       <text>
         <r>
           <rPr>
@@ -448,7 +448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B75" authorId="0">
+    <comment ref="B76" authorId="0">
       <text>
         <r>
           <rPr>
@@ -470,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B78" authorId="0">
+    <comment ref="B79" authorId="0">
       <text>
         <r>
           <rPr>
@@ -492,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B81" authorId="0">
+    <comment ref="B82" authorId="0">
       <text>
         <r>
           <rPr>
@@ -514,7 +514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B84" authorId="0">
+    <comment ref="B85" authorId="0">
       <text>
         <r>
           <rPr>
@@ -536,7 +536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B91" authorId="2">
+    <comment ref="B92" authorId="2">
       <text>
         <r>
           <rPr>
@@ -548,7 +548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B92" authorId="1">
+    <comment ref="B93" authorId="1">
       <text>
         <r>
           <rPr>
@@ -560,7 +560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B101" authorId="0">
+    <comment ref="B102" authorId="0">
       <text>
         <r>
           <rPr>
@@ -583,7 +583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B108" authorId="0">
+    <comment ref="B109" authorId="0">
       <text>
         <r>
           <rPr>
@@ -605,7 +605,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B117" authorId="0">
+    <comment ref="B118" authorId="0">
       <text>
         <r>
           <rPr>
@@ -627,7 +627,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B137" authorId="0">
+    <comment ref="B138" authorId="0">
       <text>
         <r>
           <rPr>
@@ -927,81 +927,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1018,9 +957,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1032,6 +986,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1040,8 +1002,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1057,16 +1026,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1139,7 +1139,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,67 +1193,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1229,55 +1211,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1295,7 +1229,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1307,19 +1295,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1335,9 +1335,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1372,11 +1374,44 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1395,41 +1430,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1438,10 +1438,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1450,133 +1450,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1698,7 +1698,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1977,10 +1977,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:H156"/>
+  <dimension ref="A3:H157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3155,34 +3155,30 @@
       </c>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="13">
-        <v>100801</v>
-      </c>
-      <c r="C72" s="13">
-        <v>2001</v>
-      </c>
-      <c r="D72" s="13">
-        <v>5</v>
-      </c>
-      <c r="E72" s="13">
-        <v>15</v>
-      </c>
-      <c r="F72" s="13">
-        <v>3</v>
-      </c>
-      <c r="G72" s="13">
-        <v>1</v>
-      </c>
-      <c r="H72" s="13">
-        <v>70</v>
+      <c r="B72" s="12">
+        <v>100704</v>
+      </c>
+      <c r="C72" s="12">
+        <v>1001</v>
+      </c>
+      <c r="D72" s="12">
+        <v>1</v>
+      </c>
+      <c r="E72" s="12">
+        <v>1</v>
+      </c>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12">
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="2:8">
       <c r="B73" s="13">
-        <v>100802</v>
+        <v>100801</v>
       </c>
       <c r="C73" s="13">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D73" s="13">
         <v>5</v>
@@ -3190,18 +3186,22 @@
       <c r="E73" s="13">
         <v>15</v>
       </c>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
+      <c r="F73" s="13">
+        <v>3</v>
+      </c>
+      <c r="G73" s="13">
+        <v>1</v>
+      </c>
       <c r="H73" s="13">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="2:8">
       <c r="B74" s="13">
-        <v>100803</v>
+        <v>100802</v>
       </c>
       <c r="C74" s="13">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D74" s="13">
         <v>5</v>
@@ -3212,38 +3212,34 @@
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
       <c r="H74" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="13">
+        <v>100803</v>
+      </c>
+      <c r="C75" s="13">
+        <v>2003</v>
+      </c>
+      <c r="D75" s="13">
+        <v>5</v>
+      </c>
+      <c r="E75" s="13">
+        <v>15</v>
+      </c>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13">
         <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8">
-      <c r="B75" s="14">
-        <v>100901</v>
-      </c>
-      <c r="C75" s="14">
-        <v>2001</v>
-      </c>
-      <c r="D75" s="14">
-        <v>10</v>
-      </c>
-      <c r="E75" s="14">
-        <v>30</v>
-      </c>
-      <c r="F75" s="14">
-        <v>3</v>
-      </c>
-      <c r="G75" s="14">
-        <v>1</v>
-      </c>
-      <c r="H75" s="14">
-        <v>70</v>
       </c>
     </row>
     <row r="76" spans="2:8">
       <c r="B76" s="14">
-        <v>100902</v>
+        <v>100901</v>
       </c>
       <c r="C76" s="14">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D76" s="14">
         <v>10</v>
@@ -3251,18 +3247,22 @@
       <c r="E76" s="14">
         <v>30</v>
       </c>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
+      <c r="F76" s="14">
+        <v>3</v>
+      </c>
+      <c r="G76" s="14">
+        <v>1</v>
+      </c>
       <c r="H76" s="14">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="2:8">
       <c r="B77" s="14">
-        <v>100903</v>
+        <v>100902</v>
       </c>
       <c r="C77" s="14">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D77" s="14">
         <v>10</v>
@@ -3273,38 +3273,34 @@
       <c r="F77" s="14"/>
       <c r="G77" s="14"/>
       <c r="H77" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="14">
+        <v>100903</v>
+      </c>
+      <c r="C78" s="14">
+        <v>2003</v>
+      </c>
+      <c r="D78" s="14">
         <v>10</v>
       </c>
-    </row>
-    <row r="78" spans="2:8">
-      <c r="B78" s="12">
-        <v>101001</v>
-      </c>
-      <c r="C78" s="12">
-        <v>2001</v>
-      </c>
-      <c r="D78" s="12">
-        <v>1</v>
-      </c>
-      <c r="E78" s="12">
-        <v>3</v>
-      </c>
-      <c r="F78" s="12">
-        <v>3</v>
-      </c>
-      <c r="G78" s="12">
-        <v>1</v>
-      </c>
-      <c r="H78" s="12">
-        <v>70</v>
+      <c r="E78" s="14">
+        <v>30</v>
+      </c>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14">
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="2:8">
       <c r="B79" s="12">
-        <v>101002</v>
+        <v>101001</v>
       </c>
       <c r="C79" s="12">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D79" s="12">
         <v>1</v>
@@ -3312,18 +3308,22 @@
       <c r="E79" s="12">
         <v>3</v>
       </c>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
+      <c r="F79" s="12">
+        <v>3</v>
+      </c>
+      <c r="G79" s="12">
+        <v>1</v>
+      </c>
       <c r="H79" s="12">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="2:8">
       <c r="B80" s="12">
-        <v>101003</v>
+        <v>101002</v>
       </c>
       <c r="C80" s="12">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D80" s="12">
         <v>1</v>
@@ -3334,38 +3334,34 @@
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
       <c r="H80" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="12">
+        <v>101003</v>
+      </c>
+      <c r="C81" s="12">
+        <v>2003</v>
+      </c>
+      <c r="D81" s="12">
+        <v>1</v>
+      </c>
+      <c r="E81" s="12">
+        <v>3</v>
+      </c>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12">
         <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8">
-      <c r="B81" s="13">
-        <v>101101</v>
-      </c>
-      <c r="C81" s="13">
-        <v>2001</v>
-      </c>
-      <c r="D81" s="13">
-        <v>5</v>
-      </c>
-      <c r="E81" s="13">
-        <v>15</v>
-      </c>
-      <c r="F81" s="13">
-        <v>3</v>
-      </c>
-      <c r="G81" s="13">
-        <v>1</v>
-      </c>
-      <c r="H81" s="13">
-        <v>70</v>
       </c>
     </row>
     <row r="82" spans="2:8">
       <c r="B82" s="13">
-        <v>101102</v>
+        <v>101101</v>
       </c>
       <c r="C82" s="13">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D82" s="13">
         <v>5</v>
@@ -3373,18 +3369,22 @@
       <c r="E82" s="13">
         <v>15</v>
       </c>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
+      <c r="F82" s="13">
+        <v>3</v>
+      </c>
+      <c r="G82" s="13">
+        <v>1</v>
+      </c>
       <c r="H82" s="13">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="2:8">
       <c r="B83" s="13">
-        <v>101103</v>
+        <v>101102</v>
       </c>
       <c r="C83" s="13">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D83" s="13">
         <v>5</v>
@@ -3395,38 +3395,34 @@
       <c r="F83" s="13"/>
       <c r="G83" s="13"/>
       <c r="H83" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="13">
+        <v>101103</v>
+      </c>
+      <c r="C84" s="13">
+        <v>2003</v>
+      </c>
+      <c r="D84" s="13">
+        <v>5</v>
+      </c>
+      <c r="E84" s="13">
+        <v>15</v>
+      </c>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13">
         <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8">
-      <c r="B84" s="14">
-        <v>101201</v>
-      </c>
-      <c r="C84" s="14">
-        <v>2001</v>
-      </c>
-      <c r="D84" s="14">
-        <v>10</v>
-      </c>
-      <c r="E84" s="14">
-        <v>30</v>
-      </c>
-      <c r="F84" s="14">
-        <v>3</v>
-      </c>
-      <c r="G84" s="14">
-        <v>1</v>
-      </c>
-      <c r="H84" s="14">
-        <v>70</v>
       </c>
     </row>
     <row r="85" spans="2:8">
       <c r="B85" s="14">
-        <v>101202</v>
+        <v>101201</v>
       </c>
       <c r="C85" s="14">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D85" s="14">
         <v>10</v>
@@ -3434,18 +3430,22 @@
       <c r="E85" s="14">
         <v>30</v>
       </c>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
+      <c r="F85" s="14">
+        <v>3</v>
+      </c>
+      <c r="G85" s="14">
+        <v>1</v>
+      </c>
       <c r="H85" s="14">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="2:8">
       <c r="B86" s="14">
-        <v>101203</v>
+        <v>101202</v>
       </c>
       <c r="C86" s="14">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D86" s="14">
         <v>10</v>
@@ -3456,116 +3456,115 @@
       <c r="F86" s="14"/>
       <c r="G86" s="14"/>
       <c r="H86" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="14">
+        <v>101203</v>
+      </c>
+      <c r="C87" s="14">
+        <v>2003</v>
+      </c>
+      <c r="D87" s="14">
         <v>10</v>
       </c>
-    </row>
-    <row r="87" spans="2:8">
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-    </row>
-    <row r="88" spans="2:2">
+      <c r="E87" s="14">
+        <v>30</v>
+      </c>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
       <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="7"/>
     </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>40</v>
-      </c>
+    <row r="90" spans="2:2">
+      <c r="B90" s="7"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B93" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C93" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D93" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E93" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F92" s="6" t="s">
+      <c r="F93" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G92" s="6" t="s">
+      <c r="G93" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="2:7">
-      <c r="B93" s="6" t="s">
+    <row r="94" spans="2:7">
+      <c r="B94" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C94" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D94" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E94" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="F94" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G93" s="6" t="s">
+      <c r="G94" s="6" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7">
-      <c r="B94" s="7">
-        <v>401101</v>
-      </c>
-      <c r="C94" s="5">
-        <v>322000001</v>
-      </c>
-      <c r="D94" s="7">
-        <v>1</v>
-      </c>
-      <c r="E94" s="7">
-        <v>1</v>
-      </c>
-      <c r="F94" s="7">
-        <v>5</v>
-      </c>
-      <c r="G94" s="7">
-        <v>1250</v>
       </c>
     </row>
     <row r="95" spans="2:7">
       <c r="B95" s="7">
-        <v>401102</v>
-      </c>
-      <c r="C95" s="7">
-        <v>410101</v>
+        <v>401101</v>
+      </c>
+      <c r="C95" s="5">
+        <v>322000001</v>
       </c>
       <c r="D95" s="7">
         <v>1</v>
@@ -3573,17 +3572,19 @@
       <c r="E95" s="7">
         <v>1</v>
       </c>
-      <c r="F95" s="7"/>
+      <c r="F95" s="7">
+        <v>5</v>
+      </c>
       <c r="G95" s="7">
-        <v>3000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="96" spans="2:7">
       <c r="B96" s="7">
-        <v>401103</v>
+        <v>401102</v>
       </c>
       <c r="C96" s="7">
-        <v>310101</v>
+        <v>410101</v>
       </c>
       <c r="D96" s="7">
         <v>1</v>
@@ -3593,258 +3594,257 @@
       </c>
       <c r="F96" s="7"/>
       <c r="G96" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" s="7">
+        <v>401103</v>
+      </c>
+      <c r="C97" s="7">
+        <v>310101</v>
+      </c>
+      <c r="D97" s="7">
+        <v>1</v>
+      </c>
+      <c r="E97" s="7">
+        <v>1</v>
+      </c>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7">
         <v>1250</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="1" t="s">
+    <row r="101" spans="1:5">
+      <c r="A101" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F100"/>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="1" t="s">
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F101"/>
-    </row>
-    <row r="102" spans="2:5">
-      <c r="B102" s="1" t="s">
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5">
-      <c r="B103" s="1">
-        <v>500001</v>
-      </c>
-      <c r="C103" s="1">
-        <v>1</v>
-      </c>
-      <c r="D103" s="1">
-        <v>10</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="104" spans="2:5">
       <c r="B104" s="1">
+        <v>500001</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1</v>
+      </c>
+      <c r="D104" s="1">
+        <v>10</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" s="1">
         <v>500002</v>
       </c>
-      <c r="C104" s="1">
-        <v>1</v>
-      </c>
-      <c r="D104" s="1">
+      <c r="C105" s="1">
+        <v>1</v>
+      </c>
+      <c r="D105" s="1">
         <v>50</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="F109" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="2:6">
-      <c r="B109" s="1" t="s">
+    <row r="110" spans="2:6">
+      <c r="B110" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="F110" s="1" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6">
-      <c r="B110" s="1">
-        <v>600101</v>
-      </c>
-      <c r="C110" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D110" s="1">
-        <v>2</v>
-      </c>
-      <c r="E110" s="1">
-        <v>2</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="111" spans="2:6">
       <c r="B111" s="1">
+        <v>600101</v>
+      </c>
+      <c r="C111" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D111" s="1">
+        <v>2</v>
+      </c>
+      <c r="E111" s="1">
+        <v>2</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6">
+      <c r="B112" s="1">
         <v>600401</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C112" s="1">
         <v>2002</v>
       </c>
-      <c r="D111" s="1">
-        <v>1</v>
-      </c>
-      <c r="E111" s="1">
-        <v>1</v>
-      </c>
-      <c r="F111" s="1" t="s">
+      <c r="D112" s="1">
+        <v>1</v>
+      </c>
+      <c r="E112" s="1">
+        <v>1</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="F118" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="118" spans="2:6">
-      <c r="B118" s="1" t="s">
+    <row r="119" spans="2:6">
+      <c r="B119" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="E119" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="F119" s="1" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6">
-      <c r="B119" s="1">
-        <v>1</v>
-      </c>
-      <c r="C119" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D119" s="1">
-        <v>1</v>
-      </c>
-      <c r="E119" s="1">
-        <v>1</v>
-      </c>
-      <c r="F119" s="15" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="120" spans="2:6">
       <c r="B120" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C120" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D120" s="1">
         <v>1</v>
@@ -3852,16 +3852,16 @@
       <c r="E120" s="1">
         <v>1</v>
       </c>
-      <c r="F120" s="1" t="s">
-        <v>64</v>
+      <c r="F120" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="121" spans="2:6">
       <c r="B121" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C121" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D121" s="1">
         <v>1</v>
@@ -3869,13 +3869,13 @@
       <c r="E121" s="1">
         <v>1</v>
       </c>
-      <c r="F121" s="15" t="s">
-        <v>63</v>
+      <c r="F121" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="122" spans="2:6">
       <c r="B122" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C122" s="1">
         <v>2001</v>
@@ -3892,10 +3892,10 @@
     </row>
     <row r="123" spans="2:6">
       <c r="B123" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C123" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D123" s="1">
         <v>1</v>
@@ -3903,16 +3903,16 @@
       <c r="E123" s="1">
         <v>1</v>
       </c>
-      <c r="F123" s="1" t="s">
-        <v>64</v>
+      <c r="F123" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="124" spans="2:6">
       <c r="B124" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C124" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D124" s="1">
         <v>1</v>
@@ -3920,16 +3920,16 @@
       <c r="E124" s="1">
         <v>1</v>
       </c>
-      <c r="F124" s="15" t="s">
-        <v>63</v>
+      <c r="F124" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="125" spans="2:6">
       <c r="B125" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C125" s="1">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D125" s="1">
         <v>1</v>
@@ -3937,16 +3937,16 @@
       <c r="E125" s="1">
         <v>1</v>
       </c>
-      <c r="F125" s="1" t="s">
-        <v>65</v>
+      <c r="F125" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="126" spans="2:6">
       <c r="B126" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C126" s="1">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D126" s="1">
         <v>1</v>
@@ -3954,16 +3954,16 @@
       <c r="E126" s="1">
         <v>1</v>
       </c>
-      <c r="F126" s="15" t="s">
-        <v>63</v>
+      <c r="F126" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="127" spans="2:6">
       <c r="B127" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C127" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D127" s="1">
         <v>1</v>
@@ -3971,16 +3971,16 @@
       <c r="E127" s="1">
         <v>1</v>
       </c>
-      <c r="F127" s="1" t="s">
-        <v>64</v>
+      <c r="F127" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="128" spans="2:6">
       <c r="B128" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C128" s="1">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D128" s="1">
         <v>1</v>
@@ -3989,15 +3989,15 @@
         <v>1</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="129" spans="2:6">
       <c r="B129" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C129" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D129" s="1">
         <v>1</v>
@@ -4006,15 +4006,15 @@
         <v>1</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="130" spans="2:6">
       <c r="B130" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C130" s="1">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D130" s="1">
         <v>1</v>
@@ -4023,15 +4023,15 @@
         <v>1</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="131" spans="2:6">
       <c r="B131" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C131" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D131" s="1">
         <v>1</v>
@@ -4040,15 +4040,15 @@
         <v>1</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="132" spans="2:6">
       <c r="B132" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C132" s="1">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D132" s="1">
         <v>1</v>
@@ -4057,12 +4057,12 @@
         <v>1</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="133" spans="2:6">
       <c r="B133" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C133" s="1">
         <v>2003</v>
@@ -4077,83 +4077,83 @@
         <v>65</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>47</v>
+    <row r="134" spans="2:6">
+      <c r="B134" s="1">
+        <v>15</v>
+      </c>
+      <c r="C134" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D134" s="1">
+        <v>1</v>
+      </c>
+      <c r="E134" s="1">
+        <v>1</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="E138" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="F138" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="2:6">
-      <c r="B138" s="1" t="s">
+    <row r="139" spans="2:6">
+      <c r="B139" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C139" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="E139" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F138" s="1" t="s">
+      <c r="F139" s="1" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="139" spans="2:6">
-      <c r="B139" s="1">
-        <v>1</v>
-      </c>
-      <c r="C139" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D139" s="1">
-        <v>1</v>
-      </c>
-      <c r="E139" s="1">
-        <v>1</v>
-      </c>
-      <c r="F139" s="15" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="140" spans="2:6">
       <c r="B140" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C140" s="1">
         <v>2001</v>
@@ -4170,10 +4170,10 @@
     </row>
     <row r="141" spans="2:6">
       <c r="B141" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C141" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D141" s="1">
         <v>1</v>
@@ -4182,15 +4182,15 @@
         <v>1</v>
       </c>
       <c r="F141" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="142" spans="2:6">
       <c r="B142" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C142" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D142" s="1">
         <v>1</v>
@@ -4199,12 +4199,12 @@
         <v>1</v>
       </c>
       <c r="F142" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="143" spans="2:6">
       <c r="B143" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C143" s="1">
         <v>2001</v>
@@ -4221,10 +4221,10 @@
     </row>
     <row r="144" spans="2:6">
       <c r="B144" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C144" s="1">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D144" s="1">
         <v>1</v>
@@ -4233,15 +4233,15 @@
         <v>1</v>
       </c>
       <c r="F144" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="145" spans="2:6">
       <c r="B145" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C145" s="1">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D145" s="1">
         <v>1</v>
@@ -4250,12 +4250,12 @@
         <v>1</v>
       </c>
       <c r="F145" s="15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="146" spans="2:6">
       <c r="B146" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C146" s="1">
         <v>2001</v>
@@ -4272,41 +4272,41 @@
     </row>
     <row r="147" spans="2:6">
       <c r="B147" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C147" s="1">
         <v>2001</v>
       </c>
       <c r="D147" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E147" s="1">
         <v>1</v>
       </c>
       <c r="F147" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="148" spans="2:6">
       <c r="B148" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C148" s="1">
         <v>2001</v>
       </c>
       <c r="D148" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E148" s="1">
         <v>1</v>
       </c>
       <c r="F148" s="15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="149" spans="2:6">
       <c r="B149" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C149" s="1">
         <v>2001</v>
@@ -4323,41 +4323,41 @@
     </row>
     <row r="150" spans="2:6">
       <c r="B150" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C150" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D150" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E150" s="1">
         <v>1</v>
       </c>
       <c r="F150" s="15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="151" spans="2:6">
       <c r="B151" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C151" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D151" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E151" s="1">
         <v>1</v>
       </c>
       <c r="F151" s="15" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="152" spans="2:6">
       <c r="B152" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C152" s="1">
         <v>2001</v>
@@ -4374,44 +4374,44 @@
     </row>
     <row r="153" spans="2:6">
       <c r="B153" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C153" s="1">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D153" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E153" s="1">
         <v>1</v>
       </c>
       <c r="F153" s="15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="154" spans="2:6">
       <c r="B154" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C154" s="1">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D154" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E154" s="1">
         <v>1</v>
       </c>
       <c r="F154" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="155" spans="2:6">
       <c r="B155" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C155" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D155" s="1">
         <v>1</v>
@@ -4425,18 +4425,35 @@
     </row>
     <row r="156" spans="2:6">
       <c r="B156" s="1">
+        <v>17</v>
+      </c>
+      <c r="C156" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D156" s="1">
+        <v>1</v>
+      </c>
+      <c r="E156" s="1">
+        <v>1</v>
+      </c>
+      <c r="F156" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6">
+      <c r="B157" s="1">
         <v>18</v>
       </c>
-      <c r="C156" s="1">
+      <c r="C157" s="1">
         <v>2003</v>
       </c>
-      <c r="D156" s="1">
-        <v>1</v>
-      </c>
-      <c r="E156" s="1">
-        <v>1</v>
-      </c>
-      <c r="F156" s="15" t="s">
+      <c r="D157" s="1">
+        <v>1</v>
+      </c>
+      <c r="E157" s="1">
+        <v>1</v>
+      </c>
+      <c r="F157" s="15" t="s">
         <v>75</v>
       </c>
     </row>

--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$100:$C$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$99:$C$103</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -426,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B73" authorId="0">
+    <comment ref="B72" authorId="0">
       <text>
         <r>
           <rPr>
@@ -448,7 +448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B76" authorId="0">
+    <comment ref="B75" authorId="0">
       <text>
         <r>
           <rPr>
@@ -470,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B79" authorId="0">
+    <comment ref="B78" authorId="0">
       <text>
         <r>
           <rPr>
@@ -492,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B82" authorId="0">
+    <comment ref="B81" authorId="0">
       <text>
         <r>
           <rPr>
@@ -514,7 +514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B85" authorId="0">
+    <comment ref="B84" authorId="0">
       <text>
         <r>
           <rPr>
@@ -536,7 +536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B92" authorId="2">
+    <comment ref="B91" authorId="2">
       <text>
         <r>
           <rPr>
@@ -548,7 +548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B93" authorId="1">
+    <comment ref="B92" authorId="1">
       <text>
         <r>
           <rPr>
@@ -560,7 +560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B102" authorId="0">
+    <comment ref="B101" authorId="0">
       <text>
         <r>
           <rPr>
@@ -583,7 +583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B109" authorId="0">
+    <comment ref="B138" authorId="0">
       <text>
         <r>
           <rPr>
@@ -605,7 +605,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B118" authorId="0">
+    <comment ref="B147" authorId="0">
       <text>
         <r>
           <rPr>
@@ -627,7 +627,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B138" authorId="0">
+    <comment ref="B167" authorId="0">
       <text>
         <r>
           <rPr>
@@ -654,7 +654,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107">
   <si>
     <t>挖矿暴击权重配置表</t>
   </si>
@@ -785,7 +785,7 @@
     <t>rate</t>
   </si>
   <si>
-    <t>奖券兑换配置表(虚拟物品)</t>
+    <t>ST兑换配置表(虚拟物品)</t>
   </si>
   <si>
     <t>奖励id5xxxxx</t>
@@ -797,31 +797,124 @@
     <t>所需ST</t>
   </si>
   <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>价值</t>
+  </si>
+  <si>
+    <t>$STConvertCfg</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>19.9精品课</t>
+  </si>
+  <si>
+    <t>99元大师课</t>
+  </si>
+  <si>
+    <t>《每天听本书》 VIP月卡</t>
+  </si>
+  <si>
+    <t>爱奇艺月卡</t>
+  </si>
+  <si>
+    <t>爱奇艺季卡</t>
+  </si>
+  <si>
+    <t>爱奇艺年卡</t>
+  </si>
+  <si>
+    <t>优酷月卡</t>
+  </si>
+  <si>
+    <t>优酷季卡</t>
+  </si>
+  <si>
+    <t>优酷年卡</t>
+  </si>
+  <si>
+    <t>腾讯视频月卡</t>
+  </si>
+  <si>
+    <t>腾讯视频季卡</t>
+  </si>
+  <si>
+    <t>腾讯视频年卡</t>
+  </si>
+  <si>
+    <t>虾米音乐月卡</t>
+  </si>
+  <si>
+    <t>虾米音乐季卡</t>
+  </si>
+  <si>
+    <t>虾米音乐年卡</t>
+  </si>
+  <si>
+    <t>星巴克咖啡兑换券</t>
+  </si>
+  <si>
+    <t>天猫超市50元购物券</t>
+  </si>
+  <si>
+    <t>京东E卡50元</t>
+  </si>
+  <si>
+    <t>网易严选50元</t>
+  </si>
+  <si>
+    <t>星巴克星礼卡50元</t>
+  </si>
+  <si>
+    <t>星巴克星礼卡100元</t>
+  </si>
+  <si>
+    <t>COSTA心艺卡50元</t>
+  </si>
+  <si>
+    <t>COSTA心艺卡100元</t>
+  </si>
+  <si>
+    <t>网易云音乐黑胶CVIP月卡</t>
+  </si>
+  <si>
+    <t>网易云音乐黑胶CVIP季卡</t>
+  </si>
+  <si>
+    <t>网易云音乐黑胶CVIP年卡</t>
+  </si>
+  <si>
+    <t>联通手机充值卡30元</t>
+  </si>
+  <si>
+    <t>移动手机充值卡30元</t>
+  </si>
+  <si>
+    <t>Q币充值：10个</t>
+  </si>
+  <si>
+    <t>QQ会员：月卡</t>
+  </si>
+  <si>
+    <t>固定奖励配置表</t>
+  </si>
+  <si>
+    <t>奖励id6xxxxx</t>
+  </si>
+  <si>
     <t>描述</t>
-  </si>
-  <si>
-    <t>$STConvertCfg</t>
-  </si>
-  <si>
-    <t>num</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>str</t>
-  </si>
-  <si>
-    <t>测试物品</t>
-  </si>
-  <si>
-    <t>测试物品2</t>
-  </si>
-  <si>
-    <t>固定奖励配置表</t>
-  </si>
-  <si>
-    <t>奖励id6xxxxx</t>
   </si>
   <si>
     <t>$RegularAwardCfg</t>
@@ -889,8 +982,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -927,6 +1020,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -934,15 +1041,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -955,16 +1054,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -980,37 +1080,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1020,35 +1089,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1067,6 +1107,59 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1139,7 +1232,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,19 +1256,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1175,25 +1292,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1205,13 +1334,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1223,7 +1352,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1235,79 +1388,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,6 +1410,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1330,17 +1423,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1374,26 +1456,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1416,17 +1489,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1438,10 +1531,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1450,137 +1543,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1625,6 +1718,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1977,10 +2073,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:H157"/>
+  <dimension ref="A3:H186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100:F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3155,30 +3251,34 @@
       </c>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="12">
-        <v>100704</v>
-      </c>
-      <c r="C72" s="12">
-        <v>1001</v>
-      </c>
-      <c r="D72" s="12">
-        <v>1</v>
-      </c>
-      <c r="E72" s="12">
-        <v>1</v>
-      </c>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12">
-        <v>10</v>
+      <c r="B72" s="13">
+        <v>100801</v>
+      </c>
+      <c r="C72" s="13">
+        <v>2001</v>
+      </c>
+      <c r="D72" s="13">
+        <v>5</v>
+      </c>
+      <c r="E72" s="13">
+        <v>15</v>
+      </c>
+      <c r="F72" s="13">
+        <v>3</v>
+      </c>
+      <c r="G72" s="13">
+        <v>1</v>
+      </c>
+      <c r="H72" s="13">
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="2:8">
       <c r="B73" s="13">
-        <v>100801</v>
+        <v>100802</v>
       </c>
       <c r="C73" s="13">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D73" s="13">
         <v>5</v>
@@ -3186,22 +3286,18 @@
       <c r="E73" s="13">
         <v>15</v>
       </c>
-      <c r="F73" s="13">
-        <v>3</v>
-      </c>
-      <c r="G73" s="13">
-        <v>1</v>
-      </c>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
       <c r="H73" s="13">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="2:8">
       <c r="B74" s="13">
-        <v>100802</v>
+        <v>100803</v>
       </c>
       <c r="C74" s="13">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D74" s="13">
         <v>5</v>
@@ -3212,34 +3308,38 @@
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
       <c r="H74" s="13">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="2:8">
-      <c r="B75" s="13">
-        <v>100803</v>
-      </c>
-      <c r="C75" s="13">
-        <v>2003</v>
-      </c>
-      <c r="D75" s="13">
-        <v>5</v>
-      </c>
-      <c r="E75" s="13">
-        <v>15</v>
-      </c>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13">
+      <c r="B75" s="14">
+        <v>100901</v>
+      </c>
+      <c r="C75" s="14">
+        <v>2001</v>
+      </c>
+      <c r="D75" s="14">
         <v>10</v>
+      </c>
+      <c r="E75" s="14">
+        <v>30</v>
+      </c>
+      <c r="F75" s="14">
+        <v>3</v>
+      </c>
+      <c r="G75" s="14">
+        <v>1</v>
+      </c>
+      <c r="H75" s="14">
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="2:8">
       <c r="B76" s="14">
-        <v>100901</v>
+        <v>100902</v>
       </c>
       <c r="C76" s="14">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D76" s="14">
         <v>10</v>
@@ -3247,22 +3347,18 @@
       <c r="E76" s="14">
         <v>30</v>
       </c>
-      <c r="F76" s="14">
-        <v>3</v>
-      </c>
-      <c r="G76" s="14">
-        <v>1</v>
-      </c>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
       <c r="H76" s="14">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="2:8">
       <c r="B77" s="14">
-        <v>100902</v>
+        <v>100903</v>
       </c>
       <c r="C77" s="14">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D77" s="14">
         <v>10</v>
@@ -3273,34 +3369,38 @@
       <c r="F77" s="14"/>
       <c r="G77" s="14"/>
       <c r="H77" s="14">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="14">
-        <v>100903</v>
-      </c>
-      <c r="C78" s="14">
-        <v>2003</v>
-      </c>
-      <c r="D78" s="14">
-        <v>10</v>
-      </c>
-      <c r="E78" s="14">
-        <v>30</v>
-      </c>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14">
-        <v>10</v>
+      <c r="B78" s="12">
+        <v>101001</v>
+      </c>
+      <c r="C78" s="12">
+        <v>2001</v>
+      </c>
+      <c r="D78" s="12">
+        <v>1</v>
+      </c>
+      <c r="E78" s="12">
+        <v>3</v>
+      </c>
+      <c r="F78" s="12">
+        <v>3</v>
+      </c>
+      <c r="G78" s="12">
+        <v>1</v>
+      </c>
+      <c r="H78" s="12">
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="2:8">
       <c r="B79" s="12">
-        <v>101001</v>
+        <v>101002</v>
       </c>
       <c r="C79" s="12">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D79" s="12">
         <v>1</v>
@@ -3308,22 +3408,18 @@
       <c r="E79" s="12">
         <v>3</v>
       </c>
-      <c r="F79" s="12">
-        <v>3</v>
-      </c>
-      <c r="G79" s="12">
-        <v>1</v>
-      </c>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
       <c r="H79" s="12">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="2:8">
       <c r="B80" s="12">
-        <v>101002</v>
+        <v>101003</v>
       </c>
       <c r="C80" s="12">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D80" s="12">
         <v>1</v>
@@ -3334,34 +3430,38 @@
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
       <c r="H80" s="12">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="2:8">
-      <c r="B81" s="12">
-        <v>101003</v>
-      </c>
-      <c r="C81" s="12">
-        <v>2003</v>
-      </c>
-      <c r="D81" s="12">
-        <v>1</v>
-      </c>
-      <c r="E81" s="12">
+      <c r="B81" s="13">
+        <v>101101</v>
+      </c>
+      <c r="C81" s="13">
+        <v>2001</v>
+      </c>
+      <c r="D81" s="13">
+        <v>5</v>
+      </c>
+      <c r="E81" s="13">
+        <v>15</v>
+      </c>
+      <c r="F81" s="13">
         <v>3</v>
       </c>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12">
-        <v>10</v>
+      <c r="G81" s="13">
+        <v>1</v>
+      </c>
+      <c r="H81" s="13">
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="2:8">
       <c r="B82" s="13">
-        <v>101101</v>
+        <v>101102</v>
       </c>
       <c r="C82" s="13">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D82" s="13">
         <v>5</v>
@@ -3369,22 +3469,18 @@
       <c r="E82" s="13">
         <v>15</v>
       </c>
-      <c r="F82" s="13">
-        <v>3</v>
-      </c>
-      <c r="G82" s="13">
-        <v>1</v>
-      </c>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
       <c r="H82" s="13">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="2:8">
       <c r="B83" s="13">
-        <v>101102</v>
+        <v>101103</v>
       </c>
       <c r="C83" s="13">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D83" s="13">
         <v>5</v>
@@ -3395,34 +3491,38 @@
       <c r="F83" s="13"/>
       <c r="G83" s="13"/>
       <c r="H83" s="13">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="2:8">
-      <c r="B84" s="13">
-        <v>101103</v>
-      </c>
-      <c r="C84" s="13">
-        <v>2003</v>
-      </c>
-      <c r="D84" s="13">
-        <v>5</v>
-      </c>
-      <c r="E84" s="13">
-        <v>15</v>
-      </c>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13">
+      <c r="B84" s="14">
+        <v>101201</v>
+      </c>
+      <c r="C84" s="14">
+        <v>2001</v>
+      </c>
+      <c r="D84" s="14">
         <v>10</v>
+      </c>
+      <c r="E84" s="14">
+        <v>30</v>
+      </c>
+      <c r="F84" s="14">
+        <v>3</v>
+      </c>
+      <c r="G84" s="14">
+        <v>1</v>
+      </c>
+      <c r="H84" s="14">
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="2:8">
       <c r="B85" s="14">
-        <v>101201</v>
+        <v>101202</v>
       </c>
       <c r="C85" s="14">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D85" s="14">
         <v>10</v>
@@ -3430,22 +3530,18 @@
       <c r="E85" s="14">
         <v>30</v>
       </c>
-      <c r="F85" s="14">
-        <v>3</v>
-      </c>
-      <c r="G85" s="14">
-        <v>1</v>
-      </c>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
       <c r="H85" s="14">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="2:8">
       <c r="B86" s="14">
-        <v>101202</v>
+        <v>101203</v>
       </c>
       <c r="C86" s="14">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D86" s="14">
         <v>10</v>
@@ -3456,115 +3552,116 @@
       <c r="F86" s="14"/>
       <c r="G86" s="14"/>
       <c r="H86" s="14">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="2:8">
-      <c r="B87" s="14">
-        <v>101203</v>
-      </c>
-      <c r="C87" s="14">
-        <v>2003</v>
-      </c>
-      <c r="D87" s="14">
-        <v>10</v>
-      </c>
-      <c r="E87" s="14">
-        <v>30</v>
-      </c>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8">
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="2:2">
       <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="7"/>
     </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="7"/>
+    <row r="91" spans="1:7">
+      <c r="A91" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="6" t="s">
-        <v>41</v>
-      </c>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7">
       <c r="B93" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="2:7">
-      <c r="B94" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>12</v>
+      <c r="B94" s="7">
+        <v>401101</v>
+      </c>
+      <c r="C94" s="5">
+        <v>322000001</v>
+      </c>
+      <c r="D94" s="7">
+        <v>1</v>
+      </c>
+      <c r="E94" s="7">
+        <v>1</v>
+      </c>
+      <c r="F94" s="7">
+        <v>5</v>
+      </c>
+      <c r="G94" s="7">
+        <v>1250</v>
       </c>
     </row>
     <row r="95" spans="2:7">
       <c r="B95" s="7">
-        <v>401101</v>
-      </c>
-      <c r="C95" s="5">
-        <v>322000001</v>
+        <v>401102</v>
+      </c>
+      <c r="C95" s="7">
+        <v>410101</v>
       </c>
       <c r="D95" s="7">
         <v>1</v>
@@ -3572,19 +3669,17 @@
       <c r="E95" s="7">
         <v>1</v>
       </c>
-      <c r="F95" s="7">
-        <v>5</v>
-      </c>
+      <c r="F95" s="7"/>
       <c r="G95" s="7">
-        <v>1250</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="96" spans="2:7">
       <c r="B96" s="7">
-        <v>401102</v>
+        <v>401103</v>
       </c>
       <c r="C96" s="7">
-        <v>410101</v>
+        <v>310101</v>
       </c>
       <c r="D96" s="7">
         <v>1</v>
@@ -3594,512 +3689,588 @@
       </c>
       <c r="F96" s="7"/>
       <c r="G96" s="7">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7">
-      <c r="B97" s="7">
-        <v>401103</v>
-      </c>
-      <c r="C97" s="7">
-        <v>310101</v>
-      </c>
-      <c r="D97" s="7">
-        <v>1</v>
-      </c>
-      <c r="E97" s="7">
-        <v>1</v>
-      </c>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7">
         <v>1250</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="100" spans="1:6">
+      <c r="A100" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6">
+      <c r="B102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" ht="42" customHeight="1" spans="2:6">
+      <c r="B103" s="1">
+        <v>500001</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1</v>
+      </c>
+      <c r="D103" s="1">
+        <v>100</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F103" s="1">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="104" ht="32" customHeight="1" spans="2:6">
+      <c r="B104" s="1">
+        <v>500002</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1</v>
+      </c>
+      <c r="D104" s="1">
+        <v>101</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F104" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" ht="32" customHeight="1" spans="2:6">
+      <c r="B105" s="1">
+        <v>500003</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1</v>
+      </c>
+      <c r="D105" s="1">
+        <v>102</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F105" s="1">
         <v>48</v>
       </c>
-      <c r="B102" s="1" t="s">
+    </row>
+    <row r="106" ht="32" customHeight="1" spans="2:6">
+      <c r="B106" s="1">
+        <v>500004</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1</v>
+      </c>
+      <c r="D106" s="1">
+        <v>103</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F106" s="1">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="107" ht="32" customHeight="1" spans="2:6">
+      <c r="B107" s="1">
+        <v>500005</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1</v>
+      </c>
+      <c r="D107" s="1">
+        <v>104</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F107" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="108" ht="32" customHeight="1" spans="2:6">
+      <c r="B108" s="1">
+        <v>500006</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1</v>
+      </c>
+      <c r="D108" s="1">
+        <v>105</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F108" s="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="109" ht="32" customHeight="1" spans="2:6">
+      <c r="B109" s="1">
+        <v>500007</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1</v>
+      </c>
+      <c r="D109" s="1">
+        <v>106</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F109" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" ht="32" customHeight="1" spans="2:6">
+      <c r="B110" s="1">
+        <v>500008</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1</v>
+      </c>
+      <c r="D110" s="1">
+        <v>107</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F110" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="111" ht="32" customHeight="1" spans="2:6">
+      <c r="B111" s="1">
+        <v>500009</v>
+      </c>
+      <c r="C111" s="1">
+        <v>1</v>
+      </c>
+      <c r="D111" s="1">
+        <v>108</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F111" s="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="112" ht="32" customHeight="1" spans="2:6">
+      <c r="B112" s="1">
+        <v>500010</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1</v>
+      </c>
+      <c r="D112" s="1">
+        <v>109</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F112" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" ht="32" customHeight="1" spans="2:6">
+      <c r="B113" s="1">
+        <v>500011</v>
+      </c>
+      <c r="C113" s="1">
+        <v>1</v>
+      </c>
+      <c r="D113" s="1">
+        <v>110</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F113" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="114" ht="32" customHeight="1" spans="2:6">
+      <c r="B114" s="1">
+        <v>500012</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1</v>
+      </c>
+      <c r="D114" s="1">
+        <v>111</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F114" s="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="115" ht="32" customHeight="1" spans="2:6">
+      <c r="B115" s="1">
+        <v>500013</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1</v>
+      </c>
+      <c r="D115" s="1">
+        <v>112</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F115" s="1">
         <v>8</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D102" s="1" t="s">
+    </row>
+    <row r="116" ht="32" customHeight="1" spans="2:6">
+      <c r="B116" s="1">
+        <v>500014</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1</v>
+      </c>
+      <c r="D116" s="1">
+        <v>113</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F116" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="117" ht="32" customHeight="1" spans="2:6">
+      <c r="B117" s="1">
+        <v>500015</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1</v>
+      </c>
+      <c r="D117" s="1">
+        <v>114</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F117" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="118" ht="32" customHeight="1" spans="2:6">
+      <c r="B118" s="1">
+        <v>500016</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1</v>
+      </c>
+      <c r="D118" s="1">
+        <v>115</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F118" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="119" ht="32" customHeight="1" spans="2:6">
+      <c r="B119" s="1">
+        <v>500017</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1</v>
+      </c>
+      <c r="D119" s="1">
+        <v>116</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F119" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" ht="32" customHeight="1" spans="2:6">
+      <c r="B120" s="1">
+        <v>500018</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1</v>
+      </c>
+      <c r="D120" s="1">
+        <v>117</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F120" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" ht="32" customHeight="1" spans="2:6">
+      <c r="B121" s="1">
+        <v>500019</v>
+      </c>
+      <c r="C121" s="1">
+        <v>1</v>
+      </c>
+      <c r="D121" s="1">
+        <v>118</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F121" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" ht="32" customHeight="1" spans="2:6">
+      <c r="B122" s="1">
+        <v>500020</v>
+      </c>
+      <c r="C122" s="1">
+        <v>1</v>
+      </c>
+      <c r="D122" s="1">
+        <v>119</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F122" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" ht="32" customHeight="1" spans="2:6">
+      <c r="B123" s="1">
+        <v>500021</v>
+      </c>
+      <c r="C123" s="1">
+        <v>1</v>
+      </c>
+      <c r="D123" s="1">
+        <v>120</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F123" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" ht="32" customHeight="1" spans="2:6">
+      <c r="B124" s="1">
+        <v>500022</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1</v>
+      </c>
+      <c r="D124" s="1">
+        <v>121</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F124" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125" ht="32" customHeight="1" spans="2:6">
+      <c r="B125" s="1">
+        <v>500023</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1">
+        <v>122</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F125" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" ht="32" customHeight="1" spans="2:6">
+      <c r="B126" s="1">
+        <v>500024</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1">
+        <v>123</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F126" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" ht="32" customHeight="1" spans="2:6">
+      <c r="B127" s="1">
+        <v>500025</v>
+      </c>
+      <c r="C127" s="1">
+        <v>1</v>
+      </c>
+      <c r="D127" s="1">
+        <v>124</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F127" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="128" ht="32" customHeight="1" spans="2:6">
+      <c r="B128" s="1">
+        <v>500026</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1">
+        <v>125</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F128" s="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="129" ht="32" customHeight="1" spans="2:6">
+      <c r="B129" s="1">
+        <v>500027</v>
+      </c>
+      <c r="C129" s="1">
+        <v>1</v>
+      </c>
+      <c r="D129" s="1">
+        <v>126</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F129" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" ht="32" customHeight="1" spans="2:6">
+      <c r="B130" s="1">
+        <v>500028</v>
+      </c>
+      <c r="C130" s="1">
+        <v>1</v>
+      </c>
+      <c r="D130" s="1">
+        <v>127</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F130" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" ht="32" customHeight="1" spans="2:6">
+      <c r="B131" s="1">
+        <v>500029</v>
+      </c>
+      <c r="C131" s="1">
+        <v>1</v>
+      </c>
+      <c r="D131" s="1">
+        <v>128</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F131" s="1">
         <v>10</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5">
-      <c r="B103" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5">
-      <c r="B104" s="1">
-        <v>500001</v>
-      </c>
-      <c r="C104" s="1">
-        <v>1</v>
-      </c>
-      <c r="D104" s="1">
+    </row>
+    <row r="132" ht="32" customHeight="1" spans="2:6">
+      <c r="B132" s="1">
+        <v>500030</v>
+      </c>
+      <c r="C132" s="1">
+        <v>1</v>
+      </c>
+      <c r="D132" s="1">
+        <v>129</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F132" s="1">
         <v>10</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5">
-      <c r="B105" s="1">
-        <v>500002</v>
-      </c>
-      <c r="C105" s="1">
-        <v>1</v>
-      </c>
-      <c r="D105" s="1">
-        <v>50</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6">
-      <c r="B110" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="111" spans="2:6">
-      <c r="B111" s="1">
-        <v>600101</v>
-      </c>
-      <c r="C111" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D111" s="1">
-        <v>2</v>
-      </c>
-      <c r="E111" s="1">
-        <v>2</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6">
-      <c r="B112" s="1">
-        <v>600401</v>
-      </c>
-      <c r="C112" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D112" s="1">
-        <v>1</v>
-      </c>
-      <c r="E112" s="1">
-        <v>1</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6">
-      <c r="B119" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="120" spans="2:6">
-      <c r="B120" s="1">
-        <v>1</v>
-      </c>
-      <c r="C120" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D120" s="1">
-        <v>1</v>
-      </c>
-      <c r="E120" s="1">
-        <v>1</v>
-      </c>
-      <c r="F120" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="121" spans="2:6">
-      <c r="B121" s="1">
-        <v>2</v>
-      </c>
-      <c r="C121" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D121" s="1">
-        <v>1</v>
-      </c>
-      <c r="E121" s="1">
-        <v>1</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="122" spans="2:6">
-      <c r="B122" s="1">
-        <v>3</v>
-      </c>
-      <c r="C122" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D122" s="1">
-        <v>1</v>
-      </c>
-      <c r="E122" s="1">
-        <v>1</v>
-      </c>
-      <c r="F122" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="123" spans="2:6">
-      <c r="B123" s="1">
-        <v>4</v>
-      </c>
-      <c r="C123" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D123" s="1">
-        <v>1</v>
-      </c>
-      <c r="E123" s="1">
-        <v>1</v>
-      </c>
-      <c r="F123" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="124" spans="2:6">
-      <c r="B124" s="1">
-        <v>5</v>
-      </c>
-      <c r="C124" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D124" s="1">
-        <v>1</v>
-      </c>
-      <c r="E124" s="1">
-        <v>1</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="125" spans="2:6">
-      <c r="B125" s="1">
-        <v>6</v>
-      </c>
-      <c r="C125" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D125" s="1">
-        <v>1</v>
-      </c>
-      <c r="E125" s="1">
-        <v>1</v>
-      </c>
-      <c r="F125" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="126" spans="2:6">
-      <c r="B126" s="1">
-        <v>7</v>
-      </c>
-      <c r="C126" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D126" s="1">
-        <v>1</v>
-      </c>
-      <c r="E126" s="1">
-        <v>1</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="127" spans="2:6">
-      <c r="B127" s="1">
-        <v>8</v>
-      </c>
-      <c r="C127" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D127" s="1">
-        <v>1</v>
-      </c>
-      <c r="E127" s="1">
-        <v>1</v>
-      </c>
-      <c r="F127" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="128" spans="2:6">
-      <c r="B128" s="1">
-        <v>9</v>
-      </c>
-      <c r="C128" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D128" s="1">
-        <v>1</v>
-      </c>
-      <c r="E128" s="1">
-        <v>1</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="129" spans="2:6">
-      <c r="B129" s="1">
-        <v>10</v>
-      </c>
-      <c r="C129" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D129" s="1">
-        <v>1</v>
-      </c>
-      <c r="E129" s="1">
-        <v>1</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="130" spans="2:6">
-      <c r="B130" s="1">
-        <v>11</v>
-      </c>
-      <c r="C130" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D130" s="1">
-        <v>1</v>
-      </c>
-      <c r="E130" s="1">
-        <v>1</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="131" spans="2:6">
-      <c r="B131" s="1">
-        <v>12</v>
-      </c>
-      <c r="C131" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D131" s="1">
-        <v>1</v>
-      </c>
-      <c r="E131" s="1">
-        <v>1</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="132" spans="2:6">
-      <c r="B132" s="1">
-        <v>13</v>
-      </c>
-      <c r="C132" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D132" s="1">
-        <v>1</v>
-      </c>
-      <c r="E132" s="1">
-        <v>1</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="133" spans="2:6">
-      <c r="B133" s="1">
-        <v>14</v>
-      </c>
-      <c r="C133" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D133" s="1">
-        <v>1</v>
-      </c>
-      <c r="E133" s="1">
-        <v>1</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="134" spans="2:6">
-      <c r="B134" s="1">
-        <v>15</v>
-      </c>
-      <c r="C134" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D134" s="1">
-        <v>1</v>
-      </c>
-      <c r="E134" s="1">
-        <v>1</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>65</v>
-      </c>
+    </row>
+    <row r="133" ht="32" customHeight="1" spans="6:6">
+      <c r="F133" s="15"/>
+    </row>
+    <row r="134" ht="32" customHeight="1" spans="6:6">
+      <c r="F134" s="15"/>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>26</v>
@@ -4111,12 +4282,12 @@
         <v>4</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>8</v>
@@ -4125,13 +4296,13 @@
         <v>31</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="139" spans="2:6">
@@ -4148,32 +4319,32 @@
         <v>12</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="140" spans="2:6">
       <c r="B140" s="1">
-        <v>1</v>
+        <v>600101</v>
       </c>
       <c r="C140" s="1">
         <v>2001</v>
       </c>
       <c r="D140" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E140" s="1">
-        <v>1</v>
-      </c>
-      <c r="F140" s="15" t="s">
-        <v>69</v>
+        <v>2</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="141" spans="2:6">
       <c r="B141" s="1">
-        <v>2</v>
+        <v>600401</v>
       </c>
       <c r="C141" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D141" s="1">
         <v>1</v>
@@ -4181,132 +4352,70 @@
       <c r="E141" s="1">
         <v>1</v>
       </c>
-      <c r="F141" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="142" spans="2:6">
-      <c r="B142" s="1">
-        <v>3</v>
-      </c>
-      <c r="C142" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D142" s="1">
-        <v>1</v>
-      </c>
-      <c r="E142" s="1">
-        <v>1</v>
-      </c>
-      <c r="F142" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="143" spans="2:6">
-      <c r="B143" s="1">
+      <c r="F141" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C143" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D143" s="1">
-        <v>1</v>
-      </c>
-      <c r="E143" s="1">
-        <v>1</v>
-      </c>
-      <c r="F143" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="144" spans="2:6">
-      <c r="B144" s="1">
-        <v>5</v>
-      </c>
-      <c r="C144" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D144" s="1">
-        <v>1</v>
-      </c>
-      <c r="E144" s="1">
-        <v>1</v>
-      </c>
-      <c r="F144" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="145" spans="2:6">
-      <c r="B145" s="1">
-        <v>6</v>
-      </c>
-      <c r="C145" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D145" s="1">
-        <v>1</v>
-      </c>
-      <c r="E145" s="1">
-        <v>1</v>
-      </c>
-      <c r="F145" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="146" spans="2:6">
-      <c r="B146" s="1">
-        <v>7</v>
-      </c>
-      <c r="C146" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D146" s="1">
-        <v>1</v>
-      </c>
-      <c r="E146" s="1">
-        <v>1</v>
-      </c>
-      <c r="F146" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="147" spans="2:6">
-      <c r="B147" s="1">
-        <v>8</v>
-      </c>
-      <c r="C147" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D147" s="1">
-        <v>1</v>
-      </c>
-      <c r="E147" s="1">
-        <v>1</v>
-      </c>
-      <c r="F147" s="15" t="s">
-        <v>69</v>
+      <c r="F146" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="148" spans="2:6">
-      <c r="B148" s="1">
-        <v>9</v>
-      </c>
-      <c r="C148" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D148" s="1">
-        <v>2</v>
-      </c>
-      <c r="E148" s="1">
-        <v>1</v>
-      </c>
-      <c r="F148" s="15" t="s">
-        <v>72</v>
+      <c r="B148" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="149" spans="2:6">
       <c r="B149" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C149" s="1">
         <v>2001</v>
@@ -4317,16 +4426,16 @@
       <c r="E149" s="1">
         <v>1</v>
       </c>
-      <c r="F149" s="15" t="s">
-        <v>69</v>
+      <c r="F149" s="16" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="150" spans="2:6">
       <c r="B150" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C150" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D150" s="1">
         <v>1</v>
@@ -4334,30 +4443,30 @@
       <c r="E150" s="1">
         <v>1</v>
       </c>
-      <c r="F150" s="15" t="s">
-        <v>69</v>
+      <c r="F150" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="151" spans="2:6">
       <c r="B151" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C151" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D151" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E151" s="1">
         <v>1</v>
       </c>
-      <c r="F151" s="15" t="s">
-        <v>73</v>
+      <c r="F151" s="16" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="152" spans="2:6">
       <c r="B152" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C152" s="1">
         <v>2001</v>
@@ -4368,16 +4477,16 @@
       <c r="E152" s="1">
         <v>1</v>
       </c>
-      <c r="F152" s="15" t="s">
-        <v>69</v>
+      <c r="F152" s="16" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="153" spans="2:6">
       <c r="B153" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C153" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D153" s="1">
         <v>1</v>
@@ -4385,33 +4494,33 @@
       <c r="E153" s="1">
         <v>1</v>
       </c>
-      <c r="F153" s="15" t="s">
-        <v>69</v>
+      <c r="F153" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="154" spans="2:6">
       <c r="B154" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C154" s="1">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D154" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E154" s="1">
         <v>1</v>
       </c>
-      <c r="F154" s="15" t="s">
-        <v>74</v>
+      <c r="F154" s="16" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="155" spans="2:6">
       <c r="B155" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C155" s="1">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D155" s="1">
         <v>1</v>
@@ -4419,16 +4528,16 @@
       <c r="E155" s="1">
         <v>1</v>
       </c>
-      <c r="F155" s="15" t="s">
-        <v>75</v>
+      <c r="F155" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="156" spans="2:6">
       <c r="B156" s="1">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C156" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D156" s="1">
         <v>1</v>
@@ -4436,25 +4545,490 @@
       <c r="E156" s="1">
         <v>1</v>
       </c>
-      <c r="F156" s="15" t="s">
-        <v>75</v>
+      <c r="F156" s="16" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="157" spans="2:6">
       <c r="B157" s="1">
+        <v>9</v>
+      </c>
+      <c r="C157" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D157" s="1">
+        <v>1</v>
+      </c>
+      <c r="E157" s="1">
+        <v>1</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6">
+      <c r="B158" s="1">
+        <v>10</v>
+      </c>
+      <c r="C158" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D158" s="1">
+        <v>1</v>
+      </c>
+      <c r="E158" s="1">
+        <v>1</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6">
+      <c r="B159" s="1">
+        <v>11</v>
+      </c>
+      <c r="C159" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D159" s="1">
+        <v>1</v>
+      </c>
+      <c r="E159" s="1">
+        <v>1</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6">
+      <c r="B160" s="1">
+        <v>12</v>
+      </c>
+      <c r="C160" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D160" s="1">
+        <v>1</v>
+      </c>
+      <c r="E160" s="1">
+        <v>1</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6">
+      <c r="B161" s="1">
+        <v>13</v>
+      </c>
+      <c r="C161" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D161" s="1">
+        <v>1</v>
+      </c>
+      <c r="E161" s="1">
+        <v>1</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6">
+      <c r="B162" s="1">
+        <v>14</v>
+      </c>
+      <c r="C162" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D162" s="1">
+        <v>1</v>
+      </c>
+      <c r="E162" s="1">
+        <v>1</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6">
+      <c r="B163" s="1">
+        <v>15</v>
+      </c>
+      <c r="C163" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D163" s="1">
+        <v>1</v>
+      </c>
+      <c r="E163" s="1">
+        <v>1</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6">
+      <c r="B168" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6">
+      <c r="B169" s="1">
+        <v>1</v>
+      </c>
+      <c r="C169" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D169" s="1">
+        <v>1</v>
+      </c>
+      <c r="E169" s="1">
+        <v>1</v>
+      </c>
+      <c r="F169" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6">
+      <c r="B170" s="1">
+        <v>2</v>
+      </c>
+      <c r="C170" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D170" s="1">
+        <v>1</v>
+      </c>
+      <c r="E170" s="1">
+        <v>1</v>
+      </c>
+      <c r="F170" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6">
+      <c r="B171" s="1">
+        <v>3</v>
+      </c>
+      <c r="C171" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D171" s="1">
+        <v>1</v>
+      </c>
+      <c r="E171" s="1">
+        <v>1</v>
+      </c>
+      <c r="F171" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6">
+      <c r="B172" s="1">
+        <v>4</v>
+      </c>
+      <c r="C172" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D172" s="1">
+        <v>1</v>
+      </c>
+      <c r="E172" s="1">
+        <v>1</v>
+      </c>
+      <c r="F172" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6">
+      <c r="B173" s="1">
+        <v>5</v>
+      </c>
+      <c r="C173" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D173" s="1">
+        <v>1</v>
+      </c>
+      <c r="E173" s="1">
+        <v>1</v>
+      </c>
+      <c r="F173" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6">
+      <c r="B174" s="1">
+        <v>6</v>
+      </c>
+      <c r="C174" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D174" s="1">
+        <v>1</v>
+      </c>
+      <c r="E174" s="1">
+        <v>1</v>
+      </c>
+      <c r="F174" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6">
+      <c r="B175" s="1">
+        <v>7</v>
+      </c>
+      <c r="C175" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D175" s="1">
+        <v>1</v>
+      </c>
+      <c r="E175" s="1">
+        <v>1</v>
+      </c>
+      <c r="F175" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6">
+      <c r="B176" s="1">
+        <v>8</v>
+      </c>
+      <c r="C176" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D176" s="1">
+        <v>1</v>
+      </c>
+      <c r="E176" s="1">
+        <v>1</v>
+      </c>
+      <c r="F176" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6">
+      <c r="B177" s="1">
+        <v>9</v>
+      </c>
+      <c r="C177" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D177" s="1">
+        <v>2</v>
+      </c>
+      <c r="E177" s="1">
+        <v>1</v>
+      </c>
+      <c r="F177" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6">
+      <c r="B178" s="1">
+        <v>10</v>
+      </c>
+      <c r="C178" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D178" s="1">
+        <v>1</v>
+      </c>
+      <c r="E178" s="1">
+        <v>1</v>
+      </c>
+      <c r="F178" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6">
+      <c r="B179" s="1">
+        <v>11</v>
+      </c>
+      <c r="C179" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D179" s="1">
+        <v>1</v>
+      </c>
+      <c r="E179" s="1">
+        <v>1</v>
+      </c>
+      <c r="F179" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6">
+      <c r="B180" s="1">
+        <v>12</v>
+      </c>
+      <c r="C180" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D180" s="1">
+        <v>2</v>
+      </c>
+      <c r="E180" s="1">
+        <v>1</v>
+      </c>
+      <c r="F180" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6">
+      <c r="B181" s="1">
+        <v>13</v>
+      </c>
+      <c r="C181" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D181" s="1">
+        <v>1</v>
+      </c>
+      <c r="E181" s="1">
+        <v>1</v>
+      </c>
+      <c r="F181" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6">
+      <c r="B182" s="1">
+        <v>14</v>
+      </c>
+      <c r="C182" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D182" s="1">
+        <v>1</v>
+      </c>
+      <c r="E182" s="1">
+        <v>1</v>
+      </c>
+      <c r="F182" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6">
+      <c r="B183" s="1">
+        <v>15</v>
+      </c>
+      <c r="C183" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D183" s="1">
+        <v>2</v>
+      </c>
+      <c r="E183" s="1">
+        <v>1</v>
+      </c>
+      <c r="F183" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6">
+      <c r="B184" s="1">
+        <v>16</v>
+      </c>
+      <c r="C184" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D184" s="1">
+        <v>1</v>
+      </c>
+      <c r="E184" s="1">
+        <v>1</v>
+      </c>
+      <c r="F184" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6">
+      <c r="B185" s="1">
+        <v>17</v>
+      </c>
+      <c r="C185" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D185" s="1">
+        <v>1</v>
+      </c>
+      <c r="E185" s="1">
+        <v>1</v>
+      </c>
+      <c r="F185" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6">
+      <c r="B186" s="1">
         <v>18</v>
       </c>
-      <c r="C157" s="1">
+      <c r="C186" s="1">
         <v>2003</v>
       </c>
-      <c r="D157" s="1">
-        <v>1</v>
-      </c>
-      <c r="E157" s="1">
-        <v>1</v>
-      </c>
-      <c r="F157" s="15" t="s">
-        <v>75</v>
+      <c r="D186" s="1">
+        <v>1</v>
+      </c>
+      <c r="E186" s="1">
+        <v>1</v>
+      </c>
+      <c r="F186" s="16" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -583,7 +583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B108" authorId="0">
+    <comment ref="B138" authorId="0">
       <text>
         <r>
           <rPr>
@@ -605,7 +605,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B117" authorId="0">
+    <comment ref="B147" authorId="0">
       <text>
         <r>
           <rPr>
@@ -627,7 +627,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B137" authorId="0">
+    <comment ref="B167" authorId="0">
       <text>
         <r>
           <rPr>
@@ -654,7 +654,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168">
   <si>
     <t>挖矿暴击权重配置表</t>
   </si>
@@ -785,7 +785,7 @@
     <t>rate</t>
   </si>
   <si>
-    <t>奖券兑换配置表(虚拟物品)</t>
+    <t>ST兑换配置表(虚拟物品)</t>
   </si>
   <si>
     <t>奖励id5xxxxx</t>
@@ -797,31 +797,419 @@
     <t>所需ST</t>
   </si>
   <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>价值</t>
+  </si>
+  <si>
+    <t>简介</t>
+  </si>
+  <si>
+    <t>兑换流程</t>
+  </si>
+  <si>
+    <t>注意事项</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>$STConvertCfg</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>progress</t>
+  </si>
+  <si>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>u8</t>
+  </si>
+  <si>
+    <t>19.9精品课</t>
+  </si>
+  <si>
+    <t>得到精品课程
+付费知识，众多课程帮助你快速学习和掌握专业知识、生活知识，在瞬息万变的世界，唯有不断学习才能不断创造价值。
+课程一：怎样成为有效学习的高手
+许岑对高效学习有独特的洞察与方法，比如说：直奔大师，不必从基础开始；不谈兴趣，而是用任务驱动学习；用文字、语音，甚至影像的方式，自己给自己制造反馈；在衣食住行上训练专注力，而不是通过学习……学会“如何学习”，成为有效学习的高手。请收下这份高效学习的实用方案。
+课程二：有效提升与陌生人的社交能力
+在这门课里，她会给你一套实用技巧，让你用闲谈打开和陌生人的社交局面。例如，给你一套万用的“说、问、说”交谈套路，教你用十秒钟的自我介绍，亮出你的标签和价值，并在五分钟内，让谈话从寒暄上升到真正的交谈，获得信任。她还会告诉你，怎样与大人物做小交谈，让对方喜欢你、愿意帮你。以及在多人聊天局里，如何加入谈话，甚至主导聊天。
+课程三：有效提升你的职场价值 
+你可能是公司里一名基层员工，希望把握职场的上升机会；
+你可能有足够的工作经验，但迟迟没有走上管理岗位；
+你可能对公司贡献不小，但没有获得满意的薪酬和职位。
+这门课告诉你：雇主眼中的“职场价值”是什么，你如何成为那个在公司里更有“价值”、更可能获得晋升的那个人。
+如果你正处在职场上升关键期，这堂课将给你切实的指导。如果你是职场新人，这堂课会帮你在职场路上早“开窍”，养成成熟的职场心态，习得重要的工作技巧。</t>
+  </si>
+  <si>
+    <t>1、点击【马上兑换】——兑换成功后复制卡密（兑换码）
+2、下载或打开&lt;得到&gt;APP，未注册请先注册账号，注册完成或已有账号请点击【我的】——【我的账户】——【卡券】——点击右上角【兑换卡券】——兑换成功后即可在【已购】中查看</t>
+  </si>
+  <si>
+    <t>1、本产品为付费课程，购买成功后，即可永久性使用该产品所有内容；
+2、该课程为虚拟内容服务，一经兑换成功后概不可退款；
+3、由于部分商品时效有限，兑换后请尽快使用；</t>
+  </si>
+  <si>
+    <t>99元大师课</t>
+  </si>
+  <si>
+    <t>得到大师课，付费知识，帮助你更系统的掌握知识；
+课程一：郝广才·创意思维课
+皮克斯的创意电影，背后全是套路。创意就像一个预装系统，是你天生具备的能力。你需要的，是掌握一整套方法，将它激活、升级。
+课程二：30天认知训练营
+模块1——穿透思考：理解人性、学会思考、升级你的世界观；
+模块2——方法工具：10个你用得上的技能，10种认知方法；
+模块3——思想实验：4个思想实验，打开你的脑洞；
+模块4——时代悖论：4个悖论问题，4场思维辩论；
+模块5——另类视角：7个另类视角，迭代你的既有认知。</t>
+  </si>
+  <si>
+    <t>1、点击【马上兑换】——兑换成功后复制卡密（兑换码）；
+2、下载或打开&lt;得到&gt;APP，未注册请先注册账号，注册完成或已有账号请点击【我的】——【我的账户】——【卡券】——点击右上角【兑换卡券】——兑换成功后即可使用；</t>
+  </si>
+  <si>
+    <t>《每天听本书》 VIP月卡</t>
+  </si>
+  <si>
+    <t>每天半小时，搞懂一本书  
+专业说书人，为你提纯讲解一本经典好书，将数十万字书籍精炼于半小时听书产品。 
+选题涵盖商业、历史、经管、人文、科技等30多个领域  
+解放双手和双眼，跑步、做饭、开车、地铁等各种场景，充分利用碎片时间  
+《每天听本书》月卡可以在《得到》中畅听数千本付费，有效期内所有【听书】都可直接收听并任意下载；</t>
+  </si>
+  <si>
+    <t>1、点击【马上兑换】——兑换成功后复制卡密（兑换码）
+2、下载或打开&lt;得到&gt;APP，未注册请先注册账号，注册完成或已有账号请点击【我的】——【我的账户】——【卡券】——点击右上角【兑换卡券】——兑换成功后即可使用；</t>
+  </si>
+  <si>
+    <t>1、VIP体验服务属于虚拟业务，自行开通成功后不支持退款；
+2、若开通后出现问题或体验服务有异常，可致电&lt;得到&gt;客服电话：010—65499545；
+由于部分商品时效有限，兑换后请尽快使用；</t>
+  </si>
+  <si>
+    <t>爱奇艺月卡</t>
+  </si>
+  <si>
+    <t>爱奇艺黄金VIP会员，跳广告，免费片库、尊贵身份、免费点播</t>
+  </si>
+  <si>
+    <t>1、点击【马上兑换】——兑换成功后复制卡密（兑换码）；
+2、下载或打开爱奇艺App——点击下方【我的】——【我的VIP会员】——【立即续费】——【激活码兑换】输入获取的激活码、验证码充值即可；</t>
+  </si>
+  <si>
+    <t>1、登录爱奇艺账号后，输入激活码即可激活VIP会员卡；
+2、激活成功后立即升级为爱奇艺VIP会员，享受爱奇艺VIP服务；
+3、请在VIP会员卡有效期内使用，过期作废，不可退款；
+4、由于部分商品时效有限，兑换后请尽快使用；</t>
+  </si>
+  <si>
+    <t>爱奇艺季卡</t>
+  </si>
+  <si>
+    <t>爱奇艺年卡</t>
+  </si>
+  <si>
+    <t>优酷月卡</t>
+  </si>
+  <si>
+    <t>这世界很酷。优酷VIP会员可享受专属片库、热门剧抢先看、多屏共享、广告特权</t>
+  </si>
+  <si>
+    <t>1、点击【马上兑换】——兑换成功后复制卡密（兑换码）；
+2、关注“优酷VIP会员”微信公众号——绑定或注册优酷账号——点击下方【会员服务】——【会员卡激活】——输入会员卡密码即可；</t>
+  </si>
+  <si>
+    <t>1、激活成功后立即升级为优酷VIP会员，享受优酷VIP服务；
+2、请在VIP会员卡有效期内使用，过期作废，不可退款；
+3、由于部分商品时效有限，兑换后请尽快使用；</t>
+  </si>
+  <si>
+    <t>优酷季卡</t>
+  </si>
+  <si>
+    <t>优酷年卡</t>
+  </si>
+  <si>
+    <t>腾讯视频月卡</t>
+  </si>
+  <si>
+    <t>腾讯视频，不负好时光
+内容特权：院线芯片持续更新、独家王者美剧、畅想全球纪录片、热剧提前看、每月赠送观影券
+观影特权：广告特权、高清画质随心享、杜比视听品质体验、尊贵身份亮起来、微信赠片送好友
+直播特权：演唱会直播获赠道具、演唱会直播打折</t>
+  </si>
+  <si>
+    <t>1、点击【马上兑换】——兑换成功后复制卡密（兑换码）；
+2、微信中关注“腾讯VIP”公众号——点击下方【VIP服务】——【开通/兑换会员】——拉至下方【兑换VIP、优惠券】——输入兑换码、手机号及验证码即可使用；</t>
+  </si>
+  <si>
+    <t>1、兑换后立即获得相应时长的腾讯视频VIP服务；
+2、如有问题可联系客服热线：010-57837809（9：00-23：00），如遇忙时请咨询客服QQ : 838466567；
+3、由于部分商品时效有限，兑换后请尽快使用；</t>
+  </si>
+  <si>
+    <t>腾讯视频季卡</t>
+  </si>
+  <si>
+    <t>腾讯视频年卡</t>
+  </si>
+  <si>
+    <t>虾米音乐月卡</t>
+  </si>
+  <si>
+    <t>虾米音乐VIP会员，最极致的音乐体验
+尊贵的身份标识，让你在人群中更闪亮
+100%接近原版CD音质，让你畅享音乐的高保真
+畅享付费音乐曲库的视听及下载特权
+大牌演唱会门票优先获得
+不定期线上、线下优质专享权益，仅限超级VIP用户可享</t>
+  </si>
+  <si>
+    <t>1、点击【马上兑换】——兑换成功后复制卡密（兑换码）
+2、电脑网页端：虾米网首页右上方【兑换码】或直接输入网址http://www.xiami.com/account/card
+3、手机APP：【个人中心】——【会员中心】——【兑换码激活】（ios版本暂不支持兑换，请通过网页端兑换哦）</t>
+  </si>
+  <si>
+    <t>1、兑换后立即获得相应时长的虾米音乐VIP服务；
+2、由于部分商品时效有限，兑换后请尽快使用；</t>
+  </si>
+  <si>
+    <t>虾米音乐季卡</t>
+  </si>
+  <si>
+    <t>虾米音乐年卡</t>
+  </si>
+  <si>
+    <t>星巴克咖啡兑换券</t>
+  </si>
+  <si>
+    <t>卡布奇诺大杯：32
+拿铁大杯：32
+焦糖玛奇朵：36
+香草风味拿铁：35
+经典巧克力大杯：32
+抹茶星冰乐大杯：35
+摩卡可可碎片星冰乐：37
+摩卡大杯：35
+抹茶拿铁大杯：35
+芒果西番莲果茶星：33
+摩卡星冰乐：35
+香草风味星冰乐大杯：33</t>
+  </si>
+  <si>
+    <t>1、点击【马上兑换】——兑换成功后复制卡密（兑换码）
+2、到门店直接使用；</t>
+  </si>
+  <si>
+    <t>1、电子产品券，自购买之日起60内有效，支持过期自动退款；
+2、除部分机场外，您可在中国大陆境内任意星巴克门店购买其出售的指定商品；
+3、电子兑换券为一次性使用产品，不可兑换现金、不找零、捕鱼其他优惠同享。一旦兑换即失效；
+4、使用电子产品券在门店兑换时，同时出示有效星享卡可积累星星；
+5、如有问题可联系客服热线：400-820-6998；
+6、由于部分商品时效有限，兑换后请尽快使用；</t>
+  </si>
+  <si>
+    <t>天猫超市50元购物券</t>
+  </si>
+  <si>
+    <t>天猫超市享淘卡，限在天猫超市中使用，天猫超市全国站点通用，包含量贩，生鲜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、点击【马上兑换】——兑换成功后复制卡密（兑换码）；
+2、打开淘宝搜索“天猫超市”并进入——点击下方【我的】——点击【超市卡】——【绑定超市卡】——输入卡号及密码——绑定成功后即可使用；
+</t>
+  </si>
+  <si>
+    <t>1、购物卡购买之日起三年内有效；
+2、天猫超市-享淘卡仅限于大陆地区充值使用，香港及海外地区不包含在内。
+3、暂不支持预售商品抵扣、运费抵扣、代付及货到付款等具体以公示规则为准；
+由于部分商品时效有限，兑换后请尽快使用；</t>
+  </si>
+  <si>
+    <t>京东E卡50元</t>
+  </si>
+  <si>
+    <t>京东E卡是由京东发行，能够在京东商城中购买涵盖电器、手机、百货、服饰、箱包、食品等众多品类的京东自营商品。</t>
+  </si>
+  <si>
+    <t>1、点击【马上兑换】——兑换成功后复制卡密（兑换码）；
+2、网页端：登录京东——【我的京东】——选择京东卡/E卡——绑定新卡——输入京东E卡密码绑定即可；
+3、APP端：登录【我的京东】——选择【礼品卡】——输入卡号、密码绑定即可；</t>
+  </si>
+  <si>
+    <t>1、京东E卡有效期为激活日期起36个月，京东E卡不记名、不挂失、不计息、不兑现、不可修改密码，请妥善保管；
+2、可以并仅限在www.jd.com上购买自营商品，部分不可用商品及服务请询京东官方网站；
+查看详情；
+3、发生退货时，京东E卡支持部分自动退回卡内；
+4、由于部分商品时效有限，兑换后请尽快使用；</t>
+  </si>
+  <si>
+    <t>网易严选50元</t>
+  </si>
+  <si>
+    <t>严选礼品卡是网易严选发行的单用途商业预付卡，可直接抵扣支付现金。</t>
+  </si>
+  <si>
+    <t>1、登录网易严选网站或网易严选客户端，新用户需要注册后登录；
+2、登录账户后点击账户名，进入【个人中心】，输入礼品卡密码，点击【绑定】；
+3、新用户需要按照弹窗提示设置支付密码，设置完成后，网站上输入密码并点击【绑定】，或者客户端选择【添加】并输入密码，即绑定成功；</t>
+  </si>
+  <si>
+    <t>1、适用于网易严选线上销售的除特殊商品及礼品卡之外的商品的结算，使用时可正常享受商品活动优惠。
+2、收到卡后请尽快激活使用；
+3、如无法顺利绑定官网账户，请立即咨询客户服务热线：400-0368-163；
+4、由于部分商品时效有限，兑换后请尽快使用；</t>
+  </si>
+  <si>
+    <t>星巴克星礼卡50元</t>
+  </si>
+  <si>
+    <t xml:space="preserve">星巴克星礼卡，该商品为电子卡；
+星礼卡为星巴克发行的预付费卡，可用于购买星巴克门店内任意咖啡及甜品、其他商品；
+</t>
+  </si>
+  <si>
+    <t>1、点击【马上兑换】——兑换成功后复制卡号及卡密（兑换码）；
+2、APP端：下载或打开&lt;Starbucks&gt;APP——点击下方【星礼卡】——绑定会员星礼包/星礼卡——输入星礼卡卡号及密码——【确认绑定】；
+3、成功后在门店出示动态二维码即可直接抵扣产品费用；</t>
+  </si>
+  <si>
+    <t>1、预付卡的有效期为激活之日起三年（或末次充值之日起三年，如适用），具体以预付卡卡面标识或以其他形式（包括但不限于电子通知的方式）告知的截止日期为准。持卡人应在有效期内使用预付卡；
+2、在持卡人持预付卡在特约商户购买商品或兑换指定产品时，若预付卡余额不足的，持卡人可使用现金、信用卡或借记卡等特约商户可接受的支付方式补足。
+3、如有问题可联系客服热线：400-820-6998</t>
+  </si>
+  <si>
+    <t>星巴克星礼卡100元</t>
+  </si>
+  <si>
+    <t>星巴克星礼卡，该商品为电子卡；
+星礼卡为星巴克发行的预付费卡，可用于购买星巴克门店内任意咖啡及甜品、其他商品；</t>
+  </si>
+  <si>
+    <t>COSTA心艺卡50元</t>
+  </si>
+  <si>
+    <t>心艺卡
+杯杯讲究，如你所愿
+心艺卡可用于购买COSTA COFFEE门店内任意咖啡及甜点、其他商品；</t>
+  </si>
+  <si>
+    <t>1、点击【马上兑换】——兑换成功后复制卡号及卡密（兑换码）
+2、直接到门店使用；</t>
+  </si>
+  <si>
+    <t>1、Costa电子礼品卡的有效期为激活之日起内的三年；
+2、仅限在咖世家咖啡（上海）有限公司旗下COSTA COFFEE门店（除万达影院、SSP、COMPASS、上海F1赛车场、杭州阿里巴巴、机场及交通枢纽店外）购买其出售的指定商品时使用，中国北区（包括北京、天津、河北、西安、山东、内蒙古、东北）门店不可使用；
+3、此礼品卡可多次使用，不找零、不退余额，一旦购买不退不换；
+4、如有疑问，请联系COSTACOFFEE官方客服热线：400-8130-999；
+5、由于部分商品时效有限，兑换后请尽快使用；</t>
+  </si>
+  <si>
+    <t>COSTA心艺卡100元</t>
+  </si>
+  <si>
+    <t>网易云音乐黑胶CVIP月卡</t>
+  </si>
+  <si>
+    <t>网易云音乐专注于发现与分享的音乐产品
+黑胶VIP特权：会员曲库、无损音质、免费下载、免广告、音画主题、头像挂件、个性皮肤、商城折扣、票务特权、福利券；</t>
+  </si>
+  <si>
+    <t>1、点击【马上兑换】——兑换成功后复制卡号及卡密（兑换码）；
+2、下载或打开&lt;网易云音乐&gt;——登录或注册账号后——点击下方【账号】——【会员中心】——【立即加入】——【使用会员兑换码】——输入兑换码【立即兑换】；</t>
+  </si>
+  <si>
+    <t>1、兑换后立即获得相应时长的网易云音乐VIP服务；
+2、由于部分商品时效有限，兑换后请尽快使用；</t>
+  </si>
+  <si>
+    <t>网易云音乐黑胶CVIP季卡</t>
+  </si>
+  <si>
+    <t>网易云音乐黑胶CVIP年卡</t>
+  </si>
+  <si>
+    <t>联通手机充值卡30元</t>
+  </si>
+  <si>
+    <t>联通手机充值卡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、点击【马上兑换】——兑换成功后复制卡号及卡密（兑换码）；
+2、手机拨打联通客服热线10010，请按语音提示输入卡号及卡密即可；
+</t>
+  </si>
+  <si>
+    <t>1、手机充值服务属于虚拟业务，兑换成功后不支持退款；
+2、若开通后出现问题或体验服务有异常，可致电联通客服10010
+3、由于部分商品时效有限，兑换后请尽快使用；</t>
+  </si>
+  <si>
+    <t>移动手机充值卡30元</t>
+  </si>
+  <si>
+    <t>移动手机充值卡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、点击【马上兑换】——兑换成功后复制卡号及卡密（兑换码）；
+2、手机拨打联通客服热线1086，请按语音提示输入卡号及卡密即可；
+</t>
+  </si>
+  <si>
+    <t>1、手机充值服务属于虚拟业务，兑换成功后不支持退款；
+2、若开通后出现问题或体验服务有异常，可致电联通客服10086；
+3、由于部分商品时效有限，兑换后请尽快使用；</t>
+  </si>
+  <si>
+    <t>Q币充值：10个</t>
+  </si>
+  <si>
+    <t>Q币可以用来购买腾讯所有包月服务、游戏道具及点券；
+Q币仅能用于兑换腾讯公司直接运营的产品和服务，不能兑换现金，不能进行转账交易，不能兑换腾讯公司体系外的产品和服务。</t>
+  </si>
+  <si>
+    <t>1、点击【马上兑换】——兑换成功后输入充值【QQ账号】即可；</t>
+  </si>
+  <si>
+    <t>1、充值服务属于虚拟业务，兑换成功后不支持退款；
+2、若开通后出现问题或体验服务有异常，可致电腾讯客服；
+3、由于部分商品时效有限，兑换后请尽快使用；</t>
+  </si>
+  <si>
+    <t>QQ会员：月卡</t>
+  </si>
+  <si>
+    <t>QQ、游戏、生活三大领域特权体验</t>
+  </si>
+  <si>
+    <t>固定奖励配置表</t>
+  </si>
+  <si>
+    <t>奖励id6xxxxx</t>
+  </si>
+  <si>
     <t>描述</t>
-  </si>
-  <si>
-    <t>$STConvertCfg</t>
-  </si>
-  <si>
-    <t>num</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>str</t>
-  </si>
-  <si>
-    <t>测试物品</t>
-  </si>
-  <si>
-    <t>测试物品2</t>
-  </si>
-  <si>
-    <t>固定奖励配置表</t>
-  </si>
-  <si>
-    <t>奖励id6xxxxx</t>
   </si>
   <si>
     <t>$RegularAwardCfg</t>
@@ -889,10 +1277,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -927,32 +1315,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -963,16 +1335,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -987,8 +1359,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1002,15 +1406,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1026,45 +1452,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1139,7 +1527,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,103 +1551,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1265,7 +1569,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1277,13 +1617,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1295,31 +1647,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1336,8 +1724,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1357,50 +1799,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1415,21 +1818,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1438,10 +1826,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1450,137 +1838,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1625,6 +2013,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1977,23 +2368,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:H156"/>
+  <dimension ref="A3:R186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="29.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="33.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.75" style="1" customWidth="1"/>
-    <col min="9" max="16383" width="9" style="1"/>
+    <col min="9" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="12" style="1" customWidth="1"/>
+    <col min="18" max="16383" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6">
@@ -3596,7 +3989,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
         <v>43</v>
       </c>
@@ -3612,27 +4005,55 @@
       <c r="E100" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F100"/>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="F100" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F101"/>
-    </row>
-    <row r="102" spans="2:5">
+        <v>55</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10">
       <c r="B102" s="1" t="s">
         <v>12</v>
       </c>
@@ -3643,10 +4064,25 @@
         <v>12</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5">
+        <v>61</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="103" ht="42" customHeight="1" spans="2:14">
       <c r="B103" s="1">
         <v>500001</v>
       </c>
@@ -3654,13 +4090,30 @@
         <v>1</v>
       </c>
       <c r="D103" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5">
+        <v>63</v>
+      </c>
+      <c r="F103" s="1">
+        <v>19.9</v>
+      </c>
+      <c r="G103" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H103" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I103" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J103" s="15">
+        <v>1</v>
+      </c>
+      <c r="L103" s="15"/>
+      <c r="N103" s="15"/>
+    </row>
+    <row r="104" ht="32" customHeight="1" spans="2:10">
       <c r="B104" s="1">
         <v>500002</v>
       </c>
@@ -3668,509 +4121,923 @@
         <v>1</v>
       </c>
       <c r="D104" s="1">
+        <v>101</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F104" s="1">
+        <v>99</v>
+      </c>
+      <c r="G104" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H104" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I104" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J104" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" ht="32" customHeight="1" spans="2:18">
+      <c r="B105" s="1">
+        <v>500003</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1</v>
+      </c>
+      <c r="D105" s="1">
+        <v>102</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F105" s="1">
+        <v>48</v>
+      </c>
+      <c r="G105" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H105" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I105" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J105" s="1">
+        <v>2</v>
+      </c>
+      <c r="R105" s="15"/>
+    </row>
+    <row r="106" ht="32" customHeight="1" spans="2:10">
+      <c r="B106" s="1">
+        <v>500004</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1</v>
+      </c>
+      <c r="D106" s="1">
+        <v>103</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F106" s="1">
+        <v>19.8</v>
+      </c>
+      <c r="G106" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H106" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I106" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J106" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" ht="32" customHeight="1" spans="2:10">
+      <c r="B107" s="1">
+        <v>500005</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1</v>
+      </c>
+      <c r="D107" s="1">
+        <v>104</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F107" s="1">
+        <v>58</v>
+      </c>
+      <c r="G107" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H107" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I107" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J107" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" ht="32" customHeight="1" spans="2:10">
+      <c r="B108" s="1">
+        <v>500006</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1</v>
+      </c>
+      <c r="D108" s="1">
+        <v>105</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F108" s="1">
+        <v>198</v>
+      </c>
+      <c r="G108" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H108" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I108" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J108" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" ht="32" customHeight="1" spans="2:10">
+      <c r="B109" s="1">
+        <v>500007</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1</v>
+      </c>
+      <c r="D109" s="1">
+        <v>106</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F109" s="1">
+        <v>20</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H109" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I109" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J109" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" ht="32" customHeight="1" spans="2:10">
+      <c r="B110" s="1">
+        <v>500008</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1</v>
+      </c>
+      <c r="D110" s="1">
+        <v>107</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F110" s="1">
+        <v>56</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H110" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I110" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J110" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" ht="32" customHeight="1" spans="2:10">
+      <c r="B111" s="1">
+        <v>500009</v>
+      </c>
+      <c r="C111" s="1">
+        <v>1</v>
+      </c>
+      <c r="D111" s="1">
+        <v>108</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F111" s="1">
+        <v>198</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H111" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I111" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J111" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" ht="32" customHeight="1" spans="2:10">
+      <c r="B112" s="1">
+        <v>500010</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1</v>
+      </c>
+      <c r="D112" s="1">
+        <v>109</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F112" s="1">
+        <v>20</v>
+      </c>
+      <c r="G112" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H112" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I112" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="J112" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" ht="32" customHeight="1" spans="2:10">
+      <c r="B113" s="1">
+        <v>500011</v>
+      </c>
+      <c r="C113" s="1">
+        <v>1</v>
+      </c>
+      <c r="D113" s="1">
+        <v>110</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F113" s="1">
+        <v>58</v>
+      </c>
+      <c r="G113" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H113" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I113" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="J113" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" ht="32" customHeight="1" spans="2:10">
+      <c r="B114" s="1">
+        <v>500012</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1</v>
+      </c>
+      <c r="D114" s="1">
+        <v>111</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F114" s="1">
+        <v>198</v>
+      </c>
+      <c r="G114" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H114" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I114" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="J114" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" ht="32" customHeight="1" spans="2:10">
+      <c r="B115" s="1">
+        <v>500013</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1</v>
+      </c>
+      <c r="D115" s="1">
+        <v>112</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F115" s="1">
+        <v>8</v>
+      </c>
+      <c r="G115" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H115" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I115" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J115" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" ht="32" customHeight="1" spans="2:10">
+      <c r="B116" s="1">
+        <v>500014</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1</v>
+      </c>
+      <c r="D116" s="1">
+        <v>113</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F116" s="1">
+        <v>48</v>
+      </c>
+      <c r="G116" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H116" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I116" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J116" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" ht="32" customHeight="1" spans="2:10">
+      <c r="B117" s="1">
+        <v>500015</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1</v>
+      </c>
+      <c r="D117" s="1">
+        <v>114</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F117" s="1">
+        <v>88</v>
+      </c>
+      <c r="G117" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H117" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I117" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J117" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" ht="32" customHeight="1" spans="2:10">
+      <c r="B118" s="1">
+        <v>500016</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1</v>
+      </c>
+      <c r="D118" s="1">
+        <v>115</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F118" s="1">
+        <v>35</v>
+      </c>
+      <c r="G118" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H118" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I118" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="J118" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" ht="32" customHeight="1" spans="2:10">
+      <c r="B119" s="1">
+        <v>500017</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1</v>
+      </c>
+      <c r="D119" s="1">
+        <v>116</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F119" s="1">
         <v>50</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="1" t="s">
+      <c r="G119" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H119" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I119" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="J119" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" ht="32" customHeight="1" spans="2:10">
+      <c r="B120" s="1">
+        <v>500018</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1</v>
+      </c>
+      <c r="D120" s="1">
+        <v>117</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F120" s="1">
+        <v>50</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H120" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I120" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="J120" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" ht="32" customHeight="1" spans="2:10">
+      <c r="B121" s="1">
+        <v>500019</v>
+      </c>
+      <c r="C121" s="1">
+        <v>1</v>
+      </c>
+      <c r="D121" s="1">
+        <v>118</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F121" s="1">
+        <v>50</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H121" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="I121" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="J121" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" ht="32" customHeight="1" spans="2:10">
+      <c r="B122" s="1">
+        <v>500020</v>
+      </c>
+      <c r="C122" s="1">
+        <v>1</v>
+      </c>
+      <c r="D122" s="1">
+        <v>119</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F122" s="1">
+        <v>50</v>
+      </c>
+      <c r="G122" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H122" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="I122" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J122" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" ht="32" customHeight="1" spans="2:10">
+      <c r="B123" s="1">
+        <v>500021</v>
+      </c>
+      <c r="C123" s="1">
+        <v>1</v>
+      </c>
+      <c r="D123" s="1">
+        <v>120</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F123" s="1">
+        <v>100</v>
+      </c>
+      <c r="G123" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H123" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="I123" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J123" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" ht="32" customHeight="1" spans="2:10">
+      <c r="B124" s="1">
+        <v>500022</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1</v>
+      </c>
+      <c r="D124" s="1">
+        <v>121</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F124" s="1">
+        <v>50</v>
+      </c>
+      <c r="G124" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H124" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="I124" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="J124" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" ht="32" customHeight="1" spans="2:10">
+      <c r="B125" s="1">
+        <v>500023</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1">
+        <v>122</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F125" s="1">
+        <v>100</v>
+      </c>
+      <c r="G125" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H125" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="I125" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="J125" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" ht="32" customHeight="1" spans="2:10">
+      <c r="B126" s="1">
+        <v>500024</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1">
+        <v>123</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F126" s="1">
+        <v>18</v>
+      </c>
+      <c r="G126" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H126" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="I126" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J126" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" ht="32" customHeight="1" spans="2:10">
+      <c r="B127" s="1">
+        <v>500025</v>
+      </c>
+      <c r="C127" s="1">
+        <v>1</v>
+      </c>
+      <c r="D127" s="1">
+        <v>124</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F127" s="1">
         <v>54</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E108" s="1" t="s">
+      <c r="G127" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H127" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="I127" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J127" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" ht="32" customHeight="1" spans="2:10">
+      <c r="B128" s="1">
+        <v>500026</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1">
+        <v>125</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F128" s="1">
+        <v>216</v>
+      </c>
+      <c r="G128" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H128" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="I128" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J128" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" ht="32" customHeight="1" spans="2:10">
+      <c r="B129" s="1">
+        <v>500027</v>
+      </c>
+      <c r="C129" s="1">
+        <v>1</v>
+      </c>
+      <c r="D129" s="1">
+        <v>126</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F129" s="1">
+        <v>30</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H129" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="I129" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J129" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" ht="32" customHeight="1" spans="2:10">
+      <c r="B130" s="1">
+        <v>500028</v>
+      </c>
+      <c r="C130" s="1">
+        <v>1</v>
+      </c>
+      <c r="D130" s="1">
+        <v>127</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F130" s="1">
+        <v>30</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H130" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="I130" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J130" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" ht="32" customHeight="1" spans="2:10">
+      <c r="B131" s="1">
+        <v>500029</v>
+      </c>
+      <c r="C131" s="1">
+        <v>1</v>
+      </c>
+      <c r="D131" s="1">
+        <v>128</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F131" s="1">
         <v>10</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="109" spans="2:6">
-      <c r="B109" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6">
-      <c r="B110" s="1">
-        <v>600101</v>
-      </c>
-      <c r="C110" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D110" s="1">
-        <v>2</v>
-      </c>
-      <c r="E110" s="1">
-        <v>2</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="111" spans="2:6">
-      <c r="B111" s="1">
-        <v>600401</v>
-      </c>
-      <c r="C111" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D111" s="1">
-        <v>1</v>
-      </c>
-      <c r="E111" s="1">
-        <v>1</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E117" s="1" t="s">
+      <c r="G131" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I131" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J131" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" ht="32" customHeight="1" spans="2:10">
+      <c r="B132" s="1">
+        <v>500030</v>
+      </c>
+      <c r="C132" s="1">
+        <v>1</v>
+      </c>
+      <c r="D132" s="1">
+        <v>129</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F132" s="1">
         <v>10</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="118" spans="2:6">
-      <c r="B118" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6">
-      <c r="B119" s="1">
-        <v>1</v>
-      </c>
-      <c r="C119" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D119" s="1">
-        <v>1</v>
-      </c>
-      <c r="E119" s="1">
-        <v>1</v>
-      </c>
-      <c r="F119" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="120" spans="2:6">
-      <c r="B120" s="1">
-        <v>2</v>
-      </c>
-      <c r="C120" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D120" s="1">
-        <v>1</v>
-      </c>
-      <c r="E120" s="1">
-        <v>1</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="121" spans="2:6">
-      <c r="B121" s="1">
-        <v>3</v>
-      </c>
-      <c r="C121" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D121" s="1">
-        <v>1</v>
-      </c>
-      <c r="E121" s="1">
-        <v>1</v>
-      </c>
-      <c r="F121" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="122" spans="2:6">
-      <c r="B122" s="1">
-        <v>4</v>
-      </c>
-      <c r="C122" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D122" s="1">
-        <v>1</v>
-      </c>
-      <c r="E122" s="1">
-        <v>1</v>
-      </c>
-      <c r="F122" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="123" spans="2:6">
-      <c r="B123" s="1">
-        <v>5</v>
-      </c>
-      <c r="C123" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D123" s="1">
-        <v>1</v>
-      </c>
-      <c r="E123" s="1">
-        <v>1</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="124" spans="2:6">
-      <c r="B124" s="1">
-        <v>6</v>
-      </c>
-      <c r="C124" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D124" s="1">
-        <v>1</v>
-      </c>
-      <c r="E124" s="1">
-        <v>1</v>
-      </c>
-      <c r="F124" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="125" spans="2:6">
-      <c r="B125" s="1">
-        <v>7</v>
-      </c>
-      <c r="C125" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D125" s="1">
-        <v>1</v>
-      </c>
-      <c r="E125" s="1">
-        <v>1</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="126" spans="2:6">
-      <c r="B126" s="1">
-        <v>8</v>
-      </c>
-      <c r="C126" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D126" s="1">
-        <v>1</v>
-      </c>
-      <c r="E126" s="1">
-        <v>1</v>
-      </c>
-      <c r="F126" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="127" spans="2:6">
-      <c r="B127" s="1">
-        <v>9</v>
-      </c>
-      <c r="C127" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D127" s="1">
-        <v>1</v>
-      </c>
-      <c r="E127" s="1">
-        <v>1</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="128" spans="2:6">
-      <c r="B128" s="1">
-        <v>10</v>
-      </c>
-      <c r="C128" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D128" s="1">
-        <v>1</v>
-      </c>
-      <c r="E128" s="1">
-        <v>1</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="129" spans="2:6">
-      <c r="B129" s="1">
-        <v>11</v>
-      </c>
-      <c r="C129" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D129" s="1">
-        <v>1</v>
-      </c>
-      <c r="E129" s="1">
-        <v>1</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="130" spans="2:6">
-      <c r="B130" s="1">
-        <v>12</v>
-      </c>
-      <c r="C130" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D130" s="1">
-        <v>1</v>
-      </c>
-      <c r="E130" s="1">
-        <v>1</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="131" spans="2:6">
-      <c r="B131" s="1">
-        <v>13</v>
-      </c>
-      <c r="C131" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D131" s="1">
-        <v>1</v>
-      </c>
-      <c r="E131" s="1">
-        <v>1</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="132" spans="2:6">
-      <c r="B132" s="1">
-        <v>14</v>
-      </c>
-      <c r="C132" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D132" s="1">
-        <v>1</v>
-      </c>
-      <c r="E132" s="1">
-        <v>1</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="133" spans="2:6">
-      <c r="B133" s="1">
-        <v>15</v>
-      </c>
-      <c r="C133" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D133" s="1">
-        <v>1</v>
-      </c>
-      <c r="E133" s="1">
-        <v>1</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="G132" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I132" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J132" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" ht="32" customHeight="1" spans="6:6">
+      <c r="F133" s="15"/>
+    </row>
+    <row r="134" ht="32" customHeight="1" spans="6:6">
+      <c r="F134" s="15"/>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E137" s="1" t="s">
+      <c r="D138" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E138" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F137" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="138" spans="2:6">
-      <c r="B138" s="1" t="s">
+      <c r="F138" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6">
+      <c r="B139" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C139" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="E139" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F138" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="139" spans="2:6">
-      <c r="B139" s="1">
-        <v>1</v>
-      </c>
-      <c r="C139" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D139" s="1">
-        <v>1</v>
-      </c>
-      <c r="E139" s="1">
-        <v>1</v>
-      </c>
-      <c r="F139" s="15" t="s">
-        <v>69</v>
+      <c r="F139" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="140" spans="2:6">
       <c r="B140" s="1">
-        <v>2</v>
+        <v>600101</v>
       </c>
       <c r="C140" s="1">
         <v>2001</v>
       </c>
       <c r="D140" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E140" s="1">
-        <v>1</v>
-      </c>
-      <c r="F140" s="15" t="s">
-        <v>69</v>
+        <v>2</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="141" spans="2:6">
       <c r="B141" s="1">
-        <v>3</v>
+        <v>600401</v>
       </c>
       <c r="C141" s="1">
         <v>2002</v>
@@ -4181,132 +5048,70 @@
       <c r="E141" s="1">
         <v>1</v>
       </c>
-      <c r="F141" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="142" spans="2:6">
-      <c r="B142" s="1">
+      <c r="F141" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C142" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D142" s="1">
-        <v>1</v>
-      </c>
-      <c r="E142" s="1">
-        <v>1</v>
-      </c>
-      <c r="F142" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="143" spans="2:6">
-      <c r="B143" s="1">
-        <v>5</v>
-      </c>
-      <c r="C143" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D143" s="1">
-        <v>1</v>
-      </c>
-      <c r="E143" s="1">
-        <v>1</v>
-      </c>
-      <c r="F143" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="144" spans="2:6">
-      <c r="B144" s="1">
-        <v>6</v>
-      </c>
-      <c r="C144" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D144" s="1">
-        <v>1</v>
-      </c>
-      <c r="E144" s="1">
-        <v>1</v>
-      </c>
-      <c r="F144" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="145" spans="2:6">
-      <c r="B145" s="1">
-        <v>7</v>
-      </c>
-      <c r="C145" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D145" s="1">
-        <v>1</v>
-      </c>
-      <c r="E145" s="1">
-        <v>1</v>
-      </c>
-      <c r="F145" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="146" spans="2:6">
-      <c r="B146" s="1">
-        <v>8</v>
-      </c>
-      <c r="C146" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D146" s="1">
-        <v>1</v>
-      </c>
-      <c r="E146" s="1">
-        <v>1</v>
-      </c>
-      <c r="F146" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="147" spans="2:6">
-      <c r="B147" s="1">
-        <v>9</v>
-      </c>
-      <c r="C147" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D147" s="1">
-        <v>2</v>
-      </c>
-      <c r="E147" s="1">
-        <v>1</v>
-      </c>
-      <c r="F147" s="15" t="s">
-        <v>72</v>
+      <c r="F146" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="148" spans="2:6">
-      <c r="B148" s="1">
-        <v>10</v>
-      </c>
-      <c r="C148" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D148" s="1">
-        <v>1</v>
-      </c>
-      <c r="E148" s="1">
-        <v>1</v>
-      </c>
-      <c r="F148" s="15" t="s">
-        <v>69</v>
+      <c r="B148" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="149" spans="2:6">
       <c r="B149" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C149" s="1">
         <v>2001</v>
@@ -4317,30 +5122,30 @@
       <c r="E149" s="1">
         <v>1</v>
       </c>
-      <c r="F149" s="15" t="s">
-        <v>69</v>
+      <c r="F149" s="16" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="150" spans="2:6">
       <c r="B150" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C150" s="1">
         <v>2002</v>
       </c>
       <c r="D150" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E150" s="1">
         <v>1</v>
       </c>
-      <c r="F150" s="15" t="s">
-        <v>73</v>
+      <c r="F150" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="151" spans="2:6">
       <c r="B151" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C151" s="1">
         <v>2001</v>
@@ -4351,13 +5156,13 @@
       <c r="E151" s="1">
         <v>1</v>
       </c>
-      <c r="F151" s="15" t="s">
-        <v>69</v>
+      <c r="F151" s="16" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="152" spans="2:6">
       <c r="B152" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C152" s="1">
         <v>2001</v>
@@ -4368,30 +5173,30 @@
       <c r="E152" s="1">
         <v>1</v>
       </c>
-      <c r="F152" s="15" t="s">
-        <v>69</v>
+      <c r="F152" s="16" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="153" spans="2:6">
       <c r="B153" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C153" s="1">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D153" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E153" s="1">
         <v>1</v>
       </c>
-      <c r="F153" s="15" t="s">
-        <v>74</v>
+      <c r="F153" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="154" spans="2:6">
       <c r="B154" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C154" s="1">
         <v>2001</v>
@@ -4402,16 +5207,16 @@
       <c r="E154" s="1">
         <v>1</v>
       </c>
-      <c r="F154" s="15" t="s">
-        <v>75</v>
+      <c r="F154" s="16" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="155" spans="2:6">
       <c r="B155" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C155" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D155" s="1">
         <v>1</v>
@@ -4419,25 +5224,507 @@
       <c r="E155" s="1">
         <v>1</v>
       </c>
-      <c r="F155" s="15" t="s">
-        <v>75</v>
+      <c r="F155" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="156" spans="2:6">
       <c r="B156" s="1">
+        <v>8</v>
+      </c>
+      <c r="C156" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D156" s="1">
+        <v>1</v>
+      </c>
+      <c r="E156" s="1">
+        <v>1</v>
+      </c>
+      <c r="F156" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6">
+      <c r="B157" s="1">
+        <v>9</v>
+      </c>
+      <c r="C157" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D157" s="1">
+        <v>1</v>
+      </c>
+      <c r="E157" s="1">
+        <v>1</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6">
+      <c r="B158" s="1">
+        <v>10</v>
+      </c>
+      <c r="C158" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D158" s="1">
+        <v>1</v>
+      </c>
+      <c r="E158" s="1">
+        <v>1</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6">
+      <c r="B159" s="1">
+        <v>11</v>
+      </c>
+      <c r="C159" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D159" s="1">
+        <v>1</v>
+      </c>
+      <c r="E159" s="1">
+        <v>1</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6">
+      <c r="B160" s="1">
+        <v>12</v>
+      </c>
+      <c r="C160" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D160" s="1">
+        <v>1</v>
+      </c>
+      <c r="E160" s="1">
+        <v>1</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6">
+      <c r="B161" s="1">
+        <v>13</v>
+      </c>
+      <c r="C161" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D161" s="1">
+        <v>1</v>
+      </c>
+      <c r="E161" s="1">
+        <v>1</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6">
+      <c r="B162" s="1">
+        <v>14</v>
+      </c>
+      <c r="C162" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D162" s="1">
+        <v>1</v>
+      </c>
+      <c r="E162" s="1">
+        <v>1</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6">
+      <c r="B163" s="1">
+        <v>15</v>
+      </c>
+      <c r="C163" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D163" s="1">
+        <v>1</v>
+      </c>
+      <c r="E163" s="1">
+        <v>1</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6">
+      <c r="B168" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6">
+      <c r="B169" s="1">
+        <v>1</v>
+      </c>
+      <c r="C169" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D169" s="1">
+        <v>1</v>
+      </c>
+      <c r="E169" s="1">
+        <v>1</v>
+      </c>
+      <c r="F169" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6">
+      <c r="B170" s="1">
+        <v>2</v>
+      </c>
+      <c r="C170" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D170" s="1">
+        <v>1</v>
+      </c>
+      <c r="E170" s="1">
+        <v>1</v>
+      </c>
+      <c r="F170" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6">
+      <c r="B171" s="1">
+        <v>3</v>
+      </c>
+      <c r="C171" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D171" s="1">
+        <v>1</v>
+      </c>
+      <c r="E171" s="1">
+        <v>1</v>
+      </c>
+      <c r="F171" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6">
+      <c r="B172" s="1">
+        <v>4</v>
+      </c>
+      <c r="C172" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D172" s="1">
+        <v>1</v>
+      </c>
+      <c r="E172" s="1">
+        <v>1</v>
+      </c>
+      <c r="F172" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6">
+      <c r="B173" s="1">
+        <v>5</v>
+      </c>
+      <c r="C173" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D173" s="1">
+        <v>1</v>
+      </c>
+      <c r="E173" s="1">
+        <v>1</v>
+      </c>
+      <c r="F173" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6">
+      <c r="B174" s="1">
+        <v>6</v>
+      </c>
+      <c r="C174" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D174" s="1">
+        <v>1</v>
+      </c>
+      <c r="E174" s="1">
+        <v>1</v>
+      </c>
+      <c r="F174" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6">
+      <c r="B175" s="1">
+        <v>7</v>
+      </c>
+      <c r="C175" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D175" s="1">
+        <v>1</v>
+      </c>
+      <c r="E175" s="1">
+        <v>1</v>
+      </c>
+      <c r="F175" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6">
+      <c r="B176" s="1">
+        <v>8</v>
+      </c>
+      <c r="C176" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D176" s="1">
+        <v>1</v>
+      </c>
+      <c r="E176" s="1">
+        <v>1</v>
+      </c>
+      <c r="F176" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6">
+      <c r="B177" s="1">
+        <v>9</v>
+      </c>
+      <c r="C177" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D177" s="1">
+        <v>2</v>
+      </c>
+      <c r="E177" s="1">
+        <v>1</v>
+      </c>
+      <c r="F177" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6">
+      <c r="B178" s="1">
+        <v>10</v>
+      </c>
+      <c r="C178" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D178" s="1">
+        <v>1</v>
+      </c>
+      <c r="E178" s="1">
+        <v>1</v>
+      </c>
+      <c r="F178" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6">
+      <c r="B179" s="1">
+        <v>11</v>
+      </c>
+      <c r="C179" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D179" s="1">
+        <v>1</v>
+      </c>
+      <c r="E179" s="1">
+        <v>1</v>
+      </c>
+      <c r="F179" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6">
+      <c r="B180" s="1">
+        <v>12</v>
+      </c>
+      <c r="C180" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D180" s="1">
+        <v>2</v>
+      </c>
+      <c r="E180" s="1">
+        <v>1</v>
+      </c>
+      <c r="F180" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6">
+      <c r="B181" s="1">
+        <v>13</v>
+      </c>
+      <c r="C181" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D181" s="1">
+        <v>1</v>
+      </c>
+      <c r="E181" s="1">
+        <v>1</v>
+      </c>
+      <c r="F181" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6">
+      <c r="B182" s="1">
+        <v>14</v>
+      </c>
+      <c r="C182" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D182" s="1">
+        <v>1</v>
+      </c>
+      <c r="E182" s="1">
+        <v>1</v>
+      </c>
+      <c r="F182" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6">
+      <c r="B183" s="1">
+        <v>15</v>
+      </c>
+      <c r="C183" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D183" s="1">
+        <v>2</v>
+      </c>
+      <c r="E183" s="1">
+        <v>1</v>
+      </c>
+      <c r="F183" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6">
+      <c r="B184" s="1">
+        <v>16</v>
+      </c>
+      <c r="C184" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D184" s="1">
+        <v>1</v>
+      </c>
+      <c r="E184" s="1">
+        <v>1</v>
+      </c>
+      <c r="F184" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6">
+      <c r="B185" s="1">
+        <v>17</v>
+      </c>
+      <c r="C185" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D185" s="1">
+        <v>1</v>
+      </c>
+      <c r="E185" s="1">
+        <v>1</v>
+      </c>
+      <c r="F185" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6">
+      <c r="B186" s="1">
         <v>18</v>
       </c>
-      <c r="C156" s="1">
+      <c r="C186" s="1">
         <v>2003</v>
       </c>
-      <c r="D156" s="1">
-        <v>1</v>
-      </c>
-      <c r="E156" s="1">
-        <v>1</v>
-      </c>
-      <c r="F156" s="15" t="s">
-        <v>75</v>
+      <c r="D186" s="1">
+        <v>1</v>
+      </c>
+      <c r="E186" s="1">
+        <v>1</v>
+      </c>
+      <c r="F186" s="16" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -1277,10 +1277,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1314,8 +1314,53 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1329,41 +1374,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1376,9 +1389,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1406,51 +1427,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1527,7 +1527,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1539,13 +1575,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1563,19 +1659,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1587,115 +1677,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1711,6 +1699,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1723,24 +1723,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1756,6 +1743,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1785,16 +1796,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1807,17 +1818,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1826,10 +1826,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1838,133 +1838,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2089,7 +2089,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2370,7 +2370,7 @@
   <sheetPr/>
   <dimension ref="A3:R186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
       <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
@@ -2382,8 +2382,8 @@
     <col min="4" max="4" width="25.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="33.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.625" style="1" customWidth="1"/>
     <col min="9" max="16" width="9" style="1"/>
     <col min="17" max="17" width="12" style="1" customWidth="1"/>
     <col min="18" max="16383" width="9" style="1"/>

--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$99:$C$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$181:$C$185</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -426,7 +426,29 @@
         </r>
       </text>
     </comment>
-    <comment ref="B72" authorId="0">
+    <comment ref="C84" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yineng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+谢谢您(没有抽中东西)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B85" authorId="0">
       <text>
         <r>
           <rPr>
@@ -448,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B75" authorId="0">
+    <comment ref="B102" authorId="0">
       <text>
         <r>
           <rPr>
@@ -470,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B78" authorId="0">
+    <comment ref="B119" authorId="0">
       <text>
         <r>
           <rPr>
@@ -492,7 +514,29 @@
         </r>
       </text>
     </comment>
-    <comment ref="B81" authorId="0">
+    <comment ref="C134" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yineng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+谢谢您(没有抽中东西)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B135" authorId="0">
       <text>
         <r>
           <rPr>
@@ -514,7 +558,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B84" authorId="0">
+    <comment ref="B152" authorId="0">
       <text>
         <r>
           <rPr>
@@ -536,7 +580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B91" authorId="2">
+    <comment ref="B173" authorId="2">
       <text>
         <r>
           <rPr>
@@ -548,7 +592,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B92" authorId="1">
+    <comment ref="B174" authorId="1">
       <text>
         <r>
           <rPr>
@@ -560,7 +604,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B101" authorId="0">
+    <comment ref="B183" authorId="0">
       <text>
         <r>
           <rPr>
@@ -583,7 +627,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B138" authorId="0">
+    <comment ref="B220" authorId="0">
       <text>
         <r>
           <rPr>
@@ -605,7 +649,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B147" authorId="0">
+    <comment ref="B229" authorId="0">
       <text>
         <r>
           <rPr>
@@ -627,7 +671,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B167" authorId="0">
+    <comment ref="B249" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1277,10 +1321,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1315,12 +1359,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1329,78 +1374,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1421,15 +1395,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1444,7 +1419,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1453,6 +1428,75 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1527,30 +1571,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1563,7 +1583,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1587,25 +1643,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1617,43 +1673,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1677,7 +1703,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1689,25 +1715,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1718,6 +1762,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1745,26 +1800,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1802,19 +1842,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1826,10 +1870,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1838,133 +1882,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2368,10 +2412,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:R186"/>
+  <dimension ref="A3:R268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F148" sqref="F148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3497,16 +3541,16 @@
         <v>1</v>
       </c>
       <c r="E69" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F69" s="12">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G69" s="12">
         <v>1</v>
       </c>
       <c r="H69" s="12">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="2:8">
@@ -3514,18 +3558,18 @@
         <v>100702</v>
       </c>
       <c r="C70" s="12">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D70" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12">
-        <v>20</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="2:8">
@@ -3533,2197 +3577,3755 @@
         <v>100703</v>
       </c>
       <c r="C71" s="12">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D71" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E71" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
       <c r="H71" s="12">
-        <v>10</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="13">
-        <v>100801</v>
-      </c>
-      <c r="C72" s="13">
-        <v>2001</v>
-      </c>
-      <c r="D72" s="13">
+      <c r="B72" s="12">
+        <v>100704</v>
+      </c>
+      <c r="C72" s="12">
+        <v>2002</v>
+      </c>
+      <c r="D72" s="12">
+        <v>1</v>
+      </c>
+      <c r="E72" s="12">
+        <v>1</v>
+      </c>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="12">
+        <v>100705</v>
+      </c>
+      <c r="C73" s="12">
+        <v>2002</v>
+      </c>
+      <c r="D73" s="12">
+        <v>2</v>
+      </c>
+      <c r="E73" s="12">
+        <v>2</v>
+      </c>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="12">
+        <v>100706</v>
+      </c>
+      <c r="C74" s="12">
+        <v>2002</v>
+      </c>
+      <c r="D74" s="12">
         <v>5</v>
       </c>
-      <c r="E72" s="13">
-        <v>15</v>
-      </c>
-      <c r="F72" s="13">
-        <v>3</v>
-      </c>
-      <c r="G72" s="13">
-        <v>1</v>
-      </c>
-      <c r="H72" s="13">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8">
-      <c r="B73" s="13">
-        <v>100802</v>
-      </c>
-      <c r="C73" s="13">
-        <v>2002</v>
-      </c>
-      <c r="D73" s="13">
+      <c r="E74" s="12">
         <v>5</v>
       </c>
-      <c r="E73" s="13">
-        <v>15</v>
-      </c>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8">
-      <c r="B74" s="13">
-        <v>100803</v>
-      </c>
-      <c r="C74" s="13">
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="12">
+        <v>100707</v>
+      </c>
+      <c r="C75" s="12">
         <v>2003</v>
       </c>
-      <c r="D74" s="13">
+      <c r="D75" s="12">
+        <v>1</v>
+      </c>
+      <c r="E75" s="12">
+        <v>1</v>
+      </c>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="12">
+        <v>100708</v>
+      </c>
+      <c r="C76" s="12">
+        <v>2003</v>
+      </c>
+      <c r="D76" s="12">
+        <v>2</v>
+      </c>
+      <c r="E76" s="12">
+        <v>2</v>
+      </c>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="12">
+        <v>100709</v>
+      </c>
+      <c r="C77" s="12">
+        <v>2003</v>
+      </c>
+      <c r="D77" s="12">
         <v>5</v>
       </c>
-      <c r="E74" s="13">
-        <v>15</v>
-      </c>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8">
-      <c r="B75" s="14">
-        <v>100901</v>
-      </c>
-      <c r="C75" s="14">
-        <v>2001</v>
-      </c>
-      <c r="D75" s="14">
-        <v>10</v>
-      </c>
-      <c r="E75" s="14">
-        <v>30</v>
-      </c>
-      <c r="F75" s="14">
-        <v>3</v>
-      </c>
-      <c r="G75" s="14">
-        <v>1</v>
-      </c>
-      <c r="H75" s="14">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8">
-      <c r="B76" s="14">
-        <v>100902</v>
-      </c>
-      <c r="C76" s="14">
-        <v>2002</v>
-      </c>
-      <c r="D76" s="14">
-        <v>10</v>
-      </c>
-      <c r="E76" s="14">
-        <v>30</v>
-      </c>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8">
-      <c r="B77" s="14">
-        <v>100903</v>
-      </c>
-      <c r="C77" s="14">
-        <v>2003</v>
-      </c>
-      <c r="D77" s="14">
-        <v>10</v>
-      </c>
-      <c r="E77" s="14">
-        <v>30</v>
-      </c>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14">
-        <v>10</v>
+      <c r="E77" s="12">
+        <v>5</v>
+      </c>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12">
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="2:8">
       <c r="B78" s="12">
-        <v>101001</v>
+        <v>100710</v>
       </c>
       <c r="C78" s="12">
-        <v>2001</v>
+        <v>5001</v>
       </c>
       <c r="D78" s="12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E78" s="12">
-        <v>3</v>
-      </c>
-      <c r="F78" s="12">
-        <v>3</v>
-      </c>
-      <c r="G78" s="12">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
       <c r="H78" s="12">
-        <v>70</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="2:8">
       <c r="B79" s="12">
-        <v>101002</v>
+        <v>100711</v>
       </c>
       <c r="C79" s="12">
-        <v>2002</v>
+        <v>5001</v>
       </c>
       <c r="D79" s="12">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E79" s="12">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
       <c r="H79" s="12">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="2:8">
       <c r="B80" s="12">
-        <v>101003</v>
+        <v>100712</v>
       </c>
       <c r="C80" s="12">
-        <v>2003</v>
+        <v>5001</v>
       </c>
       <c r="D80" s="12">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E80" s="12">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
       <c r="H80" s="12">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="12">
+        <v>100713</v>
+      </c>
+      <c r="C81" s="12">
+        <v>6001</v>
+      </c>
+      <c r="D81" s="12">
+        <v>1</v>
+      </c>
+      <c r="E81" s="12">
+        <v>1</v>
+      </c>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="12">
+        <v>100714</v>
+      </c>
+      <c r="C82" s="12">
+        <v>6001</v>
+      </c>
+      <c r="D82" s="12">
+        <v>2</v>
+      </c>
+      <c r="E82" s="12">
+        <v>2</v>
+      </c>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="12">
+        <v>100715</v>
+      </c>
+      <c r="C83" s="12">
+        <v>6001</v>
+      </c>
+      <c r="D83" s="12">
+        <v>5</v>
+      </c>
+      <c r="E83" s="12">
+        <v>5</v>
+      </c>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="12">
+        <v>100716</v>
+      </c>
+      <c r="C84" s="12">
+        <v>9527</v>
+      </c>
+      <c r="D84" s="12">
+        <v>1</v>
+      </c>
+      <c r="E84" s="12">
+        <v>1</v>
+      </c>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" s="13">
+        <v>100801</v>
+      </c>
+      <c r="C85" s="13">
+        <v>5001</v>
+      </c>
+      <c r="D85" s="13">
+        <v>1</v>
+      </c>
+      <c r="E85" s="13">
+        <v>1</v>
+      </c>
+      <c r="F85" s="13">
+        <v>17</v>
+      </c>
+      <c r="G85" s="13">
+        <v>1</v>
+      </c>
+      <c r="H85" s="13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="13">
+        <v>100802</v>
+      </c>
+      <c r="C86" s="13">
+        <v>5001</v>
+      </c>
+      <c r="D86" s="13">
+        <v>2</v>
+      </c>
+      <c r="E86" s="13">
+        <v>2</v>
+      </c>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="13">
+        <v>100803</v>
+      </c>
+      <c r="C87" s="13">
+        <v>5001</v>
+      </c>
+      <c r="D87" s="13">
+        <v>5</v>
+      </c>
+      <c r="E87" s="13">
+        <v>5</v>
+      </c>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" s="13">
+        <v>100804</v>
+      </c>
+      <c r="C88" s="13">
+        <v>2003</v>
+      </c>
+      <c r="D88" s="13">
+        <v>5</v>
+      </c>
+      <c r="E88" s="13">
+        <v>5</v>
+      </c>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" s="13">
+        <v>100805</v>
+      </c>
+      <c r="C89" s="13">
+        <v>2003</v>
+      </c>
+      <c r="D89" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="81" spans="2:8">
-      <c r="B81" s="13">
+      <c r="E89" s="13">
+        <v>10</v>
+      </c>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" s="13">
+        <v>100806</v>
+      </c>
+      <c r="C90" s="13">
+        <v>2003</v>
+      </c>
+      <c r="D90" s="13">
+        <v>15</v>
+      </c>
+      <c r="E90" s="13">
+        <v>15</v>
+      </c>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" s="13">
+        <v>100807</v>
+      </c>
+      <c r="C91" s="13">
+        <v>500001</v>
+      </c>
+      <c r="D91" s="13">
+        <v>1</v>
+      </c>
+      <c r="E91" s="13">
+        <v>1</v>
+      </c>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="B92" s="13">
+        <v>100808</v>
+      </c>
+      <c r="C92" s="13">
+        <v>500004</v>
+      </c>
+      <c r="D92" s="13">
+        <v>1</v>
+      </c>
+      <c r="E92" s="13">
+        <v>1</v>
+      </c>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" s="13">
+        <v>100809</v>
+      </c>
+      <c r="C93" s="13">
+        <v>500007</v>
+      </c>
+      <c r="D93" s="13">
+        <v>1</v>
+      </c>
+      <c r="E93" s="13">
+        <v>1</v>
+      </c>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" s="13">
+        <v>100810</v>
+      </c>
+      <c r="C94" s="13">
+        <v>500010</v>
+      </c>
+      <c r="D94" s="13">
+        <v>1</v>
+      </c>
+      <c r="E94" s="13">
+        <v>1</v>
+      </c>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="13">
+        <v>100811</v>
+      </c>
+      <c r="C95" s="13">
+        <v>500013</v>
+      </c>
+      <c r="D95" s="13">
+        <v>1</v>
+      </c>
+      <c r="E95" s="13">
+        <v>1</v>
+      </c>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="13">
+        <v>100812</v>
+      </c>
+      <c r="C96" s="13">
+        <v>500029</v>
+      </c>
+      <c r="D96" s="13">
+        <v>1</v>
+      </c>
+      <c r="E96" s="13">
+        <v>1</v>
+      </c>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8">
+      <c r="B97" s="13">
+        <v>100813</v>
+      </c>
+      <c r="C97" s="13">
+        <v>500030</v>
+      </c>
+      <c r="D97" s="13">
+        <v>1</v>
+      </c>
+      <c r="E97" s="13">
+        <v>1</v>
+      </c>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8">
+      <c r="B98" s="13">
+        <v>100814</v>
+      </c>
+      <c r="C98" s="13">
+        <v>500024</v>
+      </c>
+      <c r="D98" s="13">
+        <v>1</v>
+      </c>
+      <c r="E98" s="13">
+        <v>1</v>
+      </c>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8">
+      <c r="B99" s="13">
+        <v>100815</v>
+      </c>
+      <c r="C99" s="13">
+        <v>6001</v>
+      </c>
+      <c r="D99" s="13">
+        <v>10</v>
+      </c>
+      <c r="E99" s="13">
+        <v>10</v>
+      </c>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8">
+      <c r="B100" s="13">
+        <v>100816</v>
+      </c>
+      <c r="C100" s="13">
+        <v>6001</v>
+      </c>
+      <c r="D100" s="13">
+        <v>20</v>
+      </c>
+      <c r="E100" s="13">
+        <v>20</v>
+      </c>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8">
+      <c r="B101" s="13">
+        <v>100817</v>
+      </c>
+      <c r="C101" s="13">
+        <v>6001</v>
+      </c>
+      <c r="D101" s="13">
+        <v>50</v>
+      </c>
+      <c r="E101" s="13">
+        <v>50</v>
+      </c>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8">
+      <c r="B102" s="14">
+        <v>100901</v>
+      </c>
+      <c r="C102" s="14">
+        <v>2003</v>
+      </c>
+      <c r="D102" s="14">
+        <v>25</v>
+      </c>
+      <c r="E102" s="14">
+        <v>25</v>
+      </c>
+      <c r="F102" s="14">
+        <v>17</v>
+      </c>
+      <c r="G102" s="14">
+        <v>1</v>
+      </c>
+      <c r="H102" s="14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8">
+      <c r="B103" s="14">
+        <v>100902</v>
+      </c>
+      <c r="C103" s="14">
+        <v>2003</v>
+      </c>
+      <c r="D103" s="14">
+        <v>50</v>
+      </c>
+      <c r="E103" s="14">
+        <v>50</v>
+      </c>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8">
+      <c r="B104" s="14">
+        <v>100903</v>
+      </c>
+      <c r="C104" s="14">
+        <v>2003</v>
+      </c>
+      <c r="D104" s="14">
+        <v>100</v>
+      </c>
+      <c r="E104" s="14">
+        <v>100</v>
+      </c>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8">
+      <c r="B105" s="14">
+        <v>100904</v>
+      </c>
+      <c r="C105" s="14">
+        <v>6001</v>
+      </c>
+      <c r="D105" s="14">
+        <v>50</v>
+      </c>
+      <c r="E105" s="14">
+        <v>50</v>
+      </c>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8">
+      <c r="B106" s="14">
+        <v>100905</v>
+      </c>
+      <c r="C106" s="14">
+        <v>6001</v>
+      </c>
+      <c r="D106" s="14">
+        <v>200</v>
+      </c>
+      <c r="E106" s="14">
+        <v>200</v>
+      </c>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8">
+      <c r="B107" s="14">
+        <v>100906</v>
+      </c>
+      <c r="C107" s="14">
+        <v>6001</v>
+      </c>
+      <c r="D107" s="14">
+        <v>500</v>
+      </c>
+      <c r="E107" s="14">
+        <v>500</v>
+      </c>
+      <c r="F107" s="14"/>
+      <c r="G107" s="14"/>
+      <c r="H107" s="14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8">
+      <c r="B108" s="14">
+        <v>100907</v>
+      </c>
+      <c r="C108" s="14">
+        <v>5001</v>
+      </c>
+      <c r="D108" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E108" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F108" s="14"/>
+      <c r="G108" s="14"/>
+      <c r="H108" s="14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8">
+      <c r="B109" s="14">
+        <v>100908</v>
+      </c>
+      <c r="C109" s="14">
+        <v>5001</v>
+      </c>
+      <c r="D109" s="14">
+        <v>2000</v>
+      </c>
+      <c r="E109" s="14">
+        <v>2000</v>
+      </c>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8">
+      <c r="B110" s="14">
+        <v>100909</v>
+      </c>
+      <c r="C110" s="14">
+        <v>5001</v>
+      </c>
+      <c r="D110" s="14">
+        <v>5000</v>
+      </c>
+      <c r="E110" s="14">
+        <v>5000</v>
+      </c>
+      <c r="F110" s="14"/>
+      <c r="G110" s="14"/>
+      <c r="H110" s="14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8">
+      <c r="B111" s="14">
+        <v>100910</v>
+      </c>
+      <c r="C111" s="14">
+        <v>500014</v>
+      </c>
+      <c r="D111" s="14">
+        <v>1</v>
+      </c>
+      <c r="E111" s="14">
+        <v>1</v>
+      </c>
+      <c r="F111" s="14"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8">
+      <c r="B112" s="14">
+        <v>100911</v>
+      </c>
+      <c r="C112" s="14">
+        <v>500011</v>
+      </c>
+      <c r="D112" s="14">
+        <v>1</v>
+      </c>
+      <c r="E112" s="14">
+        <v>1</v>
+      </c>
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8">
+      <c r="B113" s="14">
+        <v>100912</v>
+      </c>
+      <c r="C113" s="14">
+        <v>500020</v>
+      </c>
+      <c r="D113" s="14">
+        <v>1</v>
+      </c>
+      <c r="E113" s="14">
+        <v>1</v>
+      </c>
+      <c r="F113" s="14"/>
+      <c r="G113" s="14"/>
+      <c r="H113" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8">
+      <c r="B114" s="14">
+        <v>100913</v>
+      </c>
+      <c r="C114" s="14">
+        <v>500017</v>
+      </c>
+      <c r="D114" s="14">
+        <v>1</v>
+      </c>
+      <c r="E114" s="14">
+        <v>1</v>
+      </c>
+      <c r="F114" s="14"/>
+      <c r="G114" s="14"/>
+      <c r="H114" s="14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8">
+      <c r="B115" s="14">
+        <v>100914</v>
+      </c>
+      <c r="C115" s="14">
+        <v>500018</v>
+      </c>
+      <c r="D115" s="14">
+        <v>1</v>
+      </c>
+      <c r="E115" s="14">
+        <v>1</v>
+      </c>
+      <c r="F115" s="14"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8">
+      <c r="B116" s="14">
+        <v>100915</v>
+      </c>
+      <c r="C116" s="14">
+        <v>500019</v>
+      </c>
+      <c r="D116" s="14">
+        <v>1</v>
+      </c>
+      <c r="E116" s="14">
+        <v>1</v>
+      </c>
+      <c r="F116" s="14"/>
+      <c r="G116" s="14"/>
+      <c r="H116" s="14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8">
+      <c r="B117" s="14">
+        <v>100916</v>
+      </c>
+      <c r="C117" s="14">
+        <v>500027</v>
+      </c>
+      <c r="D117" s="14">
+        <v>1</v>
+      </c>
+      <c r="E117" s="14">
+        <v>1</v>
+      </c>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8">
+      <c r="B118" s="14">
+        <v>100917</v>
+      </c>
+      <c r="C118" s="14">
+        <v>500028</v>
+      </c>
+      <c r="D118" s="14">
+        <v>1</v>
+      </c>
+      <c r="E118" s="14">
+        <v>1</v>
+      </c>
+      <c r="F118" s="14"/>
+      <c r="G118" s="14"/>
+      <c r="H118" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8">
+      <c r="B119" s="12">
+        <v>101001</v>
+      </c>
+      <c r="C119" s="12">
+        <v>2001</v>
+      </c>
+      <c r="D119" s="12">
+        <v>1</v>
+      </c>
+      <c r="E119" s="12">
+        <v>1</v>
+      </c>
+      <c r="F119" s="12">
+        <v>16</v>
+      </c>
+      <c r="G119" s="12">
+        <v>1</v>
+      </c>
+      <c r="H119" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8">
+      <c r="B120" s="12">
+        <v>101002</v>
+      </c>
+      <c r="C120" s="12">
+        <v>2001</v>
+      </c>
+      <c r="D120" s="12">
+        <v>2</v>
+      </c>
+      <c r="E120" s="12">
+        <v>2</v>
+      </c>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8">
+      <c r="B121" s="12">
+        <v>101003</v>
+      </c>
+      <c r="C121" s="12">
+        <v>2001</v>
+      </c>
+      <c r="D121" s="12">
+        <v>5</v>
+      </c>
+      <c r="E121" s="12">
+        <v>5</v>
+      </c>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8">
+      <c r="B122" s="12">
+        <v>101004</v>
+      </c>
+      <c r="C122" s="12">
+        <v>2002</v>
+      </c>
+      <c r="D122" s="12">
+        <v>1</v>
+      </c>
+      <c r="E122" s="12">
+        <v>1</v>
+      </c>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8">
+      <c r="B123" s="12">
+        <v>101005</v>
+      </c>
+      <c r="C123" s="12">
+        <v>2002</v>
+      </c>
+      <c r="D123" s="12">
+        <v>2</v>
+      </c>
+      <c r="E123" s="12">
+        <v>2</v>
+      </c>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8">
+      <c r="B124" s="12">
+        <v>101006</v>
+      </c>
+      <c r="C124" s="12">
+        <v>2002</v>
+      </c>
+      <c r="D124" s="12">
+        <v>5</v>
+      </c>
+      <c r="E124" s="12">
+        <v>5</v>
+      </c>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8">
+      <c r="B125" s="12">
+        <v>101007</v>
+      </c>
+      <c r="C125" s="12">
+        <v>2003</v>
+      </c>
+      <c r="D125" s="12">
+        <v>1</v>
+      </c>
+      <c r="E125" s="12">
+        <v>1</v>
+      </c>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8">
+      <c r="B126" s="12">
+        <v>101008</v>
+      </c>
+      <c r="C126" s="12">
+        <v>2003</v>
+      </c>
+      <c r="D126" s="12">
+        <v>2</v>
+      </c>
+      <c r="E126" s="12">
+        <v>2</v>
+      </c>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8">
+      <c r="B127" s="12">
+        <v>101009</v>
+      </c>
+      <c r="C127" s="12">
+        <v>2003</v>
+      </c>
+      <c r="D127" s="12">
+        <v>5</v>
+      </c>
+      <c r="E127" s="12">
+        <v>5</v>
+      </c>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8">
+      <c r="B128" s="12">
+        <v>101010</v>
+      </c>
+      <c r="C128" s="12">
+        <v>5001</v>
+      </c>
+      <c r="D128" s="12">
+        <v>10</v>
+      </c>
+      <c r="E128" s="12">
+        <v>10</v>
+      </c>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8">
+      <c r="B129" s="12">
+        <v>101011</v>
+      </c>
+      <c r="C129" s="12">
+        <v>5001</v>
+      </c>
+      <c r="D129" s="12">
+        <v>20</v>
+      </c>
+      <c r="E129" s="12">
+        <v>20</v>
+      </c>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8">
+      <c r="B130" s="12">
+        <v>101012</v>
+      </c>
+      <c r="C130" s="12">
+        <v>5001</v>
+      </c>
+      <c r="D130" s="12">
+        <v>50</v>
+      </c>
+      <c r="E130" s="12">
+        <v>50</v>
+      </c>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8">
+      <c r="B131" s="12">
+        <v>101013</v>
+      </c>
+      <c r="C131" s="12">
+        <v>6001</v>
+      </c>
+      <c r="D131" s="12">
+        <v>1</v>
+      </c>
+      <c r="E131" s="12">
+        <v>1</v>
+      </c>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8">
+      <c r="B132" s="12">
+        <v>101014</v>
+      </c>
+      <c r="C132" s="12">
+        <v>6001</v>
+      </c>
+      <c r="D132" s="12">
+        <v>2</v>
+      </c>
+      <c r="E132" s="12">
+        <v>2</v>
+      </c>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8">
+      <c r="B133" s="12">
+        <v>101015</v>
+      </c>
+      <c r="C133" s="12">
+        <v>6001</v>
+      </c>
+      <c r="D133" s="12">
+        <v>5</v>
+      </c>
+      <c r="E133" s="12">
+        <v>5</v>
+      </c>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8">
+      <c r="B134" s="12">
+        <v>101016</v>
+      </c>
+      <c r="C134" s="12">
+        <v>9527</v>
+      </c>
+      <c r="D134" s="12">
+        <v>1</v>
+      </c>
+      <c r="E134" s="12">
+        <v>1</v>
+      </c>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8">
+      <c r="B135" s="13">
         <v>101101</v>
       </c>
-      <c r="C81" s="13">
+      <c r="C135" s="13">
+        <v>5001</v>
+      </c>
+      <c r="D135" s="13">
+        <v>1</v>
+      </c>
+      <c r="E135" s="13">
+        <v>1</v>
+      </c>
+      <c r="F135" s="13">
+        <v>17</v>
+      </c>
+      <c r="G135" s="13">
+        <v>1</v>
+      </c>
+      <c r="H135" s="13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8">
+      <c r="B136" s="13">
+        <v>101102</v>
+      </c>
+      <c r="C136" s="13">
+        <v>5001</v>
+      </c>
+      <c r="D136" s="13">
+        <v>2</v>
+      </c>
+      <c r="E136" s="13">
+        <v>2</v>
+      </c>
+      <c r="F136" s="13"/>
+      <c r="G136" s="13"/>
+      <c r="H136" s="13">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8">
+      <c r="B137" s="13">
+        <v>101103</v>
+      </c>
+      <c r="C137" s="13">
+        <v>5001</v>
+      </c>
+      <c r="D137" s="13">
+        <v>5</v>
+      </c>
+      <c r="E137" s="13">
+        <v>5</v>
+      </c>
+      <c r="F137" s="13"/>
+      <c r="G137" s="13"/>
+      <c r="H137" s="13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8">
+      <c r="B138" s="13">
+        <v>101104</v>
+      </c>
+      <c r="C138" s="13">
+        <v>2003</v>
+      </c>
+      <c r="D138" s="13">
+        <v>5</v>
+      </c>
+      <c r="E138" s="13">
+        <v>5</v>
+      </c>
+      <c r="F138" s="13"/>
+      <c r="G138" s="13"/>
+      <c r="H138" s="13">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8">
+      <c r="B139" s="13">
+        <v>101105</v>
+      </c>
+      <c r="C139" s="13">
+        <v>2003</v>
+      </c>
+      <c r="D139" s="13">
+        <v>10</v>
+      </c>
+      <c r="E139" s="13">
+        <v>10</v>
+      </c>
+      <c r="F139" s="13"/>
+      <c r="G139" s="13"/>
+      <c r="H139" s="13">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8">
+      <c r="B140" s="13">
+        <v>101106</v>
+      </c>
+      <c r="C140" s="13">
+        <v>2003</v>
+      </c>
+      <c r="D140" s="13">
+        <v>15</v>
+      </c>
+      <c r="E140" s="13">
+        <v>15</v>
+      </c>
+      <c r="F140" s="13"/>
+      <c r="G140" s="13"/>
+      <c r="H140" s="13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8">
+      <c r="B141" s="13">
+        <v>101107</v>
+      </c>
+      <c r="C141" s="13">
+        <v>500001</v>
+      </c>
+      <c r="D141" s="13">
+        <v>1</v>
+      </c>
+      <c r="E141" s="13">
+        <v>1</v>
+      </c>
+      <c r="F141" s="13"/>
+      <c r="G141" s="13"/>
+      <c r="H141" s="13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8">
+      <c r="B142" s="13">
+        <v>101108</v>
+      </c>
+      <c r="C142" s="13">
+        <v>500004</v>
+      </c>
+      <c r="D142" s="13">
+        <v>1</v>
+      </c>
+      <c r="E142" s="13">
+        <v>1</v>
+      </c>
+      <c r="F142" s="13"/>
+      <c r="G142" s="13"/>
+      <c r="H142" s="13">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8">
+      <c r="B143" s="13">
+        <v>101109</v>
+      </c>
+      <c r="C143" s="13">
+        <v>500007</v>
+      </c>
+      <c r="D143" s="13">
+        <v>1</v>
+      </c>
+      <c r="E143" s="13">
+        <v>1</v>
+      </c>
+      <c r="F143" s="13"/>
+      <c r="G143" s="13"/>
+      <c r="H143" s="13">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8">
+      <c r="B144" s="13">
+        <v>101110</v>
+      </c>
+      <c r="C144" s="13">
+        <v>500010</v>
+      </c>
+      <c r="D144" s="13">
+        <v>1</v>
+      </c>
+      <c r="E144" s="13">
+        <v>1</v>
+      </c>
+      <c r="F144" s="13"/>
+      <c r="G144" s="13"/>
+      <c r="H144" s="13">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8">
+      <c r="B145" s="13">
+        <v>101111</v>
+      </c>
+      <c r="C145" s="13">
+        <v>500013</v>
+      </c>
+      <c r="D145" s="13">
+        <v>1</v>
+      </c>
+      <c r="E145" s="13">
+        <v>1</v>
+      </c>
+      <c r="F145" s="13"/>
+      <c r="G145" s="13"/>
+      <c r="H145" s="13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8">
+      <c r="B146" s="13">
+        <v>101112</v>
+      </c>
+      <c r="C146" s="13">
+        <v>500029</v>
+      </c>
+      <c r="D146" s="13">
+        <v>1</v>
+      </c>
+      <c r="E146" s="13">
+        <v>1</v>
+      </c>
+      <c r="F146" s="13"/>
+      <c r="G146" s="13"/>
+      <c r="H146" s="13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8">
+      <c r="B147" s="13">
+        <v>101113</v>
+      </c>
+      <c r="C147" s="13">
+        <v>500030</v>
+      </c>
+      <c r="D147" s="13">
+        <v>1</v>
+      </c>
+      <c r="E147" s="13">
+        <v>1</v>
+      </c>
+      <c r="F147" s="13"/>
+      <c r="G147" s="13"/>
+      <c r="H147" s="13">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8">
+      <c r="B148" s="13">
+        <v>101114</v>
+      </c>
+      <c r="C148" s="13">
+        <v>500024</v>
+      </c>
+      <c r="D148" s="13">
+        <v>1</v>
+      </c>
+      <c r="E148" s="13">
+        <v>1</v>
+      </c>
+      <c r="F148" s="13"/>
+      <c r="G148" s="13"/>
+      <c r="H148" s="13">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8">
+      <c r="B149" s="13">
+        <v>101115</v>
+      </c>
+      <c r="C149" s="13">
+        <v>6001</v>
+      </c>
+      <c r="D149" s="13">
+        <v>10</v>
+      </c>
+      <c r="E149" s="13">
+        <v>10</v>
+      </c>
+      <c r="F149" s="13"/>
+      <c r="G149" s="13"/>
+      <c r="H149" s="13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8">
+      <c r="B150" s="13">
+        <v>101116</v>
+      </c>
+      <c r="C150" s="13">
+        <v>6001</v>
+      </c>
+      <c r="D150" s="13">
+        <v>20</v>
+      </c>
+      <c r="E150" s="13">
+        <v>20</v>
+      </c>
+      <c r="F150" s="13"/>
+      <c r="G150" s="13"/>
+      <c r="H150" s="13">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8">
+      <c r="B151" s="13">
+        <v>101117</v>
+      </c>
+      <c r="C151" s="13">
+        <v>6001</v>
+      </c>
+      <c r="D151" s="13">
+        <v>50</v>
+      </c>
+      <c r="E151" s="13">
+        <v>50</v>
+      </c>
+      <c r="F151" s="13"/>
+      <c r="G151" s="13"/>
+      <c r="H151" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8">
+      <c r="B152" s="14">
+        <v>101201</v>
+      </c>
+      <c r="C152" s="14">
+        <v>2003</v>
+      </c>
+      <c r="D152" s="14">
+        <v>25</v>
+      </c>
+      <c r="E152" s="14">
+        <v>25</v>
+      </c>
+      <c r="F152" s="14">
+        <v>17</v>
+      </c>
+      <c r="G152" s="14">
+        <v>1</v>
+      </c>
+      <c r="H152" s="14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8">
+      <c r="B153" s="14">
+        <v>101202</v>
+      </c>
+      <c r="C153" s="14">
+        <v>2003</v>
+      </c>
+      <c r="D153" s="14">
+        <v>50</v>
+      </c>
+      <c r="E153" s="14">
+        <v>50</v>
+      </c>
+      <c r="F153" s="14"/>
+      <c r="G153" s="14"/>
+      <c r="H153" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8">
+      <c r="B154" s="14">
+        <v>101203</v>
+      </c>
+      <c r="C154" s="14">
+        <v>2003</v>
+      </c>
+      <c r="D154" s="14">
+        <v>100</v>
+      </c>
+      <c r="E154" s="14">
+        <v>100</v>
+      </c>
+      <c r="F154" s="14"/>
+      <c r="G154" s="14"/>
+      <c r="H154" s="14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8">
+      <c r="B155" s="14">
+        <v>101204</v>
+      </c>
+      <c r="C155" s="14">
+        <v>6001</v>
+      </c>
+      <c r="D155" s="14">
+        <v>50</v>
+      </c>
+      <c r="E155" s="14">
+        <v>50</v>
+      </c>
+      <c r="F155" s="14"/>
+      <c r="G155" s="14"/>
+      <c r="H155" s="14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8">
+      <c r="B156" s="14">
+        <v>101205</v>
+      </c>
+      <c r="C156" s="14">
+        <v>6001</v>
+      </c>
+      <c r="D156" s="14">
+        <v>200</v>
+      </c>
+      <c r="E156" s="14">
+        <v>200</v>
+      </c>
+      <c r="F156" s="14"/>
+      <c r="G156" s="14"/>
+      <c r="H156" s="14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8">
+      <c r="B157" s="14">
+        <v>101206</v>
+      </c>
+      <c r="C157" s="14">
+        <v>6001</v>
+      </c>
+      <c r="D157" s="14">
+        <v>500</v>
+      </c>
+      <c r="E157" s="14">
+        <v>500</v>
+      </c>
+      <c r="F157" s="14"/>
+      <c r="G157" s="14"/>
+      <c r="H157" s="14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8">
+      <c r="B158" s="14">
+        <v>101207</v>
+      </c>
+      <c r="C158" s="14">
+        <v>5001</v>
+      </c>
+      <c r="D158" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E158" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F158" s="14"/>
+      <c r="G158" s="14"/>
+      <c r="H158" s="14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8">
+      <c r="B159" s="14">
+        <v>101208</v>
+      </c>
+      <c r="C159" s="14">
+        <v>5001</v>
+      </c>
+      <c r="D159" s="14">
+        <v>2000</v>
+      </c>
+      <c r="E159" s="14">
+        <v>2000</v>
+      </c>
+      <c r="F159" s="14"/>
+      <c r="G159" s="14"/>
+      <c r="H159" s="14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8">
+      <c r="B160" s="14">
+        <v>101209</v>
+      </c>
+      <c r="C160" s="14">
+        <v>5001</v>
+      </c>
+      <c r="D160" s="14">
+        <v>5000</v>
+      </c>
+      <c r="E160" s="14">
+        <v>5000</v>
+      </c>
+      <c r="F160" s="14"/>
+      <c r="G160" s="14"/>
+      <c r="H160" s="14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8">
+      <c r="B161" s="14">
+        <v>101210</v>
+      </c>
+      <c r="C161" s="14">
+        <v>500014</v>
+      </c>
+      <c r="D161" s="14">
+        <v>1</v>
+      </c>
+      <c r="E161" s="14">
+        <v>1</v>
+      </c>
+      <c r="F161" s="14"/>
+      <c r="G161" s="14"/>
+      <c r="H161" s="14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8">
+      <c r="B162" s="14">
+        <v>101211</v>
+      </c>
+      <c r="C162" s="14">
+        <v>500011</v>
+      </c>
+      <c r="D162" s="14">
+        <v>1</v>
+      </c>
+      <c r="E162" s="14">
+        <v>1</v>
+      </c>
+      <c r="F162" s="14"/>
+      <c r="G162" s="14"/>
+      <c r="H162" s="14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8">
+      <c r="B163" s="14">
+        <v>101212</v>
+      </c>
+      <c r="C163" s="14">
+        <v>500020</v>
+      </c>
+      <c r="D163" s="14">
+        <v>1</v>
+      </c>
+      <c r="E163" s="14">
+        <v>1</v>
+      </c>
+      <c r="F163" s="14"/>
+      <c r="G163" s="14"/>
+      <c r="H163" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8">
+      <c r="B164" s="14">
+        <v>101213</v>
+      </c>
+      <c r="C164" s="14">
+        <v>500017</v>
+      </c>
+      <c r="D164" s="14">
+        <v>1</v>
+      </c>
+      <c r="E164" s="14">
+        <v>1</v>
+      </c>
+      <c r="F164" s="14"/>
+      <c r="G164" s="14"/>
+      <c r="H164" s="14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8">
+      <c r="B165" s="14">
+        <v>101214</v>
+      </c>
+      <c r="C165" s="14">
+        <v>500018</v>
+      </c>
+      <c r="D165" s="14">
+        <v>1</v>
+      </c>
+      <c r="E165" s="14">
+        <v>1</v>
+      </c>
+      <c r="F165" s="14"/>
+      <c r="G165" s="14"/>
+      <c r="H165" s="14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8">
+      <c r="B166" s="14">
+        <v>101215</v>
+      </c>
+      <c r="C166" s="14">
+        <v>500019</v>
+      </c>
+      <c r="D166" s="14">
+        <v>1</v>
+      </c>
+      <c r="E166" s="14">
+        <v>1</v>
+      </c>
+      <c r="F166" s="14"/>
+      <c r="G166" s="14"/>
+      <c r="H166" s="14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8">
+      <c r="B167" s="14">
+        <v>101216</v>
+      </c>
+      <c r="C167" s="14">
+        <v>500027</v>
+      </c>
+      <c r="D167" s="14">
+        <v>1</v>
+      </c>
+      <c r="E167" s="14">
+        <v>1</v>
+      </c>
+      <c r="F167" s="14"/>
+      <c r="G167" s="14"/>
+      <c r="H167" s="14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8">
+      <c r="B168" s="14">
+        <v>101217</v>
+      </c>
+      <c r="C168" s="14">
+        <v>500028</v>
+      </c>
+      <c r="D168" s="14">
+        <v>1</v>
+      </c>
+      <c r="E168" s="14">
+        <v>1</v>
+      </c>
+      <c r="F168" s="14"/>
+      <c r="G168" s="14"/>
+      <c r="H168" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8">
+      <c r="B169" s="7"/>
+      <c r="C169" s="7"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="7"/>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
+      <c r="H169" s="7"/>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" s="7"/>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="7"/>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G173" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7">
+      <c r="B175" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G175" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7">
+      <c r="B176" s="7">
+        <v>401101</v>
+      </c>
+      <c r="C176" s="5">
+        <v>322000001</v>
+      </c>
+      <c r="D176" s="7">
+        <v>1</v>
+      </c>
+      <c r="E176" s="7">
+        <v>1</v>
+      </c>
+      <c r="F176" s="7">
+        <v>5</v>
+      </c>
+      <c r="G176" s="7">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7">
+      <c r="B177" s="7">
+        <v>401102</v>
+      </c>
+      <c r="C177" s="7">
+        <v>410101</v>
+      </c>
+      <c r="D177" s="7">
+        <v>1</v>
+      </c>
+      <c r="E177" s="7">
+        <v>1</v>
+      </c>
+      <c r="F177" s="7"/>
+      <c r="G177" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7">
+      <c r="B178" s="7">
+        <v>401103</v>
+      </c>
+      <c r="C178" s="7">
+        <v>310101</v>
+      </c>
+      <c r="D178" s="7">
+        <v>1</v>
+      </c>
+      <c r="E178" s="7">
+        <v>1</v>
+      </c>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="A182" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="A183" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="184" spans="2:10">
+      <c r="B184" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="185" ht="42" customHeight="1" spans="2:14">
+      <c r="B185" s="1">
+        <v>500001</v>
+      </c>
+      <c r="C185" s="1">
+        <v>1</v>
+      </c>
+      <c r="D185" s="1">
+        <v>100</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F185" s="1">
+        <v>19.9</v>
+      </c>
+      <c r="G185" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H185" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I185" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J185" s="15">
+        <v>1</v>
+      </c>
+      <c r="L185" s="15"/>
+      <c r="N185" s="15"/>
+    </row>
+    <row r="186" ht="32" customHeight="1" spans="2:10">
+      <c r="B186" s="1">
+        <v>500002</v>
+      </c>
+      <c r="C186" s="1">
+        <v>1</v>
+      </c>
+      <c r="D186" s="1">
+        <v>101</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F186" s="1">
+        <v>99</v>
+      </c>
+      <c r="G186" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H186" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I186" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J186" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" ht="32" customHeight="1" spans="2:18">
+      <c r="B187" s="1">
+        <v>500003</v>
+      </c>
+      <c r="C187" s="1">
+        <v>1</v>
+      </c>
+      <c r="D187" s="1">
+        <v>102</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F187" s="1">
+        <v>48</v>
+      </c>
+      <c r="G187" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H187" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I187" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J187" s="1">
+        <v>2</v>
+      </c>
+      <c r="R187" s="15"/>
+    </row>
+    <row r="188" ht="32" customHeight="1" spans="2:10">
+      <c r="B188" s="1">
+        <v>500004</v>
+      </c>
+      <c r="C188" s="1">
+        <v>1</v>
+      </c>
+      <c r="D188" s="1">
+        <v>103</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F188" s="1">
+        <v>19.8</v>
+      </c>
+      <c r="G188" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H188" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I188" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J188" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" ht="32" customHeight="1" spans="2:10">
+      <c r="B189" s="1">
+        <v>500005</v>
+      </c>
+      <c r="C189" s="1">
+        <v>1</v>
+      </c>
+      <c r="D189" s="1">
+        <v>104</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F189" s="1">
+        <v>58</v>
+      </c>
+      <c r="G189" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H189" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I189" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J189" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" ht="32" customHeight="1" spans="2:10">
+      <c r="B190" s="1">
+        <v>500006</v>
+      </c>
+      <c r="C190" s="1">
+        <v>1</v>
+      </c>
+      <c r="D190" s="1">
+        <v>105</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F190" s="1">
+        <v>198</v>
+      </c>
+      <c r="G190" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H190" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I190" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J190" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" ht="32" customHeight="1" spans="2:10">
+      <c r="B191" s="1">
+        <v>500007</v>
+      </c>
+      <c r="C191" s="1">
+        <v>1</v>
+      </c>
+      <c r="D191" s="1">
+        <v>106</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F191" s="1">
+        <v>20</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H191" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I191" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J191" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" ht="32" customHeight="1" spans="2:10">
+      <c r="B192" s="1">
+        <v>500008</v>
+      </c>
+      <c r="C192" s="1">
+        <v>1</v>
+      </c>
+      <c r="D192" s="1">
+        <v>107</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F192" s="1">
+        <v>56</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H192" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I192" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J192" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" ht="32" customHeight="1" spans="2:10">
+      <c r="B193" s="1">
+        <v>500009</v>
+      </c>
+      <c r="C193" s="1">
+        <v>1</v>
+      </c>
+      <c r="D193" s="1">
+        <v>108</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F193" s="1">
+        <v>198</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H193" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I193" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J193" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" ht="32" customHeight="1" spans="2:10">
+      <c r="B194" s="1">
+        <v>500010</v>
+      </c>
+      <c r="C194" s="1">
+        <v>1</v>
+      </c>
+      <c r="D194" s="1">
+        <v>109</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F194" s="1">
+        <v>20</v>
+      </c>
+      <c r="G194" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H194" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I194" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="J194" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" ht="32" customHeight="1" spans="2:10">
+      <c r="B195" s="1">
+        <v>500011</v>
+      </c>
+      <c r="C195" s="1">
+        <v>1</v>
+      </c>
+      <c r="D195" s="1">
+        <v>110</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F195" s="1">
+        <v>58</v>
+      </c>
+      <c r="G195" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H195" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I195" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="J195" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" ht="32" customHeight="1" spans="2:10">
+      <c r="B196" s="1">
+        <v>500012</v>
+      </c>
+      <c r="C196" s="1">
+        <v>1</v>
+      </c>
+      <c r="D196" s="1">
+        <v>111</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F196" s="1">
+        <v>198</v>
+      </c>
+      <c r="G196" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H196" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I196" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="J196" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" ht="32" customHeight="1" spans="2:10">
+      <c r="B197" s="1">
+        <v>500013</v>
+      </c>
+      <c r="C197" s="1">
+        <v>1</v>
+      </c>
+      <c r="D197" s="1">
+        <v>112</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F197" s="1">
+        <v>8</v>
+      </c>
+      <c r="G197" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H197" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I197" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J197" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" ht="32" customHeight="1" spans="2:10">
+      <c r="B198" s="1">
+        <v>500014</v>
+      </c>
+      <c r="C198" s="1">
+        <v>1</v>
+      </c>
+      <c r="D198" s="1">
+        <v>113</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F198" s="1">
+        <v>48</v>
+      </c>
+      <c r="G198" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H198" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I198" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J198" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" ht="32" customHeight="1" spans="2:10">
+      <c r="B199" s="1">
+        <v>500015</v>
+      </c>
+      <c r="C199" s="1">
+        <v>1</v>
+      </c>
+      <c r="D199" s="1">
+        <v>114</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F199" s="1">
+        <v>88</v>
+      </c>
+      <c r="G199" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H199" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I199" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J199" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" ht="32" customHeight="1" spans="2:10">
+      <c r="B200" s="1">
+        <v>500016</v>
+      </c>
+      <c r="C200" s="1">
+        <v>1</v>
+      </c>
+      <c r="D200" s="1">
+        <v>115</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F200" s="1">
+        <v>35</v>
+      </c>
+      <c r="G200" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H200" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I200" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="J200" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" ht="32" customHeight="1" spans="2:10">
+      <c r="B201" s="1">
+        <v>500017</v>
+      </c>
+      <c r="C201" s="1">
+        <v>1</v>
+      </c>
+      <c r="D201" s="1">
+        <v>116</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F201" s="1">
+        <v>50</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H201" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I201" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="J201" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" ht="32" customHeight="1" spans="2:10">
+      <c r="B202" s="1">
+        <v>500018</v>
+      </c>
+      <c r="C202" s="1">
+        <v>1</v>
+      </c>
+      <c r="D202" s="1">
+        <v>117</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F202" s="1">
+        <v>50</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H202" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I202" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="J202" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" ht="32" customHeight="1" spans="2:10">
+      <c r="B203" s="1">
+        <v>500019</v>
+      </c>
+      <c r="C203" s="1">
+        <v>1</v>
+      </c>
+      <c r="D203" s="1">
+        <v>118</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F203" s="1">
+        <v>50</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H203" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="I203" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="J203" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" ht="32" customHeight="1" spans="2:10">
+      <c r="B204" s="1">
+        <v>500020</v>
+      </c>
+      <c r="C204" s="1">
+        <v>1</v>
+      </c>
+      <c r="D204" s="1">
+        <v>119</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F204" s="1">
+        <v>50</v>
+      </c>
+      <c r="G204" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H204" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="I204" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J204" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" ht="32" customHeight="1" spans="2:10">
+      <c r="B205" s="1">
+        <v>500021</v>
+      </c>
+      <c r="C205" s="1">
+        <v>1</v>
+      </c>
+      <c r="D205" s="1">
+        <v>120</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F205" s="1">
+        <v>100</v>
+      </c>
+      <c r="G205" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H205" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="I205" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J205" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" ht="32" customHeight="1" spans="2:10">
+      <c r="B206" s="1">
+        <v>500022</v>
+      </c>
+      <c r="C206" s="1">
+        <v>1</v>
+      </c>
+      <c r="D206" s="1">
+        <v>121</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F206" s="1">
+        <v>50</v>
+      </c>
+      <c r="G206" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H206" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="I206" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="J206" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" ht="32" customHeight="1" spans="2:10">
+      <c r="B207" s="1">
+        <v>500023</v>
+      </c>
+      <c r="C207" s="1">
+        <v>1</v>
+      </c>
+      <c r="D207" s="1">
+        <v>122</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F207" s="1">
+        <v>100</v>
+      </c>
+      <c r="G207" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H207" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="I207" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="J207" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" ht="32" customHeight="1" spans="2:10">
+      <c r="B208" s="1">
+        <v>500024</v>
+      </c>
+      <c r="C208" s="1">
+        <v>1</v>
+      </c>
+      <c r="D208" s="1">
+        <v>123</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F208" s="1">
+        <v>18</v>
+      </c>
+      <c r="G208" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H208" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="I208" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J208" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" ht="32" customHeight="1" spans="2:10">
+      <c r="B209" s="1">
+        <v>500025</v>
+      </c>
+      <c r="C209" s="1">
+        <v>1</v>
+      </c>
+      <c r="D209" s="1">
+        <v>124</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F209" s="1">
+        <v>54</v>
+      </c>
+      <c r="G209" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H209" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="I209" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J209" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" ht="32" customHeight="1" spans="2:10">
+      <c r="B210" s="1">
+        <v>500026</v>
+      </c>
+      <c r="C210" s="1">
+        <v>1</v>
+      </c>
+      <c r="D210" s="1">
+        <v>125</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F210" s="1">
+        <v>216</v>
+      </c>
+      <c r="G210" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H210" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="I210" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J210" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" ht="32" customHeight="1" spans="2:10">
+      <c r="B211" s="1">
+        <v>500027</v>
+      </c>
+      <c r="C211" s="1">
+        <v>1</v>
+      </c>
+      <c r="D211" s="1">
+        <v>126</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F211" s="1">
+        <v>30</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H211" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="I211" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J211" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" ht="32" customHeight="1" spans="2:10">
+      <c r="B212" s="1">
+        <v>500028</v>
+      </c>
+      <c r="C212" s="1">
+        <v>1</v>
+      </c>
+      <c r="D212" s="1">
+        <v>127</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F212" s="1">
+        <v>30</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H212" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="I212" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J212" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" ht="32" customHeight="1" spans="2:10">
+      <c r="B213" s="1">
+        <v>500029</v>
+      </c>
+      <c r="C213" s="1">
+        <v>1</v>
+      </c>
+      <c r="D213" s="1">
+        <v>128</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F213" s="1">
+        <v>10</v>
+      </c>
+      <c r="G213" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I213" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J213" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" ht="32" customHeight="1" spans="2:10">
+      <c r="B214" s="1">
+        <v>500030</v>
+      </c>
+      <c r="C214" s="1">
+        <v>1</v>
+      </c>
+      <c r="D214" s="1">
+        <v>129</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F214" s="1">
+        <v>10</v>
+      </c>
+      <c r="G214" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I214" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J214" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" ht="32" customHeight="1" spans="6:6">
+      <c r="F215" s="15"/>
+    </row>
+    <row r="216" ht="32" customHeight="1" spans="6:6">
+      <c r="F216" s="15"/>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6">
+      <c r="B221" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6">
+      <c r="B222" s="1">
+        <v>600101</v>
+      </c>
+      <c r="C222" s="1">
         <v>2001</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D222" s="1">
+        <v>2</v>
+      </c>
+      <c r="E222" s="1">
+        <v>1</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="223" spans="2:6">
+      <c r="B223" s="1">
+        <v>600401</v>
+      </c>
+      <c r="C223" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D223" s="1">
+        <v>1</v>
+      </c>
+      <c r="E223" s="1">
+        <v>1</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6">
+      <c r="B230" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6">
+      <c r="B231" s="1">
+        <v>1</v>
+      </c>
+      <c r="C231" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D231" s="1">
+        <v>1</v>
+      </c>
+      <c r="E231" s="1">
+        <v>1</v>
+      </c>
+      <c r="F231" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="232" spans="2:6">
+      <c r="B232" s="1">
+        <v>2</v>
+      </c>
+      <c r="C232" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D232" s="1">
+        <v>1</v>
+      </c>
+      <c r="E232" s="1">
+        <v>1</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="233" spans="2:6">
+      <c r="B233" s="1">
+        <v>3</v>
+      </c>
+      <c r="C233" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D233" s="1">
+        <v>1</v>
+      </c>
+      <c r="E233" s="1">
+        <v>1</v>
+      </c>
+      <c r="F233" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="234" spans="2:6">
+      <c r="B234" s="1">
+        <v>4</v>
+      </c>
+      <c r="C234" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D234" s="1">
+        <v>1</v>
+      </c>
+      <c r="E234" s="1">
+        <v>1</v>
+      </c>
+      <c r="F234" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6">
+      <c r="B235" s="1">
         <v>5</v>
       </c>
-      <c r="E81" s="13">
+      <c r="C235" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D235" s="1">
+        <v>1</v>
+      </c>
+      <c r="E235" s="1">
+        <v>1</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6">
+      <c r="B236" s="1">
+        <v>6</v>
+      </c>
+      <c r="C236" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D236" s="1">
+        <v>1</v>
+      </c>
+      <c r="E236" s="1">
+        <v>1</v>
+      </c>
+      <c r="F236" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6">
+      <c r="B237" s="1">
+        <v>7</v>
+      </c>
+      <c r="C237" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D237" s="1">
+        <v>1</v>
+      </c>
+      <c r="E237" s="1">
+        <v>1</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="238" spans="2:6">
+      <c r="B238" s="1">
+        <v>8</v>
+      </c>
+      <c r="C238" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D238" s="1">
+        <v>1</v>
+      </c>
+      <c r="E238" s="1">
+        <v>1</v>
+      </c>
+      <c r="F238" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="239" spans="2:6">
+      <c r="B239" s="1">
+        <v>9</v>
+      </c>
+      <c r="C239" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D239" s="1">
+        <v>1</v>
+      </c>
+      <c r="E239" s="1">
+        <v>1</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6">
+      <c r="B240" s="1">
+        <v>10</v>
+      </c>
+      <c r="C240" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D240" s="1">
+        <v>1</v>
+      </c>
+      <c r="E240" s="1">
+        <v>1</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="241" spans="2:6">
+      <c r="B241" s="1">
+        <v>11</v>
+      </c>
+      <c r="C241" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D241" s="1">
+        <v>1</v>
+      </c>
+      <c r="E241" s="1">
+        <v>1</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="242" spans="2:6">
+      <c r="B242" s="1">
+        <v>12</v>
+      </c>
+      <c r="C242" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D242" s="1">
+        <v>1</v>
+      </c>
+      <c r="E242" s="1">
+        <v>1</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="243" spans="2:6">
+      <c r="B243" s="1">
+        <v>13</v>
+      </c>
+      <c r="C243" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D243" s="1">
+        <v>1</v>
+      </c>
+      <c r="E243" s="1">
+        <v>1</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="244" spans="2:6">
+      <c r="B244" s="1">
+        <v>14</v>
+      </c>
+      <c r="C244" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D244" s="1">
+        <v>1</v>
+      </c>
+      <c r="E244" s="1">
+        <v>1</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="245" spans="2:6">
+      <c r="B245" s="1">
         <v>15</v>
       </c>
-      <c r="F81" s="13">
+      <c r="C245" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D245" s="1">
+        <v>1</v>
+      </c>
+      <c r="E245" s="1">
+        <v>1</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6">
+      <c r="B250" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="251" spans="2:6">
+      <c r="B251" s="1">
+        <v>1</v>
+      </c>
+      <c r="C251" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D251" s="1">
+        <v>1</v>
+      </c>
+      <c r="E251" s="1">
+        <v>1</v>
+      </c>
+      <c r="F251" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="252" spans="2:6">
+      <c r="B252" s="1">
+        <v>2</v>
+      </c>
+      <c r="C252" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D252" s="1">
+        <v>1</v>
+      </c>
+      <c r="E252" s="1">
+        <v>1</v>
+      </c>
+      <c r="F252" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="253" spans="2:6">
+      <c r="B253" s="1">
         <v>3</v>
       </c>
-      <c r="G81" s="13">
-        <v>1</v>
-      </c>
-      <c r="H81" s="13">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8">
-      <c r="B82" s="13">
-        <v>101102</v>
-      </c>
-      <c r="C82" s="13">
+      <c r="C253" s="1">
         <v>2002</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D253" s="1">
+        <v>1</v>
+      </c>
+      <c r="E253" s="1">
+        <v>1</v>
+      </c>
+      <c r="F253" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="254" spans="2:6">
+      <c r="B254" s="1">
+        <v>4</v>
+      </c>
+      <c r="C254" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D254" s="1">
+        <v>1</v>
+      </c>
+      <c r="E254" s="1">
+        <v>1</v>
+      </c>
+      <c r="F254" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="255" spans="2:6">
+      <c r="B255" s="1">
         <v>5</v>
       </c>
-      <c r="E82" s="13">
+      <c r="C255" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D255" s="1">
+        <v>1</v>
+      </c>
+      <c r="E255" s="1">
+        <v>1</v>
+      </c>
+      <c r="F255" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="256" spans="2:6">
+      <c r="B256" s="1">
+        <v>6</v>
+      </c>
+      <c r="C256" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D256" s="1">
+        <v>1</v>
+      </c>
+      <c r="E256" s="1">
+        <v>1</v>
+      </c>
+      <c r="F256" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="257" spans="2:6">
+      <c r="B257" s="1">
+        <v>7</v>
+      </c>
+      <c r="C257" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D257" s="1">
+        <v>1</v>
+      </c>
+      <c r="E257" s="1">
+        <v>1</v>
+      </c>
+      <c r="F257" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="258" spans="2:6">
+      <c r="B258" s="1">
+        <v>8</v>
+      </c>
+      <c r="C258" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D258" s="1">
+        <v>1</v>
+      </c>
+      <c r="E258" s="1">
+        <v>1</v>
+      </c>
+      <c r="F258" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="259" spans="2:6">
+      <c r="B259" s="1">
+        <v>9</v>
+      </c>
+      <c r="C259" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D259" s="1">
+        <v>2</v>
+      </c>
+      <c r="E259" s="1">
+        <v>1</v>
+      </c>
+      <c r="F259" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="260" spans="2:6">
+      <c r="B260" s="1">
+        <v>10</v>
+      </c>
+      <c r="C260" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D260" s="1">
+        <v>1</v>
+      </c>
+      <c r="E260" s="1">
+        <v>1</v>
+      </c>
+      <c r="F260" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="261" spans="2:6">
+      <c r="B261" s="1">
+        <v>11</v>
+      </c>
+      <c r="C261" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D261" s="1">
+        <v>1</v>
+      </c>
+      <c r="E261" s="1">
+        <v>1</v>
+      </c>
+      <c r="F261" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="262" spans="2:6">
+      <c r="B262" s="1">
+        <v>12</v>
+      </c>
+      <c r="C262" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D262" s="1">
+        <v>2</v>
+      </c>
+      <c r="E262" s="1">
+        <v>1</v>
+      </c>
+      <c r="F262" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="263" spans="2:6">
+      <c r="B263" s="1">
+        <v>13</v>
+      </c>
+      <c r="C263" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D263" s="1">
+        <v>1</v>
+      </c>
+      <c r="E263" s="1">
+        <v>1</v>
+      </c>
+      <c r="F263" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="264" spans="2:6">
+      <c r="B264" s="1">
+        <v>14</v>
+      </c>
+      <c r="C264" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D264" s="1">
+        <v>1</v>
+      </c>
+      <c r="E264" s="1">
+        <v>1</v>
+      </c>
+      <c r="F264" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="265" spans="2:6">
+      <c r="B265" s="1">
         <v>15</v>
       </c>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8">
-      <c r="B83" s="13">
-        <v>101103</v>
-      </c>
-      <c r="C83" s="13">
+      <c r="C265" s="1">
         <v>2003</v>
       </c>
-      <c r="D83" s="13">
-        <v>5</v>
-      </c>
-      <c r="E83" s="13">
-        <v>15</v>
-      </c>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8">
-      <c r="B84" s="14">
-        <v>101201</v>
-      </c>
-      <c r="C84" s="14">
+      <c r="D265" s="1">
+        <v>2</v>
+      </c>
+      <c r="E265" s="1">
+        <v>1</v>
+      </c>
+      <c r="F265" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="266" spans="2:6">
+      <c r="B266" s="1">
+        <v>16</v>
+      </c>
+      <c r="C266" s="1">
         <v>2001</v>
       </c>
-      <c r="D84" s="14">
-        <v>10</v>
-      </c>
-      <c r="E84" s="14">
-        <v>30</v>
-      </c>
-      <c r="F84" s="14">
-        <v>3</v>
-      </c>
-      <c r="G84" s="14">
-        <v>1</v>
-      </c>
-      <c r="H84" s="14">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8">
-      <c r="B85" s="14">
-        <v>101202</v>
-      </c>
-      <c r="C85" s="14">
+      <c r="D266" s="1">
+        <v>1</v>
+      </c>
+      <c r="E266" s="1">
+        <v>1</v>
+      </c>
+      <c r="F266" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="267" spans="2:6">
+      <c r="B267" s="1">
+        <v>17</v>
+      </c>
+      <c r="C267" s="1">
         <v>2002</v>
       </c>
-      <c r="D85" s="14">
-        <v>10</v>
-      </c>
-      <c r="E85" s="14">
-        <v>30</v>
-      </c>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8">
-      <c r="B86" s="14">
-        <v>101203</v>
-      </c>
-      <c r="C86" s="14">
+      <c r="D267" s="1">
+        <v>1</v>
+      </c>
+      <c r="E267" s="1">
+        <v>1</v>
+      </c>
+      <c r="F267" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="268" spans="2:6">
+      <c r="B268" s="1">
+        <v>18</v>
+      </c>
+      <c r="C268" s="1">
         <v>2003</v>
       </c>
-      <c r="D86" s="14">
-        <v>10</v>
-      </c>
-      <c r="E86" s="14">
-        <v>30</v>
-      </c>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8">
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="7"/>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89" s="7"/>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7">
-      <c r="B93" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7">
-      <c r="B94" s="7">
-        <v>401101</v>
-      </c>
-      <c r="C94" s="5">
-        <v>322000001</v>
-      </c>
-      <c r="D94" s="7">
-        <v>1</v>
-      </c>
-      <c r="E94" s="7">
-        <v>1</v>
-      </c>
-      <c r="F94" s="7">
-        <v>5</v>
-      </c>
-      <c r="G94" s="7">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7">
-      <c r="B95" s="7">
-        <v>401102</v>
-      </c>
-      <c r="C95" s="7">
-        <v>410101</v>
-      </c>
-      <c r="D95" s="7">
-        <v>1</v>
-      </c>
-      <c r="E95" s="7">
-        <v>1</v>
-      </c>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7">
-      <c r="B96" s="7">
-        <v>401103</v>
-      </c>
-      <c r="C96" s="7">
-        <v>310101</v>
-      </c>
-      <c r="D96" s="7">
-        <v>1</v>
-      </c>
-      <c r="E96" s="7">
-        <v>1</v>
-      </c>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
-      <c r="A100" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10">
-      <c r="A101" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="102" spans="2:10">
-      <c r="B102" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="103" ht="42" customHeight="1" spans="2:14">
-      <c r="B103" s="1">
-        <v>500001</v>
-      </c>
-      <c r="C103" s="1">
-        <v>1</v>
-      </c>
-      <c r="D103" s="1">
-        <v>100</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F103" s="1">
-        <v>19.9</v>
-      </c>
-      <c r="G103" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H103" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I103" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="J103" s="15">
-        <v>1</v>
-      </c>
-      <c r="L103" s="15"/>
-      <c r="N103" s="15"/>
-    </row>
-    <row r="104" ht="32" customHeight="1" spans="2:10">
-      <c r="B104" s="1">
-        <v>500002</v>
-      </c>
-      <c r="C104" s="1">
-        <v>1</v>
-      </c>
-      <c r="D104" s="1">
-        <v>101</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F104" s="1">
-        <v>99</v>
-      </c>
-      <c r="G104" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="H104" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I104" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="J104" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" ht="32" customHeight="1" spans="2:18">
-      <c r="B105" s="1">
-        <v>500003</v>
-      </c>
-      <c r="C105" s="1">
-        <v>1</v>
-      </c>
-      <c r="D105" s="1">
-        <v>102</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F105" s="1">
-        <v>48</v>
-      </c>
-      <c r="G105" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H105" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="I105" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="J105" s="1">
-        <v>2</v>
-      </c>
-      <c r="R105" s="15"/>
-    </row>
-    <row r="106" ht="32" customHeight="1" spans="2:10">
-      <c r="B106" s="1">
-        <v>500004</v>
-      </c>
-      <c r="C106" s="1">
-        <v>1</v>
-      </c>
-      <c r="D106" s="1">
-        <v>103</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F106" s="1">
-        <v>19.8</v>
-      </c>
-      <c r="G106" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H106" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I106" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="J106" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" ht="32" customHeight="1" spans="2:10">
-      <c r="B107" s="1">
-        <v>500005</v>
-      </c>
-      <c r="C107" s="1">
-        <v>1</v>
-      </c>
-      <c r="D107" s="1">
-        <v>104</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F107" s="1">
-        <v>58</v>
-      </c>
-      <c r="G107" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H107" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I107" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="J107" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" ht="32" customHeight="1" spans="2:10">
-      <c r="B108" s="1">
-        <v>500006</v>
-      </c>
-      <c r="C108" s="1">
-        <v>1</v>
-      </c>
-      <c r="D108" s="1">
-        <v>105</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F108" s="1">
-        <v>198</v>
-      </c>
-      <c r="G108" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H108" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I108" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="J108" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" ht="32" customHeight="1" spans="2:10">
-      <c r="B109" s="1">
-        <v>500007</v>
-      </c>
-      <c r="C109" s="1">
-        <v>1</v>
-      </c>
-      <c r="D109" s="1">
-        <v>106</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F109" s="1">
-        <v>20</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H109" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I109" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="J109" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" ht="32" customHeight="1" spans="2:10">
-      <c r="B110" s="1">
-        <v>500008</v>
-      </c>
-      <c r="C110" s="1">
-        <v>1</v>
-      </c>
-      <c r="D110" s="1">
-        <v>107</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F110" s="1">
-        <v>56</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H110" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I110" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="J110" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" ht="32" customHeight="1" spans="2:10">
-      <c r="B111" s="1">
-        <v>500009</v>
-      </c>
-      <c r="C111" s="1">
-        <v>1</v>
-      </c>
-      <c r="D111" s="1">
-        <v>108</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F111" s="1">
-        <v>198</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H111" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I111" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="J111" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" ht="32" customHeight="1" spans="2:10">
-      <c r="B112" s="1">
-        <v>500010</v>
-      </c>
-      <c r="C112" s="1">
-        <v>1</v>
-      </c>
-      <c r="D112" s="1">
-        <v>109</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F112" s="1">
-        <v>20</v>
-      </c>
-      <c r="G112" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H112" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="I112" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="J112" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" ht="32" customHeight="1" spans="2:10">
-      <c r="B113" s="1">
-        <v>500011</v>
-      </c>
-      <c r="C113" s="1">
-        <v>1</v>
-      </c>
-      <c r="D113" s="1">
-        <v>110</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F113" s="1">
-        <v>58</v>
-      </c>
-      <c r="G113" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H113" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="I113" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="J113" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" ht="32" customHeight="1" spans="2:10">
-      <c r="B114" s="1">
-        <v>500012</v>
-      </c>
-      <c r="C114" s="1">
-        <v>1</v>
-      </c>
-      <c r="D114" s="1">
-        <v>111</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F114" s="1">
-        <v>198</v>
-      </c>
-      <c r="G114" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H114" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="I114" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="J114" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" ht="32" customHeight="1" spans="2:10">
-      <c r="B115" s="1">
-        <v>500013</v>
-      </c>
-      <c r="C115" s="1">
-        <v>1</v>
-      </c>
-      <c r="D115" s="1">
-        <v>112</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F115" s="1">
-        <v>8</v>
-      </c>
-      <c r="G115" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="H115" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I115" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="J115" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" ht="32" customHeight="1" spans="2:10">
-      <c r="B116" s="1">
-        <v>500014</v>
-      </c>
-      <c r="C116" s="1">
-        <v>1</v>
-      </c>
-      <c r="D116" s="1">
-        <v>113</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F116" s="1">
-        <v>48</v>
-      </c>
-      <c r="G116" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="H116" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I116" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="J116" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" ht="32" customHeight="1" spans="2:10">
-      <c r="B117" s="1">
-        <v>500015</v>
-      </c>
-      <c r="C117" s="1">
-        <v>1</v>
-      </c>
-      <c r="D117" s="1">
-        <v>114</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F117" s="1">
-        <v>88</v>
-      </c>
-      <c r="G117" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="H117" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I117" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="J117" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" ht="32" customHeight="1" spans="2:10">
-      <c r="B118" s="1">
-        <v>500016</v>
-      </c>
-      <c r="C118" s="1">
-        <v>1</v>
-      </c>
-      <c r="D118" s="1">
-        <v>115</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F118" s="1">
-        <v>35</v>
-      </c>
-      <c r="G118" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="H118" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="I118" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="J118" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" ht="32" customHeight="1" spans="2:10">
-      <c r="B119" s="1">
-        <v>500017</v>
-      </c>
-      <c r="C119" s="1">
-        <v>1</v>
-      </c>
-      <c r="D119" s="1">
-        <v>116</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F119" s="1">
-        <v>50</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H119" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="I119" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="J119" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" ht="32" customHeight="1" spans="2:10">
-      <c r="B120" s="1">
-        <v>500018</v>
-      </c>
-      <c r="C120" s="1">
-        <v>1</v>
-      </c>
-      <c r="D120" s="1">
-        <v>117</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F120" s="1">
-        <v>50</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H120" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="I120" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="J120" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" ht="32" customHeight="1" spans="2:10">
-      <c r="B121" s="1">
-        <v>500019</v>
-      </c>
-      <c r="C121" s="1">
-        <v>1</v>
-      </c>
-      <c r="D121" s="1">
-        <v>118</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F121" s="1">
-        <v>50</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H121" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="I121" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="J121" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" ht="32" customHeight="1" spans="2:10">
-      <c r="B122" s="1">
-        <v>500020</v>
-      </c>
-      <c r="C122" s="1">
-        <v>1</v>
-      </c>
-      <c r="D122" s="1">
-        <v>119</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F122" s="1">
-        <v>50</v>
-      </c>
-      <c r="G122" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="H122" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="I122" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="J122" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" ht="32" customHeight="1" spans="2:10">
-      <c r="B123" s="1">
-        <v>500021</v>
-      </c>
-      <c r="C123" s="1">
-        <v>1</v>
-      </c>
-      <c r="D123" s="1">
-        <v>120</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F123" s="1">
-        <v>100</v>
-      </c>
-      <c r="G123" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="H123" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="I123" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="J123" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" ht="32" customHeight="1" spans="2:10">
-      <c r="B124" s="1">
-        <v>500022</v>
-      </c>
-      <c r="C124" s="1">
-        <v>1</v>
-      </c>
-      <c r="D124" s="1">
-        <v>121</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F124" s="1">
-        <v>50</v>
-      </c>
-      <c r="G124" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="H124" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="I124" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="J124" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" ht="32" customHeight="1" spans="2:10">
-      <c r="B125" s="1">
-        <v>500023</v>
-      </c>
-      <c r="C125" s="1">
-        <v>1</v>
-      </c>
-      <c r="D125" s="1">
-        <v>122</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F125" s="1">
-        <v>100</v>
-      </c>
-      <c r="G125" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="H125" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="I125" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="J125" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" ht="32" customHeight="1" spans="2:10">
-      <c r="B126" s="1">
-        <v>500024</v>
-      </c>
-      <c r="C126" s="1">
-        <v>1</v>
-      </c>
-      <c r="D126" s="1">
-        <v>123</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F126" s="1">
-        <v>18</v>
-      </c>
-      <c r="G126" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H126" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="I126" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="J126" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" ht="32" customHeight="1" spans="2:10">
-      <c r="B127" s="1">
-        <v>500025</v>
-      </c>
-      <c r="C127" s="1">
-        <v>1</v>
-      </c>
-      <c r="D127" s="1">
-        <v>124</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F127" s="1">
-        <v>54</v>
-      </c>
-      <c r="G127" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H127" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="I127" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="J127" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" ht="32" customHeight="1" spans="2:10">
-      <c r="B128" s="1">
-        <v>500026</v>
-      </c>
-      <c r="C128" s="1">
-        <v>1</v>
-      </c>
-      <c r="D128" s="1">
-        <v>125</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F128" s="1">
-        <v>216</v>
-      </c>
-      <c r="G128" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H128" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="I128" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="J128" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" ht="32" customHeight="1" spans="2:10">
-      <c r="B129" s="1">
-        <v>500027</v>
-      </c>
-      <c r="C129" s="1">
-        <v>1</v>
-      </c>
-      <c r="D129" s="1">
-        <v>126</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F129" s="1">
-        <v>30</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H129" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="I129" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="J129" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" ht="32" customHeight="1" spans="2:10">
-      <c r="B130" s="1">
-        <v>500028</v>
-      </c>
-      <c r="C130" s="1">
-        <v>1</v>
-      </c>
-      <c r="D130" s="1">
-        <v>127</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F130" s="1">
-        <v>30</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H130" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="I130" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="J130" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" ht="32" customHeight="1" spans="2:10">
-      <c r="B131" s="1">
-        <v>500029</v>
-      </c>
-      <c r="C131" s="1">
-        <v>1</v>
-      </c>
-      <c r="D131" s="1">
-        <v>128</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F131" s="1">
-        <v>10</v>
-      </c>
-      <c r="G131" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I131" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="J131" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" ht="32" customHeight="1" spans="2:10">
-      <c r="B132" s="1">
-        <v>500030</v>
-      </c>
-      <c r="C132" s="1">
-        <v>1</v>
-      </c>
-      <c r="D132" s="1">
-        <v>129</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F132" s="1">
-        <v>10</v>
-      </c>
-      <c r="G132" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I132" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="J132" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" ht="32" customHeight="1" spans="6:6">
-      <c r="F133" s="15"/>
-    </row>
-    <row r="134" ht="32" customHeight="1" spans="6:6">
-      <c r="F134" s="15"/>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="139" spans="2:6">
-      <c r="B139" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="140" spans="2:6">
-      <c r="B140" s="1">
-        <v>600101</v>
-      </c>
-      <c r="C140" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D140" s="1">
-        <v>2</v>
-      </c>
-      <c r="E140" s="1">
-        <v>2</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="141" spans="2:6">
-      <c r="B141" s="1">
-        <v>600401</v>
-      </c>
-      <c r="C141" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D141" s="1">
-        <v>1</v>
-      </c>
-      <c r="E141" s="1">
-        <v>1</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="148" spans="2:6">
-      <c r="B148" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="149" spans="2:6">
-      <c r="B149" s="1">
-        <v>1</v>
-      </c>
-      <c r="C149" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D149" s="1">
-        <v>1</v>
-      </c>
-      <c r="E149" s="1">
-        <v>1</v>
-      </c>
-      <c r="F149" s="16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="150" spans="2:6">
-      <c r="B150" s="1">
-        <v>2</v>
-      </c>
-      <c r="C150" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D150" s="1">
-        <v>1</v>
-      </c>
-      <c r="E150" s="1">
-        <v>1</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="151" spans="2:6">
-      <c r="B151" s="1">
-        <v>3</v>
-      </c>
-      <c r="C151" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D151" s="1">
-        <v>1</v>
-      </c>
-      <c r="E151" s="1">
-        <v>1</v>
-      </c>
-      <c r="F151" s="16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="152" spans="2:6">
-      <c r="B152" s="1">
-        <v>4</v>
-      </c>
-      <c r="C152" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D152" s="1">
-        <v>1</v>
-      </c>
-      <c r="E152" s="1">
-        <v>1</v>
-      </c>
-      <c r="F152" s="16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="153" spans="2:6">
-      <c r="B153" s="1">
-        <v>5</v>
-      </c>
-      <c r="C153" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D153" s="1">
-        <v>1</v>
-      </c>
-      <c r="E153" s="1">
-        <v>1</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="154" spans="2:6">
-      <c r="B154" s="1">
-        <v>6</v>
-      </c>
-      <c r="C154" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D154" s="1">
-        <v>1</v>
-      </c>
-      <c r="E154" s="1">
-        <v>1</v>
-      </c>
-      <c r="F154" s="16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="155" spans="2:6">
-      <c r="B155" s="1">
-        <v>7</v>
-      </c>
-      <c r="C155" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D155" s="1">
-        <v>1</v>
-      </c>
-      <c r="E155" s="1">
-        <v>1</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="156" spans="2:6">
-      <c r="B156" s="1">
-        <v>8</v>
-      </c>
-      <c r="C156" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D156" s="1">
-        <v>1</v>
-      </c>
-      <c r="E156" s="1">
-        <v>1</v>
-      </c>
-      <c r="F156" s="16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="157" spans="2:6">
-      <c r="B157" s="1">
-        <v>9</v>
-      </c>
-      <c r="C157" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D157" s="1">
-        <v>1</v>
-      </c>
-      <c r="E157" s="1">
-        <v>1</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="158" spans="2:6">
-      <c r="B158" s="1">
-        <v>10</v>
-      </c>
-      <c r="C158" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D158" s="1">
-        <v>1</v>
-      </c>
-      <c r="E158" s="1">
-        <v>1</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="159" spans="2:6">
-      <c r="B159" s="1">
-        <v>11</v>
-      </c>
-      <c r="C159" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D159" s="1">
-        <v>1</v>
-      </c>
-      <c r="E159" s="1">
-        <v>1</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="160" spans="2:6">
-      <c r="B160" s="1">
-        <v>12</v>
-      </c>
-      <c r="C160" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D160" s="1">
-        <v>1</v>
-      </c>
-      <c r="E160" s="1">
-        <v>1</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="161" spans="2:6">
-      <c r="B161" s="1">
-        <v>13</v>
-      </c>
-      <c r="C161" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D161" s="1">
-        <v>1</v>
-      </c>
-      <c r="E161" s="1">
-        <v>1</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="162" spans="2:6">
-      <c r="B162" s="1">
-        <v>14</v>
-      </c>
-      <c r="C162" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D162" s="1">
-        <v>1</v>
-      </c>
-      <c r="E162" s="1">
-        <v>1</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="163" spans="2:6">
-      <c r="B163" s="1">
-        <v>15</v>
-      </c>
-      <c r="C163" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D163" s="1">
-        <v>1</v>
-      </c>
-      <c r="E163" s="1">
-        <v>1</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="168" spans="2:6">
-      <c r="B168" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="169" spans="2:6">
-      <c r="B169" s="1">
-        <v>1</v>
-      </c>
-      <c r="C169" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D169" s="1">
-        <v>1</v>
-      </c>
-      <c r="E169" s="1">
-        <v>1</v>
-      </c>
-      <c r="F169" s="16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="170" spans="2:6">
-      <c r="B170" s="1">
-        <v>2</v>
-      </c>
-      <c r="C170" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D170" s="1">
-        <v>1</v>
-      </c>
-      <c r="E170" s="1">
-        <v>1</v>
-      </c>
-      <c r="F170" s="16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="171" spans="2:6">
-      <c r="B171" s="1">
-        <v>3</v>
-      </c>
-      <c r="C171" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D171" s="1">
-        <v>1</v>
-      </c>
-      <c r="E171" s="1">
-        <v>1</v>
-      </c>
-      <c r="F171" s="16" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="172" spans="2:6">
-      <c r="B172" s="1">
-        <v>4</v>
-      </c>
-      <c r="C172" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D172" s="1">
-        <v>1</v>
-      </c>
-      <c r="E172" s="1">
-        <v>1</v>
-      </c>
-      <c r="F172" s="16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="173" spans="2:6">
-      <c r="B173" s="1">
-        <v>5</v>
-      </c>
-      <c r="C173" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D173" s="1">
-        <v>1</v>
-      </c>
-      <c r="E173" s="1">
-        <v>1</v>
-      </c>
-      <c r="F173" s="16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="174" spans="2:6">
-      <c r="B174" s="1">
-        <v>6</v>
-      </c>
-      <c r="C174" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D174" s="1">
-        <v>1</v>
-      </c>
-      <c r="E174" s="1">
-        <v>1</v>
-      </c>
-      <c r="F174" s="16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="175" spans="2:6">
-      <c r="B175" s="1">
-        <v>7</v>
-      </c>
-      <c r="C175" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D175" s="1">
-        <v>1</v>
-      </c>
-      <c r="E175" s="1">
-        <v>1</v>
-      </c>
-      <c r="F175" s="16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="176" spans="2:6">
-      <c r="B176" s="1">
-        <v>8</v>
-      </c>
-      <c r="C176" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D176" s="1">
-        <v>1</v>
-      </c>
-      <c r="E176" s="1">
-        <v>1</v>
-      </c>
-      <c r="F176" s="16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="177" spans="2:6">
-      <c r="B177" s="1">
-        <v>9</v>
-      </c>
-      <c r="C177" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D177" s="1">
-        <v>2</v>
-      </c>
-      <c r="E177" s="1">
-        <v>1</v>
-      </c>
-      <c r="F177" s="16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="178" spans="2:6">
-      <c r="B178" s="1">
-        <v>10</v>
-      </c>
-      <c r="C178" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D178" s="1">
-        <v>1</v>
-      </c>
-      <c r="E178" s="1">
-        <v>1</v>
-      </c>
-      <c r="F178" s="16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="179" spans="2:6">
-      <c r="B179" s="1">
-        <v>11</v>
-      </c>
-      <c r="C179" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D179" s="1">
-        <v>1</v>
-      </c>
-      <c r="E179" s="1">
-        <v>1</v>
-      </c>
-      <c r="F179" s="16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="180" spans="2:6">
-      <c r="B180" s="1">
-        <v>12</v>
-      </c>
-      <c r="C180" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D180" s="1">
-        <v>2</v>
-      </c>
-      <c r="E180" s="1">
-        <v>1</v>
-      </c>
-      <c r="F180" s="16" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="181" spans="2:6">
-      <c r="B181" s="1">
-        <v>13</v>
-      </c>
-      <c r="C181" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D181" s="1">
-        <v>1</v>
-      </c>
-      <c r="E181" s="1">
-        <v>1</v>
-      </c>
-      <c r="F181" s="16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="182" spans="2:6">
-      <c r="B182" s="1">
-        <v>14</v>
-      </c>
-      <c r="C182" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D182" s="1">
-        <v>1</v>
-      </c>
-      <c r="E182" s="1">
-        <v>1</v>
-      </c>
-      <c r="F182" s="16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="183" spans="2:6">
-      <c r="B183" s="1">
-        <v>15</v>
-      </c>
-      <c r="C183" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D183" s="1">
-        <v>2</v>
-      </c>
-      <c r="E183" s="1">
-        <v>1</v>
-      </c>
-      <c r="F183" s="16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="184" spans="2:6">
-      <c r="B184" s="1">
-        <v>16</v>
-      </c>
-      <c r="C184" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D184" s="1">
-        <v>1</v>
-      </c>
-      <c r="E184" s="1">
-        <v>1</v>
-      </c>
-      <c r="F184" s="16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="185" spans="2:6">
-      <c r="B185" s="1">
-        <v>17</v>
-      </c>
-      <c r="C185" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D185" s="1">
-        <v>1</v>
-      </c>
-      <c r="E185" s="1">
-        <v>1</v>
-      </c>
-      <c r="F185" s="16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="186" spans="2:6">
-      <c r="B186" s="1">
-        <v>18</v>
-      </c>
-      <c r="C186" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D186" s="1">
-        <v>1</v>
-      </c>
-      <c r="E186" s="1">
-        <v>1</v>
-      </c>
-      <c r="F186" s="16" t="s">
+      <c r="D268" s="1">
+        <v>1</v>
+      </c>
+      <c r="E268" s="1">
+        <v>1</v>
+      </c>
+      <c r="F268" s="16" t="s">
         <v>167</v>
       </c>
     </row>

--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -1321,8 +1321,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1365,14 +1365,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1380,16 +1372,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1404,12 +1388,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1419,15 +1419,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1464,9 +1456,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1483,20 +1497,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1571,25 +1571,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1601,7 +1613,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1613,55 +1625,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1679,25 +1649,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1715,19 +1691,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1745,13 +1709,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1767,11 +1767,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1802,24 +1800,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1839,15 +1824,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1862,6 +1838,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1870,10 +1870,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1882,133 +1882,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2133,7 +2133,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2414,8 +2414,8 @@
   <sheetPr/>
   <dimension ref="A3:R268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F148" sqref="F148"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -1321,10 +1321,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1359,21 +1359,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1388,22 +1403,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1417,9 +1417,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1449,38 +1455,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1497,6 +1481,22 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1571,19 +1571,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1595,19 +1595,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1619,25 +1619,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1655,19 +1673,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1679,31 +1697,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1715,13 +1721,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1733,25 +1733,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1762,15 +1762,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1798,6 +1789,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1809,17 +1824,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1838,30 +1862,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1870,10 +1870,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1882,133 +1882,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2414,8 +2414,8 @@
   <sheetPr/>
   <dimension ref="A3:R268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="J98" sqref="J98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3835,7 +3835,7 @@
       <c r="F84" s="12"/>
       <c r="G84" s="12"/>
       <c r="H84" s="12">
-        <v>10000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="2:8">

--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -693,12 +693,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="B272" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yineng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+#[primary=true]</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
   <si>
     <t>挖矿暴击权重配置表</t>
   </si>
@@ -1315,16 +1337,28 @@
   <si>
     <t>超过15位的部分依次给铜、银、金，循环</t>
   </si>
+  <si>
+    <t>广告奖励配置表</t>
+  </si>
+  <si>
+    <t>广告类型</t>
+  </si>
+  <si>
+    <t>$AdAwardCfg</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1359,7 +1393,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1382,6 +1416,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1411,21 +1453,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1455,16 +1491,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1486,9 +1514,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1497,6 +1524,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1571,7 +1605,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1583,7 +1623,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1601,25 +1683,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1631,7 +1707,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1643,115 +1785,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1770,6 +1804,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1806,15 +1855,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1827,23 +1867,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1870,10 +1904,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1882,16 +1916,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1900,13 +1934,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1918,97 +1952,97 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2133,7 +2167,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2412,10 +2446,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:R268"/>
+  <dimension ref="A3:R274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="J98" sqref="J98"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="B274" sqref="B274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7329,6 +7363,68 @@
         <v>167</v>
       </c>
     </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="273" spans="2:5">
+      <c r="B273" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5">
+      <c r="B274" s="1">
+        <v>1</v>
+      </c>
+      <c r="C274" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D274" s="1">
+        <v>1</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -1355,10 +1355,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1393,12 +1393,34 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1421,16 +1443,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1445,15 +1466,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1491,8 +1504,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1509,28 +1531,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1605,13 +1605,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1623,7 +1617,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1635,127 +1671,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1773,7 +1695,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1785,7 +1725,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1801,6 +1801,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1809,16 +1820,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1838,28 +1849,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1869,15 +1863,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1896,6 +1881,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1907,7 +1907,7 @@
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1916,133 +1916,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2448,8 +2448,8 @@
   <sheetPr/>
   <dimension ref="A3:R274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="B274" sqref="B274"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="H141" sqref="H141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4006,7 +4006,7 @@
       <c r="F91" s="13"/>
       <c r="G91" s="13"/>
       <c r="H91" s="13">
-        <v>10000</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="2:8">
@@ -4831,7 +4831,7 @@
       <c r="F134" s="12"/>
       <c r="G134" s="12"/>
       <c r="H134" s="12">
-        <v>10000</v>
+        <v>115</v>
       </c>
     </row>
     <row r="135" spans="2:8">
@@ -4968,7 +4968,7 @@
       <c r="F141" s="13"/>
       <c r="G141" s="13"/>
       <c r="H141" s="13">
-        <v>10000</v>
+        <v>76</v>
       </c>
     </row>
     <row r="142" spans="2:8">

--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -1355,9 +1355,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -1393,28 +1393,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1422,24 +1401,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1457,39 +1429,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1506,7 +1469,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1520,19 +1506,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1605,7 +1605,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1617,49 +1737,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1671,55 +1755,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1737,55 +1779,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1799,22 +1799,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1834,17 +1844,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1854,30 +1878,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1904,10 +1904,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1916,133 +1916,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2448,8 +2448,8 @@
   <sheetPr/>
   <dimension ref="A3:R274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="H141" sqref="H141"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="H169" sqref="H169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3603,7 +3603,7 @@
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="2:8">
@@ -3622,7 +3622,7 @@
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
       <c r="H71" s="12">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="2:8">
@@ -3641,7 +3641,7 @@
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="12">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="2:8">
@@ -3660,7 +3660,7 @@
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
       <c r="H73" s="12">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="2:8">
@@ -3679,7 +3679,7 @@
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
       <c r="H74" s="12">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="2:8">
@@ -3698,7 +3698,7 @@
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
       <c r="H75" s="12">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="2:8">
@@ -3717,7 +3717,7 @@
       <c r="F76" s="12"/>
       <c r="G76" s="12"/>
       <c r="H76" s="12">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="2:8">
@@ -3736,7 +3736,7 @@
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
       <c r="H77" s="12">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="2:8">
@@ -3755,7 +3755,7 @@
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
       <c r="H78" s="12">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="2:8">
@@ -3774,7 +3774,7 @@
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
       <c r="H79" s="12">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="2:8">
@@ -3793,7 +3793,7 @@
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
       <c r="H80" s="12">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="2:8">
@@ -3812,7 +3812,7 @@
       <c r="F81" s="12"/>
       <c r="G81" s="12"/>
       <c r="H81" s="12">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="2:8">
@@ -3831,7 +3831,7 @@
       <c r="F82" s="12"/>
       <c r="G82" s="12"/>
       <c r="H82" s="12">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="2:8">
@@ -3850,7 +3850,7 @@
       <c r="F83" s="12"/>
       <c r="G83" s="12"/>
       <c r="H83" s="12">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="2:8">
@@ -3892,7 +3892,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="13">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="2:8">
@@ -3911,7 +3911,7 @@
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
       <c r="H86" s="13">
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="2:8">
@@ -3930,7 +3930,7 @@
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
       <c r="H87" s="13">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="2:8">
@@ -3949,7 +3949,7 @@
       <c r="F88" s="13"/>
       <c r="G88" s="13"/>
       <c r="H88" s="13">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="2:8">
@@ -3968,7 +3968,7 @@
       <c r="F89" s="13"/>
       <c r="G89" s="13"/>
       <c r="H89" s="13">
-        <v>74</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="2:8">
@@ -3987,7 +3987,7 @@
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
       <c r="H90" s="13">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="2:8">
@@ -4006,7 +4006,7 @@
       <c r="F91" s="13"/>
       <c r="G91" s="13"/>
       <c r="H91" s="13">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="2:8">
@@ -4025,7 +4025,7 @@
       <c r="F92" s="13"/>
       <c r="G92" s="13"/>
       <c r="H92" s="13">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="2:8">
@@ -4044,7 +4044,7 @@
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
       <c r="H93" s="13">
-        <v>78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="2:8">
@@ -4063,7 +4063,7 @@
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
       <c r="H94" s="13">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="2:8">
@@ -4082,7 +4082,7 @@
       <c r="F95" s="13"/>
       <c r="G95" s="13"/>
       <c r="H95" s="13">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="2:8">
@@ -4101,7 +4101,7 @@
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
       <c r="H96" s="13">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="2:8">
@@ -4120,7 +4120,7 @@
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
       <c r="H97" s="13">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="2:8">
@@ -4139,7 +4139,7 @@
       <c r="F98" s="13"/>
       <c r="G98" s="13"/>
       <c r="H98" s="13">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="2:8">
@@ -4158,7 +4158,7 @@
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
       <c r="H99" s="13">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="2:8">
@@ -4177,7 +4177,7 @@
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
       <c r="H100" s="13">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="2:8">
@@ -4196,7 +4196,7 @@
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
       <c r="H101" s="13">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="2:8">
@@ -4219,7 +4219,7 @@
         <v>1</v>
       </c>
       <c r="H102" s="14">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="2:8">
@@ -4238,7 +4238,7 @@
       <c r="F103" s="14"/>
       <c r="G103" s="14"/>
       <c r="H103" s="14">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="2:8">
@@ -4257,7 +4257,7 @@
       <c r="F104" s="14"/>
       <c r="G104" s="14"/>
       <c r="H104" s="14">
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="2:8">
@@ -4276,7 +4276,7 @@
       <c r="F105" s="14"/>
       <c r="G105" s="14"/>
       <c r="H105" s="14">
-        <v>22</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="2:8">
@@ -4295,7 +4295,7 @@
       <c r="F106" s="14"/>
       <c r="G106" s="14"/>
       <c r="H106" s="14">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="2:8">
@@ -4314,7 +4314,7 @@
       <c r="F107" s="14"/>
       <c r="G107" s="14"/>
       <c r="H107" s="14">
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="2:8">
@@ -4333,7 +4333,7 @@
       <c r="F108" s="14"/>
       <c r="G108" s="14"/>
       <c r="H108" s="14">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="2:8">
@@ -4352,7 +4352,7 @@
       <c r="F109" s="14"/>
       <c r="G109" s="14"/>
       <c r="H109" s="14">
-        <v>26</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="2:8">
@@ -4371,7 +4371,7 @@
       <c r="F110" s="14"/>
       <c r="G110" s="14"/>
       <c r="H110" s="14">
-        <v>27</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="2:8">
@@ -4390,7 +4390,7 @@
       <c r="F111" s="14"/>
       <c r="G111" s="14"/>
       <c r="H111" s="14">
-        <v>28</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112" spans="2:8">
@@ -4409,7 +4409,7 @@
       <c r="F112" s="14"/>
       <c r="G112" s="14"/>
       <c r="H112" s="14">
-        <v>29</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="2:8">
@@ -4428,7 +4428,7 @@
       <c r="F113" s="14"/>
       <c r="G113" s="14"/>
       <c r="H113" s="14">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114" spans="2:8">
@@ -4447,7 +4447,7 @@
       <c r="F114" s="14"/>
       <c r="G114" s="14"/>
       <c r="H114" s="14">
-        <v>31</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115" spans="2:8">
@@ -4466,7 +4466,7 @@
       <c r="F115" s="14"/>
       <c r="G115" s="14"/>
       <c r="H115" s="14">
-        <v>32</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116" spans="2:8">
@@ -4485,7 +4485,7 @@
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
       <c r="H116" s="14">
-        <v>33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="117" spans="2:8">
@@ -4504,7 +4504,7 @@
       <c r="F117" s="14"/>
       <c r="G117" s="14"/>
       <c r="H117" s="14">
-        <v>34</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118" spans="2:8">
@@ -4523,7 +4523,7 @@
       <c r="F118" s="14"/>
       <c r="G118" s="14"/>
       <c r="H118" s="14">
-        <v>35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119" spans="2:8">
@@ -4565,7 +4565,7 @@
       <c r="F120" s="12"/>
       <c r="G120" s="12"/>
       <c r="H120" s="12">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="121" spans="2:8">
@@ -4584,7 +4584,7 @@
       <c r="F121" s="12"/>
       <c r="G121" s="12"/>
       <c r="H121" s="12">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122" spans="2:8">
@@ -4603,7 +4603,7 @@
       <c r="F122" s="12"/>
       <c r="G122" s="12"/>
       <c r="H122" s="12">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="123" spans="2:8">
@@ -4622,7 +4622,7 @@
       <c r="F123" s="12"/>
       <c r="G123" s="12"/>
       <c r="H123" s="12">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124" spans="2:8">
@@ -4641,7 +4641,7 @@
       <c r="F124" s="12"/>
       <c r="G124" s="12"/>
       <c r="H124" s="12">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125" spans="2:8">
@@ -4660,7 +4660,7 @@
       <c r="F125" s="12"/>
       <c r="G125" s="12"/>
       <c r="H125" s="12">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126" spans="2:8">
@@ -4679,7 +4679,7 @@
       <c r="F126" s="12"/>
       <c r="G126" s="12"/>
       <c r="H126" s="12">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127" spans="2:8">
@@ -4698,7 +4698,7 @@
       <c r="F127" s="12"/>
       <c r="G127" s="12"/>
       <c r="H127" s="12">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128" spans="2:8">
@@ -4717,7 +4717,7 @@
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
       <c r="H128" s="12">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="129" spans="2:8">
@@ -4736,7 +4736,7 @@
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
       <c r="H129" s="12">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="130" spans="2:8">
@@ -4755,7 +4755,7 @@
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
       <c r="H130" s="12">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="131" spans="2:8">
@@ -4774,7 +4774,7 @@
       <c r="F131" s="12"/>
       <c r="G131" s="12"/>
       <c r="H131" s="12">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="132" spans="2:8">
@@ -4793,7 +4793,7 @@
       <c r="F132" s="12"/>
       <c r="G132" s="12"/>
       <c r="H132" s="12">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="133" spans="2:8">
@@ -4812,7 +4812,7 @@
       <c r="F133" s="12"/>
       <c r="G133" s="12"/>
       <c r="H133" s="12">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="134" spans="2:8">
@@ -4831,7 +4831,7 @@
       <c r="F134" s="12"/>
       <c r="G134" s="12"/>
       <c r="H134" s="12">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="135" spans="2:8">
@@ -4854,7 +4854,7 @@
         <v>1</v>
       </c>
       <c r="H135" s="13">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="136" spans="2:8">
@@ -4873,7 +4873,7 @@
       <c r="F136" s="13"/>
       <c r="G136" s="13"/>
       <c r="H136" s="13">
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="137" spans="2:8">
@@ -4892,7 +4892,7 @@
       <c r="F137" s="13"/>
       <c r="G137" s="13"/>
       <c r="H137" s="13">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="138" spans="2:8">
@@ -4911,7 +4911,7 @@
       <c r="F138" s="13"/>
       <c r="G138" s="13"/>
       <c r="H138" s="13">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="139" spans="2:8">
@@ -4930,7 +4930,7 @@
       <c r="F139" s="13"/>
       <c r="G139" s="13"/>
       <c r="H139" s="13">
-        <v>74</v>
+        <v>100</v>
       </c>
     </row>
     <row r="140" spans="2:8">
@@ -4949,7 +4949,7 @@
       <c r="F140" s="13"/>
       <c r="G140" s="13"/>
       <c r="H140" s="13">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="141" spans="2:8">
@@ -4968,7 +4968,7 @@
       <c r="F141" s="13"/>
       <c r="G141" s="13"/>
       <c r="H141" s="13">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="142" spans="2:8">
@@ -4987,7 +4987,7 @@
       <c r="F142" s="13"/>
       <c r="G142" s="13"/>
       <c r="H142" s="13">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="143" spans="2:8">
@@ -5006,7 +5006,7 @@
       <c r="F143" s="13"/>
       <c r="G143" s="13"/>
       <c r="H143" s="13">
-        <v>78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="144" spans="2:8">
@@ -5025,7 +5025,7 @@
       <c r="F144" s="13"/>
       <c r="G144" s="13"/>
       <c r="H144" s="13">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="145" spans="2:8">
@@ -5044,7 +5044,7 @@
       <c r="F145" s="13"/>
       <c r="G145" s="13"/>
       <c r="H145" s="13">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="146" spans="2:8">
@@ -5063,7 +5063,7 @@
       <c r="F146" s="13"/>
       <c r="G146" s="13"/>
       <c r="H146" s="13">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="147" spans="2:8">
@@ -5082,7 +5082,7 @@
       <c r="F147" s="13"/>
       <c r="G147" s="13"/>
       <c r="H147" s="13">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="148" spans="2:8">
@@ -5101,7 +5101,7 @@
       <c r="F148" s="13"/>
       <c r="G148" s="13"/>
       <c r="H148" s="13">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="149" spans="2:8">
@@ -5120,7 +5120,7 @@
       <c r="F149" s="13"/>
       <c r="G149" s="13"/>
       <c r="H149" s="13">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150" spans="2:8">
@@ -5139,7 +5139,7 @@
       <c r="F150" s="13"/>
       <c r="G150" s="13"/>
       <c r="H150" s="13">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151" spans="2:8">
@@ -5158,7 +5158,7 @@
       <c r="F151" s="13"/>
       <c r="G151" s="13"/>
       <c r="H151" s="13">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="152" spans="2:8">
@@ -5181,7 +5181,7 @@
         <v>1</v>
       </c>
       <c r="H152" s="14">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="153" spans="2:8">
@@ -5200,7 +5200,7 @@
       <c r="F153" s="14"/>
       <c r="G153" s="14"/>
       <c r="H153" s="14">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="154" spans="2:8">
@@ -5219,7 +5219,7 @@
       <c r="F154" s="14"/>
       <c r="G154" s="14"/>
       <c r="H154" s="14">
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="155" spans="2:8">
@@ -5238,7 +5238,7 @@
       <c r="F155" s="14"/>
       <c r="G155" s="14"/>
       <c r="H155" s="14">
-        <v>22</v>
+        <v>100</v>
       </c>
     </row>
     <row r="156" spans="2:8">
@@ -5257,7 +5257,7 @@
       <c r="F156" s="14"/>
       <c r="G156" s="14"/>
       <c r="H156" s="14">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="157" spans="2:8">
@@ -5276,7 +5276,7 @@
       <c r="F157" s="14"/>
       <c r="G157" s="14"/>
       <c r="H157" s="14">
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="158" spans="2:8">
@@ -5295,7 +5295,7 @@
       <c r="F158" s="14"/>
       <c r="G158" s="14"/>
       <c r="H158" s="14">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="159" spans="2:8">
@@ -5314,7 +5314,7 @@
       <c r="F159" s="14"/>
       <c r="G159" s="14"/>
       <c r="H159" s="14">
-        <v>26</v>
+        <v>100</v>
       </c>
     </row>
     <row r="160" spans="2:8">
@@ -5333,7 +5333,7 @@
       <c r="F160" s="14"/>
       <c r="G160" s="14"/>
       <c r="H160" s="14">
-        <v>27</v>
+        <v>100</v>
       </c>
     </row>
     <row r="161" spans="2:8">
@@ -5352,7 +5352,7 @@
       <c r="F161" s="14"/>
       <c r="G161" s="14"/>
       <c r="H161" s="14">
-        <v>28</v>
+        <v>100</v>
       </c>
     </row>
     <row r="162" spans="2:8">
@@ -5371,7 +5371,7 @@
       <c r="F162" s="14"/>
       <c r="G162" s="14"/>
       <c r="H162" s="14">
-        <v>29</v>
+        <v>100</v>
       </c>
     </row>
     <row r="163" spans="2:8">
@@ -5390,7 +5390,7 @@
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
       <c r="H163" s="14">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="164" spans="2:8">
@@ -5409,7 +5409,7 @@
       <c r="F164" s="14"/>
       <c r="G164" s="14"/>
       <c r="H164" s="14">
-        <v>31</v>
+        <v>100</v>
       </c>
     </row>
     <row r="165" spans="2:8">
@@ -5428,7 +5428,7 @@
       <c r="F165" s="14"/>
       <c r="G165" s="14"/>
       <c r="H165" s="14">
-        <v>32</v>
+        <v>100</v>
       </c>
     </row>
     <row r="166" spans="2:8">
@@ -5447,7 +5447,7 @@
       <c r="F166" s="14"/>
       <c r="G166" s="14"/>
       <c r="H166" s="14">
-        <v>33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="167" spans="2:8">
@@ -5466,7 +5466,7 @@
       <c r="F167" s="14"/>
       <c r="G167" s="14"/>
       <c r="H167" s="14">
-        <v>34</v>
+        <v>100</v>
       </c>
     </row>
     <row r="168" spans="2:8">
@@ -5485,7 +5485,7 @@
       <c r="F168" s="14"/>
       <c r="G168" s="14"/>
       <c r="H168" s="14">
-        <v>35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="169" spans="2:8">

--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -1356,9 +1356,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1407,45 +1407,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1459,9 +1422,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1477,7 +1454,67 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1491,48 +1528,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1605,13 +1605,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1623,7 +1623,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1641,67 +1761,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1713,79 +1785,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1810,6 +1810,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1846,9 +1855,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1857,18 +1868,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1904,10 +1904,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1916,64 +1916,64 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1982,67 +1982,67 @@
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2448,8 +2448,8 @@
   <sheetPr/>
   <dimension ref="A3:R274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="H169" sqref="H169"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="D197" sqref="D197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="D185" s="1">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>63</v>
@@ -5757,7 +5757,7 @@
         <v>1</v>
       </c>
       <c r="D186" s="1">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>67</v>
@@ -5786,7 +5786,7 @@
         <v>1</v>
       </c>
       <c r="D187" s="1">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>70</v>
@@ -5816,7 +5816,7 @@
         <v>1</v>
       </c>
       <c r="D188" s="1">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>74</v>
@@ -5845,7 +5845,7 @@
         <v>1</v>
       </c>
       <c r="D189" s="1">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>78</v>
@@ -5874,7 +5874,7 @@
         <v>1</v>
       </c>
       <c r="D190" s="1">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>79</v>
@@ -5903,7 +5903,7 @@
         <v>1</v>
       </c>
       <c r="D191" s="1">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>80</v>
@@ -5932,7 +5932,7 @@
         <v>1</v>
       </c>
       <c r="D192" s="1">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>84</v>
@@ -5961,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="D193" s="1">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>85</v>
@@ -5990,7 +5990,7 @@
         <v>1</v>
       </c>
       <c r="D194" s="1">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>86</v>
@@ -6019,7 +6019,7 @@
         <v>1</v>
       </c>
       <c r="D195" s="1">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>90</v>
@@ -6048,7 +6048,7 @@
         <v>1</v>
       </c>
       <c r="D196" s="1">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>91</v>
@@ -6077,7 +6077,7 @@
         <v>1</v>
       </c>
       <c r="D197" s="1">
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>92</v>
@@ -6106,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="D198" s="1">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>96</v>
@@ -6135,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="D199" s="1">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>97</v>
@@ -6164,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="D200" s="1">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>98</v>
@@ -6193,7 +6193,7 @@
         <v>1</v>
       </c>
       <c r="D201" s="1">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>102</v>
@@ -6222,7 +6222,7 @@
         <v>1</v>
       </c>
       <c r="D202" s="1">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>106</v>
@@ -6251,7 +6251,7 @@
         <v>1</v>
       </c>
       <c r="D203" s="1">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>110</v>
@@ -6280,7 +6280,7 @@
         <v>1</v>
       </c>
       <c r="D204" s="1">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>114</v>
@@ -6309,7 +6309,7 @@
         <v>1</v>
       </c>
       <c r="D205" s="1">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>118</v>
@@ -6338,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="D206" s="1">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>120</v>
@@ -6367,7 +6367,7 @@
         <v>1</v>
       </c>
       <c r="D207" s="1">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>124</v>
@@ -6396,7 +6396,7 @@
         <v>1</v>
       </c>
       <c r="D208" s="1">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>125</v>
@@ -6425,7 +6425,7 @@
         <v>1</v>
       </c>
       <c r="D209" s="1">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>129</v>
@@ -6454,7 +6454,7 @@
         <v>1</v>
       </c>
       <c r="D210" s="1">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>130</v>
@@ -6483,7 +6483,7 @@
         <v>1</v>
       </c>
       <c r="D211" s="1">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>131</v>
@@ -6512,7 +6512,7 @@
         <v>1</v>
       </c>
       <c r="D212" s="1">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>135</v>
@@ -6541,7 +6541,7 @@
         <v>1</v>
       </c>
       <c r="D213" s="1">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>139</v>
@@ -6570,7 +6570,7 @@
         <v>1</v>
       </c>
       <c r="D214" s="1">
-        <v>129</v>
+        <v>4</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>143</v>

--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -1355,9 +1355,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -1393,32 +1393,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1430,7 +1428,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1445,10 +1443,32 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1476,37 +1496,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1515,6 +1507,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1605,31 +1605,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1647,7 +1713,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1659,133 +1785,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1796,45 +1796,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1855,11 +1816,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1875,9 +1858,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1896,6 +1881,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1904,10 +1904,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1916,19 +1916,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1937,112 +1937,112 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2448,8 +2448,8 @@
   <sheetPr/>
   <dimension ref="A3:R274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="D197" sqref="D197"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="D192" sqref="D192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3880,7 +3880,7 @@
         <v>5001</v>
       </c>
       <c r="D85" s="13">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E85" s="13">
         <v>1</v>
@@ -3903,7 +3903,7 @@
         <v>5001</v>
       </c>
       <c r="D86" s="13">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="E86" s="13">
         <v>2</v>
@@ -3922,7 +3922,7 @@
         <v>5001</v>
       </c>
       <c r="D87" s="13">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="E87" s="13">
         <v>5</v>
@@ -4842,7 +4842,7 @@
         <v>5001</v>
       </c>
       <c r="D135" s="13">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E135" s="13">
         <v>1</v>
@@ -4865,7 +4865,7 @@
         <v>5001</v>
       </c>
       <c r="D136" s="13">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="E136" s="13">
         <v>2</v>
@@ -4884,7 +4884,7 @@
         <v>5001</v>
       </c>
       <c r="D137" s="13">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="E137" s="13">
         <v>5</v>
@@ -5950,7 +5950,7 @@
         <v>83</v>
       </c>
       <c r="J192" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" ht="32" customHeight="1" spans="2:10">

--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -1355,9 +1355,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -1406,17 +1406,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1428,7 +1422,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1436,7 +1430,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1458,17 +1459,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1477,6 +1486,22 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1498,39 +1523,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1605,55 +1605,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1671,7 +1659,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1683,97 +1731,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1789,6 +1765,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1799,35 +1799,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1850,8 +1826,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1863,6 +1839,45 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1881,21 +1896,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1904,10 +1904,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1916,133 +1916,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2446,10 +2446,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:R274"/>
+  <dimension ref="A3:R275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="D192" sqref="D192"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="E281" sqref="E281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7425,6 +7425,20 @@
         <v>171</v>
       </c>
     </row>
+    <row r="275" spans="2:5">
+      <c r="B275" s="1">
+        <v>2</v>
+      </c>
+      <c r="C275" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D275" s="1">
+        <v>1</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -720,7 +720,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
   <si>
     <t>挖矿暴击权重配置表</t>
   </si>
@@ -1349,16 +1349,19 @@
   <si>
     <t>test</t>
   </si>
+  <si>
+    <t>TEST</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1392,8 +1395,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1407,14 +1418,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1428,7 +1432,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1436,39 +1440,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1477,6 +1451,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1496,9 +1477,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1512,6 +1493,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1520,17 +1516,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1605,7 +1608,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1617,13 +1746,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1641,151 +1788,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1796,39 +1799,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1849,6 +1819,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1856,13 +1837,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1882,6 +1867,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1896,6 +1890,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1904,10 +1907,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1916,133 +1919,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2446,10 +2449,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:R274"/>
+  <dimension ref="A3:R275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="D192" sqref="D192"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3883,7 +3886,7 @@
         <v>100</v>
       </c>
       <c r="E85" s="13">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F85" s="13">
         <v>17</v>
@@ -3906,7 +3909,7 @@
         <v>200</v>
       </c>
       <c r="E86" s="13">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
@@ -3925,7 +3928,7 @@
         <v>500</v>
       </c>
       <c r="E87" s="13">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
@@ -4845,7 +4848,7 @@
         <v>100</v>
       </c>
       <c r="E135" s="13">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F135" s="13">
         <v>17</v>
@@ -4868,7 +4871,7 @@
         <v>200</v>
       </c>
       <c r="E136" s="13">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="F136" s="13"/>
       <c r="G136" s="13"/>
@@ -4887,7 +4890,7 @@
         <v>500</v>
       </c>
       <c r="E137" s="13">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="F137" s="13"/>
       <c r="G137" s="13"/>
@@ -7425,6 +7428,20 @@
         <v>171</v>
       </c>
     </row>
+    <row r="275" spans="2:5">
+      <c r="B275" s="1">
+        <v>2</v>
+      </c>
+      <c r="C275" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D275" s="1">
+        <v>2</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -720,7 +720,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175">
   <si>
     <t>挖矿暴击权重配置表</t>
   </si>
@@ -1352,16 +1352,22 @@
   <si>
     <t>TEST</t>
   </si>
+  <si>
+    <t>免费初级转盘</t>
+  </si>
+  <si>
+    <t>免费初级宝箱</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1395,16 +1401,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1418,7 +1416,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1432,7 +1437,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1448,16 +1484,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1477,24 +1514,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1505,37 +1542,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1608,7 +1614,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1620,13 +1704,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1638,157 +1788,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1799,41 +1805,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1852,17 +1823,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1893,9 +1858,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1907,10 +1913,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1919,133 +1925,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2449,10 +2455,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:R275"/>
+  <dimension ref="A3:R277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138"/>
+    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
+      <selection activeCell="F279" sqref="F279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7442,6 +7448,34 @@
         <v>172</v>
       </c>
     </row>
+    <row r="276" spans="2:5">
+      <c r="B276" s="1">
+        <v>3</v>
+      </c>
+      <c r="C276" s="1">
+        <v>100701</v>
+      </c>
+      <c r="D276" s="1">
+        <v>1</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="277" spans="2:5">
+      <c r="B277" s="1">
+        <v>4</v>
+      </c>
+      <c r="C277" s="1">
+        <v>101001</v>
+      </c>
+      <c r="D277" s="1">
+        <v>1</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -720,7 +720,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187">
   <si>
     <t>挖矿暴击权重配置表</t>
   </si>
@@ -1358,16 +1358,52 @@
   <si>
     <t>免费初级宝箱</t>
   </si>
+  <si>
+    <t>任务奖励配置表</t>
+  </si>
+  <si>
+    <t>任务id</t>
+  </si>
+  <si>
+    <t>任务名称</t>
+  </si>
+  <si>
+    <t>$TaskAwardCfg</t>
+  </si>
+  <si>
+    <t>创建钱包</t>
+  </si>
+  <si>
+    <t>登陆后可以玩更多游戏</t>
+  </si>
+  <si>
+    <t>去备份助记词</t>
+  </si>
+  <si>
+    <t>去分享密钥片段</t>
+  </si>
+  <si>
+    <t>参与聊天</t>
+  </si>
+  <si>
+    <t>玩一把大转盘</t>
+  </si>
+  <si>
+    <t>开个初级宝箱</t>
+  </si>
+  <si>
+    <t>首次充值成功</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1402,13 +1438,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1416,67 +1445,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1485,6 +1454,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1515,7 +1491,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1538,10 +1558,26 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1614,7 +1650,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1626,49 +1716,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1686,25 +1740,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1716,37 +1800,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1758,43 +1830,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1805,65 +1841,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1892,6 +1869,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1905,6 +1906,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1913,10 +1949,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1925,133 +1961,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2455,10 +2491,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:R277"/>
+  <dimension ref="A3:R289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="F279" sqref="F279"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="E289" sqref="E289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7476,6 +7512,182 @@
         <v>174</v>
       </c>
     </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="282" spans="2:6">
+      <c r="B282" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="283" spans="2:6">
+      <c r="B283" s="1">
+        <v>1</v>
+      </c>
+      <c r="C283" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D283" s="1">
+        <v>1</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="284" spans="2:6">
+      <c r="B284" s="1">
+        <v>2</v>
+      </c>
+      <c r="C284" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D284" s="1">
+        <v>1</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="285" spans="2:6">
+      <c r="B285" s="1">
+        <v>3</v>
+      </c>
+      <c r="C285" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D285" s="1">
+        <v>1</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="286" spans="2:6">
+      <c r="B286" s="1">
+        <v>4</v>
+      </c>
+      <c r="C286" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D286" s="1">
+        <v>1</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="287" spans="2:6">
+      <c r="B287" s="1">
+        <v>5</v>
+      </c>
+      <c r="C287" s="1">
+        <v>9527</v>
+      </c>
+      <c r="D287" s="1">
+        <v>1</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="288" spans="2:6">
+      <c r="B288" s="1">
+        <v>6</v>
+      </c>
+      <c r="C288" s="1">
+        <v>9527</v>
+      </c>
+      <c r="D288" s="1">
+        <v>1</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="289" spans="2:6">
+      <c r="B289" s="1">
+        <v>7</v>
+      </c>
+      <c r="C289" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D289" s="1">
+        <v>1</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -715,6 +715,29 @@
         </r>
       </text>
     </comment>
+    <comment ref="D275" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yineng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+ST(单位:10^4) 精度为小数点后2位
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -1347,16 +1370,16 @@
     <t>$AdAwardCfg</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>免费初级转盘</t>
-  </si>
-  <si>
-    <t>免费初级宝箱</t>
+    <t>挖矿广告送锄头</t>
+  </si>
+  <si>
+    <t>竞猜广告送ST</t>
+  </si>
+  <si>
+    <t>转盘广告送免费初级转盘</t>
+  </si>
+  <si>
+    <t>宝箱广告送免费初级宝箱</t>
   </si>
   <si>
     <t>任务奖励配置表</t>
@@ -1400,9 +1423,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -1444,8 +1467,123 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1460,122 +1598,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1650,13 +1673,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1674,13 +1817,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1692,115 +1835,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1812,25 +1853,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1844,26 +1867,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1883,15 +1891,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1903,26 +1902,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1941,6 +1920,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1949,10 +1972,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1961,133 +1984,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2493,8 +2516,8 @@
   <sheetPr/>
   <dimension ref="A3:R289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="E289" sqref="E289"/>
+    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
+      <selection activeCell="E277" sqref="E277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7475,10 +7498,10 @@
         <v>2</v>
       </c>
       <c r="C275" s="1">
-        <v>2002</v>
+        <v>5001</v>
       </c>
       <c r="D275" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>172</v>

--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -738,6 +738,29 @@
         </r>
       </text>
     </comment>
+    <comment ref="B281" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yineng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+#[primary=true]
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -1423,9 +1446,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -1461,7 +1484,121 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1475,30 +1612,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1507,98 +1622,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1673,7 +1696,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1685,13 +1738,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1709,55 +1810,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1775,13 +1852,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1793,67 +1876,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1864,15 +1887,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1887,6 +1901,59 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1920,50 +1987,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1972,10 +1995,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1984,133 +2007,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2517,7 +2540,7 @@
   <dimension ref="A3:R289"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="E277" sqref="E277"/>
+      <selection activeCell="D290" sqref="D290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -766,7 +766,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190">
   <si>
     <t>挖矿暴击权重配置表</t>
   </si>
@@ -1414,7 +1414,16 @@
     <t>任务名称</t>
   </si>
   <si>
+    <t>是否属于日常任务</t>
+  </si>
+  <si>
     <t>$TaskAwardCfg</t>
+  </si>
+  <si>
+    <t>isDayli</t>
+  </si>
+  <si>
+    <t>bool</t>
   </si>
   <si>
     <t>创建钱包</t>
@@ -1483,40 +1492,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1528,23 +1508,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1566,7 +1540,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1581,16 +1584,31 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1598,17 +1616,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1619,9 +1629,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1696,7 +1705,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1708,7 +1729,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1720,7 +1741,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1732,25 +1795,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1762,31 +1807,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1804,7 +1825,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1816,31 +1837,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1852,19 +1849,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1876,7 +1873,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1890,30 +1899,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1923,13 +1908,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1959,16 +1948,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1987,6 +1987,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1995,10 +2004,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2007,133 +2016,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2539,8 +2548,8 @@
   <sheetPr/>
   <dimension ref="A3:R289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="D290" sqref="D290"/>
+    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
+      <selection activeCell="G289" sqref="G289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7558,7 +7567,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:7">
       <c r="A280" s="1" t="s">
         <v>175</v>
       </c>
@@ -7577,10 +7586,13 @@
       <c r="F280" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="281" spans="1:6">
+      <c r="G280" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
       <c r="A281" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>8</v>
@@ -7597,8 +7609,11 @@
       <c r="F281" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="282" spans="2:6">
+      <c r="G281" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="282" spans="2:7">
       <c r="B282" s="1" t="s">
         <v>12</v>
       </c>
@@ -7614,8 +7629,11 @@
       <c r="F282" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="283" spans="2:6">
+      <c r="G282" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="283" spans="2:7">
       <c r="B283" s="1">
         <v>1</v>
       </c>
@@ -7626,13 +7644,16 @@
         <v>1</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="284" spans="2:6">
+        <v>183</v>
+      </c>
+      <c r="G283" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="2:7">
       <c r="B284" s="1">
         <v>2</v>
       </c>
@@ -7643,13 +7664,16 @@
         <v>1</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="285" spans="2:6">
+        <v>183</v>
+      </c>
+      <c r="G284" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="2:7">
       <c r="B285" s="1">
         <v>3</v>
       </c>
@@ -7660,13 +7684,16 @@
         <v>1</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="286" spans="2:6">
+        <v>183</v>
+      </c>
+      <c r="G285" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="2:7">
       <c r="B286" s="1">
         <v>4</v>
       </c>
@@ -7677,13 +7704,16 @@
         <v>1</v>
       </c>
       <c r="E286" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F286" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F286" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="287" spans="2:6">
+      <c r="G286" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="2:7">
       <c r="B287" s="1">
         <v>5</v>
       </c>
@@ -7694,13 +7724,16 @@
         <v>1</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="288" spans="2:6">
+        <v>183</v>
+      </c>
+      <c r="G287" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="2:7">
       <c r="B288" s="1">
         <v>6</v>
       </c>
@@ -7711,13 +7744,16 @@
         <v>1</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="289" spans="2:6">
+        <v>183</v>
+      </c>
+      <c r="G288" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="2:7">
       <c r="B289" s="1">
         <v>7</v>
       </c>
@@ -7728,10 +7764,13 @@
         <v>1</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
+      </c>
+      <c r="G289" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$181:$C$185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$182:$C$186</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -136,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B44" authorId="0">
+    <comment ref="B45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -158,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D44" authorId="0">
+    <comment ref="D45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -180,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D49" authorId="0">
+    <comment ref="D50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D50" authorId="0">
+    <comment ref="D51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -225,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B53" authorId="0">
+    <comment ref="B54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -247,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D53" authorId="0">
+    <comment ref="D54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -269,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D58" authorId="0">
+    <comment ref="D59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -292,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D59" authorId="0">
+    <comment ref="D60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -315,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D60" authorId="0">
+    <comment ref="D61" authorId="0">
       <text>
         <r>
           <rPr>
@@ -338,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B62" authorId="0">
+    <comment ref="B63" authorId="0">
       <text>
         <r>
           <rPr>
@@ -360,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B65" authorId="0">
+    <comment ref="B66" authorId="0">
       <text>
         <r>
           <rPr>
@@ -382,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B67" authorId="0">
+    <comment ref="B68" authorId="0">
       <text>
         <r>
           <rPr>
@@ -404,7 +404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B69" authorId="0">
+    <comment ref="B70" authorId="0">
       <text>
         <r>
           <rPr>
@@ -426,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C84" authorId="0">
+    <comment ref="C85" authorId="0">
       <text>
         <r>
           <rPr>
@@ -448,7 +448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B85" authorId="0">
+    <comment ref="B86" authorId="0">
       <text>
         <r>
           <rPr>
@@ -470,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B102" authorId="0">
+    <comment ref="B103" authorId="0">
       <text>
         <r>
           <rPr>
@@ -492,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B119" authorId="0">
+    <comment ref="B120" authorId="0">
       <text>
         <r>
           <rPr>
@@ -514,7 +514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C134" authorId="0">
+    <comment ref="C135" authorId="0">
       <text>
         <r>
           <rPr>
@@ -536,7 +536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B135" authorId="0">
+    <comment ref="B136" authorId="0">
       <text>
         <r>
           <rPr>
@@ -558,7 +558,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B152" authorId="0">
+    <comment ref="B153" authorId="0">
       <text>
         <r>
           <rPr>
@@ -580,7 +580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B173" authorId="2">
+    <comment ref="B174" authorId="2">
       <text>
         <r>
           <rPr>
@@ -592,7 +592,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B174" authorId="1">
+    <comment ref="B175" authorId="1">
       <text>
         <r>
           <rPr>
@@ -604,7 +604,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B183" authorId="0">
+    <comment ref="B184" authorId="0">
       <text>
         <r>
           <rPr>
@@ -627,7 +627,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B220" authorId="0">
+    <comment ref="B221" authorId="0">
       <text>
         <r>
           <rPr>
@@ -649,7 +649,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B229" authorId="0">
+    <comment ref="B230" authorId="0">
       <text>
         <r>
           <rPr>
@@ -671,7 +671,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B249" authorId="0">
+    <comment ref="B250" authorId="0">
       <text>
         <r>
           <rPr>
@@ -693,7 +693,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B272" authorId="0">
+    <comment ref="B273" authorId="0">
       <text>
         <r>
           <rPr>
@@ -715,7 +715,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D275" authorId="0">
+    <comment ref="D276" authorId="0">
       <text>
         <r>
           <rPr>
@@ -738,7 +738,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B281" authorId="0">
+    <comment ref="B282" authorId="0">
       <text>
         <r>
           <rPr>
@@ -766,7 +766,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="192">
   <si>
     <t>挖矿暴击权重配置表</t>
   </si>
@@ -906,7 +906,7 @@
     <t>数量</t>
   </si>
   <si>
-    <t>所需ST</t>
+    <t>所需KT</t>
   </si>
   <si>
     <t>名称</t>
@@ -927,6 +927,9 @@
     <t>类型</t>
   </si>
   <si>
+    <t>图片</t>
+  </si>
+  <si>
     <t>$STConvertCfg</t>
   </si>
   <si>
@@ -949,6 +952,9 @@
   </si>
   <si>
     <t>level</t>
+  </si>
+  <si>
+    <t>pic</t>
   </si>
   <si>
     <t>str</t>
@@ -1107,7 +1113,7 @@
 2、由于部分商品时效有限，兑换后请尽快使用；</t>
   </si>
   <si>
-    <t>虾米音乐季卡</t>
+    <t>虾米音乐半年卡</t>
   </si>
   <si>
     <t>虾米音乐年卡</t>
@@ -1455,12 +1461,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1492,11 +1498,53 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1516,9 +1564,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1532,52 +1586,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1599,41 +1618,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="43">
@@ -1705,7 +1727,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1717,19 +1739,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1741,13 +1757,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1759,13 +1781,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1783,13 +1805,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1801,19 +1829,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1825,49 +1877,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1885,7 +1907,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1896,6 +1918,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1925,9 +1995,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1946,56 +2018,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2004,10 +2026,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2016,133 +2038,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2546,10 +2568,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:R289"/>
+  <dimension ref="A3:R290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
-      <selection activeCell="G289" sqref="G289"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="F213" sqref="F213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3094,16 +3116,16 @@
         <v>100101</v>
       </c>
       <c r="C40" s="8">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="D40" s="8">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="E40" s="8">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F40" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G40" s="8">
         <v>1</v>
@@ -3117,13 +3139,13 @@
         <v>100102</v>
       </c>
       <c r="C41" s="8">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="D41" s="8">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E41" s="8">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -3136,18 +3158,18 @@
         <v>100103</v>
       </c>
       <c r="C42" s="8">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="D42" s="8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E42" s="8">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8">
-        <v>2000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="43" spans="2:8">
@@ -3166,171 +3188,171 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8">
-        <v>6000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="9">
-        <v>100201</v>
-      </c>
-      <c r="C44" s="9">
-        <v>4001</v>
-      </c>
-      <c r="D44" s="9">
-        <v>1000</v>
-      </c>
-      <c r="E44" s="9">
-        <v>1000</v>
-      </c>
-      <c r="F44" s="9">
-        <v>9</v>
-      </c>
-      <c r="G44" s="9">
-        <v>1</v>
-      </c>
-      <c r="H44" s="9">
-        <v>25</v>
+      <c r="B44" s="8">
+        <v>100105</v>
+      </c>
+      <c r="C44" s="8">
+        <v>9527</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1</v>
+      </c>
+      <c r="E44" s="8">
+        <v>1</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8">
+        <v>19725</v>
       </c>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="9">
-        <v>100202</v>
+        <v>100201</v>
       </c>
       <c r="C45" s="9">
-        <v>4001</v>
+        <v>6001</v>
       </c>
       <c r="D45" s="9">
-        <v>100</v>
+        <v>6000</v>
       </c>
       <c r="E45" s="9">
-        <v>100</v>
-      </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
+        <v>6000</v>
+      </c>
+      <c r="F45" s="9">
+        <v>9</v>
+      </c>
+      <c r="G45" s="9">
+        <v>1</v>
+      </c>
       <c r="H45" s="9">
-        <v>250</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="9">
-        <v>100203</v>
+        <v>100202</v>
       </c>
       <c r="C46" s="9">
-        <v>4001</v>
+        <v>6001</v>
       </c>
       <c r="D46" s="9">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="E46" s="9">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="9">
-        <v>100204</v>
+        <v>100203</v>
       </c>
       <c r="C47" s="9">
-        <v>4001</v>
+        <v>6001</v>
       </c>
       <c r="D47" s="9">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="E47" s="9">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9">
-        <v>2000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="9">
-        <v>100205</v>
+        <v>100204</v>
       </c>
       <c r="C48" s="9">
-        <v>4001</v>
+        <v>6001</v>
       </c>
       <c r="D48" s="9">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E48" s="9">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9">
-        <v>7000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="9">
-        <v>100206</v>
+        <v>100205</v>
       </c>
       <c r="C49" s="9">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="D49" s="9">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E49" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9">
-        <v>5000</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="9">
-        <v>100207</v>
+        <v>100206</v>
       </c>
       <c r="C50" s="9">
         <v>6001</v>
       </c>
       <c r="D50" s="9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E50" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9">
-        <v>70000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="9">
-        <v>100208</v>
+        <v>100207</v>
       </c>
       <c r="C51" s="9">
-        <v>2002</v>
+        <v>6001</v>
       </c>
       <c r="D51" s="9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E51" s="9">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9">
-        <v>10000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="9">
-        <v>100209</v>
+        <v>100208</v>
       </c>
       <c r="C52" s="9">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D52" s="9">
         <v>2</v>
@@ -3341,213 +3363,209 @@
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9">
-        <v>5225</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="53" spans="2:8">
-      <c r="B53" s="4">
-        <v>100301</v>
-      </c>
-      <c r="C53" s="4">
-        <v>3001</v>
-      </c>
-      <c r="D53" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E53" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F53" s="4">
-        <v>9</v>
-      </c>
-      <c r="G53" s="4">
-        <v>1</v>
-      </c>
-      <c r="H53" s="4">
-        <v>25</v>
+      <c r="B53" s="9">
+        <v>100209</v>
+      </c>
+      <c r="C53" s="9">
+        <v>2003</v>
+      </c>
+      <c r="D53" s="9">
+        <v>2</v>
+      </c>
+      <c r="E53" s="9">
+        <v>5</v>
+      </c>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9">
+        <v>54725</v>
       </c>
     </row>
     <row r="54" spans="2:8">
       <c r="B54" s="4">
-        <v>100302</v>
+        <v>100301</v>
       </c>
       <c r="C54" s="4">
-        <v>3001</v>
+        <v>6001</v>
       </c>
       <c r="D54" s="4">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="E54" s="4">
-        <v>100</v>
-      </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
+        <v>20000</v>
+      </c>
+      <c r="F54" s="4">
+        <v>9</v>
+      </c>
+      <c r="G54" s="4">
+        <v>1</v>
+      </c>
       <c r="H54" s="4">
-        <v>250</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="2:8">
       <c r="B55" s="4">
-        <v>100303</v>
+        <v>100302</v>
       </c>
       <c r="C55" s="4">
-        <v>3001</v>
+        <v>6001</v>
       </c>
       <c r="D55" s="4">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="E55" s="4">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="2:8">
       <c r="B56" s="4">
-        <v>100304</v>
+        <v>100303</v>
       </c>
       <c r="C56" s="4">
-        <v>3001</v>
+        <v>6001</v>
       </c>
       <c r="D56" s="4">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="E56" s="4">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4">
-        <v>2000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="57" spans="2:8">
       <c r="B57" s="4">
-        <v>100305</v>
+        <v>100304</v>
       </c>
       <c r="C57" s="4">
-        <v>3001</v>
+        <v>6001</v>
       </c>
       <c r="D57" s="4">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E57" s="4">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4">
-        <v>5000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="58" spans="2:8">
       <c r="B58" s="4">
-        <v>100306</v>
+        <v>100305</v>
       </c>
       <c r="C58" s="4">
-        <v>4001</v>
+        <v>6001</v>
       </c>
       <c r="D58" s="4">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E58" s="4">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4">
-        <v>2000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="59" spans="2:8">
       <c r="B59" s="4">
-        <v>100307</v>
+        <v>100306</v>
       </c>
       <c r="C59" s="4">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="D59" s="4">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="E59" s="4">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4">
-        <v>5000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="60" spans="2:8">
       <c r="B60" s="4">
-        <v>100308</v>
+        <v>100307</v>
       </c>
       <c r="C60" s="4">
         <v>6001</v>
       </c>
       <c r="D60" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E60" s="4">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4">
-        <v>70000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="61" spans="2:8">
       <c r="B61" s="4">
-        <v>100309</v>
+        <v>100308</v>
       </c>
       <c r="C61" s="4">
-        <v>2003</v>
+        <v>6001</v>
       </c>
       <c r="D61" s="4">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E61" s="4">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4">
-        <v>15255</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="62" spans="2:8">
-      <c r="B62" s="10">
-        <v>100401</v>
-      </c>
-      <c r="C62" s="10">
-        <v>1001</v>
-      </c>
-      <c r="D62" s="10">
-        <v>1</v>
-      </c>
-      <c r="E62" s="10">
-        <v>1</v>
-      </c>
-      <c r="F62" s="10">
-        <v>3</v>
-      </c>
-      <c r="G62" s="10">
-        <v>1</v>
-      </c>
-      <c r="H62" s="10">
-        <v>70</v>
+      <c r="B62" s="4">
+        <v>100309</v>
+      </c>
+      <c r="C62" s="4">
+        <v>6001</v>
+      </c>
+      <c r="D62" s="4">
+        <v>2</v>
+      </c>
+      <c r="E62" s="4">
+        <v>5</v>
+      </c>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4">
+        <v>154725</v>
       </c>
     </row>
     <row r="63" spans="2:8">
       <c r="B63" s="10">
-        <v>100402</v>
+        <v>100401</v>
       </c>
       <c r="C63" s="10">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D63" s="10">
         <v>1</v>
@@ -3555,18 +3573,22 @@
       <c r="E63" s="10">
         <v>1</v>
       </c>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
+      <c r="F63" s="10">
+        <v>3</v>
+      </c>
+      <c r="G63" s="10">
+        <v>1</v>
+      </c>
       <c r="H63" s="10">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="2:8">
       <c r="B64" s="10">
-        <v>100403</v>
+        <v>100402</v>
       </c>
       <c r="C64" s="10">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D64" s="10">
         <v>1</v>
@@ -3577,147 +3599,147 @@
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
       <c r="H64" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="10">
+        <v>100403</v>
+      </c>
+      <c r="C65" s="10">
+        <v>1003</v>
+      </c>
+      <c r="D65" s="10">
+        <v>1</v>
+      </c>
+      <c r="E65" s="10">
+        <v>1</v>
+      </c>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10">
         <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8">
-      <c r="B65" s="11">
-        <v>100501</v>
-      </c>
-      <c r="C65" s="11">
-        <v>7002</v>
-      </c>
-      <c r="D65" s="11">
-        <v>2</v>
-      </c>
-      <c r="E65" s="11">
-        <v>2</v>
-      </c>
-      <c r="F65" s="11">
-        <v>2</v>
-      </c>
-      <c r="G65" s="11">
-        <v>1</v>
-      </c>
-      <c r="H65" s="11">
-        <v>33</v>
       </c>
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="11">
-        <v>100502</v>
+        <v>100501</v>
       </c>
       <c r="C66" s="11">
         <v>7002</v>
       </c>
       <c r="D66" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" s="11">
-        <v>1</v>
-      </c>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="F66" s="11">
+        <v>2</v>
+      </c>
+      <c r="G66" s="11">
+        <v>1</v>
+      </c>
       <c r="H66" s="11">
-        <v>67</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="2:8">
       <c r="B67" s="11">
-        <v>100601</v>
+        <v>100502</v>
       </c>
       <c r="C67" s="11">
-        <v>7003</v>
+        <v>7002</v>
       </c>
       <c r="D67" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67" s="11">
-        <v>2</v>
-      </c>
-      <c r="F67" s="11">
-        <v>2</v>
-      </c>
-      <c r="G67" s="11">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
       <c r="H67" s="11">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="2:8">
       <c r="B68" s="11">
-        <v>100602</v>
+        <v>100601</v>
       </c>
       <c r="C68" s="11">
         <v>7003</v>
       </c>
       <c r="D68" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" s="11">
-        <v>1</v>
-      </c>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="F68" s="11">
+        <v>2</v>
+      </c>
+      <c r="G68" s="11">
+        <v>1</v>
+      </c>
       <c r="H68" s="11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="11">
+        <v>100602</v>
+      </c>
+      <c r="C69" s="11">
+        <v>7003</v>
+      </c>
+      <c r="D69" s="11">
+        <v>1</v>
+      </c>
+      <c r="E69" s="11">
+        <v>1</v>
+      </c>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11">
         <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8">
-      <c r="B69" s="12">
-        <v>100701</v>
-      </c>
-      <c r="C69" s="12">
-        <v>2001</v>
-      </c>
-      <c r="D69" s="12">
-        <v>1</v>
-      </c>
-      <c r="E69" s="12">
-        <v>1</v>
-      </c>
-      <c r="F69" s="12">
-        <v>16</v>
-      </c>
-      <c r="G69" s="12">
-        <v>1</v>
-      </c>
-      <c r="H69" s="12">
-        <v>100</v>
       </c>
     </row>
     <row r="70" spans="2:8">
       <c r="B70" s="12">
-        <v>100702</v>
+        <v>100701</v>
       </c>
       <c r="C70" s="12">
         <v>2001</v>
       </c>
       <c r="D70" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70" s="12">
-        <v>2</v>
-      </c>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="F70" s="12">
+        <v>16</v>
+      </c>
+      <c r="G70" s="12">
+        <v>1</v>
+      </c>
       <c r="H70" s="12">
         <v>100</v>
       </c>
     </row>
     <row r="71" spans="2:8">
       <c r="B71" s="12">
-        <v>100703</v>
+        <v>100702</v>
       </c>
       <c r="C71" s="12">
         <v>2001</v>
       </c>
       <c r="D71" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E71" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
@@ -3727,16 +3749,16 @@
     </row>
     <row r="72" spans="2:8">
       <c r="B72" s="12">
-        <v>100704</v>
+        <v>100703</v>
       </c>
       <c r="C72" s="12">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D72" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E72" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
@@ -3746,16 +3768,16 @@
     </row>
     <row r="73" spans="2:8">
       <c r="B73" s="12">
-        <v>100705</v>
+        <v>100704</v>
       </c>
       <c r="C73" s="12">
         <v>2002</v>
       </c>
       <c r="D73" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
@@ -3765,16 +3787,16 @@
     </row>
     <row r="74" spans="2:8">
       <c r="B74" s="12">
-        <v>100706</v>
+        <v>100705</v>
       </c>
       <c r="C74" s="12">
         <v>2002</v>
       </c>
       <c r="D74" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E74" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
@@ -3784,16 +3806,16 @@
     </row>
     <row r="75" spans="2:8">
       <c r="B75" s="12">
-        <v>100707</v>
+        <v>100706</v>
       </c>
       <c r="C75" s="12">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D75" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E75" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
@@ -3803,16 +3825,16 @@
     </row>
     <row r="76" spans="2:8">
       <c r="B76" s="12">
-        <v>100708</v>
+        <v>100707</v>
       </c>
       <c r="C76" s="12">
         <v>2003</v>
       </c>
       <c r="D76" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E76" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" s="12"/>
       <c r="G76" s="12"/>
@@ -3822,16 +3844,16 @@
     </row>
     <row r="77" spans="2:8">
       <c r="B77" s="12">
-        <v>100709</v>
+        <v>100708</v>
       </c>
       <c r="C77" s="12">
         <v>2003</v>
       </c>
       <c r="D77" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E77" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
@@ -3841,16 +3863,16 @@
     </row>
     <row r="78" spans="2:8">
       <c r="B78" s="12">
-        <v>100710</v>
+        <v>100709</v>
       </c>
       <c r="C78" s="12">
-        <v>5001</v>
+        <v>2003</v>
       </c>
       <c r="D78" s="12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E78" s="12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
@@ -3860,16 +3882,16 @@
     </row>
     <row r="79" spans="2:8">
       <c r="B79" s="12">
-        <v>100711</v>
+        <v>100710</v>
       </c>
       <c r="C79" s="12">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="D79" s="12">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E79" s="12">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
@@ -3879,16 +3901,16 @@
     </row>
     <row r="80" spans="2:8">
       <c r="B80" s="12">
-        <v>100712</v>
+        <v>100711</v>
       </c>
       <c r="C80" s="12">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="D80" s="12">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="E80" s="12">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
@@ -3898,16 +3920,16 @@
     </row>
     <row r="81" spans="2:8">
       <c r="B81" s="12">
-        <v>100713</v>
+        <v>100712</v>
       </c>
       <c r="C81" s="12">
         <v>6001</v>
       </c>
       <c r="D81" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E81" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F81" s="12"/>
       <c r="G81" s="12"/>
@@ -3917,16 +3939,16 @@
     </row>
     <row r="82" spans="2:8">
       <c r="B82" s="12">
-        <v>100714</v>
+        <v>100713</v>
       </c>
       <c r="C82" s="12">
         <v>6001</v>
       </c>
       <c r="D82" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" s="12"/>
       <c r="G82" s="12"/>
@@ -3936,16 +3958,16 @@
     </row>
     <row r="83" spans="2:8">
       <c r="B83" s="12">
-        <v>100715</v>
+        <v>100714</v>
       </c>
       <c r="C83" s="12">
         <v>6001</v>
       </c>
       <c r="D83" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E83" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F83" s="12"/>
       <c r="G83" s="12"/>
@@ -3955,16 +3977,16 @@
     </row>
     <row r="84" spans="2:8">
       <c r="B84" s="12">
-        <v>100716</v>
+        <v>100715</v>
       </c>
       <c r="C84" s="12">
-        <v>9527</v>
+        <v>6001</v>
       </c>
       <c r="D84" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E84" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F84" s="12"/>
       <c r="G84" s="12"/>
@@ -3973,59 +3995,59 @@
       </c>
     </row>
     <row r="85" spans="2:8">
-      <c r="B85" s="13">
-        <v>100801</v>
-      </c>
-      <c r="C85" s="13">
-        <v>5001</v>
-      </c>
-      <c r="D85" s="13">
-        <v>100</v>
-      </c>
-      <c r="E85" s="13">
-        <v>100</v>
-      </c>
-      <c r="F85" s="13">
-        <v>17</v>
-      </c>
-      <c r="G85" s="13">
-        <v>1</v>
-      </c>
-      <c r="H85" s="13">
+      <c r="B85" s="12">
+        <v>100716</v>
+      </c>
+      <c r="C85" s="12">
+        <v>9527</v>
+      </c>
+      <c r="D85" s="12">
+        <v>1</v>
+      </c>
+      <c r="E85" s="12">
+        <v>1</v>
+      </c>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12">
         <v>100</v>
       </c>
     </row>
     <row r="86" spans="2:8">
       <c r="B86" s="13">
-        <v>100802</v>
+        <v>100801</v>
       </c>
       <c r="C86" s="13">
         <v>5001</v>
       </c>
       <c r="D86" s="13">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E86" s="13">
-        <v>200</v>
-      </c>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
+        <v>100</v>
+      </c>
+      <c r="F86" s="13">
+        <v>17</v>
+      </c>
+      <c r="G86" s="13">
+        <v>1</v>
+      </c>
       <c r="H86" s="13">
         <v>100</v>
       </c>
     </row>
     <row r="87" spans="2:8">
       <c r="B87" s="13">
-        <v>100803</v>
+        <v>100802</v>
       </c>
       <c r="C87" s="13">
         <v>5001</v>
       </c>
       <c r="D87" s="13">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E87" s="13">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
@@ -4035,16 +4057,16 @@
     </row>
     <row r="88" spans="2:8">
       <c r="B88" s="13">
-        <v>100804</v>
+        <v>100803</v>
       </c>
       <c r="C88" s="13">
-        <v>2003</v>
+        <v>5001</v>
       </c>
       <c r="D88" s="13">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="E88" s="13">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="F88" s="13"/>
       <c r="G88" s="13"/>
@@ -4054,16 +4076,16 @@
     </row>
     <row r="89" spans="2:8">
       <c r="B89" s="13">
-        <v>100805</v>
+        <v>100804</v>
       </c>
       <c r="C89" s="13">
         <v>2003</v>
       </c>
       <c r="D89" s="13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E89" s="13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F89" s="13"/>
       <c r="G89" s="13"/>
@@ -4073,16 +4095,16 @@
     </row>
     <row r="90" spans="2:8">
       <c r="B90" s="13">
-        <v>100806</v>
+        <v>100805</v>
       </c>
       <c r="C90" s="13">
         <v>2003</v>
       </c>
       <c r="D90" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E90" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
@@ -4092,16 +4114,16 @@
     </row>
     <row r="91" spans="2:8">
       <c r="B91" s="13">
-        <v>100807</v>
+        <v>100806</v>
       </c>
       <c r="C91" s="13">
-        <v>500001</v>
+        <v>2003</v>
       </c>
       <c r="D91" s="13">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E91" s="13">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F91" s="13"/>
       <c r="G91" s="13"/>
@@ -4111,10 +4133,10 @@
     </row>
     <row r="92" spans="2:8">
       <c r="B92" s="13">
-        <v>100808</v>
+        <v>100807</v>
       </c>
       <c r="C92" s="13">
-        <v>500004</v>
+        <v>500001</v>
       </c>
       <c r="D92" s="13">
         <v>1</v>
@@ -4130,10 +4152,10 @@
     </row>
     <row r="93" spans="2:8">
       <c r="B93" s="13">
-        <v>100809</v>
+        <v>100808</v>
       </c>
       <c r="C93" s="13">
-        <v>500007</v>
+        <v>500004</v>
       </c>
       <c r="D93" s="13">
         <v>1</v>
@@ -4149,10 +4171,10 @@
     </row>
     <row r="94" spans="2:8">
       <c r="B94" s="13">
-        <v>100810</v>
+        <v>100809</v>
       </c>
       <c r="C94" s="13">
-        <v>500010</v>
+        <v>500007</v>
       </c>
       <c r="D94" s="13">
         <v>1</v>
@@ -4168,10 +4190,10 @@
     </row>
     <row r="95" spans="2:8">
       <c r="B95" s="13">
-        <v>100811</v>
+        <v>100810</v>
       </c>
       <c r="C95" s="13">
-        <v>500013</v>
+        <v>500010</v>
       </c>
       <c r="D95" s="13">
         <v>1</v>
@@ -4187,10 +4209,10 @@
     </row>
     <row r="96" spans="2:8">
       <c r="B96" s="13">
-        <v>100812</v>
+        <v>100811</v>
       </c>
       <c r="C96" s="13">
-        <v>500029</v>
+        <v>500013</v>
       </c>
       <c r="D96" s="13">
         <v>1</v>
@@ -4206,10 +4228,10 @@
     </row>
     <row r="97" spans="2:8">
       <c r="B97" s="13">
-        <v>100813</v>
+        <v>100812</v>
       </c>
       <c r="C97" s="13">
-        <v>500030</v>
+        <v>500029</v>
       </c>
       <c r="D97" s="13">
         <v>1</v>
@@ -4225,10 +4247,10 @@
     </row>
     <row r="98" spans="2:8">
       <c r="B98" s="13">
-        <v>100814</v>
+        <v>100813</v>
       </c>
       <c r="C98" s="13">
-        <v>500024</v>
+        <v>500030</v>
       </c>
       <c r="D98" s="13">
         <v>1</v>
@@ -4244,16 +4266,16 @@
     </row>
     <row r="99" spans="2:8">
       <c r="B99" s="13">
-        <v>100815</v>
+        <v>100814</v>
       </c>
       <c r="C99" s="13">
-        <v>6001</v>
+        <v>500024</v>
       </c>
       <c r="D99" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E99" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
@@ -4263,16 +4285,16 @@
     </row>
     <row r="100" spans="2:8">
       <c r="B100" s="13">
-        <v>100816</v>
+        <v>100815</v>
       </c>
       <c r="C100" s="13">
         <v>6001</v>
       </c>
       <c r="D100" s="13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E100" s="13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
@@ -4282,16 +4304,16 @@
     </row>
     <row r="101" spans="2:8">
       <c r="B101" s="13">
-        <v>100817</v>
+        <v>100816</v>
       </c>
       <c r="C101" s="13">
         <v>6001</v>
       </c>
       <c r="D101" s="13">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E101" s="13">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
@@ -4300,59 +4322,59 @@
       </c>
     </row>
     <row r="102" spans="2:8">
-      <c r="B102" s="14">
-        <v>100901</v>
-      </c>
-      <c r="C102" s="14">
-        <v>2003</v>
-      </c>
-      <c r="D102" s="14">
-        <v>25</v>
-      </c>
-      <c r="E102" s="14">
-        <v>25</v>
-      </c>
-      <c r="F102" s="14">
-        <v>17</v>
-      </c>
-      <c r="G102" s="14">
-        <v>1</v>
-      </c>
-      <c r="H102" s="14">
+      <c r="B102" s="13">
+        <v>100817</v>
+      </c>
+      <c r="C102" s="13">
+        <v>6001</v>
+      </c>
+      <c r="D102" s="13">
+        <v>50</v>
+      </c>
+      <c r="E102" s="13">
+        <v>50</v>
+      </c>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13">
         <v>100</v>
       </c>
     </row>
     <row r="103" spans="2:8">
       <c r="B103" s="14">
-        <v>100902</v>
+        <v>100901</v>
       </c>
       <c r="C103" s="14">
         <v>2003</v>
       </c>
       <c r="D103" s="14">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E103" s="14">
-        <v>50</v>
-      </c>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="F103" s="14">
+        <v>17</v>
+      </c>
+      <c r="G103" s="14">
+        <v>1</v>
+      </c>
       <c r="H103" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="104" spans="2:8">
       <c r="B104" s="14">
-        <v>100903</v>
+        <v>100902</v>
       </c>
       <c r="C104" s="14">
         <v>2003</v>
       </c>
       <c r="D104" s="14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E104" s="14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F104" s="14"/>
       <c r="G104" s="14"/>
@@ -4362,16 +4384,16 @@
     </row>
     <row r="105" spans="2:8">
       <c r="B105" s="14">
-        <v>100904</v>
+        <v>100903</v>
       </c>
       <c r="C105" s="14">
-        <v>6001</v>
+        <v>2003</v>
       </c>
       <c r="D105" s="14">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E105" s="14">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F105" s="14"/>
       <c r="G105" s="14"/>
@@ -4381,16 +4403,16 @@
     </row>
     <row r="106" spans="2:8">
       <c r="B106" s="14">
-        <v>100905</v>
+        <v>100904</v>
       </c>
       <c r="C106" s="14">
         <v>6001</v>
       </c>
       <c r="D106" s="14">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E106" s="14">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F106" s="14"/>
       <c r="G106" s="14"/>
@@ -4400,16 +4422,16 @@
     </row>
     <row r="107" spans="2:8">
       <c r="B107" s="14">
-        <v>100906</v>
+        <v>100905</v>
       </c>
       <c r="C107" s="14">
         <v>6001</v>
       </c>
       <c r="D107" s="14">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E107" s="14">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F107" s="14"/>
       <c r="G107" s="14"/>
@@ -4419,16 +4441,16 @@
     </row>
     <row r="108" spans="2:8">
       <c r="B108" s="14">
-        <v>100907</v>
+        <v>100906</v>
       </c>
       <c r="C108" s="14">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="D108" s="14">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E108" s="14">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F108" s="14"/>
       <c r="G108" s="14"/>
@@ -4438,16 +4460,16 @@
     </row>
     <row r="109" spans="2:8">
       <c r="B109" s="14">
-        <v>100908</v>
+        <v>100907</v>
       </c>
       <c r="C109" s="14">
         <v>5001</v>
       </c>
       <c r="D109" s="14">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E109" s="14">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F109" s="14"/>
       <c r="G109" s="14"/>
@@ -4457,16 +4479,16 @@
     </row>
     <row r="110" spans="2:8">
       <c r="B110" s="14">
-        <v>100909</v>
+        <v>100908</v>
       </c>
       <c r="C110" s="14">
         <v>5001</v>
       </c>
       <c r="D110" s="14">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="E110" s="14">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="F110" s="14"/>
       <c r="G110" s="14"/>
@@ -4476,16 +4498,16 @@
     </row>
     <row r="111" spans="2:8">
       <c r="B111" s="14">
-        <v>100910</v>
+        <v>100909</v>
       </c>
       <c r="C111" s="14">
-        <v>500014</v>
+        <v>5001</v>
       </c>
       <c r="D111" s="14">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="E111" s="14">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="F111" s="14"/>
       <c r="G111" s="14"/>
@@ -4495,10 +4517,10 @@
     </row>
     <row r="112" spans="2:8">
       <c r="B112" s="14">
-        <v>100911</v>
+        <v>100910</v>
       </c>
       <c r="C112" s="14">
-        <v>500011</v>
+        <v>500014</v>
       </c>
       <c r="D112" s="14">
         <v>1</v>
@@ -4514,10 +4536,10 @@
     </row>
     <row r="113" spans="2:8">
       <c r="B113" s="14">
-        <v>100912</v>
+        <v>100911</v>
       </c>
       <c r="C113" s="14">
-        <v>500020</v>
+        <v>500011</v>
       </c>
       <c r="D113" s="14">
         <v>1</v>
@@ -4533,10 +4555,10 @@
     </row>
     <row r="114" spans="2:8">
       <c r="B114" s="14">
-        <v>100913</v>
+        <v>100912</v>
       </c>
       <c r="C114" s="14">
-        <v>500017</v>
+        <v>500020</v>
       </c>
       <c r="D114" s="14">
         <v>1</v>
@@ -4552,10 +4574,10 @@
     </row>
     <row r="115" spans="2:8">
       <c r="B115" s="14">
-        <v>100914</v>
+        <v>100913</v>
       </c>
       <c r="C115" s="14">
-        <v>500018</v>
+        <v>500017</v>
       </c>
       <c r="D115" s="14">
         <v>1</v>
@@ -4571,10 +4593,10 @@
     </row>
     <row r="116" spans="2:8">
       <c r="B116" s="14">
-        <v>100915</v>
+        <v>100914</v>
       </c>
       <c r="C116" s="14">
-        <v>500019</v>
+        <v>500018</v>
       </c>
       <c r="D116" s="14">
         <v>1</v>
@@ -4590,10 +4612,10 @@
     </row>
     <row r="117" spans="2:8">
       <c r="B117" s="14">
-        <v>100916</v>
+        <v>100915</v>
       </c>
       <c r="C117" s="14">
-        <v>500027</v>
+        <v>500019</v>
       </c>
       <c r="D117" s="14">
         <v>1</v>
@@ -4609,10 +4631,10 @@
     </row>
     <row r="118" spans="2:8">
       <c r="B118" s="14">
-        <v>100917</v>
+        <v>100916</v>
       </c>
       <c r="C118" s="14">
-        <v>500028</v>
+        <v>500027</v>
       </c>
       <c r="D118" s="14">
         <v>1</v>
@@ -4627,59 +4649,59 @@
       </c>
     </row>
     <row r="119" spans="2:8">
-      <c r="B119" s="12">
-        <v>101001</v>
-      </c>
-      <c r="C119" s="12">
-        <v>2001</v>
-      </c>
-      <c r="D119" s="12">
-        <v>1</v>
-      </c>
-      <c r="E119" s="12">
-        <v>1</v>
-      </c>
-      <c r="F119" s="12">
-        <v>16</v>
-      </c>
-      <c r="G119" s="12">
-        <v>1</v>
-      </c>
-      <c r="H119" s="12">
+      <c r="B119" s="14">
+        <v>100917</v>
+      </c>
+      <c r="C119" s="14">
+        <v>500028</v>
+      </c>
+      <c r="D119" s="14">
+        <v>1</v>
+      </c>
+      <c r="E119" s="14">
+        <v>1</v>
+      </c>
+      <c r="F119" s="14"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="120" spans="2:8">
       <c r="B120" s="12">
-        <v>101002</v>
+        <v>101001</v>
       </c>
       <c r="C120" s="12">
         <v>2001</v>
       </c>
       <c r="D120" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E120" s="12">
-        <v>2</v>
-      </c>
-      <c r="F120" s="12"/>
-      <c r="G120" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="F120" s="12">
+        <v>16</v>
+      </c>
+      <c r="G120" s="12">
+        <v>1</v>
+      </c>
       <c r="H120" s="12">
         <v>100</v>
       </c>
     </row>
     <row r="121" spans="2:8">
       <c r="B121" s="12">
-        <v>101003</v>
+        <v>101002</v>
       </c>
       <c r="C121" s="12">
         <v>2001</v>
       </c>
       <c r="D121" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E121" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F121" s="12"/>
       <c r="G121" s="12"/>
@@ -4689,16 +4711,16 @@
     </row>
     <row r="122" spans="2:8">
       <c r="B122" s="12">
-        <v>101004</v>
+        <v>101003</v>
       </c>
       <c r="C122" s="12">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D122" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E122" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F122" s="12"/>
       <c r="G122" s="12"/>
@@ -4708,16 +4730,16 @@
     </row>
     <row r="123" spans="2:8">
       <c r="B123" s="12">
-        <v>101005</v>
+        <v>101004</v>
       </c>
       <c r="C123" s="12">
         <v>2002</v>
       </c>
       <c r="D123" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E123" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F123" s="12"/>
       <c r="G123" s="12"/>
@@ -4727,16 +4749,16 @@
     </row>
     <row r="124" spans="2:8">
       <c r="B124" s="12">
-        <v>101006</v>
+        <v>101005</v>
       </c>
       <c r="C124" s="12">
         <v>2002</v>
       </c>
       <c r="D124" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E124" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F124" s="12"/>
       <c r="G124" s="12"/>
@@ -4746,16 +4768,16 @@
     </row>
     <row r="125" spans="2:8">
       <c r="B125" s="12">
-        <v>101007</v>
+        <v>101006</v>
       </c>
       <c r="C125" s="12">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D125" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E125" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F125" s="12"/>
       <c r="G125" s="12"/>
@@ -4765,16 +4787,16 @@
     </row>
     <row r="126" spans="2:8">
       <c r="B126" s="12">
-        <v>101008</v>
+        <v>101007</v>
       </c>
       <c r="C126" s="12">
         <v>2003</v>
       </c>
       <c r="D126" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E126" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F126" s="12"/>
       <c r="G126" s="12"/>
@@ -4784,16 +4806,16 @@
     </row>
     <row r="127" spans="2:8">
       <c r="B127" s="12">
-        <v>101009</v>
+        <v>101008</v>
       </c>
       <c r="C127" s="12">
         <v>2003</v>
       </c>
       <c r="D127" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E127" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F127" s="12"/>
       <c r="G127" s="12"/>
@@ -4803,16 +4825,16 @@
     </row>
     <row r="128" spans="2:8">
       <c r="B128" s="12">
-        <v>101010</v>
+        <v>101009</v>
       </c>
       <c r="C128" s="12">
-        <v>5001</v>
+        <v>2003</v>
       </c>
       <c r="D128" s="12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E128" s="12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
@@ -4822,16 +4844,16 @@
     </row>
     <row r="129" spans="2:8">
       <c r="B129" s="12">
-        <v>101011</v>
+        <v>101010</v>
       </c>
       <c r="C129" s="12">
         <v>5001</v>
       </c>
       <c r="D129" s="12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E129" s="12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
@@ -4841,16 +4863,16 @@
     </row>
     <row r="130" spans="2:8">
       <c r="B130" s="12">
-        <v>101012</v>
+        <v>101011</v>
       </c>
       <c r="C130" s="12">
         <v>5001</v>
       </c>
       <c r="D130" s="12">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E130" s="12">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
@@ -4860,16 +4882,16 @@
     </row>
     <row r="131" spans="2:8">
       <c r="B131" s="12">
-        <v>101013</v>
+        <v>101012</v>
       </c>
       <c r="C131" s="12">
-        <v>6001</v>
+        <v>5001</v>
       </c>
       <c r="D131" s="12">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E131" s="12">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F131" s="12"/>
       <c r="G131" s="12"/>
@@ -4879,16 +4901,16 @@
     </row>
     <row r="132" spans="2:8">
       <c r="B132" s="12">
-        <v>101014</v>
+        <v>101013</v>
       </c>
       <c r="C132" s="12">
         <v>6001</v>
       </c>
       <c r="D132" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E132" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F132" s="12"/>
       <c r="G132" s="12"/>
@@ -4898,16 +4920,16 @@
     </row>
     <row r="133" spans="2:8">
       <c r="B133" s="12">
-        <v>101015</v>
+        <v>101014</v>
       </c>
       <c r="C133" s="12">
         <v>6001</v>
       </c>
       <c r="D133" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E133" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F133" s="12"/>
       <c r="G133" s="12"/>
@@ -4917,16 +4939,16 @@
     </row>
     <row r="134" spans="2:8">
       <c r="B134" s="12">
-        <v>101016</v>
+        <v>101015</v>
       </c>
       <c r="C134" s="12">
-        <v>9527</v>
+        <v>6001</v>
       </c>
       <c r="D134" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E134" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F134" s="12"/>
       <c r="G134" s="12"/>
@@ -4935,59 +4957,59 @@
       </c>
     </row>
     <row r="135" spans="2:8">
-      <c r="B135" s="13">
-        <v>101101</v>
-      </c>
-      <c r="C135" s="13">
-        <v>5001</v>
-      </c>
-      <c r="D135" s="13">
-        <v>100</v>
-      </c>
-      <c r="E135" s="13">
-        <v>100</v>
-      </c>
-      <c r="F135" s="13">
-        <v>17</v>
-      </c>
-      <c r="G135" s="13">
-        <v>1</v>
-      </c>
-      <c r="H135" s="13">
+      <c r="B135" s="12">
+        <v>101016</v>
+      </c>
+      <c r="C135" s="12">
+        <v>9527</v>
+      </c>
+      <c r="D135" s="12">
+        <v>1</v>
+      </c>
+      <c r="E135" s="12">
+        <v>1</v>
+      </c>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12">
         <v>100</v>
       </c>
     </row>
     <row r="136" spans="2:8">
       <c r="B136" s="13">
-        <v>101102</v>
+        <v>101101</v>
       </c>
       <c r="C136" s="13">
         <v>5001</v>
       </c>
       <c r="D136" s="13">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E136" s="13">
-        <v>200</v>
-      </c>
-      <c r="F136" s="13"/>
-      <c r="G136" s="13"/>
+        <v>100</v>
+      </c>
+      <c r="F136" s="13">
+        <v>17</v>
+      </c>
+      <c r="G136" s="13">
+        <v>1</v>
+      </c>
       <c r="H136" s="13">
         <v>100</v>
       </c>
     </row>
     <row r="137" spans="2:8">
       <c r="B137" s="13">
-        <v>101103</v>
+        <v>101102</v>
       </c>
       <c r="C137" s="13">
         <v>5001</v>
       </c>
       <c r="D137" s="13">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E137" s="13">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F137" s="13"/>
       <c r="G137" s="13"/>
@@ -4997,16 +5019,16 @@
     </row>
     <row r="138" spans="2:8">
       <c r="B138" s="13">
-        <v>101104</v>
+        <v>101103</v>
       </c>
       <c r="C138" s="13">
-        <v>2003</v>
+        <v>5001</v>
       </c>
       <c r="D138" s="13">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="E138" s="13">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="F138" s="13"/>
       <c r="G138" s="13"/>
@@ -5016,16 +5038,16 @@
     </row>
     <row r="139" spans="2:8">
       <c r="B139" s="13">
-        <v>101105</v>
+        <v>101104</v>
       </c>
       <c r="C139" s="13">
         <v>2003</v>
       </c>
       <c r="D139" s="13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E139" s="13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F139" s="13"/>
       <c r="G139" s="13"/>
@@ -5035,16 +5057,16 @@
     </row>
     <row r="140" spans="2:8">
       <c r="B140" s="13">
-        <v>101106</v>
+        <v>101105</v>
       </c>
       <c r="C140" s="13">
         <v>2003</v>
       </c>
       <c r="D140" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E140" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F140" s="13"/>
       <c r="G140" s="13"/>
@@ -5054,16 +5076,16 @@
     </row>
     <row r="141" spans="2:8">
       <c r="B141" s="13">
-        <v>101107</v>
+        <v>101106</v>
       </c>
       <c r="C141" s="13">
-        <v>500001</v>
+        <v>2003</v>
       </c>
       <c r="D141" s="13">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E141" s="13">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F141" s="13"/>
       <c r="G141" s="13"/>
@@ -5073,10 +5095,10 @@
     </row>
     <row r="142" spans="2:8">
       <c r="B142" s="13">
-        <v>101108</v>
+        <v>101107</v>
       </c>
       <c r="C142" s="13">
-        <v>500004</v>
+        <v>500001</v>
       </c>
       <c r="D142" s="13">
         <v>1</v>
@@ -5092,10 +5114,10 @@
     </row>
     <row r="143" spans="2:8">
       <c r="B143" s="13">
-        <v>101109</v>
+        <v>101108</v>
       </c>
       <c r="C143" s="13">
-        <v>500007</v>
+        <v>500004</v>
       </c>
       <c r="D143" s="13">
         <v>1</v>
@@ -5111,10 +5133,10 @@
     </row>
     <row r="144" spans="2:8">
       <c r="B144" s="13">
-        <v>101110</v>
+        <v>101109</v>
       </c>
       <c r="C144" s="13">
-        <v>500010</v>
+        <v>500007</v>
       </c>
       <c r="D144" s="13">
         <v>1</v>
@@ -5130,10 +5152,10 @@
     </row>
     <row r="145" spans="2:8">
       <c r="B145" s="13">
-        <v>101111</v>
+        <v>101110</v>
       </c>
       <c r="C145" s="13">
-        <v>500013</v>
+        <v>500010</v>
       </c>
       <c r="D145" s="13">
         <v>1</v>
@@ -5149,10 +5171,10 @@
     </row>
     <row r="146" spans="2:8">
       <c r="B146" s="13">
-        <v>101112</v>
+        <v>101111</v>
       </c>
       <c r="C146" s="13">
-        <v>500029</v>
+        <v>500013</v>
       </c>
       <c r="D146" s="13">
         <v>1</v>
@@ -5168,10 +5190,10 @@
     </row>
     <row r="147" spans="2:8">
       <c r="B147" s="13">
-        <v>101113</v>
+        <v>101112</v>
       </c>
       <c r="C147" s="13">
-        <v>500030</v>
+        <v>500029</v>
       </c>
       <c r="D147" s="13">
         <v>1</v>
@@ -5187,10 +5209,10 @@
     </row>
     <row r="148" spans="2:8">
       <c r="B148" s="13">
-        <v>101114</v>
+        <v>101113</v>
       </c>
       <c r="C148" s="13">
-        <v>500024</v>
+        <v>500030</v>
       </c>
       <c r="D148" s="13">
         <v>1</v>
@@ -5206,16 +5228,16 @@
     </row>
     <row r="149" spans="2:8">
       <c r="B149" s="13">
-        <v>101115</v>
+        <v>101114</v>
       </c>
       <c r="C149" s="13">
-        <v>6001</v>
+        <v>500024</v>
       </c>
       <c r="D149" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E149" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F149" s="13"/>
       <c r="G149" s="13"/>
@@ -5225,16 +5247,16 @@
     </row>
     <row r="150" spans="2:8">
       <c r="B150" s="13">
-        <v>101116</v>
+        <v>101115</v>
       </c>
       <c r="C150" s="13">
         <v>6001</v>
       </c>
       <c r="D150" s="13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E150" s="13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F150" s="13"/>
       <c r="G150" s="13"/>
@@ -5244,16 +5266,16 @@
     </row>
     <row r="151" spans="2:8">
       <c r="B151" s="13">
-        <v>101117</v>
+        <v>101116</v>
       </c>
       <c r="C151" s="13">
         <v>6001</v>
       </c>
       <c r="D151" s="13">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E151" s="13">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F151" s="13"/>
       <c r="G151" s="13"/>
@@ -5262,59 +5284,59 @@
       </c>
     </row>
     <row r="152" spans="2:8">
-      <c r="B152" s="14">
-        <v>101201</v>
-      </c>
-      <c r="C152" s="14">
-        <v>2003</v>
-      </c>
-      <c r="D152" s="14">
-        <v>25</v>
-      </c>
-      <c r="E152" s="14">
-        <v>25</v>
-      </c>
-      <c r="F152" s="14">
-        <v>17</v>
-      </c>
-      <c r="G152" s="14">
-        <v>1</v>
-      </c>
-      <c r="H152" s="14">
+      <c r="B152" s="13">
+        <v>101117</v>
+      </c>
+      <c r="C152" s="13">
+        <v>6001</v>
+      </c>
+      <c r="D152" s="13">
+        <v>50</v>
+      </c>
+      <c r="E152" s="13">
+        <v>50</v>
+      </c>
+      <c r="F152" s="13"/>
+      <c r="G152" s="13"/>
+      <c r="H152" s="13">
         <v>100</v>
       </c>
     </row>
     <row r="153" spans="2:8">
       <c r="B153" s="14">
-        <v>101202</v>
+        <v>101201</v>
       </c>
       <c r="C153" s="14">
         <v>2003</v>
       </c>
       <c r="D153" s="14">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E153" s="14">
-        <v>50</v>
-      </c>
-      <c r="F153" s="14"/>
-      <c r="G153" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="F153" s="14">
+        <v>17</v>
+      </c>
+      <c r="G153" s="14">
+        <v>1</v>
+      </c>
       <c r="H153" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="154" spans="2:8">
       <c r="B154" s="14">
-        <v>101203</v>
+        <v>101202</v>
       </c>
       <c r="C154" s="14">
         <v>2003</v>
       </c>
       <c r="D154" s="14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E154" s="14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F154" s="14"/>
       <c r="G154" s="14"/>
@@ -5324,16 +5346,16 @@
     </row>
     <row r="155" spans="2:8">
       <c r="B155" s="14">
-        <v>101204</v>
+        <v>101203</v>
       </c>
       <c r="C155" s="14">
-        <v>6001</v>
+        <v>2003</v>
       </c>
       <c r="D155" s="14">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E155" s="14">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F155" s="14"/>
       <c r="G155" s="14"/>
@@ -5343,16 +5365,16 @@
     </row>
     <row r="156" spans="2:8">
       <c r="B156" s="14">
-        <v>101205</v>
+        <v>101204</v>
       </c>
       <c r="C156" s="14">
         <v>6001</v>
       </c>
       <c r="D156" s="14">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E156" s="14">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F156" s="14"/>
       <c r="G156" s="14"/>
@@ -5362,16 +5384,16 @@
     </row>
     <row r="157" spans="2:8">
       <c r="B157" s="14">
-        <v>101206</v>
+        <v>101205</v>
       </c>
       <c r="C157" s="14">
         <v>6001</v>
       </c>
       <c r="D157" s="14">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E157" s="14">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F157" s="14"/>
       <c r="G157" s="14"/>
@@ -5381,16 +5403,16 @@
     </row>
     <row r="158" spans="2:8">
       <c r="B158" s="14">
-        <v>101207</v>
+        <v>101206</v>
       </c>
       <c r="C158" s="14">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="D158" s="14">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E158" s="14">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F158" s="14"/>
       <c r="G158" s="14"/>
@@ -5400,16 +5422,16 @@
     </row>
     <row r="159" spans="2:8">
       <c r="B159" s="14">
-        <v>101208</v>
+        <v>101207</v>
       </c>
       <c r="C159" s="14">
         <v>5001</v>
       </c>
       <c r="D159" s="14">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E159" s="14">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F159" s="14"/>
       <c r="G159" s="14"/>
@@ -5419,16 +5441,16 @@
     </row>
     <row r="160" spans="2:8">
       <c r="B160" s="14">
-        <v>101209</v>
+        <v>101208</v>
       </c>
       <c r="C160" s="14">
         <v>5001</v>
       </c>
       <c r="D160" s="14">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="E160" s="14">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="F160" s="14"/>
       <c r="G160" s="14"/>
@@ -5438,16 +5460,16 @@
     </row>
     <row r="161" spans="2:8">
       <c r="B161" s="14">
-        <v>101210</v>
+        <v>101209</v>
       </c>
       <c r="C161" s="14">
-        <v>500014</v>
+        <v>5001</v>
       </c>
       <c r="D161" s="14">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="E161" s="14">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="F161" s="14"/>
       <c r="G161" s="14"/>
@@ -5457,10 +5479,10 @@
     </row>
     <row r="162" spans="2:8">
       <c r="B162" s="14">
-        <v>101211</v>
+        <v>101210</v>
       </c>
       <c r="C162" s="14">
-        <v>500011</v>
+        <v>500014</v>
       </c>
       <c r="D162" s="14">
         <v>1</v>
@@ -5476,10 +5498,10 @@
     </row>
     <row r="163" spans="2:8">
       <c r="B163" s="14">
-        <v>101212</v>
+        <v>101211</v>
       </c>
       <c r="C163" s="14">
-        <v>500020</v>
+        <v>500011</v>
       </c>
       <c r="D163" s="14">
         <v>1</v>
@@ -5495,10 +5517,10 @@
     </row>
     <row r="164" spans="2:8">
       <c r="B164" s="14">
-        <v>101213</v>
+        <v>101212</v>
       </c>
       <c r="C164" s="14">
-        <v>500017</v>
+        <v>500020</v>
       </c>
       <c r="D164" s="14">
         <v>1</v>
@@ -5514,10 +5536,10 @@
     </row>
     <row r="165" spans="2:8">
       <c r="B165" s="14">
-        <v>101214</v>
+        <v>101213</v>
       </c>
       <c r="C165" s="14">
-        <v>500018</v>
+        <v>500017</v>
       </c>
       <c r="D165" s="14">
         <v>1</v>
@@ -5533,10 +5555,10 @@
     </row>
     <row r="166" spans="2:8">
       <c r="B166" s="14">
-        <v>101215</v>
+        <v>101214</v>
       </c>
       <c r="C166" s="14">
-        <v>500019</v>
+        <v>500018</v>
       </c>
       <c r="D166" s="14">
         <v>1</v>
@@ -5552,10 +5574,10 @@
     </row>
     <row r="167" spans="2:8">
       <c r="B167" s="14">
-        <v>101216</v>
+        <v>101215</v>
       </c>
       <c r="C167" s="14">
-        <v>500027</v>
+        <v>500019</v>
       </c>
       <c r="D167" s="14">
         <v>1</v>
@@ -5571,10 +5593,10 @@
     </row>
     <row r="168" spans="2:8">
       <c r="B168" s="14">
-        <v>101217</v>
+        <v>101216</v>
       </c>
       <c r="C168" s="14">
-        <v>500028</v>
+        <v>500027</v>
       </c>
       <c r="D168" s="14">
         <v>1</v>
@@ -5589,112 +5611,111 @@
       </c>
     </row>
     <row r="169" spans="2:8">
-      <c r="B169" s="7"/>
-      <c r="C169" s="7"/>
-      <c r="D169" s="7"/>
-      <c r="E169" s="7"/>
-      <c r="F169" s="7"/>
-      <c r="G169" s="7"/>
-      <c r="H169" s="7"/>
-    </row>
-    <row r="170" spans="2:2">
+      <c r="B169" s="14">
+        <v>101217</v>
+      </c>
+      <c r="C169" s="14">
+        <v>500028</v>
+      </c>
+      <c r="D169" s="14">
+        <v>1</v>
+      </c>
+      <c r="E169" s="14">
+        <v>1</v>
+      </c>
+      <c r="F169" s="14"/>
+      <c r="G169" s="14"/>
+      <c r="H169" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8">
       <c r="B170" s="7"/>
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="7"/>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" s="7"/>
     </row>
-    <row r="173" spans="1:7">
-      <c r="A173" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B173" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D173" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E173" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F173" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G173" s="6" t="s">
-        <v>40</v>
-      </c>
+    <row r="172" spans="2:2">
+      <c r="B172" s="7"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G174" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B175" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C174" s="6" t="s">
+      <c r="C175" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D174" s="6" t="s">
+      <c r="D175" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E174" s="6" t="s">
+      <c r="E175" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F174" s="6" t="s">
+      <c r="F175" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G174" s="6" t="s">
+      <c r="G175" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="175" spans="2:7">
-      <c r="B175" s="6" t="s">
+    <row r="176" spans="2:7">
+      <c r="B176" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C175" s="6" t="s">
+      <c r="C176" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D175" s="6" t="s">
+      <c r="D176" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E175" s="6" t="s">
+      <c r="E176" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F175" s="6" t="s">
+      <c r="F176" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G175" s="6" t="s">
+      <c r="G176" s="6" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="176" spans="2:7">
-      <c r="B176" s="7">
-        <v>401101</v>
-      </c>
-      <c r="C176" s="5">
-        <v>322000001</v>
-      </c>
-      <c r="D176" s="7">
-        <v>1</v>
-      </c>
-      <c r="E176" s="7">
-        <v>1</v>
-      </c>
-      <c r="F176" s="7">
-        <v>5</v>
-      </c>
-      <c r="G176" s="7">
-        <v>1250</v>
       </c>
     </row>
     <row r="177" spans="2:7">
       <c r="B177" s="7">
-        <v>401102</v>
-      </c>
-      <c r="C177" s="7">
-        <v>410101</v>
+        <v>401101</v>
+      </c>
+      <c r="C177" s="5">
+        <v>322000001</v>
       </c>
       <c r="D177" s="7">
         <v>1</v>
@@ -5702,17 +5723,19 @@
       <c r="E177" s="7">
         <v>1</v>
       </c>
-      <c r="F177" s="7"/>
+      <c r="F177" s="7">
+        <v>5</v>
+      </c>
       <c r="G177" s="7">
-        <v>3000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="178" spans="2:7">
       <c r="B178" s="7">
-        <v>401103</v>
+        <v>401102</v>
       </c>
       <c r="C178" s="7">
-        <v>310101</v>
+        <v>410101</v>
       </c>
       <c r="D178" s="7">
         <v>1</v>
@@ -5722,1090 +5745,1187 @@
       </c>
       <c r="F178" s="7"/>
       <c r="G178" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7">
+      <c r="B179" s="7">
+        <v>401103</v>
+      </c>
+      <c r="C179" s="7">
+        <v>310101</v>
+      </c>
+      <c r="D179" s="7">
+        <v>1</v>
+      </c>
+      <c r="E179" s="7">
+        <v>1</v>
+      </c>
+      <c r="F179" s="7"/>
+      <c r="G179" s="7">
         <v>1250</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
-      <c r="A182" s="1" t="s">
+    <row r="183" spans="1:11">
+      <c r="A183" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B183" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C183" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D183" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E182" s="1" t="s">
+      <c r="E183" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F182" s="1" t="s">
+      <c r="F183" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G182" s="1" t="s">
+      <c r="G183" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H182" s="1" t="s">
+      <c r="H183" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I182" s="1" t="s">
+      <c r="I183" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J182" s="1" t="s">
+      <c r="J183" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="183" spans="1:10">
-      <c r="A183" s="1" t="s">
+      <c r="K183" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B183" s="1" t="s">
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C183" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D183" s="1" t="s">
+      <c r="C184" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D184" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E183" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F183" s="1" t="s">
+      <c r="E184" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G183" s="1" t="s">
+      <c r="F184" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H183" s="1" t="s">
+      <c r="G184" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I183" s="1" t="s">
+      <c r="H184" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J183" s="1" t="s">
+      <c r="I184" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="184" spans="2:10">
-      <c r="B184" s="1" t="s">
+      <c r="J184" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K184" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="185" spans="2:11">
+      <c r="B185" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C185" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D185" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G184" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H184" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I184" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J184" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="185" ht="42" customHeight="1" spans="2:14">
-      <c r="B185" s="1">
-        <v>500001</v>
-      </c>
-      <c r="C185" s="1">
-        <v>1</v>
-      </c>
-      <c r="D185" s="1">
-        <v>7</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F185" s="1">
+      <c r="F185" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K185" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="186" ht="42" customHeight="1" spans="2:14">
+      <c r="B186" s="1">
+        <v>500001</v>
+      </c>
+      <c r="C186" s="1">
+        <v>1</v>
+      </c>
+      <c r="D186" s="1">
+        <v>99</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F186" s="1">
         <v>19.9</v>
       </c>
-      <c r="G185" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H185" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I185" s="15" t="s">
+      <c r="G186" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="J185" s="15">
-        <v>1</v>
-      </c>
-      <c r="L185" s="15"/>
-      <c r="N185" s="15"/>
-    </row>
-    <row r="186" ht="32" customHeight="1" spans="2:10">
-      <c r="B186" s="1">
+      <c r="H186" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I186" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J186" s="15">
+        <v>1</v>
+      </c>
+      <c r="K186" s="1">
+        <v>500001</v>
+      </c>
+      <c r="L186" s="15"/>
+      <c r="N186" s="15"/>
+    </row>
+    <row r="187" ht="32" customHeight="1" spans="2:11">
+      <c r="B187" s="1">
         <v>500002</v>
       </c>
-      <c r="C186" s="1">
-        <v>1</v>
-      </c>
-      <c r="D186" s="1">
-        <v>33</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F186" s="1">
+      <c r="C187" s="1">
+        <v>1</v>
+      </c>
+      <c r="D187" s="1">
+        <v>680</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F187" s="1">
         <v>99</v>
       </c>
-      <c r="G186" s="15" t="s">
+      <c r="G187" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H187" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I187" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="H186" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I186" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="J186" s="1">
+      <c r="J187" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="187" ht="32" customHeight="1" spans="2:18">
-      <c r="B187" s="1">
+      <c r="K187" s="1">
+        <v>500002</v>
+      </c>
+    </row>
+    <row r="188" ht="32" customHeight="1" spans="2:18">
+      <c r="B188" s="1">
         <v>500003</v>
       </c>
-      <c r="C187" s="1">
-        <v>1</v>
-      </c>
-      <c r="D187" s="1">
-        <v>16</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F187" s="1">
+      <c r="C188" s="1">
+        <v>1</v>
+      </c>
+      <c r="D188" s="1">
+        <v>580</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F188" s="1">
         <v>48</v>
       </c>
-      <c r="G187" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H187" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="I187" s="15" t="s">
+      <c r="G188" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="J187" s="1">
+      <c r="H188" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I188" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J188" s="1">
         <v>2</v>
       </c>
-      <c r="R187" s="15"/>
-    </row>
-    <row r="188" ht="32" customHeight="1" spans="2:10">
-      <c r="B188" s="1">
+      <c r="K188" s="1">
+        <v>500003</v>
+      </c>
+      <c r="R188" s="15"/>
+    </row>
+    <row r="189" ht="32" customHeight="1" spans="2:11">
+      <c r="B189" s="1">
         <v>500004</v>
       </c>
-      <c r="C188" s="1">
-        <v>1</v>
-      </c>
-      <c r="D188" s="1">
-        <v>7</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F188" s="1">
+      <c r="C189" s="1">
+        <v>1</v>
+      </c>
+      <c r="D189" s="1">
+        <v>198</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F189" s="1">
         <v>19.8</v>
       </c>
-      <c r="G188" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H188" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I188" s="15" t="s">
+      <c r="G189" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="J188" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" ht="32" customHeight="1" spans="2:10">
-      <c r="B189" s="1">
+      <c r="H189" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I189" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J189" s="1">
+        <v>1</v>
+      </c>
+      <c r="K189" s="1">
+        <v>500004</v>
+      </c>
+    </row>
+    <row r="190" ht="32" customHeight="1" spans="2:11">
+      <c r="B190" s="1">
         <v>500005</v>
       </c>
-      <c r="C189" s="1">
-        <v>1</v>
-      </c>
-      <c r="D189" s="1">
-        <v>20</v>
-      </c>
-      <c r="E189" s="1" t="s">
+      <c r="C190" s="1">
+        <v>1</v>
+      </c>
+      <c r="D190" s="1">
+        <v>580</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F190" s="1">
+        <v>58</v>
+      </c>
+      <c r="G190" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H190" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="F189" s="1">
-        <v>58</v>
-      </c>
-      <c r="G189" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H189" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I189" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="J189" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="190" ht="32" customHeight="1" spans="2:10">
-      <c r="B190" s="1">
-        <v>500006</v>
-      </c>
-      <c r="C190" s="1">
-        <v>1</v>
-      </c>
-      <c r="D190" s="1">
-        <v>66</v>
-      </c>
-      <c r="E190" s="1" t="s">
+      <c r="I190" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="F190" s="1">
-        <v>198</v>
-      </c>
-      <c r="G190" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H190" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I190" s="15" t="s">
-        <v>77</v>
       </c>
       <c r="J190" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="191" ht="32" customHeight="1" spans="2:10">
+      <c r="K190" s="1">
+        <v>500005</v>
+      </c>
+    </row>
+    <row r="191" ht="32" customHeight="1" spans="2:11">
       <c r="B191" s="1">
+        <v>500006</v>
+      </c>
+      <c r="C191" s="1">
+        <v>1</v>
+      </c>
+      <c r="D191" s="1">
+        <v>1980</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F191" s="1">
+        <v>198</v>
+      </c>
+      <c r="G191" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H191" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I191" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J191" s="1">
+        <v>3</v>
+      </c>
+      <c r="K191" s="1">
+        <v>500006</v>
+      </c>
+    </row>
+    <row r="192" ht="32" customHeight="1" spans="2:11">
+      <c r="B192" s="1">
         <v>500007</v>
       </c>
-      <c r="C191" s="1">
-        <v>1</v>
-      </c>
-      <c r="D191" s="1">
-        <v>7</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F191" s="1">
+      <c r="C192" s="1">
+        <v>1</v>
+      </c>
+      <c r="D192" s="1">
+        <v>150</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F192" s="1">
         <v>20</v>
       </c>
-      <c r="G191" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H191" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I191" s="15" t="s">
+      <c r="G192" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J191" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" ht="32" customHeight="1" spans="2:10">
-      <c r="B192" s="1">
+      <c r="H192" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I192" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J192" s="1">
+        <v>1</v>
+      </c>
+      <c r="K192" s="1">
+        <v>500007</v>
+      </c>
+    </row>
+    <row r="193" ht="32" customHeight="1" spans="2:11">
+      <c r="B193" s="1">
         <v>500008</v>
       </c>
-      <c r="C192" s="1">
-        <v>1</v>
-      </c>
-      <c r="D192" s="1">
+      <c r="C193" s="1">
+        <v>1</v>
+      </c>
+      <c r="D193" s="1">
+        <v>580</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F193" s="1">
+        <v>56</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H193" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I193" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J193" s="1">
+        <v>2</v>
+      </c>
+      <c r="K193" s="1">
+        <v>500008</v>
+      </c>
+    </row>
+    <row r="194" ht="32" customHeight="1" spans="2:11">
+      <c r="B194" s="1">
+        <v>500009</v>
+      </c>
+      <c r="C194" s="1">
+        <v>1</v>
+      </c>
+      <c r="D194" s="1">
+        <v>2280</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F194" s="1">
+        <v>198</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H194" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I194" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J194" s="1">
+        <v>3</v>
+      </c>
+      <c r="K194" s="1">
+        <v>500009</v>
+      </c>
+    </row>
+    <row r="195" ht="32" customHeight="1" spans="2:11">
+      <c r="B195" s="1">
+        <v>500010</v>
+      </c>
+      <c r="C195" s="1">
+        <v>1</v>
+      </c>
+      <c r="D195" s="1">
+        <v>190</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F195" s="1">
         <v>20</v>
       </c>
-      <c r="E192" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F192" s="1">
-        <v>56</v>
-      </c>
-      <c r="G192" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H192" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I192" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="J192" s="1">
+      <c r="G195" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H195" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I195" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="J195" s="1">
+        <v>1</v>
+      </c>
+      <c r="K195" s="1">
+        <v>500010</v>
+      </c>
+    </row>
+    <row r="196" ht="32" customHeight="1" spans="2:11">
+      <c r="B196" s="1">
+        <v>500011</v>
+      </c>
+      <c r="C196" s="1">
+        <v>1</v>
+      </c>
+      <c r="D196" s="1">
+        <v>580</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F196" s="1">
+        <v>58</v>
+      </c>
+      <c r="G196" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H196" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I196" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="J196" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" ht="32" customHeight="1" spans="2:10">
-      <c r="B193" s="1">
-        <v>500009</v>
-      </c>
-      <c r="C193" s="1">
-        <v>1</v>
-      </c>
-      <c r="D193" s="1">
-        <v>66</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F193" s="1">
+      <c r="K196" s="1">
+        <v>500011</v>
+      </c>
+    </row>
+    <row r="197" ht="32" customHeight="1" spans="2:11">
+      <c r="B197" s="1">
+        <v>500012</v>
+      </c>
+      <c r="C197" s="1">
+        <v>1</v>
+      </c>
+      <c r="D197" s="1">
+        <v>2230</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F197" s="1">
         <v>198</v>
       </c>
-      <c r="G193" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H193" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I193" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="J193" s="1">
+      <c r="G197" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H197" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I197" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="J197" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="194" ht="32" customHeight="1" spans="2:10">
-      <c r="B194" s="1">
-        <v>500010</v>
-      </c>
-      <c r="C194" s="1">
-        <v>1</v>
-      </c>
-      <c r="D194" s="1">
-        <v>7</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F194" s="1">
-        <v>20</v>
-      </c>
-      <c r="G194" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H194" s="15" t="s">
+      <c r="K197" s="1">
+        <v>500012</v>
+      </c>
+    </row>
+    <row r="198" ht="32" customHeight="1" spans="2:11">
+      <c r="B198" s="1">
+        <v>500013</v>
+      </c>
+      <c r="C198" s="1">
+        <v>1</v>
+      </c>
+      <c r="D198" s="1">
+        <v>120</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F198" s="1">
+        <v>8</v>
+      </c>
+      <c r="G198" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H198" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I198" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="J198" s="1">
+        <v>1</v>
+      </c>
+      <c r="K198" s="1">
+        <v>500013</v>
+      </c>
+    </row>
+    <row r="199" ht="32" customHeight="1" spans="2:11">
+      <c r="B199" s="1">
+        <v>500014</v>
+      </c>
+      <c r="C199" s="1">
+        <v>1</v>
+      </c>
+      <c r="D199" s="1">
+        <v>680</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F199" s="1">
+        <v>48</v>
+      </c>
+      <c r="G199" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H199" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I199" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="J199" s="1">
+        <v>2</v>
+      </c>
+      <c r="K199" s="1">
+        <v>500014</v>
+      </c>
+    </row>
+    <row r="200" ht="32" customHeight="1" spans="2:11">
+      <c r="B200" s="1">
+        <v>500015</v>
+      </c>
+      <c r="C200" s="1">
+        <v>1</v>
+      </c>
+      <c r="D200" s="1">
+        <v>1280</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F200" s="1">
         <v>88</v>
       </c>
-      <c r="I194" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="J194" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" ht="32" customHeight="1" spans="2:10">
-      <c r="B195" s="1">
-        <v>500011</v>
-      </c>
-      <c r="C195" s="1">
-        <v>1</v>
-      </c>
-      <c r="D195" s="1">
-        <v>20</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F195" s="1">
-        <v>58</v>
-      </c>
-      <c r="G195" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H195" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="I195" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="J195" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196" ht="32" customHeight="1" spans="2:10">
-      <c r="B196" s="1">
-        <v>500012</v>
-      </c>
-      <c r="C196" s="1">
-        <v>1</v>
-      </c>
-      <c r="D196" s="1">
-        <v>66</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F196" s="1">
-        <v>198</v>
-      </c>
-      <c r="G196" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H196" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="I196" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="J196" s="1">
+      <c r="G200" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H200" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I200" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="J200" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="197" ht="32" customHeight="1" spans="2:10">
-      <c r="B197" s="1">
-        <v>500013</v>
-      </c>
-      <c r="C197" s="1">
-        <v>1</v>
-      </c>
-      <c r="D197" s="1">
-        <v>3</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F197" s="1">
-        <v>8</v>
-      </c>
-      <c r="G197" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="H197" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I197" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="J197" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" ht="32" customHeight="1" spans="2:10">
-      <c r="B198" s="1">
-        <v>500014</v>
-      </c>
-      <c r="C198" s="1">
-        <v>1</v>
-      </c>
-      <c r="D198" s="1">
-        <v>16</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F198" s="1">
-        <v>48</v>
-      </c>
-      <c r="G198" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="H198" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I198" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="J198" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" ht="32" customHeight="1" spans="2:10">
-      <c r="B199" s="1">
+      <c r="K200" s="1">
         <v>500015</v>
       </c>
-      <c r="C199" s="1">
-        <v>1</v>
-      </c>
-      <c r="D199" s="1">
-        <v>30</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F199" s="1">
-        <v>88</v>
-      </c>
-      <c r="G199" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="H199" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I199" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="J199" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" ht="32" customHeight="1" spans="2:10">
-      <c r="B200" s="1">
+    </row>
+    <row r="201" ht="32" customHeight="1" spans="2:11">
+      <c r="B201" s="1">
         <v>500016</v>
       </c>
-      <c r="C200" s="1">
-        <v>1</v>
-      </c>
-      <c r="D200" s="1">
-        <v>12</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F200" s="1">
+      <c r="C201" s="1">
+        <v>1</v>
+      </c>
+      <c r="D201" s="1">
+        <v>350</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F201" s="1">
         <v>35</v>
       </c>
-      <c r="G200" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="H200" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="I200" s="15" t="s">
+      <c r="G201" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="J200" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" ht="32" customHeight="1" spans="2:10">
-      <c r="B201" s="1">
-        <v>500017</v>
-      </c>
-      <c r="C201" s="1">
-        <v>1</v>
-      </c>
-      <c r="D201" s="1">
-        <v>17</v>
-      </c>
-      <c r="E201" s="1" t="s">
+      <c r="H201" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="F201" s="1">
-        <v>50</v>
-      </c>
-      <c r="G201" s="1" t="s">
+      <c r="I201" s="15" t="s">
         <v>103</v>
-      </c>
-      <c r="H201" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="I201" s="15" t="s">
-        <v>105</v>
       </c>
       <c r="J201" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="202" ht="32" customHeight="1" spans="2:10">
+      <c r="K201" s="1">
+        <v>500016</v>
+      </c>
+    </row>
+    <row r="202" ht="32" customHeight="1" spans="2:11">
       <c r="B202" s="1">
-        <v>500018</v>
+        <v>500017</v>
       </c>
       <c r="C202" s="1">
         <v>1</v>
       </c>
       <c r="D202" s="1">
-        <v>17</v>
+        <v>500</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F202" s="1">
         <v>50</v>
       </c>
       <c r="G202" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H202" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I202" s="15" t="s">
         <v>107</v>
-      </c>
-      <c r="H202" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="I202" s="15" t="s">
-        <v>109</v>
       </c>
       <c r="J202" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="203" ht="32" customHeight="1" spans="2:10">
+      <c r="K202" s="1">
+        <v>500017</v>
+      </c>
+    </row>
+    <row r="203" ht="32" customHeight="1" spans="2:11">
       <c r="B203" s="1">
-        <v>500019</v>
+        <v>500018</v>
       </c>
       <c r="C203" s="1">
         <v>1</v>
       </c>
       <c r="D203" s="1">
-        <v>17</v>
+        <v>500</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F203" s="1">
         <v>50</v>
       </c>
       <c r="G203" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H203" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I203" s="15" t="s">
         <v>111</v>
-      </c>
-      <c r="H203" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="I203" s="15" t="s">
-        <v>113</v>
       </c>
       <c r="J203" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="204" ht="32" customHeight="1" spans="2:10">
+      <c r="K203" s="1">
+        <v>500018</v>
+      </c>
+    </row>
+    <row r="204" ht="32" customHeight="1" spans="2:11">
       <c r="B204" s="1">
-        <v>500020</v>
+        <v>500019</v>
       </c>
       <c r="C204" s="1">
         <v>1</v>
       </c>
       <c r="D204" s="1">
-        <v>17</v>
+        <v>500</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F204" s="1">
         <v>50</v>
       </c>
-      <c r="G204" s="15" t="s">
+      <c r="G204" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H204" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I204" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="H204" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="I204" s="15" t="s">
-        <v>117</v>
       </c>
       <c r="J204" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="205" ht="32" customHeight="1" spans="2:10">
+      <c r="K204" s="1">
+        <v>500019</v>
+      </c>
+    </row>
+    <row r="205" ht="32" customHeight="1" spans="2:11">
       <c r="B205" s="1">
+        <v>500020</v>
+      </c>
+      <c r="C205" s="1">
+        <v>1</v>
+      </c>
+      <c r="D205" s="1">
+        <v>500</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F205" s="1">
+        <v>50</v>
+      </c>
+      <c r="G205" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H205" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="I205" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J205" s="1">
+        <v>2</v>
+      </c>
+      <c r="K205" s="1">
+        <v>500020</v>
+      </c>
+    </row>
+    <row r="206" ht="32" customHeight="1" spans="2:11">
+      <c r="B206" s="1">
         <v>500021</v>
       </c>
-      <c r="C205" s="1">
-        <v>1</v>
-      </c>
-      <c r="D205" s="1">
-        <v>34</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F205" s="1">
-        <v>100</v>
-      </c>
-      <c r="G205" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="H205" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="I205" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="J205" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="206" ht="32" customHeight="1" spans="2:10">
-      <c r="B206" s="1">
-        <v>500022</v>
-      </c>
       <c r="C206" s="1">
         <v>1</v>
       </c>
       <c r="D206" s="1">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>120</v>
       </c>
       <c r="F206" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G206" s="15" t="s">
         <v>121</v>
       </c>
       <c r="H206" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="I206" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J206" s="1">
+        <v>3</v>
+      </c>
+      <c r="K206" s="1">
+        <v>500021</v>
+      </c>
+    </row>
+    <row r="207" ht="32" customHeight="1" spans="2:11">
+      <c r="B207" s="1">
+        <v>500022</v>
+      </c>
+      <c r="C207" s="1">
+        <v>1</v>
+      </c>
+      <c r="D207" s="1">
+        <v>500</v>
+      </c>
+      <c r="E207" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="I206" s="15" t="s">
+      <c r="F207" s="1">
+        <v>50</v>
+      </c>
+      <c r="G207" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="J206" s="1">
+      <c r="H207" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I207" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="J207" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="207" ht="32" customHeight="1" spans="2:10">
-      <c r="B207" s="1">
+      <c r="K207" s="1">
+        <v>500022</v>
+      </c>
+    </row>
+    <row r="208" ht="32" customHeight="1" spans="2:11">
+      <c r="B208" s="1">
         <v>500023</v>
       </c>
-      <c r="C207" s="1">
-        <v>1</v>
-      </c>
-      <c r="D207" s="1">
-        <v>34</v>
-      </c>
-      <c r="E207" s="1" t="s">
+      <c r="C208" s="1">
+        <v>1</v>
+      </c>
+      <c r="D208" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F208" s="1">
+        <v>100</v>
+      </c>
+      <c r="G208" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H208" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="F207" s="1">
-        <v>100</v>
-      </c>
-      <c r="G207" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="H207" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="I207" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="J207" s="1">
+      <c r="I208" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="J208" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="208" ht="32" customHeight="1" spans="2:10">
-      <c r="B208" s="1">
+      <c r="K208" s="1">
+        <v>500023</v>
+      </c>
+    </row>
+    <row r="209" ht="32" customHeight="1" spans="2:11">
+      <c r="B209" s="1">
         <v>500024</v>
       </c>
-      <c r="C208" s="1">
-        <v>1</v>
-      </c>
-      <c r="D208" s="1">
-        <v>7</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F208" s="1">
+      <c r="C209" s="1">
+        <v>1</v>
+      </c>
+      <c r="D209" s="1">
+        <v>180</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F209" s="1">
         <v>18</v>
       </c>
-      <c r="G208" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H208" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="I208" s="15" t="s">
+      <c r="G209" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="J208" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" ht="32" customHeight="1" spans="2:10">
-      <c r="B209" s="1">
+      <c r="H209" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="I209" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J209" s="1">
+        <v>1</v>
+      </c>
+      <c r="K209" s="1">
+        <v>500024</v>
+      </c>
+    </row>
+    <row r="210" ht="32" customHeight="1" spans="2:11">
+      <c r="B210" s="1">
         <v>500025</v>
       </c>
-      <c r="C209" s="1">
-        <v>1</v>
-      </c>
-      <c r="D209" s="1">
-        <v>20</v>
-      </c>
-      <c r="E209" s="1" t="s">
+      <c r="C210" s="1">
+        <v>1</v>
+      </c>
+      <c r="D210" s="1">
+        <v>540</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F210" s="1">
+        <v>54</v>
+      </c>
+      <c r="G210" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H210" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="F209" s="1">
-        <v>54</v>
-      </c>
-      <c r="G209" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H209" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="I209" s="15" t="s">
+      <c r="I210" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J210" s="1">
+        <v>2</v>
+      </c>
+      <c r="K210" s="1">
+        <v>500025</v>
+      </c>
+    </row>
+    <row r="211" ht="32" customHeight="1" spans="2:11">
+      <c r="B211" s="1">
+        <v>500026</v>
+      </c>
+      <c r="C211" s="1">
+        <v>1</v>
+      </c>
+      <c r="D211" s="1">
+        <v>2160</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F211" s="1">
+        <v>216</v>
+      </c>
+      <c r="G211" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="J209" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="210" ht="32" customHeight="1" spans="2:10">
-      <c r="B210" s="1">
+      <c r="H211" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="I211" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J211" s="1">
+        <v>3</v>
+      </c>
+      <c r="K211" s="1">
         <v>500026</v>
       </c>
-      <c r="C210" s="1">
-        <v>1</v>
-      </c>
-      <c r="D210" s="1">
-        <v>66</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F210" s="1">
-        <v>216</v>
-      </c>
-      <c r="G210" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H210" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="I210" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="J210" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="211" ht="32" customHeight="1" spans="2:10">
-      <c r="B211" s="1">
+    </row>
+    <row r="212" ht="32" customHeight="1" spans="2:11">
+      <c r="B212" s="1">
         <v>500027</v>
       </c>
-      <c r="C211" s="1">
-        <v>1</v>
-      </c>
-      <c r="D211" s="1">
-        <v>10</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F211" s="1">
-        <v>30</v>
-      </c>
-      <c r="G211" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H211" s="15" t="s">
+      <c r="C212" s="1">
+        <v>1</v>
+      </c>
+      <c r="D212" s="1">
+        <v>300</v>
+      </c>
+      <c r="E212" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="I211" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="J211" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212" ht="32" customHeight="1" spans="2:10">
-      <c r="B212" s="1">
-        <v>500028</v>
-      </c>
-      <c r="C212" s="1">
-        <v>1</v>
-      </c>
-      <c r="D212" s="1">
-        <v>10</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="F212" s="1">
         <v>30</v>
       </c>
       <c r="G212" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H212" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="I212" s="15" t="s">
         <v>136</v>
-      </c>
-      <c r="H212" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="I212" s="15" t="s">
-        <v>138</v>
       </c>
       <c r="J212" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="213" ht="32" customHeight="1" spans="2:10">
+      <c r="K212" s="1">
+        <v>500027</v>
+      </c>
+    </row>
+    <row r="213" ht="32" customHeight="1" spans="2:11">
       <c r="B213" s="1">
+        <v>500028</v>
+      </c>
+      <c r="C213" s="1">
+        <v>1</v>
+      </c>
+      <c r="D213" s="1">
+        <v>300</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F213" s="1">
+        <v>30</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H213" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="I213" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J213" s="1">
+        <v>2</v>
+      </c>
+      <c r="K213" s="1">
+        <v>500028</v>
+      </c>
+    </row>
+    <row r="214" ht="32" customHeight="1" spans="2:11">
+      <c r="B214" s="1">
         <v>500029</v>
       </c>
-      <c r="C213" s="1">
-        <v>1</v>
-      </c>
-      <c r="D213" s="1">
-        <v>4</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F213" s="1">
-        <v>10</v>
-      </c>
-      <c r="G213" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="H213" s="1" t="s">
+      <c r="C214" s="1">
+        <v>1</v>
+      </c>
+      <c r="D214" s="1">
+        <v>100</v>
+      </c>
+      <c r="E214" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="I213" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="J213" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" ht="32" customHeight="1" spans="2:10">
-      <c r="B214" s="1">
-        <v>500030</v>
-      </c>
-      <c r="C214" s="1">
-        <v>1</v>
-      </c>
-      <c r="D214" s="1">
-        <v>4</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="F214" s="1">
         <v>10</v>
       </c>
       <c r="G214" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I214" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="H214" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I214" s="15" t="s">
-        <v>142</v>
-      </c>
       <c r="J214" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" ht="32" customHeight="1" spans="6:6">
-      <c r="F215" s="15"/>
+      <c r="K214" s="1">
+        <v>500029</v>
+      </c>
+    </row>
+    <row r="215" ht="32" customHeight="1" spans="2:11">
+      <c r="B215" s="1">
+        <v>500030</v>
+      </c>
+      <c r="C215" s="1">
+        <v>1</v>
+      </c>
+      <c r="D215" s="1">
+        <v>100</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F215" s="1">
+        <v>10</v>
+      </c>
+      <c r="G215" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I215" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J215" s="1">
+        <v>1</v>
+      </c>
+      <c r="K215" s="1">
+        <v>500030</v>
+      </c>
     </row>
     <row r="216" ht="32" customHeight="1" spans="6:6">
       <c r="F216" s="15"/>
     </row>
-    <row r="219" spans="1:6">
-      <c r="A219" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F219" s="1" t="s">
-        <v>147</v>
-      </c>
+    <row r="217" ht="32" customHeight="1" spans="6:6">
+      <c r="F217" s="15"/>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="C220" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="C221" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D220" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E220" s="1" t="s">
+      <c r="D221" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E221" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F220" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="221" spans="2:6">
-      <c r="B221" s="1" t="s">
+      <c r="F221" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6">
+      <c r="B222" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="C222" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D221" s="1" t="s">
+      <c r="D222" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E221" s="1" t="s">
+      <c r="E222" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F221" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="222" spans="2:6">
-      <c r="B222" s="1">
-        <v>600101</v>
-      </c>
-      <c r="C222" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D222" s="1">
-        <v>2</v>
-      </c>
-      <c r="E222" s="1">
-        <v>1</v>
-      </c>
       <c r="F222" s="1" t="s">
-        <v>149</v>
+        <v>63</v>
       </c>
     </row>
     <row r="223" spans="2:6">
       <c r="B223" s="1">
+        <v>600101</v>
+      </c>
+      <c r="C223" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D223" s="1">
+        <v>2</v>
+      </c>
+      <c r="E223" s="1">
+        <v>1</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6">
+      <c r="B224" s="1">
         <v>600401</v>
       </c>
-      <c r="C223" s="1">
+      <c r="C224" s="1">
         <v>2002</v>
       </c>
-      <c r="D223" s="1">
-        <v>1</v>
-      </c>
-      <c r="E223" s="1">
-        <v>1</v>
-      </c>
-      <c r="F223" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B228" s="1" t="s">
+      <c r="D224" s="1">
+        <v>1</v>
+      </c>
+      <c r="E224" s="1">
+        <v>1</v>
+      </c>
+      <c r="F224" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F228" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -6816,58 +6936,61 @@
         <v>154</v>
       </c>
       <c r="C229" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D229" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E229" s="1" t="s">
+      <c r="D230" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E230" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F229" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="230" spans="2:6">
-      <c r="B230" s="1" t="s">
+      <c r="F230" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6">
+      <c r="B231" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="C231" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D230" s="1" t="s">
+      <c r="D231" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E230" s="1" t="s">
+      <c r="E231" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F230" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="231" spans="2:6">
-      <c r="B231" s="1">
-        <v>1</v>
-      </c>
-      <c r="C231" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D231" s="1">
-        <v>1</v>
-      </c>
-      <c r="E231" s="1">
-        <v>1</v>
-      </c>
-      <c r="F231" s="16" t="s">
-        <v>155</v>
+      <c r="F231" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="232" spans="2:6">
       <c r="B232" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C232" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D232" s="1">
         <v>1</v>
@@ -6875,16 +6998,16 @@
       <c r="E232" s="1">
         <v>1</v>
       </c>
-      <c r="F232" s="1" t="s">
-        <v>156</v>
+      <c r="F232" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="233" spans="2:6">
       <c r="B233" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C233" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D233" s="1">
         <v>1</v>
@@ -6892,13 +7015,13 @@
       <c r="E233" s="1">
         <v>1</v>
       </c>
-      <c r="F233" s="16" t="s">
-        <v>155</v>
+      <c r="F233" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="234" spans="2:6">
       <c r="B234" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C234" s="1">
         <v>2001</v>
@@ -6910,15 +7033,15 @@
         <v>1</v>
       </c>
       <c r="F234" s="16" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="235" spans="2:6">
       <c r="B235" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C235" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D235" s="1">
         <v>1</v>
@@ -6926,16 +7049,16 @@
       <c r="E235" s="1">
         <v>1</v>
       </c>
-      <c r="F235" s="1" t="s">
-        <v>156</v>
+      <c r="F235" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="236" spans="2:6">
       <c r="B236" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C236" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D236" s="1">
         <v>1</v>
@@ -6943,16 +7066,16 @@
       <c r="E236" s="1">
         <v>1</v>
       </c>
-      <c r="F236" s="16" t="s">
-        <v>155</v>
+      <c r="F236" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="237" spans="2:6">
       <c r="B237" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C237" s="1">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D237" s="1">
         <v>1</v>
@@ -6960,16 +7083,16 @@
       <c r="E237" s="1">
         <v>1</v>
       </c>
-      <c r="F237" s="1" t="s">
+      <c r="F237" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="238" spans="2:6">
       <c r="B238" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C238" s="1">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D238" s="1">
         <v>1</v>
@@ -6977,16 +7100,16 @@
       <c r="E238" s="1">
         <v>1</v>
       </c>
-      <c r="F238" s="16" t="s">
-        <v>155</v>
+      <c r="F238" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="239" spans="2:6">
       <c r="B239" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C239" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D239" s="1">
         <v>1</v>
@@ -6994,16 +7117,16 @@
       <c r="E239" s="1">
         <v>1</v>
       </c>
-      <c r="F239" s="1" t="s">
-        <v>156</v>
+      <c r="F239" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="240" spans="2:6">
       <c r="B240" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C240" s="1">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D240" s="1">
         <v>1</v>
@@ -7012,15 +7135,15 @@
         <v>1</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="241" spans="2:6">
       <c r="B241" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C241" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D241" s="1">
         <v>1</v>
@@ -7029,15 +7152,15 @@
         <v>1</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="242" spans="2:6">
       <c r="B242" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C242" s="1">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D242" s="1">
         <v>1</v>
@@ -7046,15 +7169,15 @@
         <v>1</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="243" spans="2:6">
       <c r="B243" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C243" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D243" s="1">
         <v>1</v>
@@ -7063,15 +7186,15 @@
         <v>1</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="244" spans="2:6">
       <c r="B244" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C244" s="1">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D244" s="1">
         <v>1</v>
@@ -7080,12 +7203,12 @@
         <v>1</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="245" spans="2:6">
       <c r="B245" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C245" s="1">
         <v>2003</v>
@@ -7097,27 +7220,24 @@
         <v>1</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6">
-      <c r="A248" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B248" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C248" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F248" s="1" t="s">
-        <v>147</v>
+    </row>
+    <row r="246" spans="2:6">
+      <c r="B246" s="1">
+        <v>15</v>
+      </c>
+      <c r="C246" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D246" s="1">
+        <v>1</v>
+      </c>
+      <c r="E246" s="1">
+        <v>1</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -7125,58 +7245,61 @@
         <v>160</v>
       </c>
       <c r="B249" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="C250" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D249" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E249" s="1" t="s">
+      <c r="D250" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E250" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F249" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="250" spans="2:6">
-      <c r="B250" s="1" t="s">
+      <c r="F250" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="251" spans="2:6">
+      <c r="B251" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="C251" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D250" s="1" t="s">
+      <c r="D251" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E250" s="1" t="s">
+      <c r="E251" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F250" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="251" spans="2:6">
-      <c r="B251" s="1">
-        <v>1</v>
-      </c>
-      <c r="C251" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D251" s="1">
-        <v>1</v>
-      </c>
-      <c r="E251" s="1">
-        <v>1</v>
-      </c>
-      <c r="F251" s="16" t="s">
-        <v>161</v>
+      <c r="F251" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="252" spans="2:6">
       <c r="B252" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C252" s="1">
         <v>2001</v>
@@ -7188,15 +7311,15 @@
         <v>1</v>
       </c>
       <c r="F252" s="16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="253" spans="2:6">
       <c r="B253" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C253" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D253" s="1">
         <v>1</v>
@@ -7205,15 +7328,15 @@
         <v>1</v>
       </c>
       <c r="F253" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="254" spans="2:6">
       <c r="B254" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C254" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D254" s="1">
         <v>1</v>
@@ -7222,12 +7345,12 @@
         <v>1</v>
       </c>
       <c r="F254" s="16" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="255" spans="2:6">
       <c r="B255" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C255" s="1">
         <v>2001</v>
@@ -7239,15 +7362,15 @@
         <v>1</v>
       </c>
       <c r="F255" s="16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="256" spans="2:6">
       <c r="B256" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C256" s="1">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D256" s="1">
         <v>1</v>
@@ -7261,10 +7384,10 @@
     </row>
     <row r="257" spans="2:6">
       <c r="B257" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C257" s="1">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D257" s="1">
         <v>1</v>
@@ -7273,12 +7396,12 @@
         <v>1</v>
       </c>
       <c r="F257" s="16" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="258" spans="2:6">
       <c r="B258" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C258" s="1">
         <v>2001</v>
@@ -7290,46 +7413,46 @@
         <v>1</v>
       </c>
       <c r="F258" s="16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="259" spans="2:6">
       <c r="B259" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C259" s="1">
         <v>2001</v>
       </c>
       <c r="D259" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E259" s="1">
         <v>1</v>
       </c>
       <c r="F259" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="260" spans="2:6">
       <c r="B260" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C260" s="1">
         <v>2001</v>
       </c>
       <c r="D260" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E260" s="1">
         <v>1</v>
       </c>
       <c r="F260" s="16" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="261" spans="2:6">
       <c r="B261" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C261" s="1">
         <v>2001</v>
@@ -7341,46 +7464,46 @@
         <v>1</v>
       </c>
       <c r="F261" s="16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="262" spans="2:6">
       <c r="B262" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C262" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D262" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E262" s="1">
         <v>1</v>
       </c>
       <c r="F262" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="263" spans="2:6">
       <c r="B263" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C263" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D263" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E263" s="1">
         <v>1</v>
       </c>
       <c r="F263" s="16" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="264" spans="2:6">
       <c r="B264" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C264" s="1">
         <v>2001</v>
@@ -7392,49 +7515,49 @@
         <v>1</v>
       </c>
       <c r="F264" s="16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="265" spans="2:6">
       <c r="B265" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C265" s="1">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D265" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E265" s="1">
         <v>1</v>
       </c>
       <c r="F265" s="16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="266" spans="2:6">
       <c r="B266" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C266" s="1">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D266" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E266" s="1">
         <v>1</v>
       </c>
       <c r="F266" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="267" spans="2:6">
       <c r="B267" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C267" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D267" s="1">
         <v>1</v>
@@ -7443,41 +7566,41 @@
         <v>1</v>
       </c>
       <c r="F267" s="16" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="268" spans="2:6">
       <c r="B268" s="1">
+        <v>17</v>
+      </c>
+      <c r="C268" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D268" s="1">
+        <v>1</v>
+      </c>
+      <c r="E268" s="1">
+        <v>1</v>
+      </c>
+      <c r="F268" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="269" spans="2:6">
+      <c r="B269" s="1">
         <v>18</v>
       </c>
-      <c r="C268" s="1">
+      <c r="C269" s="1">
         <v>2003</v>
       </c>
-      <c r="D268" s="1">
-        <v>1</v>
-      </c>
-      <c r="E268" s="1">
-        <v>1</v>
-      </c>
-      <c r="F268" s="16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
-      <c r="A271" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B271" s="1" t="s">
+      <c r="D269" s="1">
+        <v>1</v>
+      </c>
+      <c r="E269" s="1">
+        <v>1</v>
+      </c>
+      <c r="F269" s="16" t="s">
         <v>169</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7485,180 +7608,177 @@
         <v>170</v>
       </c>
       <c r="B272" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B273" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C272" s="1" t="s">
+      <c r="C273" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D272" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="273" spans="2:5">
-      <c r="B273" s="1" t="s">
+      <c r="D273" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5">
+      <c r="B274" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C273" s="1" t="s">
+      <c r="C274" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D273" s="1" t="s">
+      <c r="D274" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E273" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="274" spans="2:5">
-      <c r="B274" s="1">
-        <v>1</v>
-      </c>
-      <c r="C274" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D274" s="1">
-        <v>1</v>
-      </c>
       <c r="E274" s="1" t="s">
-        <v>171</v>
+        <v>63</v>
       </c>
     </row>
     <row r="275" spans="2:5">
       <c r="B275" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C275" s="1">
-        <v>5001</v>
+        <v>2001</v>
       </c>
       <c r="D275" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="276" spans="2:5">
       <c r="B276" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C276" s="1">
-        <v>100701</v>
+        <v>5001</v>
       </c>
       <c r="D276" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="277" spans="2:5">
       <c r="B277" s="1">
+        <v>3</v>
+      </c>
+      <c r="C277" s="1">
+        <v>100701</v>
+      </c>
+      <c r="D277" s="1">
+        <v>1</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="278" spans="2:5">
+      <c r="B278" s="1">
         <v>4</v>
       </c>
-      <c r="C277" s="1">
+      <c r="C278" s="1">
         <v>101001</v>
       </c>
-      <c r="D277" s="1">
-        <v>1</v>
-      </c>
-      <c r="E277" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7">
-      <c r="A280" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B280" s="1" t="s">
+      <c r="D278" s="1">
+        <v>1</v>
+      </c>
+      <c r="E278" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D280" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F280" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G280" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="281" spans="1:7">
       <c r="A281" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E281" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B281" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D281" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F281" s="1" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="G281" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="282" spans="2:7">
+    <row r="282" spans="1:7">
+      <c r="A282" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="B282" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="283" spans="2:7">
+      <c r="B283" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C282" s="1" t="s">
+      <c r="C283" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D282" s="1" t="s">
+      <c r="D283" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E282" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F282" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G282" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="283" spans="2:7">
-      <c r="B283" s="1">
-        <v>1</v>
-      </c>
-      <c r="C283" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D283" s="1">
-        <v>1</v>
-      </c>
       <c r="E283" s="1" t="s">
-        <v>182</v>
+        <v>63</v>
       </c>
       <c r="F283" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G283" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="G283" s="1" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="284" spans="2:7">
       <c r="B284" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C284" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D284" s="1">
         <v>1</v>
@@ -7667,7 +7787,7 @@
         <v>184</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G284" s="1" t="b">
         <v>0</v>
@@ -7675,19 +7795,19 @@
     </row>
     <row r="285" spans="2:7">
       <c r="B285" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C285" s="1">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D285" s="1">
         <v>1</v>
       </c>
       <c r="E285" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F285" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="F285" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="G285" s="1" t="b">
         <v>0</v>
@@ -7695,19 +7815,19 @@
     </row>
     <row r="286" spans="2:7">
       <c r="B286" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C286" s="1">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D286" s="1">
         <v>1</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G286" s="1" t="b">
         <v>0</v>
@@ -7715,27 +7835,27 @@
     </row>
     <row r="287" spans="2:7">
       <c r="B287" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C287" s="1">
-        <v>9527</v>
+        <v>2001</v>
       </c>
       <c r="D287" s="1">
         <v>1</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G287" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="2:7">
       <c r="B288" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C288" s="1">
         <v>9527</v>
@@ -7744,10 +7864,10 @@
         <v>1</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G288" s="1" t="b">
         <v>1</v>
@@ -7755,21 +7875,41 @@
     </row>
     <row r="289" spans="2:7">
       <c r="B289" s="1">
+        <v>6</v>
+      </c>
+      <c r="C289" s="1">
+        <v>9527</v>
+      </c>
+      <c r="D289" s="1">
+        <v>1</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G289" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="2:7">
+      <c r="B290" s="1">
         <v>7</v>
       </c>
-      <c r="C289" s="1">
+      <c r="C290" s="1">
         <v>2003</v>
       </c>
-      <c r="D289" s="1">
-        <v>1</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F289" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G289" s="1" t="b">
+      <c r="D290" s="1">
+        <v>1</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G290" s="1" t="b">
         <v>0</v>
       </c>
     </row>

--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$182:$C$186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$178:$C$182</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -470,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B103" authorId="0">
+    <comment ref="B102" authorId="0">
       <text>
         <r>
           <rPr>
@@ -492,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B120" authorId="0">
+    <comment ref="B118" authorId="0">
       <text>
         <r>
           <rPr>
@@ -514,7 +514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C135" authorId="0">
+    <comment ref="C133" authorId="0">
       <text>
         <r>
           <rPr>
@@ -536,7 +536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B136" authorId="0">
+    <comment ref="B134" authorId="0">
       <text>
         <r>
           <rPr>
@@ -558,7 +558,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B153" authorId="0">
+    <comment ref="B150" authorId="0">
       <text>
         <r>
           <rPr>
@@ -580,7 +580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B174" authorId="2">
+    <comment ref="B170" authorId="2">
       <text>
         <r>
           <rPr>
@@ -592,7 +592,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B175" authorId="1">
+    <comment ref="B171" authorId="1">
       <text>
         <r>
           <rPr>
@@ -604,7 +604,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B184" authorId="0">
+    <comment ref="B180" authorId="0">
       <text>
         <r>
           <rPr>
@@ -627,7 +627,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B221" authorId="0">
+    <comment ref="B217" authorId="0">
       <text>
         <r>
           <rPr>
@@ -649,7 +649,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B230" authorId="0">
+    <comment ref="B226" authorId="0">
       <text>
         <r>
           <rPr>
@@ -671,7 +671,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B250" authorId="0">
+    <comment ref="B246" authorId="0">
       <text>
         <r>
           <rPr>
@@ -693,7 +693,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B273" authorId="0">
+    <comment ref="B269" authorId="0">
       <text>
         <r>
           <rPr>
@@ -715,7 +715,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D276" authorId="0">
+    <comment ref="D272" authorId="0">
       <text>
         <r>
           <rPr>
@@ -738,7 +738,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B282" authorId="0">
+    <comment ref="B278" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1461,10 +1461,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1513,21 +1513,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1535,14 +1520,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1556,14 +1541,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -1571,15 +1548,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1594,22 +1572,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1618,9 +1580,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1636,7 +1598,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1727,7 +1727,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1739,19 +1799,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1769,13 +1841,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1793,13 +1871,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1811,61 +1883,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1877,25 +1895,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1907,7 +1907,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1918,39 +1918,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1993,13 +1960,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2018,6 +1989,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2026,10 +2026,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2038,34 +2038,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2074,97 +2074,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2568,10 +2568,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:R290"/>
+  <dimension ref="A3:R286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="F213" sqref="F213"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4018,16 +4018,16 @@
         <v>100801</v>
       </c>
       <c r="C86" s="13">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="D86" s="13">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E86" s="13">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F86" s="13">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G86" s="13">
         <v>1</v>
@@ -4041,13 +4041,13 @@
         <v>100802</v>
       </c>
       <c r="C87" s="13">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="D87" s="13">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="E87" s="13">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
@@ -4060,13 +4060,13 @@
         <v>100803</v>
       </c>
       <c r="C88" s="13">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="D88" s="13">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="E88" s="13">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F88" s="13"/>
       <c r="G88" s="13"/>
@@ -4079,13 +4079,13 @@
         <v>100804</v>
       </c>
       <c r="C89" s="13">
-        <v>2003</v>
+        <v>6001</v>
       </c>
       <c r="D89" s="13">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="E89" s="13">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="F89" s="13"/>
       <c r="G89" s="13"/>
@@ -4098,13 +4098,13 @@
         <v>100805</v>
       </c>
       <c r="C90" s="13">
-        <v>2003</v>
+        <v>6001</v>
       </c>
       <c r="D90" s="13">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="E90" s="13">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
@@ -4117,13 +4117,13 @@
         <v>100806</v>
       </c>
       <c r="C91" s="13">
-        <v>2003</v>
+        <v>6001</v>
       </c>
       <c r="D91" s="13">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="E91" s="13">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="F91" s="13"/>
       <c r="G91" s="13"/>
@@ -4136,13 +4136,13 @@
         <v>100807</v>
       </c>
       <c r="C92" s="13">
-        <v>500001</v>
+        <v>6001</v>
       </c>
       <c r="D92" s="13">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E92" s="13">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F92" s="13"/>
       <c r="G92" s="13"/>
@@ -4155,13 +4155,13 @@
         <v>100808</v>
       </c>
       <c r="C93" s="13">
-        <v>500004</v>
+        <v>2003</v>
       </c>
       <c r="D93" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E93" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
@@ -4174,13 +4174,13 @@
         <v>100809</v>
       </c>
       <c r="C94" s="13">
-        <v>500007</v>
+        <v>2003</v>
       </c>
       <c r="D94" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E94" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
@@ -4193,13 +4193,13 @@
         <v>100810</v>
       </c>
       <c r="C95" s="13">
-        <v>500010</v>
+        <v>2003</v>
       </c>
       <c r="D95" s="13">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E95" s="13">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F95" s="13"/>
       <c r="G95" s="13"/>
@@ -4212,13 +4212,13 @@
         <v>100811</v>
       </c>
       <c r="C96" s="13">
-        <v>500013</v>
+        <v>2002</v>
       </c>
       <c r="D96" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E96" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
@@ -4231,13 +4231,13 @@
         <v>100812</v>
       </c>
       <c r="C97" s="13">
-        <v>500029</v>
+        <v>2002</v>
       </c>
       <c r="D97" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E97" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
@@ -4250,13 +4250,13 @@
         <v>100813</v>
       </c>
       <c r="C98" s="13">
-        <v>500030</v>
+        <v>2002</v>
       </c>
       <c r="D98" s="13">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E98" s="13">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F98" s="13"/>
       <c r="G98" s="13"/>
@@ -4269,13 +4269,13 @@
         <v>100814</v>
       </c>
       <c r="C99" s="13">
-        <v>500024</v>
+        <v>2001</v>
       </c>
       <c r="D99" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E99" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
@@ -4288,7 +4288,7 @@
         <v>100815</v>
       </c>
       <c r="C100" s="13">
-        <v>6001</v>
+        <v>2001</v>
       </c>
       <c r="D100" s="13">
         <v>10</v>
@@ -4307,13 +4307,13 @@
         <v>100816</v>
       </c>
       <c r="C101" s="13">
-        <v>6001</v>
+        <v>2001</v>
       </c>
       <c r="D101" s="13">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E101" s="13">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
@@ -4322,59 +4322,59 @@
       </c>
     </row>
     <row r="102" spans="2:8">
-      <c r="B102" s="13">
-        <v>100817</v>
-      </c>
-      <c r="C102" s="13">
+      <c r="B102" s="14">
+        <v>100901</v>
+      </c>
+      <c r="C102" s="14">
         <v>6001</v>
       </c>
-      <c r="D102" s="13">
-        <v>50</v>
-      </c>
-      <c r="E102" s="13">
-        <v>50</v>
-      </c>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13">
+      <c r="D102" s="14">
+        <v>100</v>
+      </c>
+      <c r="E102" s="14">
+        <v>100</v>
+      </c>
+      <c r="F102" s="14">
+        <v>16</v>
+      </c>
+      <c r="G102" s="14">
+        <v>1</v>
+      </c>
+      <c r="H102" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="103" spans="2:8">
       <c r="B103" s="14">
-        <v>100901</v>
+        <v>100902</v>
       </c>
       <c r="C103" s="14">
-        <v>2003</v>
+        <v>6001</v>
       </c>
       <c r="D103" s="14">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="E103" s="14">
-        <v>25</v>
-      </c>
-      <c r="F103" s="14">
-        <v>17</v>
-      </c>
-      <c r="G103" s="14">
-        <v>1</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
       <c r="H103" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="104" spans="2:8">
       <c r="B104" s="14">
-        <v>100902</v>
+        <v>100903</v>
       </c>
       <c r="C104" s="14">
-        <v>2003</v>
+        <v>6001</v>
       </c>
       <c r="D104" s="14">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="E104" s="14">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="F104" s="14"/>
       <c r="G104" s="14"/>
@@ -4384,16 +4384,16 @@
     </row>
     <row r="105" spans="2:8">
       <c r="B105" s="14">
-        <v>100903</v>
+        <v>100904</v>
       </c>
       <c r="C105" s="14">
-        <v>2003</v>
+        <v>6001</v>
       </c>
       <c r="D105" s="14">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="E105" s="14">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="F105" s="14"/>
       <c r="G105" s="14"/>
@@ -4403,16 +4403,16 @@
     </row>
     <row r="106" spans="2:8">
       <c r="B106" s="14">
-        <v>100904</v>
+        <v>100905</v>
       </c>
       <c r="C106" s="14">
         <v>6001</v>
       </c>
       <c r="D106" s="14">
-        <v>50</v>
+        <v>900</v>
       </c>
       <c r="E106" s="14">
-        <v>50</v>
+        <v>900</v>
       </c>
       <c r="F106" s="14"/>
       <c r="G106" s="14"/>
@@ -4422,16 +4422,16 @@
     </row>
     <row r="107" spans="2:8">
       <c r="B107" s="14">
-        <v>100905</v>
+        <v>100906</v>
       </c>
       <c r="C107" s="14">
         <v>6001</v>
       </c>
       <c r="D107" s="14">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="E107" s="14">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="F107" s="14"/>
       <c r="G107" s="14"/>
@@ -4441,16 +4441,16 @@
     </row>
     <row r="108" spans="2:8">
       <c r="B108" s="14">
-        <v>100906</v>
+        <v>100907</v>
       </c>
       <c r="C108" s="14">
         <v>6001</v>
       </c>
       <c r="D108" s="14">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="E108" s="14">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F108" s="14"/>
       <c r="G108" s="14"/>
@@ -4460,16 +4460,16 @@
     </row>
     <row r="109" spans="2:8">
       <c r="B109" s="14">
-        <v>100907</v>
+        <v>100909</v>
       </c>
       <c r="C109" s="14">
-        <v>5001</v>
+        <v>2003</v>
       </c>
       <c r="D109" s="14">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="E109" s="14">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="F109" s="14"/>
       <c r="G109" s="14"/>
@@ -4479,16 +4479,16 @@
     </row>
     <row r="110" spans="2:8">
       <c r="B110" s="14">
-        <v>100908</v>
+        <v>100910</v>
       </c>
       <c r="C110" s="14">
-        <v>5001</v>
+        <v>2003</v>
       </c>
       <c r="D110" s="14">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="E110" s="14">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="F110" s="14"/>
       <c r="G110" s="14"/>
@@ -4498,16 +4498,16 @@
     </row>
     <row r="111" spans="2:8">
       <c r="B111" s="14">
-        <v>100909</v>
+        <v>100911</v>
       </c>
       <c r="C111" s="14">
-        <v>5001</v>
+        <v>2003</v>
       </c>
       <c r="D111" s="14">
-        <v>5000</v>
+        <v>150</v>
       </c>
       <c r="E111" s="14">
-        <v>5000</v>
+        <v>150</v>
       </c>
       <c r="F111" s="14"/>
       <c r="G111" s="14"/>
@@ -4517,16 +4517,16 @@
     </row>
     <row r="112" spans="2:8">
       <c r="B112" s="14">
-        <v>100910</v>
+        <v>100912</v>
       </c>
       <c r="C112" s="14">
-        <v>500014</v>
+        <v>2002</v>
       </c>
       <c r="D112" s="14">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E112" s="14">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F112" s="14"/>
       <c r="G112" s="14"/>
@@ -4536,16 +4536,16 @@
     </row>
     <row r="113" spans="2:8">
       <c r="B113" s="14">
-        <v>100911</v>
+        <v>100913</v>
       </c>
       <c r="C113" s="14">
-        <v>500011</v>
+        <v>2002</v>
       </c>
       <c r="D113" s="14">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E113" s="14">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F113" s="14"/>
       <c r="G113" s="14"/>
@@ -4555,16 +4555,16 @@
     </row>
     <row r="114" spans="2:8">
       <c r="B114" s="14">
-        <v>100912</v>
+        <v>100914</v>
       </c>
       <c r="C114" s="14">
-        <v>500020</v>
+        <v>2002</v>
       </c>
       <c r="D114" s="14">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="E114" s="14">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F114" s="14"/>
       <c r="G114" s="14"/>
@@ -4574,16 +4574,16 @@
     </row>
     <row r="115" spans="2:8">
       <c r="B115" s="14">
-        <v>100913</v>
+        <v>100915</v>
       </c>
       <c r="C115" s="14">
-        <v>500017</v>
+        <v>2001</v>
       </c>
       <c r="D115" s="14">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E115" s="14">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F115" s="14"/>
       <c r="G115" s="14"/>
@@ -4593,16 +4593,16 @@
     </row>
     <row r="116" spans="2:8">
       <c r="B116" s="14">
-        <v>100914</v>
+        <v>100916</v>
       </c>
       <c r="C116" s="14">
-        <v>500018</v>
+        <v>2001</v>
       </c>
       <c r="D116" s="14">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E116" s="14">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -4612,16 +4612,16 @@
     </row>
     <row r="117" spans="2:8">
       <c r="B117" s="14">
-        <v>100915</v>
+        <v>100917</v>
       </c>
       <c r="C117" s="14">
-        <v>500019</v>
+        <v>2001</v>
       </c>
       <c r="D117" s="14">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="E117" s="14">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F117" s="14"/>
       <c r="G117" s="14"/>
@@ -4630,78 +4630,78 @@
       </c>
     </row>
     <row r="118" spans="2:8">
-      <c r="B118" s="14">
-        <v>100916</v>
-      </c>
-      <c r="C118" s="14">
-        <v>500027</v>
-      </c>
-      <c r="D118" s="14">
-        <v>1</v>
-      </c>
-      <c r="E118" s="14">
-        <v>1</v>
-      </c>
-      <c r="F118" s="14"/>
-      <c r="G118" s="14"/>
-      <c r="H118" s="14">
+      <c r="B118" s="12">
+        <v>101001</v>
+      </c>
+      <c r="C118" s="12">
+        <v>2001</v>
+      </c>
+      <c r="D118" s="12">
+        <v>1</v>
+      </c>
+      <c r="E118" s="12">
+        <v>1</v>
+      </c>
+      <c r="F118" s="12">
+        <v>16</v>
+      </c>
+      <c r="G118" s="12">
+        <v>1</v>
+      </c>
+      <c r="H118" s="12">
         <v>100</v>
       </c>
     </row>
     <row r="119" spans="2:8">
-      <c r="B119" s="14">
-        <v>100917</v>
-      </c>
-      <c r="C119" s="14">
-        <v>500028</v>
-      </c>
-      <c r="D119" s="14">
-        <v>1</v>
-      </c>
-      <c r="E119" s="14">
-        <v>1</v>
-      </c>
-      <c r="F119" s="14"/>
-      <c r="G119" s="14"/>
-      <c r="H119" s="14">
+      <c r="B119" s="12">
+        <v>101002</v>
+      </c>
+      <c r="C119" s="12">
+        <v>2001</v>
+      </c>
+      <c r="D119" s="12">
+        <v>2</v>
+      </c>
+      <c r="E119" s="12">
+        <v>2</v>
+      </c>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12">
         <v>100</v>
       </c>
     </row>
     <row r="120" spans="2:8">
       <c r="B120" s="12">
-        <v>101001</v>
+        <v>101003</v>
       </c>
       <c r="C120" s="12">
         <v>2001</v>
       </c>
       <c r="D120" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E120" s="12">
-        <v>1</v>
-      </c>
-      <c r="F120" s="12">
-        <v>16</v>
-      </c>
-      <c r="G120" s="12">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
       <c r="H120" s="12">
         <v>100</v>
       </c>
     </row>
     <row r="121" spans="2:8">
       <c r="B121" s="12">
-        <v>101002</v>
+        <v>101004</v>
       </c>
       <c r="C121" s="12">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D121" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E121" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F121" s="12"/>
       <c r="G121" s="12"/>
@@ -4711,16 +4711,16 @@
     </row>
     <row r="122" spans="2:8">
       <c r="B122" s="12">
-        <v>101003</v>
+        <v>101005</v>
       </c>
       <c r="C122" s="12">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D122" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E122" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F122" s="12"/>
       <c r="G122" s="12"/>
@@ -4730,16 +4730,16 @@
     </row>
     <row r="123" spans="2:8">
       <c r="B123" s="12">
-        <v>101004</v>
+        <v>101006</v>
       </c>
       <c r="C123" s="12">
         <v>2002</v>
       </c>
       <c r="D123" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E123" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F123" s="12"/>
       <c r="G123" s="12"/>
@@ -4749,16 +4749,16 @@
     </row>
     <row r="124" spans="2:8">
       <c r="B124" s="12">
-        <v>101005</v>
+        <v>101007</v>
       </c>
       <c r="C124" s="12">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D124" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E124" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F124" s="12"/>
       <c r="G124" s="12"/>
@@ -4768,16 +4768,16 @@
     </row>
     <row r="125" spans="2:8">
       <c r="B125" s="12">
-        <v>101006</v>
+        <v>101008</v>
       </c>
       <c r="C125" s="12">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D125" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E125" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F125" s="12"/>
       <c r="G125" s="12"/>
@@ -4787,16 +4787,16 @@
     </row>
     <row r="126" spans="2:8">
       <c r="B126" s="12">
-        <v>101007</v>
+        <v>101009</v>
       </c>
       <c r="C126" s="12">
         <v>2003</v>
       </c>
       <c r="D126" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E126" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F126" s="12"/>
       <c r="G126" s="12"/>
@@ -4806,16 +4806,16 @@
     </row>
     <row r="127" spans="2:8">
       <c r="B127" s="12">
-        <v>101008</v>
+        <v>101010</v>
       </c>
       <c r="C127" s="12">
-        <v>2003</v>
+        <v>5001</v>
       </c>
       <c r="D127" s="12">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E127" s="12">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F127" s="12"/>
       <c r="G127" s="12"/>
@@ -4825,16 +4825,16 @@
     </row>
     <row r="128" spans="2:8">
       <c r="B128" s="12">
-        <v>101009</v>
+        <v>101011</v>
       </c>
       <c r="C128" s="12">
-        <v>2003</v>
+        <v>5001</v>
       </c>
       <c r="D128" s="12">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E128" s="12">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
@@ -4844,16 +4844,16 @@
     </row>
     <row r="129" spans="2:8">
       <c r="B129" s="12">
-        <v>101010</v>
+        <v>101012</v>
       </c>
       <c r="C129" s="12">
         <v>5001</v>
       </c>
       <c r="D129" s="12">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E129" s="12">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
@@ -4863,16 +4863,16 @@
     </row>
     <row r="130" spans="2:8">
       <c r="B130" s="12">
-        <v>101011</v>
+        <v>101013</v>
       </c>
       <c r="C130" s="12">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="D130" s="12">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E130" s="12">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
@@ -4882,16 +4882,16 @@
     </row>
     <row r="131" spans="2:8">
       <c r="B131" s="12">
-        <v>101012</v>
+        <v>101014</v>
       </c>
       <c r="C131" s="12">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="D131" s="12">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E131" s="12">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F131" s="12"/>
       <c r="G131" s="12"/>
@@ -4901,16 +4901,16 @@
     </row>
     <row r="132" spans="2:8">
       <c r="B132" s="12">
-        <v>101013</v>
+        <v>101015</v>
       </c>
       <c r="C132" s="12">
         <v>6001</v>
       </c>
       <c r="D132" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E132" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F132" s="12"/>
       <c r="G132" s="12"/>
@@ -4920,16 +4920,16 @@
     </row>
     <row r="133" spans="2:8">
       <c r="B133" s="12">
-        <v>101014</v>
+        <v>101016</v>
       </c>
       <c r="C133" s="12">
-        <v>6001</v>
+        <v>9527</v>
       </c>
       <c r="D133" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E133" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F133" s="12"/>
       <c r="G133" s="12"/>
@@ -4938,78 +4938,78 @@
       </c>
     </row>
     <row r="134" spans="2:8">
-      <c r="B134" s="12">
-        <v>101015</v>
-      </c>
-      <c r="C134" s="12">
+      <c r="B134" s="13">
+        <v>101101</v>
+      </c>
+      <c r="C134" s="13">
         <v>6001</v>
       </c>
-      <c r="D134" s="12">
-        <v>5</v>
-      </c>
-      <c r="E134" s="12">
-        <v>5</v>
-      </c>
-      <c r="F134" s="12"/>
-      <c r="G134" s="12"/>
-      <c r="H134" s="12">
+      <c r="D134" s="13">
+        <v>10</v>
+      </c>
+      <c r="E134" s="13">
+        <v>10</v>
+      </c>
+      <c r="F134" s="13">
+        <v>16</v>
+      </c>
+      <c r="G134" s="13">
+        <v>1</v>
+      </c>
+      <c r="H134" s="13">
         <v>100</v>
       </c>
     </row>
     <row r="135" spans="2:8">
-      <c r="B135" s="12">
-        <v>101016</v>
-      </c>
-      <c r="C135" s="12">
-        <v>9527</v>
-      </c>
-      <c r="D135" s="12">
-        <v>1</v>
-      </c>
-      <c r="E135" s="12">
-        <v>1</v>
-      </c>
-      <c r="F135" s="12"/>
-      <c r="G135" s="12"/>
-      <c r="H135" s="12">
+      <c r="B135" s="13">
+        <v>101102</v>
+      </c>
+      <c r="C135" s="13">
+        <v>6001</v>
+      </c>
+      <c r="D135" s="13">
+        <v>30</v>
+      </c>
+      <c r="E135" s="13">
+        <v>30</v>
+      </c>
+      <c r="F135" s="13"/>
+      <c r="G135" s="13"/>
+      <c r="H135" s="13">
         <v>100</v>
       </c>
     </row>
     <row r="136" spans="2:8">
       <c r="B136" s="13">
-        <v>101101</v>
+        <v>101103</v>
       </c>
       <c r="C136" s="13">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="D136" s="13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E136" s="13">
-        <v>100</v>
-      </c>
-      <c r="F136" s="13">
-        <v>17</v>
-      </c>
-      <c r="G136" s="13">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F136" s="13"/>
+      <c r="G136" s="13"/>
       <c r="H136" s="13">
         <v>100</v>
       </c>
     </row>
     <row r="137" spans="2:8">
       <c r="B137" s="13">
-        <v>101102</v>
+        <v>101104</v>
       </c>
       <c r="C137" s="13">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="D137" s="13">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="E137" s="13">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="F137" s="13"/>
       <c r="G137" s="13"/>
@@ -5019,16 +5019,16 @@
     </row>
     <row r="138" spans="2:8">
       <c r="B138" s="13">
-        <v>101103</v>
+        <v>101105</v>
       </c>
       <c r="C138" s="13">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="D138" s="13">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="E138" s="13">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="F138" s="13"/>
       <c r="G138" s="13"/>
@@ -5038,16 +5038,16 @@
     </row>
     <row r="139" spans="2:8">
       <c r="B139" s="13">
-        <v>101104</v>
+        <v>101106</v>
       </c>
       <c r="C139" s="13">
-        <v>2003</v>
+        <v>6001</v>
       </c>
       <c r="D139" s="13">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="E139" s="13">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="F139" s="13"/>
       <c r="G139" s="13"/>
@@ -5057,16 +5057,16 @@
     </row>
     <row r="140" spans="2:8">
       <c r="B140" s="13">
-        <v>101105</v>
+        <v>101107</v>
       </c>
       <c r="C140" s="13">
-        <v>2003</v>
+        <v>6001</v>
       </c>
       <c r="D140" s="13">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="E140" s="13">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F140" s="13"/>
       <c r="G140" s="13"/>
@@ -5076,16 +5076,16 @@
     </row>
     <row r="141" spans="2:8">
       <c r="B141" s="13">
-        <v>101106</v>
+        <v>101108</v>
       </c>
       <c r="C141" s="13">
         <v>2003</v>
       </c>
       <c r="D141" s="13">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E141" s="13">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F141" s="13"/>
       <c r="G141" s="13"/>
@@ -5095,16 +5095,16 @@
     </row>
     <row r="142" spans="2:8">
       <c r="B142" s="13">
-        <v>101107</v>
+        <v>101109</v>
       </c>
       <c r="C142" s="13">
-        <v>500001</v>
+        <v>2003</v>
       </c>
       <c r="D142" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E142" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F142" s="13"/>
       <c r="G142" s="13"/>
@@ -5114,16 +5114,16 @@
     </row>
     <row r="143" spans="2:8">
       <c r="B143" s="13">
-        <v>101108</v>
+        <v>101110</v>
       </c>
       <c r="C143" s="13">
-        <v>500004</v>
+        <v>2003</v>
       </c>
       <c r="D143" s="13">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E143" s="13">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F143" s="13"/>
       <c r="G143" s="13"/>
@@ -5133,16 +5133,16 @@
     </row>
     <row r="144" spans="2:8">
       <c r="B144" s="13">
-        <v>101109</v>
+        <v>101111</v>
       </c>
       <c r="C144" s="13">
-        <v>500007</v>
+        <v>2002</v>
       </c>
       <c r="D144" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E144" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F144" s="13"/>
       <c r="G144" s="13"/>
@@ -5152,16 +5152,16 @@
     </row>
     <row r="145" spans="2:8">
       <c r="B145" s="13">
-        <v>101110</v>
+        <v>101112</v>
       </c>
       <c r="C145" s="13">
-        <v>500010</v>
+        <v>2002</v>
       </c>
       <c r="D145" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E145" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F145" s="13"/>
       <c r="G145" s="13"/>
@@ -5171,16 +5171,16 @@
     </row>
     <row r="146" spans="2:8">
       <c r="B146" s="13">
-        <v>101111</v>
+        <v>101113</v>
       </c>
       <c r="C146" s="13">
-        <v>500013</v>
+        <v>2002</v>
       </c>
       <c r="D146" s="13">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E146" s="13">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F146" s="13"/>
       <c r="G146" s="13"/>
@@ -5190,16 +5190,16 @@
     </row>
     <row r="147" spans="2:8">
       <c r="B147" s="13">
-        <v>101112</v>
+        <v>101114</v>
       </c>
       <c r="C147" s="13">
-        <v>500029</v>
+        <v>2001</v>
       </c>
       <c r="D147" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E147" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F147" s="13"/>
       <c r="G147" s="13"/>
@@ -5209,16 +5209,16 @@
     </row>
     <row r="148" spans="2:8">
       <c r="B148" s="13">
-        <v>101113</v>
+        <v>101115</v>
       </c>
       <c r="C148" s="13">
-        <v>500030</v>
+        <v>2001</v>
       </c>
       <c r="D148" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E148" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F148" s="13"/>
       <c r="G148" s="13"/>
@@ -5228,16 +5228,16 @@
     </row>
     <row r="149" spans="2:8">
       <c r="B149" s="13">
-        <v>101114</v>
+        <v>101116</v>
       </c>
       <c r="C149" s="13">
-        <v>500024</v>
+        <v>2001</v>
       </c>
       <c r="D149" s="13">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E149" s="13">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F149" s="13"/>
       <c r="G149" s="13"/>
@@ -5246,97 +5246,97 @@
       </c>
     </row>
     <row r="150" spans="2:8">
-      <c r="B150" s="13">
-        <v>101115</v>
-      </c>
-      <c r="C150" s="13">
+      <c r="B150" s="14">
+        <v>101201</v>
+      </c>
+      <c r="C150" s="14">
         <v>6001</v>
       </c>
-      <c r="D150" s="13">
-        <v>10</v>
-      </c>
-      <c r="E150" s="13">
-        <v>10</v>
-      </c>
-      <c r="F150" s="13"/>
-      <c r="G150" s="13"/>
-      <c r="H150" s="13">
+      <c r="D150" s="14">
+        <v>100</v>
+      </c>
+      <c r="E150" s="14">
+        <v>100</v>
+      </c>
+      <c r="F150" s="14">
+        <v>16</v>
+      </c>
+      <c r="G150" s="14">
+        <v>1</v>
+      </c>
+      <c r="H150" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="151" spans="2:8">
-      <c r="B151" s="13">
-        <v>101116</v>
-      </c>
-      <c r="C151" s="13">
+      <c r="B151" s="14">
+        <v>101202</v>
+      </c>
+      <c r="C151" s="14">
         <v>6001</v>
       </c>
-      <c r="D151" s="13">
-        <v>20</v>
-      </c>
-      <c r="E151" s="13">
-        <v>20</v>
-      </c>
-      <c r="F151" s="13"/>
-      <c r="G151" s="13"/>
-      <c r="H151" s="13">
+      <c r="D151" s="14">
+        <v>300</v>
+      </c>
+      <c r="E151" s="14">
+        <v>300</v>
+      </c>
+      <c r="F151" s="14"/>
+      <c r="G151" s="14"/>
+      <c r="H151" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="152" spans="2:8">
-      <c r="B152" s="13">
-        <v>101117</v>
-      </c>
-      <c r="C152" s="13">
+      <c r="B152" s="14">
+        <v>101203</v>
+      </c>
+      <c r="C152" s="14">
         <v>6001</v>
       </c>
-      <c r="D152" s="13">
-        <v>50</v>
-      </c>
-      <c r="E152" s="13">
-        <v>50</v>
-      </c>
-      <c r="F152" s="13"/>
-      <c r="G152" s="13"/>
-      <c r="H152" s="13">
+      <c r="D152" s="14">
+        <v>500</v>
+      </c>
+      <c r="E152" s="14">
+        <v>500</v>
+      </c>
+      <c r="F152" s="14"/>
+      <c r="G152" s="14"/>
+      <c r="H152" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="153" spans="2:8">
       <c r="B153" s="14">
-        <v>101201</v>
+        <v>101204</v>
       </c>
       <c r="C153" s="14">
-        <v>2003</v>
+        <v>6001</v>
       </c>
       <c r="D153" s="14">
-        <v>25</v>
+        <v>700</v>
       </c>
       <c r="E153" s="14">
-        <v>25</v>
-      </c>
-      <c r="F153" s="14">
-        <v>17</v>
-      </c>
-      <c r="G153" s="14">
-        <v>1</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="F153" s="14"/>
+      <c r="G153" s="14"/>
       <c r="H153" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="154" spans="2:8">
       <c r="B154" s="14">
-        <v>101202</v>
+        <v>101205</v>
       </c>
       <c r="C154" s="14">
-        <v>2003</v>
+        <v>6001</v>
       </c>
       <c r="D154" s="14">
-        <v>50</v>
+        <v>900</v>
       </c>
       <c r="E154" s="14">
-        <v>50</v>
+        <v>900</v>
       </c>
       <c r="F154" s="14"/>
       <c r="G154" s="14"/>
@@ -5346,16 +5346,16 @@
     </row>
     <row r="155" spans="2:8">
       <c r="B155" s="14">
-        <v>101203</v>
+        <v>101206</v>
       </c>
       <c r="C155" s="14">
-        <v>2003</v>
+        <v>6001</v>
       </c>
       <c r="D155" s="14">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="E155" s="14">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="F155" s="14"/>
       <c r="G155" s="14"/>
@@ -5365,16 +5365,16 @@
     </row>
     <row r="156" spans="2:8">
       <c r="B156" s="14">
-        <v>101204</v>
+        <v>101207</v>
       </c>
       <c r="C156" s="14">
         <v>6001</v>
       </c>
       <c r="D156" s="14">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="E156" s="14">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="F156" s="14"/>
       <c r="G156" s="14"/>
@@ -5384,16 +5384,16 @@
     </row>
     <row r="157" spans="2:8">
       <c r="B157" s="14">
-        <v>101205</v>
+        <v>101208</v>
       </c>
       <c r="C157" s="14">
-        <v>6001</v>
+        <v>2003</v>
       </c>
       <c r="D157" s="14">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E157" s="14">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F157" s="14"/>
       <c r="G157" s="14"/>
@@ -5403,16 +5403,16 @@
     </row>
     <row r="158" spans="2:8">
       <c r="B158" s="14">
-        <v>101206</v>
+        <v>101209</v>
       </c>
       <c r="C158" s="14">
-        <v>6001</v>
+        <v>2003</v>
       </c>
       <c r="D158" s="14">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E158" s="14">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F158" s="14"/>
       <c r="G158" s="14"/>
@@ -5422,16 +5422,16 @@
     </row>
     <row r="159" spans="2:8">
       <c r="B159" s="14">
-        <v>101207</v>
+        <v>101210</v>
       </c>
       <c r="C159" s="14">
-        <v>5001</v>
+        <v>2003</v>
       </c>
       <c r="D159" s="14">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="E159" s="14">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="F159" s="14"/>
       <c r="G159" s="14"/>
@@ -5441,16 +5441,16 @@
     </row>
     <row r="160" spans="2:8">
       <c r="B160" s="14">
-        <v>101208</v>
+        <v>101211</v>
       </c>
       <c r="C160" s="14">
-        <v>5001</v>
+        <v>2002</v>
       </c>
       <c r="D160" s="14">
-        <v>2000</v>
+        <v>50</v>
       </c>
       <c r="E160" s="14">
-        <v>2000</v>
+        <v>50</v>
       </c>
       <c r="F160" s="14"/>
       <c r="G160" s="14"/>
@@ -5460,16 +5460,16 @@
     </row>
     <row r="161" spans="2:8">
       <c r="B161" s="14">
-        <v>101209</v>
+        <v>101212</v>
       </c>
       <c r="C161" s="14">
-        <v>5001</v>
+        <v>2002</v>
       </c>
       <c r="D161" s="14">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="E161" s="14">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="F161" s="14"/>
       <c r="G161" s="14"/>
@@ -5479,16 +5479,16 @@
     </row>
     <row r="162" spans="2:8">
       <c r="B162" s="14">
-        <v>101210</v>
+        <v>101213</v>
       </c>
       <c r="C162" s="14">
-        <v>500014</v>
+        <v>2002</v>
       </c>
       <c r="D162" s="14">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="E162" s="14">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F162" s="14"/>
       <c r="G162" s="14"/>
@@ -5498,16 +5498,16 @@
     </row>
     <row r="163" spans="2:8">
       <c r="B163" s="14">
-        <v>101211</v>
+        <v>101214</v>
       </c>
       <c r="C163" s="14">
-        <v>500011</v>
+        <v>2001</v>
       </c>
       <c r="D163" s="14">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E163" s="14">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -5517,16 +5517,16 @@
     </row>
     <row r="164" spans="2:8">
       <c r="B164" s="14">
-        <v>101212</v>
+        <v>101215</v>
       </c>
       <c r="C164" s="14">
-        <v>500020</v>
+        <v>2001</v>
       </c>
       <c r="D164" s="14">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E164" s="14">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F164" s="14"/>
       <c r="G164" s="14"/>
@@ -5536,16 +5536,16 @@
     </row>
     <row r="165" spans="2:8">
       <c r="B165" s="14">
-        <v>101213</v>
+        <v>101216</v>
       </c>
       <c r="C165" s="14">
-        <v>500017</v>
+        <v>2001</v>
       </c>
       <c r="D165" s="14">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="E165" s="14">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F165" s="14"/>
       <c r="G165" s="14"/>
@@ -5554,870 +5554,922 @@
       </c>
     </row>
     <row r="166" spans="2:8">
-      <c r="B166" s="14">
-        <v>101214</v>
-      </c>
-      <c r="C166" s="14">
-        <v>500018</v>
-      </c>
-      <c r="D166" s="14">
-        <v>1</v>
-      </c>
-      <c r="E166" s="14">
-        <v>1</v>
-      </c>
-      <c r="F166" s="14"/>
-      <c r="G166" s="14"/>
-      <c r="H166" s="14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="167" spans="2:8">
-      <c r="B167" s="14">
-        <v>101215</v>
-      </c>
-      <c r="C167" s="14">
-        <v>500019</v>
-      </c>
-      <c r="D167" s="14">
-        <v>1</v>
-      </c>
-      <c r="E167" s="14">
-        <v>1</v>
-      </c>
-      <c r="F167" s="14"/>
-      <c r="G167" s="14"/>
-      <c r="H167" s="14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="168" spans="2:8">
-      <c r="B168" s="14">
-        <v>101216</v>
-      </c>
-      <c r="C168" s="14">
-        <v>500027</v>
-      </c>
-      <c r="D168" s="14">
-        <v>1</v>
-      </c>
-      <c r="E168" s="14">
-        <v>1</v>
-      </c>
-      <c r="F168" s="14"/>
-      <c r="G168" s="14"/>
-      <c r="H168" s="14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="169" spans="2:8">
-      <c r="B169" s="14">
-        <v>101217</v>
-      </c>
-      <c r="C169" s="14">
-        <v>500028</v>
-      </c>
-      <c r="D169" s="14">
-        <v>1</v>
-      </c>
-      <c r="E169" s="14">
-        <v>1</v>
-      </c>
-      <c r="F169" s="14"/>
-      <c r="G169" s="14"/>
-      <c r="H169" s="14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="170" spans="2:8">
-      <c r="B170" s="7"/>
-      <c r="C170" s="7"/>
-      <c r="D170" s="7"/>
-      <c r="E170" s="7"/>
-      <c r="F170" s="7"/>
-      <c r="G170" s="7"/>
-      <c r="H170" s="7"/>
-    </row>
-    <row r="171" spans="2:2">
-      <c r="B171" s="7"/>
-    </row>
-    <row r="172" spans="2:2">
-      <c r="B172" s="7"/>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174" s="6" t="s">
+      <c r="B166" s="7"/>
+      <c r="C166" s="7"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="7"/>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="7"/>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B170" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C174" s="6" t="s">
+      <c r="C170" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D174" s="6" t="s">
+      <c r="D170" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E174" s="6" t="s">
+      <c r="E170" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F174" s="6" t="s">
+      <c r="F170" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G174" s="6" t="s">
+      <c r="G170" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
-      <c r="A175" s="6" t="s">
+    <row r="171" spans="1:7">
+      <c r="A171" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B175" s="6" t="s">
+      <c r="B171" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C175" s="6" t="s">
+      <c r="C171" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D175" s="6" t="s">
+      <c r="D171" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E175" s="6" t="s">
+      <c r="E171" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F175" s="6" t="s">
+      <c r="F171" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G175" s="6" t="s">
+      <c r="G171" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="176" spans="2:7">
-      <c r="B176" s="6" t="s">
+    <row r="172" spans="2:7">
+      <c r="B172" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C176" s="6" t="s">
+      <c r="C172" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D176" s="6" t="s">
+      <c r="D172" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E176" s="6" t="s">
+      <c r="E172" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F176" s="6" t="s">
+      <c r="F172" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G176" s="6" t="s">
+      <c r="G172" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="2:7">
-      <c r="B177" s="7">
+    <row r="173" spans="2:7">
+      <c r="B173" s="7">
         <v>401101</v>
       </c>
-      <c r="C177" s="5">
+      <c r="C173" s="5">
         <v>322000001</v>
       </c>
-      <c r="D177" s="7">
-        <v>1</v>
-      </c>
-      <c r="E177" s="7">
-        <v>1</v>
-      </c>
-      <c r="F177" s="7">
+      <c r="D173" s="7">
+        <v>1</v>
+      </c>
+      <c r="E173" s="7">
+        <v>1</v>
+      </c>
+      <c r="F173" s="7">
         <v>5</v>
       </c>
-      <c r="G177" s="7">
+      <c r="G173" s="7">
         <v>1250</v>
       </c>
     </row>
-    <row r="178" spans="2:7">
-      <c r="B178" s="7">
+    <row r="174" spans="2:7">
+      <c r="B174" s="7">
         <v>401102</v>
       </c>
-      <c r="C178" s="7">
+      <c r="C174" s="7">
         <v>410101</v>
       </c>
-      <c r="D178" s="7">
-        <v>1</v>
-      </c>
-      <c r="E178" s="7">
-        <v>1</v>
-      </c>
-      <c r="F178" s="7"/>
-      <c r="G178" s="7">
+      <c r="D174" s="7">
+        <v>1</v>
+      </c>
+      <c r="E174" s="7">
+        <v>1</v>
+      </c>
+      <c r="F174" s="7"/>
+      <c r="G174" s="7">
         <v>3000</v>
       </c>
     </row>
-    <row r="179" spans="2:7">
-      <c r="B179" s="7">
+    <row r="175" spans="2:7">
+      <c r="B175" s="7">
         <v>401103</v>
       </c>
-      <c r="C179" s="7">
+      <c r="C175" s="7">
         <v>310101</v>
       </c>
-      <c r="D179" s="7">
-        <v>1</v>
-      </c>
-      <c r="E179" s="7">
-        <v>1</v>
-      </c>
-      <c r="F179" s="7"/>
-      <c r="G179" s="7">
+      <c r="D175" s="7">
+        <v>1</v>
+      </c>
+      <c r="E175" s="7">
+        <v>1</v>
+      </c>
+      <c r="F175" s="7"/>
+      <c r="G175" s="7">
         <v>1250</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
-      <c r="A183" s="1" t="s">
+    <row r="179" spans="1:11">
+      <c r="A179" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B179" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C179" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D179" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E179" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K179" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K180" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="181" spans="2:11">
+      <c r="B181" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K181" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="182" ht="42" customHeight="1" spans="2:14">
+      <c r="B182" s="1">
+        <v>500001</v>
+      </c>
+      <c r="C182" s="1">
+        <v>1</v>
+      </c>
+      <c r="D182" s="1">
+        <v>99</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F182" s="1">
+        <v>19.9</v>
+      </c>
+      <c r="G182" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H182" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I182" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J182" s="15">
+        <v>1</v>
+      </c>
+      <c r="K182" s="1">
+        <v>500001</v>
+      </c>
+      <c r="L182" s="15"/>
+      <c r="N182" s="15"/>
+    </row>
+    <row r="183" ht="32" customHeight="1" spans="2:11">
+      <c r="B183" s="1">
+        <v>500002</v>
+      </c>
+      <c r="C183" s="1">
+        <v>1</v>
+      </c>
+      <c r="D183" s="1">
+        <v>680</v>
+      </c>
       <c r="E183" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F183" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F183" s="1">
+        <v>99</v>
+      </c>
+      <c r="G183" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H183" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I183" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J183" s="1">
+        <v>3</v>
+      </c>
+      <c r="K183" s="1">
+        <v>500002</v>
+      </c>
+    </row>
+    <row r="184" ht="32" customHeight="1" spans="2:18">
+      <c r="B184" s="1">
+        <v>500003</v>
+      </c>
+      <c r="C184" s="1">
+        <v>1</v>
+      </c>
+      <c r="D184" s="1">
+        <v>580</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F184" s="1">
         <v>48</v>
       </c>
-      <c r="G183" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H183" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I183" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J183" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K183" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11">
-      <c r="A184" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G184" s="1" t="s">
+      <c r="G184" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H184" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I184" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J184" s="1">
+        <v>2</v>
+      </c>
+      <c r="K184" s="1">
+        <v>500003</v>
+      </c>
+      <c r="R184" s="15"/>
+    </row>
+    <row r="185" ht="32" customHeight="1" spans="2:11">
+      <c r="B185" s="1">
+        <v>500004</v>
+      </c>
+      <c r="C185" s="1">
+        <v>1</v>
+      </c>
+      <c r="D185" s="1">
+        <v>198</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F185" s="1">
+        <v>19.8</v>
+      </c>
+      <c r="G185" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H185" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I185" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J185" s="1">
+        <v>1</v>
+      </c>
+      <c r="K185" s="1">
+        <v>500004</v>
+      </c>
+    </row>
+    <row r="186" ht="32" customHeight="1" spans="2:11">
+      <c r="B186" s="1">
+        <v>500005</v>
+      </c>
+      <c r="C186" s="1">
+        <v>1</v>
+      </c>
+      <c r="D186" s="1">
+        <v>580</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F186" s="1">
         <v>58</v>
       </c>
-      <c r="H184" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I184" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J184" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K184" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="185" spans="2:11">
-      <c r="B185" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G185" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H185" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I185" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J185" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K185" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="186" ht="42" customHeight="1" spans="2:14">
-      <c r="B186" s="1">
-        <v>500001</v>
-      </c>
-      <c r="C186" s="1">
-        <v>1</v>
-      </c>
-      <c r="D186" s="1">
-        <v>99</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F186" s="1">
-        <v>19.9</v>
-      </c>
       <c r="G186" s="15" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="H186" s="15" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="I186" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="J186" s="15">
-        <v>1</v>
+        <v>79</v>
+      </c>
+      <c r="J186" s="1">
+        <v>3</v>
       </c>
       <c r="K186" s="1">
-        <v>500001</v>
-      </c>
-      <c r="L186" s="15"/>
-      <c r="N186" s="15"/>
+        <v>500005</v>
+      </c>
     </row>
     <row r="187" ht="32" customHeight="1" spans="2:11">
       <c r="B187" s="1">
-        <v>500002</v>
+        <v>500006</v>
       </c>
       <c r="C187" s="1">
         <v>1</v>
       </c>
       <c r="D187" s="1">
-        <v>680</v>
+        <v>1980</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F187" s="1">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="G187" s="15" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H187" s="15" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I187" s="15" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="J187" s="1">
         <v>3</v>
       </c>
       <c r="K187" s="1">
-        <v>500002</v>
-      </c>
-    </row>
-    <row r="188" ht="32" customHeight="1" spans="2:18">
+        <v>500006</v>
+      </c>
+    </row>
+    <row r="188" ht="32" customHeight="1" spans="2:11">
       <c r="B188" s="1">
-        <v>500003</v>
+        <v>500007</v>
       </c>
       <c r="C188" s="1">
         <v>1</v>
       </c>
       <c r="D188" s="1">
-        <v>580</v>
+        <v>150</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F188" s="1">
-        <v>48</v>
-      </c>
-      <c r="G188" s="15" t="s">
-        <v>73</v>
+        <v>20</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="H188" s="15" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I188" s="15" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J188" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K188" s="1">
-        <v>500003</v>
-      </c>
-      <c r="R188" s="15"/>
+        <v>500007</v>
+      </c>
     </row>
     <row r="189" ht="32" customHeight="1" spans="2:11">
       <c r="B189" s="1">
-        <v>500004</v>
+        <v>500008</v>
       </c>
       <c r="C189" s="1">
         <v>1</v>
       </c>
       <c r="D189" s="1">
-        <v>198</v>
+        <v>580</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F189" s="1">
-        <v>19.8</v>
-      </c>
-      <c r="G189" s="15" t="s">
-        <v>77</v>
+        <v>56</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="H189" s="15" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I189" s="15" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J189" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K189" s="1">
-        <v>500004</v>
+        <v>500008</v>
       </c>
     </row>
     <row r="190" ht="32" customHeight="1" spans="2:11">
       <c r="B190" s="1">
-        <v>500005</v>
+        <v>500009</v>
       </c>
       <c r="C190" s="1">
         <v>1</v>
       </c>
       <c r="D190" s="1">
-        <v>580</v>
+        <v>2280</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F190" s="1">
-        <v>58</v>
-      </c>
-      <c r="G190" s="15" t="s">
-        <v>77</v>
+        <v>198</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="H190" s="15" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I190" s="15" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J190" s="1">
         <v>3</v>
       </c>
       <c r="K190" s="1">
-        <v>500005</v>
+        <v>500009</v>
       </c>
     </row>
     <row r="191" ht="32" customHeight="1" spans="2:11">
       <c r="B191" s="1">
-        <v>500006</v>
+        <v>500010</v>
       </c>
       <c r="C191" s="1">
         <v>1</v>
       </c>
       <c r="D191" s="1">
-        <v>1980</v>
+        <v>190</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F191" s="1">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="G191" s="15" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H191" s="15" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I191" s="15" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J191" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K191" s="1">
-        <v>500006</v>
+        <v>500010</v>
       </c>
     </row>
     <row r="192" ht="32" customHeight="1" spans="2:11">
       <c r="B192" s="1">
-        <v>500007</v>
+        <v>500011</v>
       </c>
       <c r="C192" s="1">
         <v>1</v>
       </c>
       <c r="D192" s="1">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F192" s="1">
-        <v>20</v>
-      </c>
-      <c r="G192" s="1" t="s">
-        <v>83</v>
+        <v>58</v>
+      </c>
+      <c r="G192" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="H192" s="15" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I192" s="15" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J192" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K192" s="1">
-        <v>500007</v>
+        <v>500011</v>
       </c>
     </row>
     <row r="193" ht="32" customHeight="1" spans="2:11">
       <c r="B193" s="1">
-        <v>500008</v>
+        <v>500012</v>
       </c>
       <c r="C193" s="1">
         <v>1</v>
       </c>
       <c r="D193" s="1">
-        <v>580</v>
+        <v>2230</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F193" s="1">
-        <v>56</v>
-      </c>
-      <c r="G193" s="1" t="s">
-        <v>83</v>
+        <v>198</v>
+      </c>
+      <c r="G193" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="H193" s="15" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I193" s="15" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J193" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K193" s="1">
-        <v>500008</v>
+        <v>500012</v>
       </c>
     </row>
     <row r="194" ht="32" customHeight="1" spans="2:11">
       <c r="B194" s="1">
-        <v>500009</v>
+        <v>500013</v>
       </c>
       <c r="C194" s="1">
         <v>1</v>
       </c>
       <c r="D194" s="1">
-        <v>2280</v>
+        <v>120</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F194" s="1">
-        <v>198</v>
-      </c>
-      <c r="G194" s="1" t="s">
-        <v>83</v>
+        <v>8</v>
+      </c>
+      <c r="G194" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="H194" s="15" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I194" s="15" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="J194" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K194" s="1">
-        <v>500009</v>
+        <v>500013</v>
       </c>
     </row>
     <row r="195" ht="32" customHeight="1" spans="2:11">
       <c r="B195" s="1">
-        <v>500010</v>
+        <v>500014</v>
       </c>
       <c r="C195" s="1">
         <v>1</v>
       </c>
       <c r="D195" s="1">
-        <v>190</v>
+        <v>680</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F195" s="1">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G195" s="15" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H195" s="15" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I195" s="15" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J195" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K195" s="1">
-        <v>500010</v>
+        <v>500014</v>
       </c>
     </row>
     <row r="196" ht="32" customHeight="1" spans="2:11">
       <c r="B196" s="1">
-        <v>500011</v>
+        <v>500015</v>
       </c>
       <c r="C196" s="1">
         <v>1</v>
       </c>
       <c r="D196" s="1">
-        <v>580</v>
+        <v>1280</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F196" s="1">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="G196" s="15" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H196" s="15" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I196" s="15" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J196" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K196" s="1">
-        <v>500011</v>
+        <v>500015</v>
       </c>
     </row>
     <row r="197" ht="32" customHeight="1" spans="2:11">
       <c r="B197" s="1">
-        <v>500012</v>
+        <v>500016</v>
       </c>
       <c r="C197" s="1">
         <v>1</v>
       </c>
       <c r="D197" s="1">
-        <v>2230</v>
+        <v>350</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F197" s="1">
-        <v>198</v>
+        <v>35</v>
       </c>
       <c r="G197" s="15" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H197" s="15" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="I197" s="15" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="J197" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K197" s="1">
-        <v>500012</v>
+        <v>500016</v>
       </c>
     </row>
     <row r="198" ht="32" customHeight="1" spans="2:11">
       <c r="B198" s="1">
-        <v>500013</v>
+        <v>500017</v>
       </c>
       <c r="C198" s="1">
         <v>1</v>
       </c>
       <c r="D198" s="1">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F198" s="1">
-        <v>8</v>
-      </c>
-      <c r="G198" s="15" t="s">
-        <v>95</v>
+        <v>50</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="H198" s="15" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I198" s="15" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="J198" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K198" s="1">
-        <v>500013</v>
+        <v>500017</v>
       </c>
     </row>
     <row r="199" ht="32" customHeight="1" spans="2:11">
       <c r="B199" s="1">
-        <v>500014</v>
+        <v>500018</v>
       </c>
       <c r="C199" s="1">
         <v>1</v>
       </c>
       <c r="D199" s="1">
-        <v>680</v>
+        <v>500</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F199" s="1">
-        <v>48</v>
-      </c>
-      <c r="G199" s="15" t="s">
-        <v>95</v>
+        <v>50</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="H199" s="15" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="I199" s="15" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="J199" s="1">
         <v>2</v>
       </c>
       <c r="K199" s="1">
-        <v>500014</v>
+        <v>500018</v>
       </c>
     </row>
     <row r="200" ht="32" customHeight="1" spans="2:11">
       <c r="B200" s="1">
-        <v>500015</v>
+        <v>500019</v>
       </c>
       <c r="C200" s="1">
         <v>1</v>
       </c>
       <c r="D200" s="1">
-        <v>1280</v>
+        <v>500</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="F200" s="1">
-        <v>88</v>
-      </c>
-      <c r="G200" s="15" t="s">
-        <v>95</v>
+        <v>50</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="H200" s="15" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="I200" s="15" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="J200" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K200" s="1">
-        <v>500015</v>
+        <v>500019</v>
       </c>
     </row>
     <row r="201" ht="32" customHeight="1" spans="2:11">
       <c r="B201" s="1">
-        <v>500016</v>
+        <v>500020</v>
       </c>
       <c r="C201" s="1">
         <v>1</v>
       </c>
       <c r="D201" s="1">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="F201" s="1">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G201" s="15" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="H201" s="15" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="I201" s="15" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="J201" s="1">
         <v>2</v>
       </c>
       <c r="K201" s="1">
-        <v>500016</v>
+        <v>500020</v>
       </c>
     </row>
     <row r="202" ht="32" customHeight="1" spans="2:11">
       <c r="B202" s="1">
-        <v>500017</v>
+        <v>500021</v>
       </c>
       <c r="C202" s="1">
         <v>1</v>
       </c>
       <c r="D202" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="F202" s="1">
-        <v>50</v>
-      </c>
-      <c r="G202" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
+      </c>
+      <c r="G202" s="15" t="s">
+        <v>121</v>
       </c>
       <c r="H202" s="15" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="I202" s="15" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="J202" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K202" s="1">
-        <v>500017</v>
+        <v>500021</v>
       </c>
     </row>
     <row r="203" ht="32" customHeight="1" spans="2:11">
       <c r="B203" s="1">
-        <v>500018</v>
+        <v>500022</v>
       </c>
       <c r="C203" s="1">
         <v>1</v>
@@ -6426,571 +6478,511 @@
         <v>500</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="F203" s="1">
         <v>50</v>
       </c>
-      <c r="G203" s="1" t="s">
-        <v>109</v>
+      <c r="G203" s="15" t="s">
+        <v>123</v>
       </c>
       <c r="H203" s="15" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="I203" s="15" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="J203" s="1">
         <v>2</v>
       </c>
       <c r="K203" s="1">
-        <v>500018</v>
+        <v>500022</v>
       </c>
     </row>
     <row r="204" ht="32" customHeight="1" spans="2:11">
       <c r="B204" s="1">
-        <v>500019</v>
+        <v>500023</v>
       </c>
       <c r="C204" s="1">
         <v>1</v>
       </c>
       <c r="D204" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="F204" s="1">
-        <v>50</v>
-      </c>
-      <c r="G204" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
+      </c>
+      <c r="G204" s="15" t="s">
+        <v>123</v>
       </c>
       <c r="H204" s="15" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="I204" s="15" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="J204" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K204" s="1">
-        <v>500019</v>
+        <v>500023</v>
       </c>
     </row>
     <row r="205" ht="32" customHeight="1" spans="2:11">
       <c r="B205" s="1">
-        <v>500020</v>
+        <v>500024</v>
       </c>
       <c r="C205" s="1">
         <v>1</v>
       </c>
       <c r="D205" s="1">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="F205" s="1">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G205" s="15" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="H205" s="15" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="I205" s="15" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J205" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K205" s="1">
-        <v>500020</v>
+        <v>500024</v>
       </c>
     </row>
     <row r="206" ht="32" customHeight="1" spans="2:11">
       <c r="B206" s="1">
-        <v>500021</v>
+        <v>500025</v>
       </c>
       <c r="C206" s="1">
         <v>1</v>
       </c>
       <c r="D206" s="1">
-        <v>1000</v>
+        <v>540</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="F206" s="1">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="G206" s="15" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H206" s="15" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="I206" s="15" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J206" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K206" s="1">
-        <v>500021</v>
+        <v>500025</v>
       </c>
     </row>
     <row r="207" ht="32" customHeight="1" spans="2:11">
       <c r="B207" s="1">
-        <v>500022</v>
+        <v>500026</v>
       </c>
       <c r="C207" s="1">
         <v>1</v>
       </c>
       <c r="D207" s="1">
-        <v>500</v>
+        <v>2160</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="F207" s="1">
-        <v>50</v>
+        <v>216</v>
       </c>
       <c r="G207" s="15" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H207" s="15" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I207" s="15" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="J207" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K207" s="1">
-        <v>500022</v>
+        <v>500026</v>
       </c>
     </row>
     <row r="208" ht="32" customHeight="1" spans="2:11">
       <c r="B208" s="1">
-        <v>500023</v>
+        <v>500027</v>
       </c>
       <c r="C208" s="1">
         <v>1</v>
       </c>
       <c r="D208" s="1">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F208" s="1">
-        <v>100</v>
-      </c>
-      <c r="G208" s="15" t="s">
-        <v>123</v>
+        <v>30</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="H208" s="15" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="I208" s="15" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="J208" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K208" s="1">
-        <v>500023</v>
+        <v>500027</v>
       </c>
     </row>
     <row r="209" ht="32" customHeight="1" spans="2:11">
       <c r="B209" s="1">
-        <v>500024</v>
+        <v>500028</v>
       </c>
       <c r="C209" s="1">
         <v>1</v>
       </c>
       <c r="D209" s="1">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F209" s="1">
-        <v>18</v>
-      </c>
-      <c r="G209" s="15" t="s">
-        <v>128</v>
+        <v>30</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="H209" s="15" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="I209" s="15" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="J209" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K209" s="1">
-        <v>500024</v>
+        <v>500028</v>
       </c>
     </row>
     <row r="210" ht="32" customHeight="1" spans="2:11">
       <c r="B210" s="1">
-        <v>500025</v>
+        <v>500029</v>
       </c>
       <c r="C210" s="1">
         <v>1</v>
       </c>
       <c r="D210" s="1">
-        <v>540</v>
+        <v>100</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="F210" s="1">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="G210" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="H210" s="15" t="s">
-        <v>129</v>
+        <v>142</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="I210" s="15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="J210" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K210" s="1">
-        <v>500025</v>
+        <v>500029</v>
       </c>
     </row>
     <row r="211" ht="32" customHeight="1" spans="2:11">
       <c r="B211" s="1">
-        <v>500026</v>
+        <v>500030</v>
       </c>
       <c r="C211" s="1">
         <v>1</v>
       </c>
       <c r="D211" s="1">
-        <v>2160</v>
+        <v>100</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="F211" s="1">
-        <v>216</v>
+        <v>10</v>
       </c>
       <c r="G211" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="H211" s="15" t="s">
-        <v>129</v>
+        <v>146</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="I211" s="15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="J211" s="1">
+        <v>1</v>
+      </c>
+      <c r="K211" s="1">
+        <v>500030</v>
+      </c>
+    </row>
+    <row r="212" ht="32" customHeight="1" spans="6:6">
+      <c r="F212" s="15"/>
+    </row>
+    <row r="213" ht="32" customHeight="1" spans="6:6">
+      <c r="F213" s="15"/>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6">
+      <c r="B218" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6">
+      <c r="B219" s="1">
+        <v>600101</v>
+      </c>
+      <c r="C219" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D219" s="1">
+        <v>2</v>
+      </c>
+      <c r="E219" s="1">
+        <v>1</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6">
+      <c r="B220" s="1">
+        <v>600401</v>
+      </c>
+      <c r="C220" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D220" s="1">
+        <v>1</v>
+      </c>
+      <c r="E220" s="1">
+        <v>1</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6">
+      <c r="B227" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6">
+      <c r="B228" s="1">
+        <v>1</v>
+      </c>
+      <c r="C228" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D228" s="1">
+        <v>1</v>
+      </c>
+      <c r="E228" s="1">
+        <v>1</v>
+      </c>
+      <c r="F228" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6">
+      <c r="B229" s="1">
+        <v>2</v>
+      </c>
+      <c r="C229" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D229" s="1">
+        <v>1</v>
+      </c>
+      <c r="E229" s="1">
+        <v>1</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6">
+      <c r="B230" s="1">
         <v>3</v>
       </c>
-      <c r="K211" s="1">
-        <v>500026</v>
-      </c>
-    </row>
-    <row r="212" ht="32" customHeight="1" spans="2:11">
-      <c r="B212" s="1">
-        <v>500027</v>
-      </c>
-      <c r="C212" s="1">
-        <v>1</v>
-      </c>
-      <c r="D212" s="1">
-        <v>300</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F212" s="1">
-        <v>30</v>
-      </c>
-      <c r="G212" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H212" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="I212" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="J212" s="1">
-        <v>2</v>
-      </c>
-      <c r="K212" s="1">
-        <v>500027</v>
-      </c>
-    </row>
-    <row r="213" ht="32" customHeight="1" spans="2:11">
-      <c r="B213" s="1">
-        <v>500028</v>
-      </c>
-      <c r="C213" s="1">
-        <v>1</v>
-      </c>
-      <c r="D213" s="1">
-        <v>300</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F213" s="1">
-        <v>30</v>
-      </c>
-      <c r="G213" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H213" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="I213" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="J213" s="1">
-        <v>2</v>
-      </c>
-      <c r="K213" s="1">
-        <v>500028</v>
-      </c>
-    </row>
-    <row r="214" ht="32" customHeight="1" spans="2:11">
-      <c r="B214" s="1">
-        <v>500029</v>
-      </c>
-      <c r="C214" s="1">
-        <v>1</v>
-      </c>
-      <c r="D214" s="1">
-        <v>100</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F214" s="1">
-        <v>10</v>
-      </c>
-      <c r="G214" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="H214" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I214" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="J214" s="1">
-        <v>1</v>
-      </c>
-      <c r="K214" s="1">
-        <v>500029</v>
-      </c>
-    </row>
-    <row r="215" ht="32" customHeight="1" spans="2:11">
-      <c r="B215" s="1">
-        <v>500030</v>
-      </c>
-      <c r="C215" s="1">
-        <v>1</v>
-      </c>
-      <c r="D215" s="1">
-        <v>100</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F215" s="1">
-        <v>10</v>
-      </c>
-      <c r="G215" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="H215" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I215" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="J215" s="1">
-        <v>1</v>
-      </c>
-      <c r="K215" s="1">
-        <v>500030</v>
-      </c>
-    </row>
-    <row r="216" ht="32" customHeight="1" spans="6:6">
-      <c r="F216" s="15"/>
-    </row>
-    <row r="217" ht="32" customHeight="1" spans="6:6">
-      <c r="F217" s="15"/>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E220" s="1" t="s">
+      <c r="C230" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D230" s="1">
+        <v>1</v>
+      </c>
+      <c r="E230" s="1">
+        <v>1</v>
+      </c>
+      <c r="F230" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6">
+      <c r="B231" s="1">
         <v>4</v>
       </c>
-      <c r="F220" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E221" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F221" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="222" spans="2:6">
-      <c r="B222" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F222" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="223" spans="2:6">
-      <c r="B223" s="1">
-        <v>600101</v>
-      </c>
-      <c r="C223" s="1">
+      <c r="C231" s="1">
         <v>2001</v>
       </c>
-      <c r="D223" s="1">
-        <v>2</v>
-      </c>
-      <c r="E223" s="1">
-        <v>1</v>
-      </c>
-      <c r="F223" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="224" spans="2:6">
-      <c r="B224" s="1">
-        <v>600401</v>
-      </c>
-      <c r="C224" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D224" s="1">
-        <v>1</v>
-      </c>
-      <c r="E224" s="1">
-        <v>1</v>
-      </c>
-      <c r="F224" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="A229" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F229" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
-      <c r="A230" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F230" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="231" spans="2:6">
-      <c r="B231" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F231" s="1" t="s">
-        <v>63</v>
+      <c r="D231" s="1">
+        <v>1</v>
+      </c>
+      <c r="E231" s="1">
+        <v>1</v>
+      </c>
+      <c r="F231" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="232" spans="2:6">
       <c r="B232" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C232" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D232" s="1">
         <v>1</v>
@@ -6998,16 +6990,16 @@
       <c r="E232" s="1">
         <v>1</v>
       </c>
-      <c r="F232" s="16" t="s">
-        <v>157</v>
+      <c r="F232" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="233" spans="2:6">
       <c r="B233" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C233" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D233" s="1">
         <v>1</v>
@@ -7015,16 +7007,16 @@
       <c r="E233" s="1">
         <v>1</v>
       </c>
-      <c r="F233" s="1" t="s">
-        <v>158</v>
+      <c r="F233" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="234" spans="2:6">
       <c r="B234" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C234" s="1">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D234" s="1">
         <v>1</v>
@@ -7032,13 +7024,13 @@
       <c r="E234" s="1">
         <v>1</v>
       </c>
-      <c r="F234" s="16" t="s">
-        <v>157</v>
+      <c r="F234" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="235" spans="2:6">
       <c r="B235" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C235" s="1">
         <v>2001</v>
@@ -7055,7 +7047,7 @@
     </row>
     <row r="236" spans="2:6">
       <c r="B236" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C236" s="1">
         <v>2002</v>
@@ -7072,10 +7064,10 @@
     </row>
     <row r="237" spans="2:6">
       <c r="B237" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C237" s="1">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D237" s="1">
         <v>1</v>
@@ -7083,16 +7075,16 @@
       <c r="E237" s="1">
         <v>1</v>
       </c>
-      <c r="F237" s="16" t="s">
-        <v>157</v>
+      <c r="F237" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="238" spans="2:6">
       <c r="B238" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C238" s="1">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D238" s="1">
         <v>1</v>
@@ -7101,15 +7093,15 @@
         <v>1</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="239" spans="2:6">
       <c r="B239" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C239" s="1">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D239" s="1">
         <v>1</v>
@@ -7117,13 +7109,13 @@
       <c r="E239" s="1">
         <v>1</v>
       </c>
-      <c r="F239" s="16" t="s">
-        <v>157</v>
+      <c r="F239" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="240" spans="2:6">
       <c r="B240" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C240" s="1">
         <v>2002</v>
@@ -7140,7 +7132,7 @@
     </row>
     <row r="241" spans="2:6">
       <c r="B241" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C241" s="1">
         <v>2003</v>
@@ -7157,149 +7149,149 @@
     </row>
     <row r="242" spans="2:6">
       <c r="B242" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C242" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D242" s="1">
+        <v>1</v>
+      </c>
+      <c r="E242" s="1">
+        <v>1</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="247" spans="2:6">
+      <c r="B247" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="248" spans="2:6">
+      <c r="B248" s="1">
+        <v>1</v>
+      </c>
+      <c r="C248" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D248" s="1">
+        <v>1</v>
+      </c>
+      <c r="E248" s="1">
+        <v>1</v>
+      </c>
+      <c r="F248" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="249" spans="2:6">
+      <c r="B249" s="1">
+        <v>2</v>
+      </c>
+      <c r="C249" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D249" s="1">
+        <v>1</v>
+      </c>
+      <c r="E249" s="1">
+        <v>1</v>
+      </c>
+      <c r="F249" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6">
+      <c r="B250" s="1">
+        <v>3</v>
+      </c>
+      <c r="C250" s="1">
         <v>2002</v>
       </c>
-      <c r="D242" s="1">
-        <v>1</v>
-      </c>
-      <c r="E242" s="1">
-        <v>1</v>
-      </c>
-      <c r="F242" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="243" spans="2:6">
-      <c r="B243" s="1">
-        <v>12</v>
-      </c>
-      <c r="C243" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D243" s="1">
-        <v>1</v>
-      </c>
-      <c r="E243" s="1">
-        <v>1</v>
-      </c>
-      <c r="F243" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="244" spans="2:6">
-      <c r="B244" s="1">
-        <v>13</v>
-      </c>
-      <c r="C244" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D244" s="1">
-        <v>1</v>
-      </c>
-      <c r="E244" s="1">
-        <v>1</v>
-      </c>
-      <c r="F244" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="245" spans="2:6">
-      <c r="B245" s="1">
-        <v>14</v>
-      </c>
-      <c r="C245" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D245" s="1">
-        <v>1</v>
-      </c>
-      <c r="E245" s="1">
-        <v>1</v>
-      </c>
-      <c r="F245" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="246" spans="2:6">
-      <c r="B246" s="1">
-        <v>15</v>
-      </c>
-      <c r="C246" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D246" s="1">
-        <v>1</v>
-      </c>
-      <c r="E246" s="1">
-        <v>1</v>
-      </c>
-      <c r="F246" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6">
-      <c r="A249" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E249" s="1" t="s">
+      <c r="D250" s="1">
+        <v>1</v>
+      </c>
+      <c r="E250" s="1">
+        <v>1</v>
+      </c>
+      <c r="F250" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="251" spans="2:6">
+      <c r="B251" s="1">
         <v>4</v>
       </c>
-      <c r="F249" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6">
-      <c r="A250" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F250" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="251" spans="2:6">
-      <c r="B251" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F251" s="1" t="s">
-        <v>63</v>
+      <c r="C251" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D251" s="1">
+        <v>1</v>
+      </c>
+      <c r="E251" s="1">
+        <v>1</v>
+      </c>
+      <c r="F251" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="252" spans="2:6">
       <c r="B252" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C252" s="1">
         <v>2001</v>
@@ -7316,10 +7308,10 @@
     </row>
     <row r="253" spans="2:6">
       <c r="B253" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C253" s="1">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D253" s="1">
         <v>1</v>
@@ -7328,15 +7320,15 @@
         <v>1</v>
       </c>
       <c r="F253" s="16" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="254" spans="2:6">
       <c r="B254" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C254" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D254" s="1">
         <v>1</v>
@@ -7345,12 +7337,12 @@
         <v>1</v>
       </c>
       <c r="F254" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="255" spans="2:6">
       <c r="B255" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C255" s="1">
         <v>2001</v>
@@ -7367,27 +7359,27 @@
     </row>
     <row r="256" spans="2:6">
       <c r="B256" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C256" s="1">
         <v>2001</v>
       </c>
       <c r="D256" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E256" s="1">
         <v>1</v>
       </c>
       <c r="F256" s="16" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="257" spans="2:6">
       <c r="B257" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C257" s="1">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D257" s="1">
         <v>1</v>
@@ -7396,12 +7388,12 @@
         <v>1</v>
       </c>
       <c r="F257" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="258" spans="2:6">
       <c r="B258" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C258" s="1">
         <v>2001</v>
@@ -7418,41 +7410,41 @@
     </row>
     <row r="259" spans="2:6">
       <c r="B259" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C259" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D259" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E259" s="1">
         <v>1</v>
       </c>
       <c r="F259" s="16" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="260" spans="2:6">
       <c r="B260" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C260" s="1">
         <v>2001</v>
       </c>
       <c r="D260" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E260" s="1">
         <v>1</v>
       </c>
       <c r="F260" s="16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="261" spans="2:6">
       <c r="B261" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C261" s="1">
         <v>2001</v>
@@ -7469,44 +7461,44 @@
     </row>
     <row r="262" spans="2:6">
       <c r="B262" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C262" s="1">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D262" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E262" s="1">
         <v>1</v>
       </c>
       <c r="F262" s="16" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="263" spans="2:6">
       <c r="B263" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C263" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D263" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E263" s="1">
         <v>1</v>
       </c>
       <c r="F263" s="16" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="264" spans="2:6">
       <c r="B264" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C264" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D264" s="1">
         <v>1</v>
@@ -7515,307 +7507,319 @@
         <v>1</v>
       </c>
       <c r="F264" s="16" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="265" spans="2:6">
       <c r="B265" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C265" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D265" s="1">
+        <v>1</v>
+      </c>
+      <c r="E265" s="1">
+        <v>1</v>
+      </c>
+      <c r="F265" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="270" spans="2:5">
+      <c r="B270" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5">
+      <c r="B271" s="1">
+        <v>1</v>
+      </c>
+      <c r="C271" s="1">
         <v>2001</v>
       </c>
-      <c r="D265" s="1">
-        <v>1</v>
-      </c>
-      <c r="E265" s="1">
-        <v>1</v>
-      </c>
-      <c r="F265" s="16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="266" spans="2:6">
-      <c r="B266" s="1">
-        <v>15</v>
-      </c>
-      <c r="C266" s="1">
+      <c r="D271" s="1">
+        <v>1</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5">
+      <c r="B272" s="1">
+        <v>2</v>
+      </c>
+      <c r="C272" s="1">
+        <v>5001</v>
+      </c>
+      <c r="D272" s="1">
+        <v>10</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="273" spans="2:5">
+      <c r="B273" s="1">
+        <v>3</v>
+      </c>
+      <c r="C273" s="1">
+        <v>100701</v>
+      </c>
+      <c r="D273" s="1">
+        <v>1</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5">
+      <c r="B274" s="1">
+        <v>4</v>
+      </c>
+      <c r="C274" s="1">
+        <v>101001</v>
+      </c>
+      <c r="D274" s="1">
+        <v>1</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G277" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="279" spans="2:7">
+      <c r="B279" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="280" spans="2:7">
+      <c r="B280" s="1">
+        <v>1</v>
+      </c>
+      <c r="C280" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D280" s="1">
+        <v>1</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G280" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="2:7">
+      <c r="B281" s="1">
+        <v>2</v>
+      </c>
+      <c r="C281" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D281" s="1">
+        <v>1</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G281" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="2:7">
+      <c r="B282" s="1">
+        <v>3</v>
+      </c>
+      <c r="C282" s="1">
         <v>2003</v>
       </c>
-      <c r="D266" s="1">
-        <v>2</v>
-      </c>
-      <c r="E266" s="1">
-        <v>1</v>
-      </c>
-      <c r="F266" s="16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="267" spans="2:6">
-      <c r="B267" s="1">
-        <v>16</v>
-      </c>
-      <c r="C267" s="1">
+      <c r="D282" s="1">
+        <v>1</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G282" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="2:7">
+      <c r="B283" s="1">
+        <v>4</v>
+      </c>
+      <c r="C283" s="1">
         <v>2001</v>
       </c>
-      <c r="D267" s="1">
-        <v>1</v>
-      </c>
-      <c r="E267" s="1">
-        <v>1</v>
-      </c>
-      <c r="F267" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="268" spans="2:6">
-      <c r="B268" s="1">
-        <v>17</v>
-      </c>
-      <c r="C268" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D268" s="1">
-        <v>1</v>
-      </c>
-      <c r="E268" s="1">
-        <v>1</v>
-      </c>
-      <c r="F268" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="269" spans="2:6">
-      <c r="B269" s="1">
-        <v>18</v>
-      </c>
-      <c r="C269" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D269" s="1">
-        <v>1</v>
-      </c>
-      <c r="E269" s="1">
-        <v>1</v>
-      </c>
-      <c r="F269" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
-      <c r="A272" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
-      <c r="A273" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="274" spans="2:5">
-      <c r="B274" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="275" spans="2:5">
-      <c r="B275" s="1">
-        <v>1</v>
-      </c>
-      <c r="C275" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D275" s="1">
-        <v>1</v>
-      </c>
-      <c r="E275" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="276" spans="2:5">
-      <c r="B276" s="1">
-        <v>2</v>
-      </c>
-      <c r="C276" s="1">
-        <v>5001</v>
-      </c>
-      <c r="D276" s="1">
-        <v>10</v>
-      </c>
-      <c r="E276" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="277" spans="2:5">
-      <c r="B277" s="1">
-        <v>3</v>
-      </c>
-      <c r="C277" s="1">
-        <v>100701</v>
-      </c>
-      <c r="D277" s="1">
-        <v>1</v>
-      </c>
-      <c r="E277" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="278" spans="2:5">
-      <c r="B278" s="1">
-        <v>4</v>
-      </c>
-      <c r="C278" s="1">
-        <v>101001</v>
-      </c>
-      <c r="D278" s="1">
-        <v>1</v>
-      </c>
-      <c r="E278" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7">
-      <c r="A281" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D281" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F281" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G281" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7">
-      <c r="A282" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E282" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F282" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G282" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="283" spans="2:7">
-      <c r="B283" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D283" s="1" t="s">
-        <v>12</v>
+      <c r="D283" s="1">
+        <v>1</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G283" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
+      </c>
+      <c r="G283" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="2:7">
       <c r="B284" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C284" s="1">
-        <v>2001</v>
+        <v>9527</v>
       </c>
       <c r="D284" s="1">
         <v>1</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>185</v>
       </c>
       <c r="G284" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="2:7">
       <c r="B285" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C285" s="1">
-        <v>2002</v>
+        <v>9527</v>
       </c>
       <c r="D285" s="1">
         <v>1</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>185</v>
       </c>
       <c r="G285" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="2:7">
       <c r="B286" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C286" s="1">
         <v>2003</v>
@@ -7824,92 +7828,12 @@
         <v>1</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>185</v>
       </c>
       <c r="G286" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="2:7">
-      <c r="B287" s="1">
-        <v>4</v>
-      </c>
-      <c r="C287" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D287" s="1">
-        <v>1</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F287" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G287" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="2:7">
-      <c r="B288" s="1">
-        <v>5</v>
-      </c>
-      <c r="C288" s="1">
-        <v>9527</v>
-      </c>
-      <c r="D288" s="1">
-        <v>1</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F288" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G288" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="2:7">
-      <c r="B289" s="1">
-        <v>6</v>
-      </c>
-      <c r="C289" s="1">
-        <v>9527</v>
-      </c>
-      <c r="D289" s="1">
-        <v>1</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F289" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G289" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="2:7">
-      <c r="B290" s="1">
-        <v>7</v>
-      </c>
-      <c r="C290" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D290" s="1">
-        <v>1</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F290" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G290" s="1" t="b">
         <v>0</v>
       </c>
     </row>

--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -1461,9 +1461,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -1499,7 +1499,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1512,22 +1520,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1541,6 +1536,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -1548,9 +1603,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1572,22 +1634,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1596,50 +1642,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1650,11 +1655,6 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1727,13 +1727,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1751,7 +1775,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1769,7 +1865,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1781,19 +1889,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1805,109 +1907,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1936,6 +1936,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1945,17 +1960,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1975,30 +1984,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2013,8 +1998,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2026,10 +2026,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2038,133 +2038,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2570,8 +2570,8 @@
   <sheetPr/>
   <dimension ref="A3:R286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4809,7 +4809,7 @@
         <v>101010</v>
       </c>
       <c r="C127" s="12">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="D127" s="12">
         <v>10</v>
@@ -4828,7 +4828,7 @@
         <v>101011</v>
       </c>
       <c r="C128" s="12">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="D128" s="12">
         <v>20</v>
@@ -4847,7 +4847,7 @@
         <v>101012</v>
       </c>
       <c r="C129" s="12">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="D129" s="12">
         <v>50</v>

--- a/src/earn/xlsx/awardCfg.xlsx
+++ b/src/earn/xlsx/awardCfg.xlsx
@@ -766,7 +766,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="194">
   <si>
     <t>挖矿暴击权重配置表</t>
   </si>
@@ -1455,16 +1455,22 @@
   <si>
     <t>首次充值成功</t>
   </si>
+  <si>
+    <t>绑定手机号</t>
+  </si>
+  <si>
+    <t>绑定手机号成功</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1498,8 +1504,74 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1513,21 +1585,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1536,24 +1593,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1567,23 +1633,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1596,57 +1648,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1655,6 +1656,11 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1727,43 +1733,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1781,13 +1769,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1799,13 +1781,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1823,13 +1799,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1841,13 +1829,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1865,7 +1871,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1877,19 +1895,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1901,13 +1913,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1918,6 +1924,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1932,6 +1958,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1960,15 +2010,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1983,41 +2024,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2026,10 +2032,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2038,19 +2044,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2059,112 +2065,112 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2568,10 +2574,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:R286"/>
+  <dimension ref="A3:R287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
+      <selection activeCell="F287" sqref="F287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7837,6 +7843,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="287" spans="2:7">
+      <c r="B287" s="1">
+        <v>8</v>
+      </c>
+      <c r="C287" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D287" s="1">
+        <v>1</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G287" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
